--- a/webform_testing.xlsx
+++ b/webform_testing.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="568">
   <si>
     <t>Требования к
 https://itcareer.pythonanywhere.com/</t>
@@ -1892,6 +1892,152 @@
   </si>
   <si>
     <t>Ввод в поле Password 1 млн. символов</t>
+  </si>
+  <si>
+    <t>Переход к следующему полю, кликом мышью</t>
+  </si>
+  <si>
+    <t>1. Кликнуть на поля Name, Surname, Email, Password 
+левой кнопкой мыши</t>
+  </si>
+  <si>
+    <t>Поле подсвечивается голубой тенью,
+ курсор мигает</t>
+  </si>
+  <si>
+    <t>Переход к следующему полю, клавишей "Tab"</t>
+  </si>
+  <si>
+    <t>1. Кликнуть на поле Name
+2. Нажать "Tab"</t>
+  </si>
+  <si>
+    <t>Очистка поля клавишей "Delete"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Заполнить поле Name: Test
+2. Выделить текст
+3.Нажать клавишу "Delete"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Удаляет содержимое поля, появляется  плейсхолдер </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Заполнить поле Name: Test
+2. Выделить текст
+3.Нажать клавишу "Backspace"
+</t>
+  </si>
+  <si>
+    <t>Очистка поля клавишей "Backspace"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Валидация при нажатии кнопки "Submit" </t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Testovich
+Email:testing@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>При наведении кнопка меняет цвет, появляется курсорпоинтер, при клике отправляет данные на сервер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Валидация при нажатии клавишей "Enter" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Кликнуть на кнопку  "Submit"
+</t>
+  </si>
+  <si>
+    <t>Нажатии на клавишу отправляет данные на сервер</t>
+  </si>
+  <si>
+    <t>Проверить вход пользователя с корректными данными</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Нажать на клавишу "Enter"
+</t>
+  </si>
+  <si>
+    <t>Проверить вход пользователя с отправкой всех пустых полей</t>
+  </si>
+  <si>
+    <t>TC-36</t>
+  </si>
+  <si>
+    <t>TC-37</t>
+  </si>
+  <si>
+    <t>TC-38</t>
+  </si>
+  <si>
+    <t>TC-39</t>
+  </si>
+  <si>
+    <t>TC-40</t>
+  </si>
+  <si>
+    <t>TC-41</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Email:testing@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Testovich
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Testovich
+Email:testing@mail.ru</t>
+  </si>
+  <si>
+    <r>
+      <t>Под кнопкой "Submit" отображается сообщение "Success Hello:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Test  Testovich</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"  в голубой рамке</t>
+    </r>
+  </si>
+  <si>
+    <t>TC-42</t>
+  </si>
+  <si>
+    <t>TC-43</t>
+  </si>
+  <si>
+    <t>TC-44</t>
+  </si>
+  <si>
+    <t>TC-45</t>
   </si>
 </sst>
 </file>
@@ -1953,7 +2099,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1999,6 +2145,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2245,7 +2397,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2383,6 +2535,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2434,21 +2602,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3103,8 +3265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3115,11 +3277,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
@@ -3136,7 +3298,7 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="69" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -3147,7 +3309,7 @@
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="64"/>
+      <c r="B4" s="70"/>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
@@ -3156,7 +3318,7 @@
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="64"/>
+      <c r="B5" s="70"/>
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
@@ -3165,7 +3327,7 @@
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="65"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
@@ -3174,7 +3336,7 @@
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="72" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -3185,7 +3347,7 @@
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="64"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
@@ -3194,7 +3356,7 @@
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="65"/>
+      <c r="B9" s="71"/>
       <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
@@ -3247,10 +3409,10 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="56"/>
+      <c r="C14" s="62"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -3268,7 +3430,7 @@
       <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="72" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -3279,7 +3441,7 @@
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="64"/>
+      <c r="B17" s="70"/>
       <c r="C17" s="4" t="s">
         <v>39</v>
       </c>
@@ -3288,7 +3450,7 @@
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="65"/>
+      <c r="B18" s="71"/>
       <c r="C18" s="4" t="s">
         <v>41</v>
       </c>
@@ -3297,7 +3459,7 @@
       <c r="A19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="73" t="s">
         <v>43</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -3308,7 +3470,7 @@
       <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="67"/>
+      <c r="B20" s="73"/>
       <c r="C20" s="4" t="s">
         <v>46</v>
       </c>
@@ -3317,7 +3479,7 @@
       <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="67"/>
+      <c r="B21" s="73"/>
       <c r="C21" s="4" t="s">
         <v>48</v>
       </c>
@@ -3326,7 +3488,7 @@
       <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="67"/>
+      <c r="B22" s="73"/>
       <c r="C22" s="4" t="s">
         <v>50</v>
       </c>
@@ -3641,10 +3803,10 @@
     </row>
     <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
-      <c r="B51" s="53" t="s">
+      <c r="B51" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="C51" s="54"/>
+      <c r="C51" s="60"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -3758,10 +3920,10 @@
     </row>
     <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12"/>
-      <c r="B62" s="55" t="s">
+      <c r="B62" s="61" t="s">
         <v>156</v>
       </c>
-      <c r="C62" s="56"/>
+      <c r="C62" s="62"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -3875,10 +4037,10 @@
     </row>
     <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="14"/>
-      <c r="B73" s="57" t="s">
+      <c r="B73" s="63" t="s">
         <v>169</v>
       </c>
-      <c r="C73" s="58"/>
+      <c r="C73" s="64"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
@@ -4003,10 +4165,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="15"/>
-      <c r="B85" s="59" t="s">
+      <c r="B85" s="65" t="s">
         <v>188</v>
       </c>
-      <c r="C85" s="60"/>
+      <c r="C85" s="66"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
@@ -4157,11 +4319,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="75" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
@@ -4169,11 +4331,11 @@
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="75" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
@@ -4181,16 +4343,16 @@
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="74" t="s">
         <v>265</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
     </row>
     <row r="4" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
@@ -4323,16 +4485,16 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="74" t="s">
         <v>284</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
     </row>
     <row r="10" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
@@ -4439,16 +4601,16 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="74" t="s">
         <v>293</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
     </row>
     <row r="15" spans="1:8" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
@@ -4737,16 +4899,16 @@
       </c>
     </row>
     <row r="26" spans="1:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="74" t="s">
         <v>325</v>
       </c>
-      <c r="B26" s="68"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
     </row>
     <row r="27" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
@@ -5203,11 +5365,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="75" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
@@ -5215,11 +5377,11 @@
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="75" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
@@ -5227,16 +5389,16 @@
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="74" t="s">
         <v>345</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
     </row>
     <row r="4" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
@@ -5421,16 +5583,16 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="74" t="s">
         <v>358</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
     </row>
     <row r="12" spans="1:8" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
@@ -5589,16 +5751,16 @@
       </c>
     </row>
     <row r="18" spans="1:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="74" t="s">
         <v>394</v>
       </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
     </row>
     <row r="19" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
@@ -6338,16 +6500,16 @@
       <c r="CE36" s="34"/>
     </row>
     <row r="37" spans="1:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="74" t="s">
         <v>325</v>
       </c>
-      <c r="B37" s="68"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="74"/>
       <c r="K37" s="34"/>
       <c r="N37" s="34"/>
       <c r="Q37" s="34"/>
@@ -6651,8 +6813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34:J34"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6663,23 +6825,22 @@
     <col min="5" max="5" width="30" customWidth="1"/>
     <col min="6" max="6" width="35.28515625" customWidth="1"/>
     <col min="7" max="7" width="28.5703125" customWidth="1"/>
-    <col min="8" max="8" width="35.28515625" customWidth="1"/>
-    <col min="9" max="9" width="37.140625" customWidth="1"/>
+    <col min="8" max="9" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="75" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="75" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
@@ -7373,10 +7534,10 @@
       <c r="G25" s="44" t="s">
         <v>522</v>
       </c>
-      <c r="H25" s="70" t="s">
+      <c r="H25" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="I25" s="71" t="s">
+      <c r="I25" s="54" t="s">
         <v>65</v>
       </c>
       <c r="J25" s="49" t="s">
@@ -7402,10 +7563,10 @@
       <c r="G26" s="44" t="s">
         <v>523</v>
       </c>
-      <c r="H26" s="70" t="s">
+      <c r="H26" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="I26" s="71" t="s">
+      <c r="I26" s="54" t="s">
         <v>65</v>
       </c>
       <c r="J26" s="49" t="s">
@@ -7425,19 +7586,19 @@
       <c r="E27" s="24" t="s">
         <v>520</v>
       </c>
-      <c r="F27" s="72" t="s">
+      <c r="F27" s="55" t="s">
         <v>465</v>
       </c>
-      <c r="G27" s="73" t="s">
+      <c r="G27" s="56" t="s">
         <v>524</v>
       </c>
-      <c r="H27" s="70" t="s">
+      <c r="H27" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="I27" s="71" t="s">
+      <c r="I27" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="J27" s="74" t="s">
+      <c r="J27" s="57" t="s">
         <v>279</v>
       </c>
     </row>
@@ -7480,7 +7641,7 @@
       <c r="D29" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="75" t="s">
+      <c r="E29" s="58" t="s">
         <v>67</v>
       </c>
       <c r="F29" s="35" t="s">
@@ -7619,41 +7780,343 @@
       <c r="A34" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>105</v>
+      <c r="C34" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>535</v>
+      </c>
+      <c r="F34" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>536</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>537</v>
+      </c>
+      <c r="I34" s="24" t="s">
+        <v>537</v>
+      </c>
+      <c r="J34" s="49" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C39" s="34"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C40" s="34"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C41" s="34"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C42" s="34"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C43" s="34"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C44" s="34"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C45" s="34"/>
+      <c r="C35" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>538</v>
+      </c>
+      <c r="F35" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>539</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>537</v>
+      </c>
+      <c r="I35" s="24" t="s">
+        <v>537</v>
+      </c>
+      <c r="J35" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="33" t="s">
+        <v>554</v>
+      </c>
+      <c r="C36" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="77" t="s">
+        <v>540</v>
+      </c>
+      <c r="F36" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="G36" s="36" t="s">
+        <v>541</v>
+      </c>
+      <c r="H36" s="78" t="s">
+        <v>542</v>
+      </c>
+      <c r="I36" s="78" t="s">
+        <v>542</v>
+      </c>
+      <c r="J36" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="33" t="s">
+        <v>555</v>
+      </c>
+      <c r="C37" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="77" t="s">
+        <v>544</v>
+      </c>
+      <c r="G37" s="36" t="s">
+        <v>543</v>
+      </c>
+      <c r="H37" s="78" t="s">
+        <v>542</v>
+      </c>
+      <c r="I37" s="78" t="s">
+        <v>542</v>
+      </c>
+      <c r="J37" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="33" t="s">
+        <v>556</v>
+      </c>
+      <c r="C38" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="77" t="s">
+        <v>545</v>
+      </c>
+      <c r="F38" s="36" t="s">
+        <v>546</v>
+      </c>
+      <c r="G38" s="36" t="s">
+        <v>549</v>
+      </c>
+      <c r="H38" s="78" t="s">
+        <v>547</v>
+      </c>
+      <c r="I38" s="78" t="s">
+        <v>547</v>
+      </c>
+      <c r="J38" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="33" t="s">
+        <v>557</v>
+      </c>
+      <c r="C39" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="77" t="s">
+        <v>548</v>
+      </c>
+      <c r="F39" s="36" t="s">
+        <v>546</v>
+      </c>
+      <c r="G39" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="H39" s="78" t="s">
+        <v>550</v>
+      </c>
+      <c r="I39" s="78" t="s">
+        <v>550</v>
+      </c>
+      <c r="J39" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="33" t="s">
+        <v>558</v>
+      </c>
+      <c r="C40" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="77" t="s">
+        <v>551</v>
+      </c>
+      <c r="F40" s="36" t="s">
+        <v>546</v>
+      </c>
+      <c r="G40" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="H40" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="I40" s="79" t="s">
+        <v>563</v>
+      </c>
+      <c r="J40" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="33" t="s">
+        <v>559</v>
+      </c>
+      <c r="C41" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="77" t="s">
+        <v>553</v>
+      </c>
+      <c r="G41" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="H41" s="79" t="s">
+        <v>86</v>
+      </c>
+      <c r="I41" s="79" t="s">
+        <v>86</v>
+      </c>
+      <c r="J41" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="33" t="s">
+        <v>564</v>
+      </c>
+      <c r="C42" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>511</v>
+      </c>
+      <c r="G42" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="H42" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="I42" s="79" t="s">
+        <v>86</v>
+      </c>
+      <c r="J42" s="46" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="33" t="s">
+        <v>565</v>
+      </c>
+      <c r="C43" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="F43" s="36" t="s">
+        <v>560</v>
+      </c>
+      <c r="G43" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I43" s="79" t="s">
+        <v>86</v>
+      </c>
+      <c r="J43" s="46" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="33" t="s">
+        <v>566</v>
+      </c>
+      <c r="C44" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="F44" s="36" t="s">
+        <v>561</v>
+      </c>
+      <c r="G44" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I44" s="79" t="s">
+        <v>86</v>
+      </c>
+      <c r="J44" s="46" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="33" t="s">
+        <v>567</v>
+      </c>
+      <c r="C45" s="76" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="F45" s="36" t="s">
+        <v>562</v>
+      </c>
+      <c r="G45" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I45" s="79" t="s">
+        <v>563</v>
+      </c>
+      <c r="J45" s="46" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C46" s="34"/>
@@ -7721,6 +8184,16 @@
     <hyperlink ref="C31" location="Требования!R29C1" display="F-10"/>
     <hyperlink ref="C32" location="Требования!R29C1" display="F-10"/>
     <hyperlink ref="C33" location="Требования!R29C1" display="F-10"/>
+    <hyperlink ref="C34" location="Требования!R30C1" display="F-11"/>
+    <hyperlink ref="C35" location="Требования!R30C1" display="F-11"/>
+    <hyperlink ref="C36" location="Требования!R31C1" display="F-11"/>
+    <hyperlink ref="C37" location="Требования!R31C1" display="F-11"/>
+    <hyperlink ref="C38" location="Требования!R32C1" display="F-11/2"/>
+    <hyperlink ref="C39" location="Требования!R32C1" display="F-11/2"/>
+    <hyperlink ref="C40" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C41" location="Требования!R34C1" display="F-11/2"/>
+    <hyperlink ref="C42" location="Требования!R34C1" display="F-11/2"/>
+    <hyperlink ref="C43:C45" location="Требования!R34C1" display="F-11/2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7746,18 +8219,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="75" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="75" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">

--- a/webform_testing.xlsx
+++ b/webform_testing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Требования" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="574">
   <si>
     <t>Требования к
 https://itcareer.pythonanywhere.com/</t>
@@ -2038,6 +2038,28 @@
   </si>
   <si>
     <t>TC-45</t>
+  </si>
+  <si>
+    <t>Кнопка не изменяет своего состояние , запрос отправляется на сервер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отправка запроса при нажатии клавишей "Enter" </t>
+  </si>
+  <si>
+    <t>Нажатие кнопки "Назад" 
+после валидации</t>
+  </si>
+  <si>
+    <t>1. Нажать на клавишу "Enter"
+2. Нажать кнопку "Назад"</t>
+  </si>
+  <si>
+    <t>Нажатие кнопки "Обновить"  
+при заполненных полях</t>
+  </si>
+  <si>
+    <t>1. Нажать на клавишу "Enter"
+2. Обновить страницу</t>
   </si>
 </sst>
 </file>
@@ -2551,6 +2573,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2601,16 +2633,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3265,8 +3287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58:C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3277,11 +3299,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
@@ -3298,7 +3320,7 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="73" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -3309,7 +3331,7 @@
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="70"/>
+      <c r="B4" s="74"/>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
@@ -3318,7 +3340,7 @@
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="70"/>
+      <c r="B5" s="74"/>
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
@@ -3327,7 +3349,7 @@
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="71"/>
+      <c r="B6" s="75"/>
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
@@ -3336,7 +3358,7 @@
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="76" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -3347,7 +3369,7 @@
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="70"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
@@ -3356,7 +3378,7 @@
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="71"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
@@ -3409,10 +3431,10 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="62"/>
+      <c r="C14" s="66"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -3430,7 +3452,7 @@
       <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="76" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -3441,7 +3463,7 @@
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="70"/>
+      <c r="B17" s="74"/>
       <c r="C17" s="4" t="s">
         <v>39</v>
       </c>
@@ -3450,7 +3472,7 @@
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="71"/>
+      <c r="B18" s="75"/>
       <c r="C18" s="4" t="s">
         <v>41</v>
       </c>
@@ -3459,7 +3481,7 @@
       <c r="A19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="77" t="s">
         <v>43</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -3470,7 +3492,7 @@
       <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="73"/>
+      <c r="B20" s="77"/>
       <c r="C20" s="4" t="s">
         <v>46</v>
       </c>
@@ -3479,7 +3501,7 @@
       <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="73"/>
+      <c r="B21" s="77"/>
       <c r="C21" s="4" t="s">
         <v>48</v>
       </c>
@@ -3488,7 +3510,7 @@
       <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="73"/>
+      <c r="B22" s="77"/>
       <c r="C22" s="4" t="s">
         <v>50</v>
       </c>
@@ -3803,10 +3825,10 @@
     </row>
     <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
-      <c r="B51" s="59" t="s">
+      <c r="B51" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="C51" s="60"/>
+      <c r="C51" s="64"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -3920,10 +3942,10 @@
     </row>
     <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12"/>
-      <c r="B62" s="61" t="s">
+      <c r="B62" s="65" t="s">
         <v>156</v>
       </c>
-      <c r="C62" s="62"/>
+      <c r="C62" s="66"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -4037,10 +4059,10 @@
     </row>
     <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="14"/>
-      <c r="B73" s="63" t="s">
+      <c r="B73" s="67" t="s">
         <v>169</v>
       </c>
-      <c r="C73" s="64"/>
+      <c r="C73" s="68"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
@@ -4165,10 +4187,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="15"/>
-      <c r="B85" s="65" t="s">
+      <c r="B85" s="69" t="s">
         <v>188</v>
       </c>
-      <c r="C85" s="66"/>
+      <c r="C85" s="70"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
@@ -4319,11 +4341,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="79" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
@@ -4331,11 +4353,11 @@
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="79" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
@@ -4343,16 +4365,16 @@
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="78" t="s">
         <v>265</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
     </row>
     <row r="4" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
@@ -4485,16 +4507,16 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="78" t="s">
         <v>284</v>
       </c>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
     </row>
     <row r="10" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
@@ -4601,16 +4623,16 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="78" t="s">
         <v>293</v>
       </c>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
     </row>
     <row r="15" spans="1:8" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
@@ -4899,16 +4921,16 @@
       </c>
     </row>
     <row r="26" spans="1:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="74" t="s">
+      <c r="A26" s="78" t="s">
         <v>325</v>
       </c>
-      <c r="B26" s="74"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
     </row>
     <row r="27" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
@@ -5365,11 +5387,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="79" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
@@ -5377,11 +5399,11 @@
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="79" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
@@ -5389,16 +5411,16 @@
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="78" t="s">
         <v>345</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
     </row>
     <row r="4" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
@@ -5583,16 +5605,16 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="78" t="s">
         <v>358</v>
       </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
     </row>
     <row r="12" spans="1:8" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
@@ -5751,16 +5773,16 @@
       </c>
     </row>
     <row r="18" spans="1:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="74" t="s">
+      <c r="A18" s="78" t="s">
         <v>394</v>
       </c>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
     </row>
     <row r="19" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
@@ -6500,16 +6522,16 @@
       <c r="CE36" s="34"/>
     </row>
     <row r="37" spans="1:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="74" t="s">
+      <c r="A37" s="78" t="s">
         <v>325</v>
       </c>
-      <c r="B37" s="74"/>
-      <c r="C37" s="74"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="74"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="78"/>
       <c r="K37" s="34"/>
       <c r="N37" s="34"/>
       <c r="Q37" s="34"/>
@@ -6813,8 +6835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:A45"/>
+    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6829,18 +6851,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="79" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="79" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
@@ -7780,7 +7802,7 @@
       <c r="A34" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="C34" s="76" t="s">
+      <c r="C34" s="59" t="s">
         <v>72</v>
       </c>
       <c r="D34" s="33" t="s">
@@ -7809,7 +7831,7 @@
       <c r="A35" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="C35" s="76" t="s">
+      <c r="C35" s="59" t="s">
         <v>72</v>
       </c>
       <c r="D35" s="33" t="s">
@@ -7838,13 +7860,13 @@
       <c r="A36" s="33" t="s">
         <v>554</v>
       </c>
-      <c r="C36" s="76" t="s">
+      <c r="C36" s="59" t="s">
         <v>75</v>
       </c>
       <c r="D36" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E36" s="77" t="s">
+      <c r="E36" s="60" t="s">
         <v>540</v>
       </c>
       <c r="F36" s="35" t="s">
@@ -7853,10 +7875,10 @@
       <c r="G36" s="36" t="s">
         <v>541</v>
       </c>
-      <c r="H36" s="78" t="s">
+      <c r="H36" s="61" t="s">
         <v>542</v>
       </c>
-      <c r="I36" s="78" t="s">
+      <c r="I36" s="61" t="s">
         <v>542</v>
       </c>
       <c r="J36" s="49" t="s">
@@ -7867,22 +7889,22 @@
       <c r="A37" s="33" t="s">
         <v>555</v>
       </c>
-      <c r="C37" s="76" t="s">
+      <c r="C37" s="59" t="s">
         <v>75</v>
       </c>
       <c r="D37" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="77" t="s">
+      <c r="E37" s="60" t="s">
         <v>544</v>
       </c>
       <c r="G37" s="36" t="s">
         <v>543</v>
       </c>
-      <c r="H37" s="78" t="s">
+      <c r="H37" s="61" t="s">
         <v>542</v>
       </c>
-      <c r="I37" s="78" t="s">
+      <c r="I37" s="61" t="s">
         <v>542</v>
       </c>
       <c r="J37" s="49" t="s">
@@ -7893,13 +7915,13 @@
       <c r="A38" s="33" t="s">
         <v>556</v>
       </c>
-      <c r="C38" s="76" t="s">
+      <c r="C38" s="59" t="s">
         <v>78</v>
       </c>
       <c r="D38" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="77" t="s">
+      <c r="E38" s="60" t="s">
         <v>545</v>
       </c>
       <c r="F38" s="36" t="s">
@@ -7908,10 +7930,10 @@
       <c r="G38" s="36" t="s">
         <v>549</v>
       </c>
-      <c r="H38" s="78" t="s">
+      <c r="H38" s="61" t="s">
         <v>547</v>
       </c>
-      <c r="I38" s="78" t="s">
+      <c r="I38" s="61" t="s">
         <v>547</v>
       </c>
       <c r="J38" s="49" t="s">
@@ -7922,13 +7944,13 @@
       <c r="A39" s="33" t="s">
         <v>557</v>
       </c>
-      <c r="C39" s="76" t="s">
+      <c r="C39" s="59" t="s">
         <v>78</v>
       </c>
       <c r="D39" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="77" t="s">
+      <c r="E39" s="60" t="s">
         <v>548</v>
       </c>
       <c r="F39" s="36" t="s">
@@ -7937,10 +7959,10 @@
       <c r="G39" s="36" t="s">
         <v>552</v>
       </c>
-      <c r="H39" s="78" t="s">
+      <c r="H39" s="61" t="s">
         <v>550</v>
       </c>
-      <c r="I39" s="78" t="s">
+      <c r="I39" s="61" t="s">
         <v>550</v>
       </c>
       <c r="J39" s="49" t="s">
@@ -7951,13 +7973,13 @@
       <c r="A40" s="33" t="s">
         <v>558</v>
       </c>
-      <c r="C40" s="76" t="s">
+      <c r="C40" s="59" t="s">
         <v>81</v>
       </c>
       <c r="D40" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E40" s="77" t="s">
+      <c r="E40" s="60" t="s">
         <v>551</v>
       </c>
       <c r="F40" s="36" t="s">
@@ -7966,10 +7988,10 @@
       <c r="G40" s="36" t="s">
         <v>552</v>
       </c>
-      <c r="H40" s="79" t="s">
+      <c r="H40" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="I40" s="79" t="s">
+      <c r="I40" s="62" t="s">
         <v>563</v>
       </c>
       <c r="J40" s="49" t="s">
@@ -7980,22 +8002,22 @@
       <c r="A41" s="33" t="s">
         <v>559</v>
       </c>
-      <c r="C41" s="76" t="s">
+      <c r="C41" s="59" t="s">
         <v>84</v>
       </c>
       <c r="D41" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E41" s="77" t="s">
+      <c r="E41" s="60" t="s">
         <v>553</v>
       </c>
       <c r="G41" s="36" t="s">
         <v>552</v>
       </c>
-      <c r="H41" s="79" t="s">
+      <c r="H41" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="I41" s="79" t="s">
+      <c r="I41" s="62" t="s">
         <v>86</v>
       </c>
       <c r="J41" s="49" t="s">
@@ -8006,13 +8028,13 @@
       <c r="A42" s="33" t="s">
         <v>564</v>
       </c>
-      <c r="C42" s="76" t="s">
+      <c r="C42" s="59" t="s">
         <v>87</v>
       </c>
       <c r="D42" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="77" t="s">
+      <c r="E42" s="60" t="s">
         <v>88</v>
       </c>
       <c r="F42" s="24" t="s">
@@ -8021,10 +8043,10 @@
       <c r="G42" s="36" t="s">
         <v>552</v>
       </c>
-      <c r="H42" s="79" t="s">
+      <c r="H42" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="I42" s="79" t="s">
+      <c r="I42" s="62" t="s">
         <v>86</v>
       </c>
       <c r="J42" s="46" t="s">
@@ -8035,13 +8057,13 @@
       <c r="A43" s="33" t="s">
         <v>565</v>
       </c>
-      <c r="C43" s="76" t="s">
+      <c r="C43" s="59" t="s">
         <v>90</v>
       </c>
       <c r="D43" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E43" s="77" t="s">
+      <c r="E43" s="60" t="s">
         <v>91</v>
       </c>
       <c r="F43" s="36" t="s">
@@ -8053,7 +8075,7 @@
       <c r="H43" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="I43" s="79" t="s">
+      <c r="I43" s="62" t="s">
         <v>86</v>
       </c>
       <c r="J43" s="46" t="s">
@@ -8064,13 +8086,13 @@
       <c r="A44" s="33" t="s">
         <v>566</v>
       </c>
-      <c r="C44" s="76" t="s">
+      <c r="C44" s="59" t="s">
         <v>93</v>
       </c>
       <c r="D44" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="77" t="s">
+      <c r="E44" s="60" t="s">
         <v>94</v>
       </c>
       <c r="F44" s="36" t="s">
@@ -8082,7 +8104,7 @@
       <c r="H44" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I44" s="79" t="s">
+      <c r="I44" s="62" t="s">
         <v>86</v>
       </c>
       <c r="J44" s="46" t="s">
@@ -8093,13 +8115,13 @@
       <c r="A45" s="33" t="s">
         <v>567</v>
       </c>
-      <c r="C45" s="76" t="s">
+      <c r="C45" s="59" t="s">
         <v>96</v>
       </c>
       <c r="D45" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E45" s="77" t="s">
+      <c r="E45" s="60" t="s">
         <v>97</v>
       </c>
       <c r="F45" s="36" t="s">
@@ -8111,41 +8133,153 @@
       <c r="H45" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="I45" s="79" t="s">
+      <c r="I45" s="62" t="s">
         <v>563</v>
       </c>
       <c r="J45" s="46" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C46" s="34"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C47" s="34"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C48" s="34"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="34"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="34"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="G46" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J46" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C47" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" t="s">
+        <v>113</v>
+      </c>
+      <c r="F47" s="36" t="s">
+        <v>546</v>
+      </c>
+      <c r="G47" s="36" t="s">
+        <v>549</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J47" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C48" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="60" t="s">
+        <v>569</v>
+      </c>
+      <c r="F48" s="36" t="s">
+        <v>546</v>
+      </c>
+      <c r="G48" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="J48" s="46" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="F49" s="36" t="s">
+        <v>546</v>
+      </c>
+      <c r="G49" s="36" t="s">
+        <v>571</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J49" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="F50" s="36" t="s">
+        <v>546</v>
+      </c>
+      <c r="G50" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J50" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C51" s="34"/>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C52" s="34"/>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C53" s="34"/>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C54" s="34"/>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C55" s="34"/>
     </row>
   </sheetData>
@@ -8194,6 +8328,11 @@
     <hyperlink ref="C41" location="Требования!R34C1" display="F-11/2"/>
     <hyperlink ref="C42" location="Требования!R34C1" display="F-11/2"/>
     <hyperlink ref="C43:C45" location="Требования!R34C1" display="F-11/2"/>
+    <hyperlink ref="C46" location="Требования!R44C1" display="F-12/5"/>
+    <hyperlink ref="C47" location="Требования!R45C1" display="F-15"/>
+    <hyperlink ref="C48" location="Требования!R46C1" display="F-16"/>
+    <hyperlink ref="C49" location="Требования!R47C1" display="F-17"/>
+    <hyperlink ref="C50" location="Требования!R48C1" display="F-18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8204,7 +8343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -8219,18 +8358,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="79" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="79" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">

--- a/webform_testing.xlsx
+++ b/webform_testing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Требования" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Граничные значения" sheetId="7" r:id="rId3"/>
     <sheet name="Тест кейсы" sheetId="5" r:id="rId4"/>
     <sheet name="Bug report" sheetId="2" r:id="rId5"/>
+    <sheet name="Данные " sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="628">
   <si>
     <t>Требования к
 https://itcareer.pythonanywhere.com/</t>
@@ -905,19 +906,6 @@
     <t>Pass</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Ввести данные в поля:
-Surname:Testovich
-Email:testing@mail.com
-Password:qwerty123</t>
-  </si>
-  <si>
-    <t>Ввести данные в поля:
-Surname:Testovich
-Email:testing@mail.com
-Password:qwerty123</t>
-  </si>
-  <si>
     <t>Под кнопкой "Submit" отображается сообщение "Error!  All Fields is Required" в красной рамке и поле подсвечивается красной тенью</t>
   </si>
   <si>
@@ -965,27 +953,10 @@
 Password:qwerty123</t>
   </si>
   <si>
-    <t>Surname:Testovich</t>
-  </si>
-  <si>
     <t>Surname:</t>
   </si>
   <si>
-    <t>Surname: T</t>
-  </si>
-  <si>
-    <t>Surname:
-TestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovich123</t>
-  </si>
-  <si>
     <t>EC-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Ввести данные в поля:
-Name:Test
-Surname:Testovich
-Password:qwerty123</t>
   </si>
   <si>
     <t>Ввести в поле Email 
@@ -1033,13 +1004,6 @@
   <si>
     <t>Ввести в поле Email 
 Имя домена (после @ и до последней . )  0 символов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Ввести данные в поля:
-Name:Test
-Surname:Testovich
-Password:qwerty129</t>
   </si>
   <si>
     <t>Email:
@@ -1244,9 +1208,6 @@
 минимальное кол-во символов: 2</t>
   </si>
   <si>
-    <t>Surname:Te</t>
-  </si>
-  <si>
     <t>Под кнопкой "Submit" отображается 
 сообщение "Success Hello: Test  Te"  в голубой рамке</t>
   </si>
@@ -1255,30 +1216,16 @@
 минимальное кол-во символов+1: 3</t>
   </si>
   <si>
-    <t>Surname:Tes</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ввести в поле Surname 
 максимальное кол-во символов: 128 </t>
   </si>
   <si>
-    <t>Surname:
-TestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovich12</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ввести в поле Surname 
 максимальное кол-во символов-1: 127 </t>
   </si>
   <si>
-    <t>Surname:
-TestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovich1</t>
-  </si>
-  <si>
     <t>Ввести в поле Surname  
 минимальное кол-во символов-1: 1</t>
-  </si>
-  <si>
-    <t>Surname:T</t>
   </si>
   <si>
     <t>Ввести в поле Name 
@@ -1534,12 +1481,6 @@
   </si>
   <si>
     <t>LV-36</t>
-  </si>
-  <si>
-    <t>Ввести данные в поля:
-Name:Test
-Surname:Testovich
-Email:testing@mail.com</t>
   </si>
   <si>
     <t>Ввести в поле Password 
@@ -1814,22 +1755,8 @@
   <si>
     <t xml:space="preserve">
 Ввести данные в поля:
-Surname:Testovich
-Email:testing@mail.com
-Password:Qwerty@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Ввести данные в поля:
 Name:Test
 Email:testing@mail.com
-Password:Qwerty@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Ввести данные в поля:
-Name:Test
-Surname:Testovich
 Password:Qwerty@123</t>
   </si>
   <si>
@@ -2060,6 +1987,254 @@
   <si>
     <t>1. Нажать на клавишу "Enter"
 2. Обновить страницу</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>surname</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Te</t>
+  </si>
+  <si>
+    <t>Tes</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Test123</t>
+  </si>
+  <si>
+    <t>T.e,s-t_ n'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test </t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+testttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+testtttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">               </t>
+  </si>
+  <si>
+    <t>пустой</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>~`!@#$%^
+&amp;*'()_+=-\|&lt;/&gt;{.}[,]";:?</t>
+  </si>
+  <si>
+    <t>SELECT * from USERS</t>
+  </si>
+  <si>
+    <t>&lt;script&gt;alert('test script entered into the name')&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+testttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttt</t>
+  </si>
+  <si>
+    <t>тест</t>
+  </si>
+  <si>
+    <t>_____test</t>
+  </si>
+  <si>
+    <t>Nu</t>
+  </si>
+  <si>
+    <t>Nur</t>
+  </si>
+  <si>
+    <t>Nurmalov</t>
+  </si>
+  <si>
+    <t>Nurmalov123</t>
+  </si>
+  <si>
+    <t>N.ur,m-al_l ov'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nurmalov </t>
+  </si>
+  <si>
+    <t>NURMALOV</t>
+  </si>
+  <si>
+    <t>nurmalov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nurmalovvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvv
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nurmalovvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvv
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        </t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nurmalovvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvv
+</t>
+  </si>
+  <si>
+    <t>Нурмалов</t>
+  </si>
+  <si>
+    <t>_____nurmalov</t>
+  </si>
+  <si>
+    <t>Qwerty@123</t>
+  </si>
+  <si>
+    <t>Qwe@123</t>
+  </si>
+  <si>
+    <t>Qwer@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Ввести данные в поля:
+Surname:Nurmalov
+Email:testing@mail.com
+Password:Qwerty@123</t>
+  </si>
+  <si>
+    <t>Ввести данные в поля:
+Surname:Nurmalov
+Email:testing@mail.com
+Password:qwerty123</t>
+  </si>
+  <si>
+    <t>Surname:Nurmalov</t>
+  </si>
+  <si>
+    <t>Surname:N</t>
+  </si>
+  <si>
+    <t>Surname:
+NurmalovNurmalovNurmalovNurmalovNurmalovNurmalovNurmalovNurmalovNurmalovNurmalovNurmalovNurmalovNurmalovNurmalovNurmalovNurmalovNurmalovNurmalovNurmalov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Ввести данные в поля:
+Name:Test
+Surname:Nurmalov
+Password:qwerty123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Ввести данные в поля:
+Name:Test
+Surname:Nurmalov
+Password:Qwerty@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Ввести данные в поля:
+Name:Test
+Surname:Nurmalov
+Email:testing@mail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Ввести данные в поля:
+Surname:Nurmalov
+Email:testing@mail.com
+Password:qwerty123</t>
+  </si>
+  <si>
+    <t>Surname:Nu</t>
+  </si>
+  <si>
+    <t>Surname:Nur</t>
+  </si>
+  <si>
+    <t>Surname:
+Nurmalov</t>
+  </si>
+  <si>
+    <t>Surname:
+NurmalovNurmalovNurmalovNurmalovNurmalovNurmalovNurmalovNurmalovNurmalovNurmalovNurmalovNurmalovNurmalovNurmalovNurmalovNurmalov</t>
+  </si>
+  <si>
+    <t>Surname:
+NurmalovNurmalovNurmalovNurmalovNurmalovNurmalovNurmalovNurmalovNurmalovNurmalovNurmalovNurmalovNurmalovNurmalovNurmalovNurmalovv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Ввести данные в поля:
+Name:Test
+Surname:Nurmalov
+Password:qwerty129</t>
+  </si>
+  <si>
+    <t>Ввести данные в поля:
+Name:Test
+Surname:Nurmalov
+Email:testing@mail.com</t>
+  </si>
+  <si>
+    <t>Qwerty@123'1!2.</t>
+  </si>
+  <si>
+    <t>Qwerty@123qwertY</t>
+  </si>
+  <si>
+    <t>Qwerty@123qwertY.</t>
+  </si>
+  <si>
+    <t>qwertyui</t>
+  </si>
+  <si>
+    <t>йцуКен123@</t>
+  </si>
+  <si>
+    <t>qwe rty @123</t>
+  </si>
+  <si>
+    <t>Qwert@@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Qwert@123 </t>
+  </si>
+  <si>
+    <t>Qwer@1234</t>
+  </si>
+  <si>
+    <t>QWERTY@123</t>
+  </si>
+  <si>
+    <t>qwerty@123</t>
   </si>
 </sst>
 </file>
@@ -2419,7 +2594,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2634,6 +2809,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -4324,8 +4514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CE55"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4413,7 +4603,7 @@
         <v>81</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>513</v>
+        <v>601</v>
       </c>
       <c r="E5" s="33" t="s">
         <v>274</v>
@@ -4439,7 +4629,7 @@
         <v>87</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>513</v>
+        <v>601</v>
       </c>
       <c r="E6" s="33" t="s">
         <v>276</v>
@@ -4448,10 +4638,10 @@
         <v>89</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H6" s="39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4465,7 +4655,7 @@
         <v>101</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>513</v>
+        <v>601</v>
       </c>
       <c r="E7" s="33" t="s">
         <v>277</v>
@@ -4474,10 +4664,10 @@
         <v>89</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4491,7 +4681,7 @@
         <v>101</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>281</v>
+        <v>602</v>
       </c>
       <c r="E8" s="35" t="s">
         <v>278</v>
@@ -4500,15 +4690,15 @@
         <v>89</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="78" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B9" s="78"/>
       <c r="C9" s="78"/>
@@ -4520,19 +4710,19 @@
     </row>
     <row r="10" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C10" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>295</v>
+        <v>603</v>
       </c>
       <c r="F10" s="36" t="s">
         <v>275</v>
@@ -4546,85 +4736,85 @@
     </row>
     <row r="11" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C11" s="37" t="s">
         <v>90</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>103</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>297</v>
+        <v>604</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H12" s="39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C13" s="37" t="s">
         <v>103</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>298</v>
+        <v>605</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H13" s="39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B14" s="78"/>
       <c r="C14" s="78"/>
@@ -4636,19 +4826,19 @@
     </row>
     <row r="15" spans="1:8" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C15" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>300</v>
+        <v>606</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F15" s="36" t="s">
         <v>275</v>
@@ -4662,19 +4852,19 @@
     </row>
     <row r="16" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C16" s="37" t="s">
         <v>93</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>515</v>
+        <v>607</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>95</v>
@@ -4683,24 +4873,24 @@
         <v>275</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C17" s="37" t="s">
         <v>105</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>515</v>
+        <v>607</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>95</v>
@@ -4709,24 +4899,24 @@
         <v>275</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C18" s="37" t="s">
         <v>105</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>515</v>
+        <v>607</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>95</v>
@@ -4735,24 +4925,24 @@
         <v>275</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C19" s="37" t="s">
         <v>93</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>515</v>
+        <v>607</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>95</v>
@@ -4761,24 +4951,24 @@
         <v>275</v>
       </c>
       <c r="H19" s="39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C20" s="37" t="s">
         <v>105</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>515</v>
+        <v>607</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>95</v>
@@ -4787,24 +4977,24 @@
         <v>275</v>
       </c>
       <c r="H20" s="39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C21" s="37" t="s">
         <v>105</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>515</v>
+        <v>607</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>95</v>
@@ -4813,24 +5003,24 @@
         <v>275</v>
       </c>
       <c r="H21" s="39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C22" s="37" t="s">
         <v>93</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>515</v>
+        <v>607</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>95</v>
@@ -4839,24 +5029,24 @@
         <v>275</v>
       </c>
       <c r="H22" s="39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C23" s="37" t="s">
         <v>105</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>515</v>
+        <v>607</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>95</v>
@@ -4865,24 +5055,24 @@
         <v>275</v>
       </c>
       <c r="H23" s="39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C24" s="37" t="s">
         <v>105</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>515</v>
+        <v>607</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>95</v>
@@ -4891,24 +5081,24 @@
         <v>275</v>
       </c>
       <c r="H24" s="39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="C25" s="37" t="s">
         <v>105</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>515</v>
+        <v>607</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>95</v>
@@ -4917,12 +5107,12 @@
         <v>275</v>
       </c>
       <c r="H25" s="39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="78" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B26" s="78"/>
       <c r="C26" s="78"/>
@@ -4934,19 +5124,19 @@
     </row>
     <row r="27" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C27" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>336</v>
+        <v>608</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="F27" s="36" t="s">
         <v>275</v>
@@ -4960,19 +5150,19 @@
     </row>
     <row r="28" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C28" s="37" t="s">
         <v>96</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>336</v>
+        <v>608</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>98</v>
@@ -4981,24 +5171,24 @@
         <v>275</v>
       </c>
       <c r="H28" s="39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C29" s="37" t="s">
         <v>107</v>
       </c>
       <c r="D29" s="35" t="s">
+        <v>608</v>
+      </c>
+      <c r="E29" s="33" t="s">
         <v>336</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>343</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>98</v>
@@ -5007,24 +5197,24 @@
         <v>275</v>
       </c>
       <c r="H29" s="39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C30" s="37" t="s">
         <v>107</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>336</v>
+        <v>608</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>98</v>
@@ -5033,7 +5223,7 @@
         <v>275</v>
       </c>
       <c r="H30" s="39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K30" s="34"/>
       <c r="N30" s="34"/>
@@ -5370,8 +5560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CE55"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5412,7 +5602,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="78" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B3" s="78"/>
       <c r="C3" s="78"/>
@@ -5450,120 +5640,120 @@
     </row>
     <row r="5" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C5" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D5" s="30" t="s">
+        <v>609</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="E5" s="33" t="s">
-        <v>348</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>282</v>
-      </c>
       <c r="G5" s="36" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="H5" s="39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C6" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D6" s="30" t="s">
+        <v>609</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>346</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="E6" s="33" t="s">
-        <v>352</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>353</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>282</v>
-      </c>
       <c r="H6" s="39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C7" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D7" s="30" t="s">
+        <v>602</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>377</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="H7" s="39" t="s">
         <v>281</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>355</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>389</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C8" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D8" s="30" t="s">
+        <v>602</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>378</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="H8" s="39" t="s">
         <v>281</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>357</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>390</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C9" s="37" t="s">
         <v>101</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>280</v>
+        <v>609</v>
       </c>
       <c r="E9" s="33" t="s">
         <v>277</v>
@@ -5572,24 +5762,24 @@
         <v>89</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H9" s="39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="C10" s="37" t="s">
         <v>101</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>280</v>
+        <v>609</v>
       </c>
       <c r="E10" s="35" t="s">
         <v>278</v>
@@ -5598,15 +5788,15 @@
         <v>89</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H10" s="39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="78" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B11" s="78"/>
       <c r="C11" s="78"/>
@@ -5618,25 +5808,25 @@
     </row>
     <row r="12" spans="1:8" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>371</v>
+        <v>610</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="H12" s="38" t="s">
         <v>279</v>
@@ -5644,25 +5834,25 @@
     </row>
     <row r="13" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="B13" s="35" t="s">
         <v>365</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>373</v>
       </c>
       <c r="C13" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>374</v>
+        <v>611</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H13" s="38" t="s">
         <v>279</v>
@@ -5670,25 +5860,25 @@
     </row>
     <row r="14" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="B14" s="35" t="s">
         <v>366</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>375</v>
       </c>
       <c r="C14" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E14" s="35" t="s">
+        <v>612</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="G14" s="36" t="s">
         <v>376</v>
-      </c>
-      <c r="F14" s="36" t="s">
-        <v>386</v>
-      </c>
-      <c r="G14" s="36" t="s">
-        <v>388</v>
       </c>
       <c r="H14" s="38" t="s">
         <v>279</v>
@@ -5696,25 +5886,25 @@
     </row>
     <row r="15" spans="1:8" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="B15" s="35" t="s">
         <v>367</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>377</v>
       </c>
       <c r="C15" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>378</v>
+        <v>613</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H15" s="38" t="s">
         <v>279</v>
@@ -5722,59 +5912,59 @@
     </row>
     <row r="16" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="B16" s="35" t="s">
         <v>368</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>379</v>
       </c>
       <c r="C16" s="37" t="s">
         <v>103</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>380</v>
+        <v>604</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="C17" s="37" t="s">
         <v>103</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>298</v>
+        <v>614</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="78" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="B18" s="78"/>
       <c r="C18" s="78"/>
@@ -5786,19 +5976,19 @@
     </row>
     <row r="19" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="C19" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>313</v>
+        <v>615</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="F19" s="36" t="s">
         <v>275</v>
@@ -5812,19 +6002,19 @@
     </row>
     <row r="20" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="C20" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>313</v>
+        <v>615</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="F20" s="36" t="s">
         <v>275</v>
@@ -5838,19 +6028,19 @@
     </row>
     <row r="21" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="C21" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>313</v>
+        <v>615</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="F21" s="36" t="s">
         <v>275</v>
@@ -5864,19 +6054,19 @@
     </row>
     <row r="22" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="C22" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>313</v>
+        <v>615</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="F22" s="36" t="s">
         <v>275</v>
@@ -5890,19 +6080,19 @@
     </row>
     <row r="23" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="C23" s="37" t="s">
         <v>105</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>313</v>
+        <v>615</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="F23" s="45" t="s">
         <v>95</v>
@@ -5911,24 +6101,24 @@
         <v>275</v>
       </c>
       <c r="H23" s="39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="C24" s="37" t="s">
         <v>105</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>313</v>
+        <v>615</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="F24" s="45" t="s">
         <v>95</v>
@@ -5937,24 +6127,24 @@
         <v>275</v>
       </c>
       <c r="H24" s="39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="C25" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>313</v>
+        <v>615</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="F25" s="36" t="s">
         <v>275</v>
@@ -5968,19 +6158,19 @@
     </row>
     <row r="26" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="C26" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>313</v>
+        <v>615</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="F26" s="36" t="s">
         <v>275</v>
@@ -5994,19 +6184,19 @@
     </row>
     <row r="27" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="C27" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>313</v>
+        <v>615</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="F27" s="36" t="s">
         <v>275</v>
@@ -6018,19 +6208,19 @@
         <v>279</v>
       </c>
       <c r="L27" s="33" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="M27" s="35" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="N27" s="37" t="s">
         <v>81</v>
       </c>
       <c r="O27" s="35" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="P27" s="33" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="Q27" s="36" t="s">
         <v>275</v>
@@ -6044,19 +6234,19 @@
     </row>
     <row r="28" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="C28" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>313</v>
+        <v>615</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="F28" s="36" t="s">
         <v>275</v>
@@ -6068,19 +6258,19 @@
         <v>279</v>
       </c>
       <c r="L28" s="33" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="M28" s="35" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="N28" s="37" t="s">
         <v>96</v>
       </c>
       <c r="O28" s="35" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="P28" s="33" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="Q28" s="4" t="s">
         <v>98</v>
@@ -6089,24 +6279,24 @@
         <v>275</v>
       </c>
       <c r="S28" s="39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="C29" s="37" t="s">
         <v>105</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>313</v>
+        <v>615</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="F29" s="45" t="s">
         <v>95</v>
@@ -6115,22 +6305,22 @@
         <v>275</v>
       </c>
       <c r="H29" s="39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L29" s="33" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="M29" s="35" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="N29" s="37" t="s">
         <v>107</v>
       </c>
       <c r="O29" s="35" t="s">
+        <v>329</v>
+      </c>
+      <c r="P29" s="33" t="s">
         <v>336</v>
-      </c>
-      <c r="P29" s="33" t="s">
-        <v>343</v>
       </c>
       <c r="Q29" s="4" t="s">
         <v>98</v>
@@ -6139,24 +6329,24 @@
         <v>275</v>
       </c>
       <c r="S29" s="39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="C30" s="37" t="s">
         <v>105</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>313</v>
+        <v>615</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F30" s="45" t="s">
         <v>95</v>
@@ -6165,23 +6355,23 @@
         <v>275</v>
       </c>
       <c r="H30" s="39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K30" s="34"/>
       <c r="L30" s="33" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="M30" s="35" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="N30" s="37" t="s">
         <v>107</v>
       </c>
       <c r="O30" s="35" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="P30" s="35" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="Q30" s="4" t="s">
         <v>98</v>
@@ -6190,7 +6380,7 @@
         <v>275</v>
       </c>
       <c r="S30" s="39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="T30" s="34"/>
       <c r="W30" s="34"/>
@@ -6217,19 +6407,19 @@
     </row>
     <row r="31" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="C31" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>313</v>
+        <v>615</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="F31" s="45" t="s">
         <v>95</v>
@@ -6238,7 +6428,7 @@
         <v>275</v>
       </c>
       <c r="H31" s="39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K31" s="34"/>
       <c r="N31" s="34"/>
@@ -6268,19 +6458,19 @@
     </row>
     <row r="32" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="C32" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>313</v>
+        <v>615</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F32" s="36" t="s">
         <v>275</v>
@@ -6319,19 +6509,19 @@
     </row>
     <row r="33" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="C33" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>313</v>
+        <v>615</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="F33" s="36" t="s">
         <v>275</v>
@@ -6370,19 +6560,19 @@
     </row>
     <row r="34" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="33" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="C34" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>313</v>
+        <v>615</v>
       </c>
       <c r="E34" s="35" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="F34" s="36" t="s">
         <v>275</v>
@@ -6421,19 +6611,19 @@
     </row>
     <row r="35" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="C35" s="37" t="s">
         <v>105</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>313</v>
+        <v>615</v>
       </c>
       <c r="E35" s="35" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="F35" s="45" t="s">
         <v>95</v>
@@ -6442,7 +6632,7 @@
         <v>275</v>
       </c>
       <c r="H35" s="39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K35" s="34"/>
       <c r="N35" s="34"/>
@@ -6472,19 +6662,19 @@
     </row>
     <row r="36" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="33" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="C36" s="37" t="s">
         <v>105</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>313</v>
+        <v>615</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="F36" s="45" t="s">
         <v>95</v>
@@ -6493,7 +6683,7 @@
         <v>275</v>
       </c>
       <c r="H36" s="39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K36" s="34"/>
       <c r="N36" s="34"/>
@@ -6523,7 +6713,7 @@
     </row>
     <row r="37" spans="1:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="78" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B37" s="78"/>
       <c r="C37" s="78"/>
@@ -6560,19 +6750,19 @@
     </row>
     <row r="38" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="C38" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>451</v>
+        <v>616</v>
       </c>
       <c r="E38" s="35" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="F38" s="36" t="s">
         <v>275</v>
@@ -6611,19 +6801,19 @@
     </row>
     <row r="39" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="C39" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>451</v>
+        <v>616</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="F39" s="36" t="s">
         <v>275</v>
@@ -6637,19 +6827,19 @@
     </row>
     <row r="40" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="33" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="C40" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>451</v>
+        <v>616</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="F40" s="36" t="s">
         <v>275</v>
@@ -6663,19 +6853,19 @@
     </row>
     <row r="41" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="33" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="C41" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>451</v>
+        <v>616</v>
       </c>
       <c r="E41" s="35" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="F41" s="36" t="s">
         <v>275</v>
@@ -6689,19 +6879,19 @@
     </row>
     <row r="42" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="33" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="C42" s="37" t="s">
         <v>107</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>451</v>
+        <v>616</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="F42" s="36" t="s">
         <v>275</v>
@@ -6710,24 +6900,24 @@
         <v>275</v>
       </c>
       <c r="H42" s="39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="33" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="C43" s="37" t="s">
         <v>107</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>451</v>
+        <v>616</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="F43" s="36" t="s">
         <v>275</v>
@@ -6736,7 +6926,7 @@
         <v>275</v>
       </c>
       <c r="H43" s="39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" spans="1:83" x14ac:dyDescent="0.25">
@@ -6875,7 +7065,7 @@
         <v>229</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>205</v>
@@ -6898,7 +7088,7 @@
     </row>
     <row r="4" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>218</v>
@@ -6908,22 +7098,22 @@
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="47" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="H4" s="28" t="s">
         <v>25</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="J4" s="46" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6938,18 +7128,18 @@
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="47" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
       <c r="J5" s="46" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6964,22 +7154,22 @@
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="47" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="H6" s="35" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="I6" s="35" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="J6" s="46" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6996,22 +7186,22 @@
         <v>32</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="H7" s="33" t="s">
         <v>25</v>
       </c>
       <c r="I7" s="35" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="J7" s="46" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7028,19 +7218,19 @@
         <v>32</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>89</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="J8" s="49" t="s">
         <v>279</v>
@@ -7060,22 +7250,22 @@
         <v>32</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>95</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="J9" s="46" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7092,22 +7282,22 @@
         <v>32</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>86</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="J10" s="46" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7124,22 +7314,22 @@
         <v>32</v>
       </c>
       <c r="E11" s="44" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="G11" s="44" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="H11" s="28" t="s">
         <v>44</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="J11" s="46" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7156,22 +7346,22 @@
         <v>32</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>46</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="J12" s="46" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7188,22 +7378,22 @@
         <v>32</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>48</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="J13" s="46" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7220,22 +7410,22 @@
         <v>32</v>
       </c>
       <c r="E14" s="44" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>50</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="J14" s="46" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7255,19 +7445,19 @@
         <v>52</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="G15" s="44" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="H15" s="50" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="I15" s="50" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="J15" s="46" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7284,22 +7474,22 @@
         <v>32</v>
       </c>
       <c r="E16" s="44" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="G16" s="44" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>56</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="J16" s="46" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7319,10 +7509,10 @@
         <v>58</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="G17" s="44" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>59</v>
@@ -7348,10 +7538,10 @@
         <v>58</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="G18" s="44" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>59</v>
@@ -7377,10 +7567,10 @@
         <v>58</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="G19" s="44" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="H19" s="11" t="s">
         <v>59</v>
@@ -7406,10 +7596,10 @@
         <v>58</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="G20" s="44" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>59</v>
@@ -7432,22 +7622,22 @@
         <v>32</v>
       </c>
       <c r="E21" s="44" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="G21" s="44" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="H21" s="11" t="s">
         <v>62</v>
       </c>
       <c r="I21" s="50" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="J21" s="46" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7461,22 +7651,22 @@
         <v>32</v>
       </c>
       <c r="E22" s="44" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="G22" s="44" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="H22" s="11" t="s">
         <v>62</v>
       </c>
       <c r="I22" s="50" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="J22" s="46" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7490,22 +7680,22 @@
         <v>32</v>
       </c>
       <c r="E23" s="44" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="G23" s="44" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="H23" s="11" t="s">
         <v>62</v>
       </c>
       <c r="I23" s="50" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="J23" s="46" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7519,22 +7709,22 @@
         <v>32</v>
       </c>
       <c r="E24" s="44" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="G24" s="44" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="H24" s="11" t="s">
         <v>62</v>
       </c>
       <c r="I24" s="50" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="J24" s="46" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7548,13 +7738,13 @@
         <v>32</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="F25" s="35" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="G25" s="44" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="H25" s="53" t="s">
         <v>65</v>
@@ -7577,13 +7767,13 @@
         <v>32</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="F26" s="35" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="G26" s="44" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="H26" s="53" t="s">
         <v>65</v>
@@ -7606,13 +7796,13 @@
         <v>32</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="F27" s="55" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="G27" s="56" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="H27" s="53" t="s">
         <v>65</v>
@@ -7635,13 +7825,13 @@
         <v>32</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="F28" s="35" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="G28" s="44" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="H28" s="11" t="s">
         <v>65</v>
@@ -7658,7 +7848,7 @@
         <v>256</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="D29" s="33" t="s">
         <v>32</v>
@@ -7667,10 +7857,10 @@
         <v>67</v>
       </c>
       <c r="F29" s="35" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="G29" s="44" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>68</v>
@@ -7693,19 +7883,19 @@
         <v>32</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="F30" s="35" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="G30" s="44" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="J30" s="49" t="s">
         <v>279</v>
@@ -7722,19 +7912,19 @@
         <v>32</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="F31" s="35" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="G31" s="44" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="J31" s="49" t="s">
         <v>279</v>
@@ -7751,19 +7941,19 @@
         <v>32</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="G32" s="44" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="J32" s="49" t="s">
         <v>279</v>
@@ -7780,19 +7970,19 @@
         <v>32</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="G33" s="44" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="J33" s="49" t="s">
         <v>279</v>
@@ -7809,19 +7999,19 @@
         <v>32</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="F34" s="35" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="J34" s="49" t="s">
         <v>279</v>
@@ -7838,19 +8028,19 @@
         <v>32</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="F35" s="35" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="I35" s="24" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="J35" s="49" t="s">
         <v>279</v>
@@ -7858,7 +8048,7 @@
     </row>
     <row r="36" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="33" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="C36" s="59" t="s">
         <v>75</v>
@@ -7867,19 +8057,19 @@
         <v>32</v>
       </c>
       <c r="E36" s="60" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="F36" s="35" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="H36" s="61" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="I36" s="61" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="J36" s="49" t="s">
         <v>279</v>
@@ -7887,7 +8077,7 @@
     </row>
     <row r="37" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="C37" s="59" t="s">
         <v>75</v>
@@ -7896,16 +8086,16 @@
         <v>32</v>
       </c>
       <c r="E37" s="60" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="H37" s="61" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="I37" s="61" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="J37" s="49" t="s">
         <v>279</v>
@@ -7913,7 +8103,7 @@
     </row>
     <row r="38" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="C38" s="59" t="s">
         <v>78</v>
@@ -7922,19 +8112,19 @@
         <v>32</v>
       </c>
       <c r="E38" s="60" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="G38" s="36" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="H38" s="61" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="I38" s="61" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="J38" s="49" t="s">
         <v>279</v>
@@ -7942,7 +8132,7 @@
     </row>
     <row r="39" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="C39" s="59" t="s">
         <v>78</v>
@@ -7951,19 +8141,19 @@
         <v>32</v>
       </c>
       <c r="E39" s="60" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="G39" s="36" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="H39" s="61" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="I39" s="61" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="J39" s="49" t="s">
         <v>279</v>
@@ -7971,7 +8161,7 @@
     </row>
     <row r="40" spans="1:10" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="33" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="C40" s="59" t="s">
         <v>81</v>
@@ -7980,19 +8170,19 @@
         <v>32</v>
       </c>
       <c r="E40" s="60" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="G40" s="36" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="H40" s="62" t="s">
         <v>83</v>
       </c>
       <c r="I40" s="62" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="J40" s="49" t="s">
         <v>279</v>
@@ -8000,7 +8190,7 @@
     </row>
     <row r="41" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="33" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="C41" s="59" t="s">
         <v>84</v>
@@ -8009,10 +8199,10 @@
         <v>32</v>
       </c>
       <c r="E41" s="60" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="G41" s="36" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="H41" s="62" t="s">
         <v>86</v>
@@ -8026,7 +8216,7 @@
     </row>
     <row r="42" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="33" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="C42" s="59" t="s">
         <v>87</v>
@@ -8038,10 +8228,10 @@
         <v>88</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="G42" s="36" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="H42" s="62" t="s">
         <v>89</v>
@@ -8050,12 +8240,12 @@
         <v>86</v>
       </c>
       <c r="J42" s="46" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="33" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="C43" s="59" t="s">
         <v>90</v>
@@ -8067,10 +8257,10 @@
         <v>91</v>
       </c>
       <c r="F43" s="36" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="G43" s="36" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>92</v>
@@ -8079,12 +8269,12 @@
         <v>86</v>
       </c>
       <c r="J43" s="46" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="33" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="C44" s="59" t="s">
         <v>93</v>
@@ -8096,10 +8286,10 @@
         <v>94</v>
       </c>
       <c r="F44" s="36" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="G44" s="36" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>95</v>
@@ -8108,12 +8298,12 @@
         <v>86</v>
       </c>
       <c r="J44" s="46" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="33" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="C45" s="59" t="s">
         <v>96</v>
@@ -8125,19 +8315,19 @@
         <v>97</v>
       </c>
       <c r="F45" s="36" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="G45" s="36" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>98</v>
       </c>
       <c r="I45" s="62" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="J45" s="46" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8151,7 +8341,7 @@
         <v>110</v>
       </c>
       <c r="G46" s="36" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>111</v>
@@ -8174,10 +8364,10 @@
         <v>113</v>
       </c>
       <c r="F47" s="36" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="G47" s="36" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>114</v>
@@ -8197,22 +8387,22 @@
         <v>32</v>
       </c>
       <c r="E48" s="60" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="F48" s="36" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="G48" s="36" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="I48" s="11" t="s">
         <v>117</v>
       </c>
       <c r="J48" s="46" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="49" spans="3:10" ht="87" customHeight="1" x14ac:dyDescent="0.25">
@@ -8223,13 +8413,13 @@
         <v>32</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="F49" s="36" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="G49" s="36" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>120</v>
@@ -8249,13 +8439,13 @@
         <v>32</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="F50" s="36" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="G50" s="36" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>123</v>
@@ -8343,7 +8533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -8496,4 +8686,260 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>559</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>560</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>561</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="81" t="s">
+        <v>563</v>
+      </c>
+      <c r="B2" s="81" t="s">
+        <v>583</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="81" t="s">
+        <v>564</v>
+      </c>
+      <c r="B3" s="81" t="s">
+        <v>584</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="81" t="s">
+        <v>565</v>
+      </c>
+      <c r="B4" s="81" t="s">
+        <v>585</v>
+      </c>
+      <c r="D4" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="81" t="s">
+        <v>566</v>
+      </c>
+      <c r="B5" s="82" t="s">
+        <v>586</v>
+      </c>
+      <c r="D5" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="81" t="s">
+        <v>567</v>
+      </c>
+      <c r="B6" s="81" t="s">
+        <v>587</v>
+      </c>
+      <c r="D6" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="81" t="s">
+        <v>568</v>
+      </c>
+      <c r="B7" s="81" t="s">
+        <v>588</v>
+      </c>
+      <c r="D7" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="81" t="s">
+        <v>569</v>
+      </c>
+      <c r="B8" s="81" t="s">
+        <v>589</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="81" t="s">
+        <v>570</v>
+      </c>
+      <c r="B9" s="81" t="s">
+        <v>590</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="83" t="s">
+        <v>571</v>
+      </c>
+      <c r="B10" s="83" t="s">
+        <v>591</v>
+      </c>
+      <c r="D10" s="80" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="83" t="s">
+        <v>572</v>
+      </c>
+      <c r="B11" s="83" t="s">
+        <v>592</v>
+      </c>
+      <c r="D11" s="80" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
+        <v>574</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>593</v>
+      </c>
+      <c r="D12" s="80">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="46" t="s">
+        <v>575</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>575</v>
+      </c>
+      <c r="D13" s="84" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="46" t="s">
+        <v>576</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>594</v>
+      </c>
+      <c r="D14" s="84" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="84" t="s">
+        <v>577</v>
+      </c>
+      <c r="B15" s="84" t="s">
+        <v>577</v>
+      </c>
+      <c r="D15" s="84" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="84" t="s">
+        <v>578</v>
+      </c>
+      <c r="B16" s="84" t="s">
+        <v>578</v>
+      </c>
+      <c r="D16" s="80" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="84" t="s">
+        <v>579</v>
+      </c>
+      <c r="B17" s="84" t="s">
+        <v>579</v>
+      </c>
+      <c r="D17" s="85" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="84" t="s">
+        <v>580</v>
+      </c>
+      <c r="B18" s="84" t="s">
+        <v>595</v>
+      </c>
+      <c r="D18" s="80" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="46" t="s">
+        <v>581</v>
+      </c>
+      <c r="B19" s="84" t="s">
+        <v>596</v>
+      </c>
+      <c r="D19" s="85" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="46" t="s">
+        <v>582</v>
+      </c>
+      <c r="B20" s="84" t="s">
+        <v>597</v>
+      </c>
+      <c r="D20" s="86" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="80" t="s">
+        <v>599</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D8" r:id="rId3"/>
+    <hyperlink ref="D9" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+</worksheet>
 </file>
--- a/webform_testing.xlsx
+++ b/webform_testing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Требования" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="Тест кейсы" sheetId="5" r:id="rId4"/>
     <sheet name="Bug report" sheetId="2" r:id="rId5"/>
     <sheet name="Данные " sheetId="8" r:id="rId6"/>
+    <sheet name="Pairwise" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="631">
   <si>
     <t>Требования к
 https://itcareer.pythonanywhere.com/</t>
@@ -2235,6 +2236,15 @@
   </si>
   <si>
     <t>qwerty@123</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>invalid</t>
+  </si>
+  <si>
+    <t>empty</t>
   </si>
 </sst>
 </file>
@@ -2296,7 +2306,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2348,6 +2358,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2594,7 +2616,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2758,6 +2780,21 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2809,21 +2846,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -3489,11 +3513,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
@@ -3510,7 +3534,7 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -3521,7 +3545,7 @@
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="74"/>
+      <c r="B4" s="81"/>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
@@ -3530,7 +3554,7 @@
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="74"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
@@ -3539,7 +3563,7 @@
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="75"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
@@ -3548,7 +3572,7 @@
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="83" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -3559,7 +3583,7 @@
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="74"/>
+      <c r="B8" s="81"/>
       <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
@@ -3568,7 +3592,7 @@
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="75"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
@@ -3621,10 +3645,10 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="66"/>
+      <c r="C14" s="73"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -3642,7 +3666,7 @@
       <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="76" t="s">
+      <c r="B16" s="83" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -3653,7 +3677,7 @@
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="74"/>
+      <c r="B17" s="81"/>
       <c r="C17" s="4" t="s">
         <v>39</v>
       </c>
@@ -3662,7 +3686,7 @@
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="75"/>
+      <c r="B18" s="82"/>
       <c r="C18" s="4" t="s">
         <v>41</v>
       </c>
@@ -3671,7 +3695,7 @@
       <c r="A19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="84" t="s">
         <v>43</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -3682,7 +3706,7 @@
       <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="77"/>
+      <c r="B20" s="84"/>
       <c r="C20" s="4" t="s">
         <v>46</v>
       </c>
@@ -3691,7 +3715,7 @@
       <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="77"/>
+      <c r="B21" s="84"/>
       <c r="C21" s="4" t="s">
         <v>48</v>
       </c>
@@ -3700,7 +3724,7 @@
       <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="77"/>
+      <c r="B22" s="84"/>
       <c r="C22" s="4" t="s">
         <v>50</v>
       </c>
@@ -4015,10 +4039,10 @@
     </row>
     <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
-      <c r="B51" s="63" t="s">
+      <c r="B51" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="C51" s="64"/>
+      <c r="C51" s="71"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -4132,10 +4156,10 @@
     </row>
     <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12"/>
-      <c r="B62" s="65" t="s">
+      <c r="B62" s="72" t="s">
         <v>156</v>
       </c>
-      <c r="C62" s="66"/>
+      <c r="C62" s="73"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -4249,10 +4273,10 @@
     </row>
     <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="14"/>
-      <c r="B73" s="67" t="s">
+      <c r="B73" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="C73" s="68"/>
+      <c r="C73" s="75"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
@@ -4377,10 +4401,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="15"/>
-      <c r="B85" s="69" t="s">
+      <c r="B85" s="76" t="s">
         <v>188</v>
       </c>
-      <c r="C85" s="70"/>
+      <c r="C85" s="77"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
@@ -4531,11 +4555,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="86" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
@@ -4543,11 +4567,11 @@
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="86" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
@@ -4555,16 +4579,16 @@
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="85" t="s">
         <v>265</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
     </row>
     <row r="4" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
@@ -4697,16 +4721,16 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="85" t="s">
         <v>282</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
     </row>
     <row r="10" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
@@ -4813,16 +4837,16 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="85" t="s">
         <v>291</v>
       </c>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
     </row>
     <row r="15" spans="1:8" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
@@ -5111,16 +5135,16 @@
       </c>
     </row>
     <row r="26" spans="1:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="85" t="s">
         <v>318</v>
       </c>
-      <c r="B26" s="78"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
     </row>
     <row r="27" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
@@ -5577,11 +5601,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="86" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
@@ -5589,11 +5613,11 @@
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="86" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
@@ -5601,16 +5625,16 @@
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="85" t="s">
         <v>338</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
     </row>
     <row r="4" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
@@ -5795,16 +5819,16 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="85" t="s">
         <v>351</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
     </row>
     <row r="12" spans="1:8" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
@@ -5963,16 +5987,16 @@
       </c>
     </row>
     <row r="18" spans="1:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="78" t="s">
+      <c r="A18" s="85" t="s">
         <v>382</v>
       </c>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
     </row>
     <row r="19" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
@@ -6712,16 +6736,16 @@
       <c r="CE36" s="34"/>
     </row>
     <row r="37" spans="1:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="78" t="s">
+      <c r="A37" s="85" t="s">
         <v>318</v>
       </c>
-      <c r="B37" s="78"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="78"/>
+      <c r="B37" s="85"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="85"/>
       <c r="K37" s="34"/>
       <c r="N37" s="34"/>
       <c r="Q37" s="34"/>
@@ -7041,18 +7065,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="86" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="86" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
@@ -8548,18 +8572,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="86" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="86" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -8692,7 +8716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -8719,10 +8743,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="64" t="s">
         <v>563</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="64" t="s">
         <v>583</v>
       </c>
       <c r="D2" s="59" t="s">
@@ -8730,10 +8754,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="64" t="s">
         <v>564</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="64" t="s">
         <v>584</v>
       </c>
       <c r="D3" s="59" t="s">
@@ -8741,10 +8765,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="64" t="s">
         <v>565</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="64" t="s">
         <v>585</v>
       </c>
       <c r="D4" t="s">
@@ -8752,10 +8776,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="64" t="s">
         <v>566</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="65" t="s">
         <v>586</v>
       </c>
       <c r="D5" t="s">
@@ -8763,10 +8787,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="64" t="s">
         <v>567</v>
       </c>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="64" t="s">
         <v>587</v>
       </c>
       <c r="D6" t="s">
@@ -8774,10 +8798,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="64" t="s">
         <v>568</v>
       </c>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="64" t="s">
         <v>588</v>
       </c>
       <c r="D7" t="s">
@@ -8785,10 +8809,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="64" t="s">
         <v>569</v>
       </c>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="64" t="s">
         <v>589</v>
       </c>
       <c r="D8" s="59" t="s">
@@ -8796,10 +8820,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="64" t="s">
         <v>570</v>
       </c>
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="64" t="s">
         <v>590</v>
       </c>
       <c r="D9" s="59" t="s">
@@ -8807,24 +8831,24 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="66" t="s">
         <v>571</v>
       </c>
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="66" t="s">
         <v>591</v>
       </c>
-      <c r="D10" s="80" t="s">
+      <c r="D10" s="63" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="66" t="s">
         <v>572</v>
       </c>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="66" t="s">
         <v>592</v>
       </c>
-      <c r="D11" s="80" t="s">
+      <c r="D11" s="63" t="s">
         <v>575</v>
       </c>
     </row>
@@ -8835,7 +8859,7 @@
       <c r="B12" s="46" t="s">
         <v>593</v>
       </c>
-      <c r="D12" s="80">
+      <c r="D12" s="63">
         <v>12345678</v>
       </c>
     </row>
@@ -8846,7 +8870,7 @@
       <c r="B13" s="46" t="s">
         <v>575</v>
       </c>
-      <c r="D13" s="84" t="s">
+      <c r="D13" s="67" t="s">
         <v>577</v>
       </c>
     </row>
@@ -8857,51 +8881,51 @@
       <c r="B14" s="46" t="s">
         <v>594</v>
       </c>
-      <c r="D14" s="84" t="s">
+      <c r="D14" s="67" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="67" t="s">
         <v>577</v>
       </c>
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="67" t="s">
         <v>577</v>
       </c>
-      <c r="D15" s="84" t="s">
+      <c r="D15" s="67" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="84" t="s">
+      <c r="A16" s="67" t="s">
         <v>578</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="67" t="s">
         <v>578</v>
       </c>
-      <c r="D16" s="80" t="s">
+      <c r="D16" s="63" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="84" t="s">
+      <c r="A17" s="67" t="s">
         <v>579</v>
       </c>
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="67" t="s">
         <v>579</v>
       </c>
-      <c r="D17" s="85" t="s">
+      <c r="D17" s="68" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="84" t="s">
+      <c r="A18" s="67" t="s">
         <v>580</v>
       </c>
-      <c r="B18" s="84" t="s">
+      <c r="B18" s="67" t="s">
         <v>595</v>
       </c>
-      <c r="D18" s="80" t="s">
+      <c r="D18" s="63" t="s">
         <v>621</v>
       </c>
     </row>
@@ -8909,10 +8933,10 @@
       <c r="A19" s="46" t="s">
         <v>581</v>
       </c>
-      <c r="B19" s="84" t="s">
+      <c r="B19" s="67" t="s">
         <v>596</v>
       </c>
-      <c r="D19" s="85" t="s">
+      <c r="D19" s="68" t="s">
         <v>622</v>
       </c>
     </row>
@@ -8920,15 +8944,15 @@
       <c r="A20" s="46" t="s">
         <v>582</v>
       </c>
-      <c r="B20" s="84" t="s">
+      <c r="B20" s="67" t="s">
         <v>597</v>
       </c>
-      <c r="D20" s="86" t="s">
+      <c r="D20" s="69" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="80" t="s">
+      <c r="D21" s="63" t="s">
         <v>599</v>
       </c>
     </row>
@@ -8942,4 +8966,187 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="28"/>
+      <c r="B1" s="28" t="s">
+        <v>559</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>560</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>561</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="28">
+        <v>1</v>
+      </c>
+      <c r="B2" s="87" t="s">
+        <v>628</v>
+      </c>
+      <c r="C2" s="87" t="s">
+        <v>628</v>
+      </c>
+      <c r="D2" s="87" t="s">
+        <v>628</v>
+      </c>
+      <c r="E2" s="87" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="28">
+        <v>2</v>
+      </c>
+      <c r="B3" s="87" t="s">
+        <v>628</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>629</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>629</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="28">
+        <v>3</v>
+      </c>
+      <c r="B4" s="87" t="s">
+        <v>628</v>
+      </c>
+      <c r="C4" s="88" t="s">
+        <v>630</v>
+      </c>
+      <c r="D4" s="88" t="s">
+        <v>630</v>
+      </c>
+      <c r="E4" s="88" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="28">
+        <v>4</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>629</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>629</v>
+      </c>
+      <c r="D5" s="88" t="s">
+        <v>630</v>
+      </c>
+      <c r="E5" s="87" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="28">
+        <v>5</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>629</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>630</v>
+      </c>
+      <c r="D6" s="87" t="s">
+        <v>628</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="28">
+        <v>6</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>629</v>
+      </c>
+      <c r="C7" s="87" t="s">
+        <v>628</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>629</v>
+      </c>
+      <c r="E7" s="88" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="28">
+        <v>7</v>
+      </c>
+      <c r="B8" s="88" t="s">
+        <v>630</v>
+      </c>
+      <c r="C8" s="88" t="s">
+        <v>630</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>629</v>
+      </c>
+      <c r="E8" s="87" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="28">
+        <v>8</v>
+      </c>
+      <c r="B9" s="88" t="s">
+        <v>630</v>
+      </c>
+      <c r="C9" s="87" t="s">
+        <v>628</v>
+      </c>
+      <c r="D9" s="88" t="s">
+        <v>630</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="28">
+        <v>9</v>
+      </c>
+      <c r="B10" s="88" t="s">
+        <v>630</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>629</v>
+      </c>
+      <c r="D10" s="87" t="s">
+        <v>628</v>
+      </c>
+      <c r="E10" s="88" t="s">
+        <v>630</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/webform_testing.xlsx
+++ b/webform_testing.xlsx
@@ -13,14 +13,15 @@
     <sheet name="Тест кейсы" sheetId="5" r:id="rId4"/>
     <sheet name="Bug report" sheetId="2" r:id="rId5"/>
     <sheet name="Данные " sheetId="8" r:id="rId6"/>
-    <sheet name="Pairwise" sheetId="9" r:id="rId7"/>
+    <sheet name="Лист1" sheetId="10" r:id="rId7"/>
+    <sheet name="Pairwise" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="689">
   <si>
     <t>Требования к
 https://itcareer.pythonanywhere.com/</t>
@@ -2238,13 +2239,197 @@
     <t>qwerty@123</t>
   </si>
   <si>
-    <t>valid</t>
-  </si>
-  <si>
-    <t>invalid</t>
-  </si>
-  <si>
-    <t>empty</t>
+    <t>валидные</t>
+  </si>
+  <si>
+    <t>невалидные</t>
+  </si>
+  <si>
+    <t>Для проверки требований 
+F-13/1, F-13/2, F-13/3, F-13/4
+F-12/1, F-12/2, F-12/3, F-12/4
+F-11/3</t>
+  </si>
+  <si>
+    <t>mail.ru</t>
+  </si>
+  <si>
+    <t>testing@.ru</t>
+  </si>
+  <si>
+    <t>testing@mail.ru</t>
+  </si>
+  <si>
+    <t>test@mail.ru</t>
+  </si>
+  <si>
+    <t>tes@mail.ru</t>
+  </si>
+  <si>
+    <t>testi@mail.ru</t>
+  </si>
+  <si>
+    <t>testingtestingtestingtestingtestingtestingtestingtestingtestingt@mail.ru</t>
+  </si>
+  <si>
+    <t>testingtestingtestingtestingtestingtestingtestingtestingtesting@mail.ru</t>
+  </si>
+  <si>
+    <t>Имя почтового ящика (до @)</t>
+  </si>
+  <si>
+    <t>testing123@mail.ru</t>
+  </si>
+  <si>
+    <t>t.es-ting@mail.ru</t>
+  </si>
+  <si>
+    <t>~`!@#$%^~`!@#$%^
+&amp;*'()_+=-\|&lt;/&gt;{.}[,]";:?@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  testing @mail.ru</t>
+  </si>
+  <si>
+    <t>test ing@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         @mail.ru</t>
+  </si>
+  <si>
+    <t>..testing@mail.ru</t>
+  </si>
+  <si>
+    <t>TESTING@mail.ru</t>
+  </si>
+  <si>
+    <t>12312442112@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testingtestingtestingtestingtestingtestingtestingtestingtestingti@mail.ru
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тестинг@mail.ru
+</t>
+  </si>
+  <si>
+    <t>testing@m.ru</t>
+  </si>
+  <si>
+    <t>testing@mai.ru</t>
+  </si>
+  <si>
+    <t>testing@ma.ru</t>
+  </si>
+  <si>
+    <t>testing@mail123.ru</t>
+  </si>
+  <si>
+    <t>testing@mailmailmailmailmailmailmailmail.ru</t>
+  </si>
+  <si>
+    <t>testing@mailmailmailmailmailmailmailmai.ru</t>
+  </si>
+  <si>
+    <t>testing@mailmailmailmailmailmailmailmailm.ru</t>
+  </si>
+  <si>
+    <t>testing@m.a-il.ru</t>
+  </si>
+  <si>
+    <t>testing@~`!@#$%^~`!@#$%^
+&amp;*'()_+=-\|&lt;/&gt;{.}[,]";:?.ru</t>
+  </si>
+  <si>
+    <t>tesing@ mail .ru</t>
+  </si>
+  <si>
+    <t>testing@ma il.ru</t>
+  </si>
+  <si>
+    <t>testing@         .ru</t>
+  </si>
+  <si>
+    <t>testing@маил.ru</t>
+  </si>
+  <si>
+    <t>testing@ma--il.ru</t>
+  </si>
+  <si>
+    <t>testing@MAIL.ru</t>
+  </si>
+  <si>
+    <t>testing@1242153511414.ru</t>
+  </si>
+  <si>
+    <t>testing@.mail.ru</t>
+  </si>
+  <si>
+    <t>testing@mail.</t>
+  </si>
+  <si>
+    <t>testing@mail.r</t>
+  </si>
+  <si>
+    <t>testing@mail.ruu</t>
+  </si>
+  <si>
+    <t>testing@mail.ruuuuuuuuuuuuuu</t>
+  </si>
+  <si>
+    <t>testing@mail.ruuuuuuuuuuuuuuu</t>
+  </si>
+  <si>
+    <t>testing@mail.ruuuuuuuuuuuuuuuu</t>
+  </si>
+  <si>
+    <t>testing@mail.123</t>
+  </si>
+  <si>
+    <t>testing@mail.~`!@#$%^~`!@#$%^</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testing@mail. ru </t>
+  </si>
+  <si>
+    <t>testing@mail.r u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testing@mail.       </t>
+  </si>
+  <si>
+    <t>testing@mail.ру</t>
+  </si>
+  <si>
+    <t>testing@mail.123ru</t>
+  </si>
+  <si>
+    <t>testing@mail..ru</t>
+  </si>
+  <si>
+    <t>testing@mail.ru..</t>
+  </si>
+  <si>
+    <t>testing@@mail.ru</t>
+  </si>
+  <si>
+    <t>testingmail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testingtestingtestingtestingtestingtestingtestingtestingtestingt@mailmailmailmailmailmailmailmail@ruuuuuuuuuuuuuuu
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testingtestingtestingtestingtestingtestingtestingtestingtestingte@mailmailmailmailmailmailmailmaiml@ruuuuuuuuuuuuuuuu
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testingtestingtestingtestingtestingtestingtestingtestingtesting@mailmailmailmailmailmailmailmai@ruuuuuuuuuuuuuu
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -2616,7 +2801,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2795,6 +2980,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2846,8 +3033,18 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -3513,11 +3710,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
@@ -3534,7 +3731,7 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="82" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -3545,7 +3742,7 @@
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="81"/>
+      <c r="B4" s="83"/>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
@@ -3554,7 +3751,7 @@
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="81"/>
+      <c r="B5" s="83"/>
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
@@ -3563,7 +3760,7 @@
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="82"/>
+      <c r="B6" s="84"/>
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
@@ -3572,7 +3769,7 @@
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="85" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -3583,7 +3780,7 @@
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="81"/>
+      <c r="B8" s="83"/>
       <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
@@ -3592,7 +3789,7 @@
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="82"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
@@ -3645,10 +3842,10 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="73"/>
+      <c r="C14" s="75"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -3666,7 +3863,7 @@
       <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="85" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -3677,7 +3874,7 @@
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="81"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="4" t="s">
         <v>39</v>
       </c>
@@ -3686,7 +3883,7 @@
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="82"/>
+      <c r="B18" s="84"/>
       <c r="C18" s="4" t="s">
         <v>41</v>
       </c>
@@ -3695,7 +3892,7 @@
       <c r="A19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="84" t="s">
+      <c r="B19" s="86" t="s">
         <v>43</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -3706,7 +3903,7 @@
       <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="84"/>
+      <c r="B20" s="86"/>
       <c r="C20" s="4" t="s">
         <v>46</v>
       </c>
@@ -3715,7 +3912,7 @@
       <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="84"/>
+      <c r="B21" s="86"/>
       <c r="C21" s="4" t="s">
         <v>48</v>
       </c>
@@ -3724,7 +3921,7 @@
       <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="84"/>
+      <c r="B22" s="86"/>
       <c r="C22" s="4" t="s">
         <v>50</v>
       </c>
@@ -4039,10 +4236,10 @@
     </row>
     <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
-      <c r="B51" s="70" t="s">
+      <c r="B51" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="C51" s="71"/>
+      <c r="C51" s="73"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -4156,10 +4353,10 @@
     </row>
     <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12"/>
-      <c r="B62" s="72" t="s">
+      <c r="B62" s="74" t="s">
         <v>156</v>
       </c>
-      <c r="C62" s="73"/>
+      <c r="C62" s="75"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -4273,10 +4470,10 @@
     </row>
     <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="14"/>
-      <c r="B73" s="74" t="s">
+      <c r="B73" s="76" t="s">
         <v>169</v>
       </c>
-      <c r="C73" s="75"/>
+      <c r="C73" s="77"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
@@ -4401,10 +4598,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="15"/>
-      <c r="B85" s="76" t="s">
+      <c r="B85" s="78" t="s">
         <v>188</v>
       </c>
-      <c r="C85" s="77"/>
+      <c r="C85" s="79"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
@@ -4555,11 +4752,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="88" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
@@ -4567,11 +4764,11 @@
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="88" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
@@ -4579,16 +4776,16 @@
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="87" t="s">
         <v>265</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
     </row>
     <row r="4" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
@@ -4721,16 +4918,16 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="85" t="s">
+      <c r="A9" s="87" t="s">
         <v>282</v>
       </c>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
     </row>
     <row r="10" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
@@ -4837,16 +5034,16 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="85" t="s">
+      <c r="A14" s="87" t="s">
         <v>291</v>
       </c>
-      <c r="B14" s="85"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
     </row>
     <row r="15" spans="1:8" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
@@ -5135,16 +5332,16 @@
       </c>
     </row>
     <row r="26" spans="1:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="85" t="s">
+      <c r="A26" s="87" t="s">
         <v>318</v>
       </c>
-      <c r="B26" s="85"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="87"/>
     </row>
     <row r="27" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
@@ -5601,11 +5798,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="88" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
@@ -5613,11 +5810,11 @@
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="88" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
@@ -5625,16 +5822,16 @@
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="87" t="s">
         <v>338</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
     </row>
     <row r="4" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
@@ -5819,16 +6016,16 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="87" t="s">
         <v>351</v>
       </c>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
     </row>
     <row r="12" spans="1:8" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
@@ -5987,16 +6184,16 @@
       </c>
     </row>
     <row r="18" spans="1:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="85" t="s">
+      <c r="A18" s="87" t="s">
         <v>382</v>
       </c>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
     </row>
     <row r="19" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
@@ -6736,16 +6933,16 @@
       <c r="CE36" s="34"/>
     </row>
     <row r="37" spans="1:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="85" t="s">
+      <c r="A37" s="87" t="s">
         <v>318</v>
       </c>
-      <c r="B37" s="85"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="85"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="85"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="87"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="87"/>
+      <c r="H37" s="87"/>
       <c r="K37" s="34"/>
       <c r="N37" s="34"/>
       <c r="Q37" s="34"/>
@@ -7065,18 +7262,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="88" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="88" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
@@ -8572,18 +8769,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="88" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="88" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -8714,10 +8911,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8725,10 +8922,13 @@
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" customWidth="1"/>
+    <col min="10" max="10" width="48.85546875" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>559</v>
       </c>
@@ -8742,29 +8942,32 @@
         <v>562</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
         <v>563</v>
       </c>
       <c r="B2" s="64" t="s">
         <v>583</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
         <v>564</v>
       </c>
       <c r="B3" s="64" t="s">
         <v>584</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="64" t="s">
         <v>565</v>
       </c>
@@ -8775,7 +8978,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="64" t="s">
         <v>566</v>
       </c>
@@ -8786,7 +8989,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="64" t="s">
         <v>567</v>
       </c>
@@ -8797,7 +9000,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="64" t="s">
         <v>568</v>
       </c>
@@ -8808,29 +9011,29 @@
         <v>623</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="64" t="s">
         <v>569</v>
       </c>
       <c r="B8" s="64" t="s">
         <v>589</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="64" t="s">
         <v>570</v>
       </c>
       <c r="B9" s="64" t="s">
         <v>590</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="66" t="s">
         <v>571</v>
       </c>
@@ -8841,7 +9044,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="66" t="s">
         <v>572</v>
       </c>
@@ -8852,7 +9055,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
         <v>574</v>
       </c>
@@ -8863,7 +9066,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="46" t="s">
         <v>575</v>
       </c>
@@ -8874,7 +9077,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="46" t="s">
         <v>576</v>
       </c>
@@ -8885,7 +9088,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="67" t="s">
         <v>577</v>
       </c>
@@ -8896,7 +9099,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="67" t="s">
         <v>578</v>
       </c>
@@ -8907,7 +9110,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="67" t="s">
         <v>579</v>
       </c>
@@ -8918,7 +9121,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="67" t="s">
         <v>580</v>
       </c>
@@ -8956,29 +9159,1741 @@
         <v>599</v>
       </c>
     </row>
+    <row r="41" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K41" s="59"/>
+    </row>
+    <row r="42" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K42" s="59"/>
+    </row>
+    <row r="43" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K43" s="59"/>
+    </row>
+    <row r="44" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K44" s="59"/>
+    </row>
+    <row r="45" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K45" s="59"/>
+    </row>
+    <row r="46" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K46" s="59"/>
+    </row>
+    <row r="47" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K47" s="59"/>
+    </row>
+    <row r="48" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K48" s="59"/>
+    </row>
+    <row r="49" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K49" s="59"/>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D8" r:id="rId3"/>
-    <hyperlink ref="D9" r:id="rId4"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="92" t="s">
+        <v>559</v>
+      </c>
+      <c r="B1" s="93" t="s">
+        <v>560</v>
+      </c>
+      <c r="C1" s="93" t="s">
+        <v>561</v>
+      </c>
+      <c r="D1" s="93" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="64" t="s">
+        <v>563</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>585</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="64" t="s">
+        <v>564</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>585</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="94" t="s">
+        <v>565</v>
+      </c>
+      <c r="B4" s="94" t="s">
+        <v>585</v>
+      </c>
+      <c r="C4" s="94" t="s">
+        <v>633</v>
+      </c>
+      <c r="D4" s="94" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="64" t="s">
+        <v>566</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>585</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="64" t="s">
+        <v>567</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>585</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>598</v>
+      </c>
+      <c r="I6" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="64" t="s">
+        <v>568</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>585</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="64" t="s">
+        <v>569</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>585</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="64" t="s">
+        <v>570</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>585</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="66" t="s">
+        <v>571</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>585</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="66" t="s">
+        <v>572</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>585</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
+        <v>574</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>585</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="46" t="s">
+        <v>575</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>585</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="46" t="s">
+        <v>576</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>585</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="67" t="s">
+        <v>577</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>585</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="67" t="s">
+        <v>578</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>585</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="67" t="s">
+        <v>579</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>585</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="67" t="s">
+        <v>580</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>585</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="46" t="s">
+        <v>581</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>585</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="46" t="s">
+        <v>582</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>585</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B21" s="64" t="s">
+        <v>583</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B22" s="64" t="s">
+        <v>584</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B23" s="65" t="s">
+        <v>586</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B24" s="64" t="s">
+        <v>587</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B25" s="64" t="s">
+        <v>588</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B26" s="64" t="s">
+        <v>589</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B27" s="64" t="s">
+        <v>590</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A28" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B28" s="66" t="s">
+        <v>591</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B29" s="66" t="s">
+        <v>592</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>593</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B31" s="46" t="s">
+        <v>575</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B32" s="46" t="s">
+        <v>594</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B33" s="67" t="s">
+        <v>577</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B34" s="67" t="s">
+        <v>578</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A35" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B35" s="67" t="s">
+        <v>579</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B36" s="67" t="s">
+        <v>595</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B37" s="67" t="s">
+        <v>596</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B38" s="67" t="s">
+        <v>597</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B39" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C39" t="s">
+        <v>631</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B40" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C40" s="91" t="s">
+        <v>635</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B41" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C41" s="91" t="s">
+        <v>636</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B42" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C42" s="91" t="s">
+        <v>634</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B43" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C43" s="91" t="s">
+        <v>640</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A44" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B44" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C44" s="91" t="s">
+        <v>637</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A45" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B45" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C45" s="91" t="s">
+        <v>638</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B46" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C46" s="91" t="s">
+        <v>641</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B47" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>642</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B48" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C48" t="s">
+        <v>643</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B49" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C49" t="s">
+        <v>644</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B50" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C50" t="s">
+        <v>645</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B51" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C51" s="67" t="s">
+        <v>579</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B52" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C52" s="67" t="s">
+        <v>578</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B53" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C53" s="91" t="s">
+        <v>649</v>
+      </c>
+      <c r="D53" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B54" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C54" s="91" t="s">
+        <v>650</v>
+      </c>
+      <c r="D54" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B55" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C55" s="91" t="s">
+        <v>646</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B56" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C56" s="91" t="s">
+        <v>647</v>
+      </c>
+      <c r="D56" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B57" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C57" s="91" t="s">
+        <v>633</v>
+      </c>
+      <c r="D57" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B58" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C58" s="91" t="s">
+        <v>648</v>
+      </c>
+      <c r="D58" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B59" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C59" s="59" t="s">
+        <v>632</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B60" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C60" s="59" t="s">
+        <v>651</v>
+      </c>
+      <c r="D60" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B61" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C61" s="59" t="s">
+        <v>652</v>
+      </c>
+      <c r="D61" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B62" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C62" s="59" t="s">
+        <v>653</v>
+      </c>
+      <c r="D62" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B63" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C63" s="59" t="s">
+        <v>654</v>
+      </c>
+      <c r="D63" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B64" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C64" s="59" t="s">
+        <v>655</v>
+      </c>
+      <c r="D64" s="28" t="s">
+        <v>598</v>
+      </c>
+      <c r="E64" s="91"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B65" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C65" s="59" t="s">
+        <v>656</v>
+      </c>
+      <c r="D65" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B66" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C66" s="59" t="s">
+        <v>657</v>
+      </c>
+      <c r="D66" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B67" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C67" s="59" t="s">
+        <v>658</v>
+      </c>
+      <c r="D67" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A68" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B68" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C68" s="91" t="s">
+        <v>659</v>
+      </c>
+      <c r="D68" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B69" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C69" s="59" t="s">
+        <v>660</v>
+      </c>
+      <c r="D69" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B70" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C70" s="59" t="s">
+        <v>661</v>
+      </c>
+      <c r="D70" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B71" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C71" s="59" t="s">
+        <v>662</v>
+      </c>
+      <c r="D71" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B72" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C72" s="59" t="s">
+        <v>663</v>
+      </c>
+      <c r="D72" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B73" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C73" s="59" t="s">
+        <v>664</v>
+      </c>
+      <c r="D73" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B74" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C74" s="59" t="s">
+        <v>665</v>
+      </c>
+      <c r="D74" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B75" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C75" s="59" t="s">
+        <v>666</v>
+      </c>
+      <c r="D75" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B76" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C76" s="59" t="s">
+        <v>667</v>
+      </c>
+      <c r="D76" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B77" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C77" s="59" t="s">
+        <v>668</v>
+      </c>
+      <c r="D77" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B78" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C78" s="59" t="s">
+        <v>669</v>
+      </c>
+      <c r="D78" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B79" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C79" s="59" t="s">
+        <v>670</v>
+      </c>
+      <c r="D79" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B80" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C80" s="59" t="s">
+        <v>671</v>
+      </c>
+      <c r="D80" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B81" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C81" s="59" t="s">
+        <v>672</v>
+      </c>
+      <c r="D81" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B82" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C82" s="59" t="s">
+        <v>673</v>
+      </c>
+      <c r="D82" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B83" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C83" s="59" t="s">
+        <v>674</v>
+      </c>
+      <c r="D83" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B84" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C84" s="59" t="s">
+        <v>675</v>
+      </c>
+      <c r="D84" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B85" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C85" s="59" t="s">
+        <v>676</v>
+      </c>
+      <c r="D85" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B86" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C86" s="59" t="s">
+        <v>677</v>
+      </c>
+      <c r="D86" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B87" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C87" s="59" t="s">
+        <v>678</v>
+      </c>
+      <c r="D87" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B88" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C88" s="59" t="s">
+        <v>679</v>
+      </c>
+      <c r="D88" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B89" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C89" s="59" t="s">
+        <v>680</v>
+      </c>
+      <c r="D89" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B90" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C90" s="59" t="s">
+        <v>681</v>
+      </c>
+      <c r="D90" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B91" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C91" s="59" t="s">
+        <v>682</v>
+      </c>
+      <c r="D91" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B92" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C92" t="s">
+        <v>683</v>
+      </c>
+      <c r="D92" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B93" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C93" t="s">
+        <v>684</v>
+      </c>
+      <c r="D93" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A94" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B94" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C94" s="91" t="s">
+        <v>685</v>
+      </c>
+      <c r="D94" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A95" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B95" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C95" s="91" t="s">
+        <v>686</v>
+      </c>
+      <c r="D95" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B96" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C96" s="91" t="s">
+        <v>687</v>
+      </c>
+      <c r="D96" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B97" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C97" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D97" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B98" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C98" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D98" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B99" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C99" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D99" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B100" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C100" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D100" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B101" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C101" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D101" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B102" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C102" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D102" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B103" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C103" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D103" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B104" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C104" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D104" s="63" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B105" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C105" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D105" s="63" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B106" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C106" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D106" s="63">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A107" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B107" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C107" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D107" s="67" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B108" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C108" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D108" s="67" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A109" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B109" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C109" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D109" s="67" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B110" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C110" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D110" s="63" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B111" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C111" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D111" s="68" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B112" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C112" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D112" s="63" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B113" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C113" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D113" s="68" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B114" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C114" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D114" s="69" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B115" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C115" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D115" s="63" t="s">
+        <v>599</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C40" r:id="rId1"/>
+    <hyperlink ref="C41" r:id="rId2"/>
+    <hyperlink ref="C42" r:id="rId3"/>
+    <hyperlink ref="C43" r:id="rId4"/>
+    <hyperlink ref="C44" r:id="rId5"/>
+    <hyperlink ref="C45" r:id="rId6"/>
+    <hyperlink ref="C46" r:id="rId7"/>
+    <hyperlink ref="C53" r:id="rId8"/>
+    <hyperlink ref="C54" r:id="rId9"/>
+    <hyperlink ref="C55" r:id="rId10"/>
+    <hyperlink ref="C56" r:id="rId11"/>
+    <hyperlink ref="C57" r:id="rId12"/>
+    <hyperlink ref="C58" r:id="rId13"/>
+    <hyperlink ref="C59" r:id="rId14"/>
+    <hyperlink ref="C60" r:id="rId15" display="testing@.ru"/>
+    <hyperlink ref="C61" r:id="rId16"/>
+    <hyperlink ref="C62" r:id="rId17"/>
+    <hyperlink ref="C63" r:id="rId18"/>
+    <hyperlink ref="C64" r:id="rId19"/>
+    <hyperlink ref="C65" r:id="rId20"/>
+    <hyperlink ref="C66" r:id="rId21"/>
+    <hyperlink ref="C67" r:id="rId22"/>
+    <hyperlink ref="C68" r:id="rId23"/>
+    <hyperlink ref="C69" r:id="rId24"/>
+    <hyperlink ref="C70" r:id="rId25"/>
+    <hyperlink ref="C71" r:id="rId26"/>
+    <hyperlink ref="C72" r:id="rId27"/>
+    <hyperlink ref="C73" r:id="rId28"/>
+    <hyperlink ref="C74" r:id="rId29"/>
+    <hyperlink ref="C75" r:id="rId30"/>
+    <hyperlink ref="C76" r:id="rId31"/>
+    <hyperlink ref="C77" r:id="rId32"/>
+    <hyperlink ref="C78" r:id="rId33"/>
+    <hyperlink ref="C79" r:id="rId34"/>
+    <hyperlink ref="C80" r:id="rId35"/>
+    <hyperlink ref="C81" r:id="rId36"/>
+    <hyperlink ref="C82" r:id="rId37"/>
+    <hyperlink ref="C83" r:id="rId38"/>
+    <hyperlink ref="C84" r:id="rId39"/>
+    <hyperlink ref="C85" r:id="rId40"/>
+    <hyperlink ref="C86" r:id="rId41"/>
+    <hyperlink ref="C87" r:id="rId42"/>
+    <hyperlink ref="C88" r:id="rId43"/>
+    <hyperlink ref="C89" r:id="rId44"/>
+    <hyperlink ref="C90" r:id="rId45"/>
+    <hyperlink ref="C91" r:id="rId46"/>
+    <hyperlink ref="C94" r:id="rId47"/>
+    <hyperlink ref="C95" r:id="rId48"/>
+    <hyperlink ref="C96" r:id="rId49"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="28"/>
       <c r="B1" s="28" t="s">
         <v>559</v>
@@ -8993,28 +10908,28 @@
         <v>562</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="70" t="s">
         <v>628</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="70" t="s">
         <v>628</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="70" t="s">
         <v>628</v>
       </c>
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="70" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="28">
         <v>2</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="70" t="s">
         <v>628</v>
       </c>
       <c r="C3" s="46" t="s">
@@ -9026,25 +10941,35 @@
       <c r="E3" s="46" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" s="90" t="s">
+        <v>630</v>
+      </c>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="28">
         <v>3</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="70" t="s">
         <v>628</v>
       </c>
-      <c r="C4" s="88" t="s">
-        <v>630</v>
-      </c>
-      <c r="D4" s="88" t="s">
-        <v>630</v>
-      </c>
-      <c r="E4" s="88" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="71" t="s">
+        <v>575</v>
+      </c>
+      <c r="D4" s="71" t="s">
+        <v>575</v>
+      </c>
+      <c r="E4" s="71" t="s">
+        <v>575</v>
+      </c>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="28">
         <v>4</v>
       </c>
@@ -9054,99 +10979,118 @@
       <c r="C5" s="46" t="s">
         <v>629</v>
       </c>
-      <c r="D5" s="88" t="s">
-        <v>630</v>
-      </c>
-      <c r="E5" s="87" t="s">
+      <c r="D5" s="71" t="s">
+        <v>575</v>
+      </c>
+      <c r="E5" s="70" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="28">
         <v>5</v>
       </c>
       <c r="B6" s="46" t="s">
         <v>629</v>
       </c>
-      <c r="C6" s="88" t="s">
-        <v>630</v>
-      </c>
-      <c r="D6" s="87" t="s">
+      <c r="C6" s="71" t="s">
+        <v>575</v>
+      </c>
+      <c r="D6" s="70" t="s">
         <v>628</v>
       </c>
       <c r="E6" s="46" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>6</v>
       </c>
       <c r="B7" s="46" t="s">
         <v>629</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="70" t="s">
         <v>628</v>
       </c>
       <c r="D7" s="46" t="s">
         <v>629</v>
       </c>
-      <c r="E7" s="88" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="71" t="s">
+        <v>575</v>
+      </c>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>7</v>
       </c>
-      <c r="B8" s="88" t="s">
-        <v>630</v>
-      </c>
-      <c r="C8" s="88" t="s">
-        <v>630</v>
+      <c r="B8" s="71" t="s">
+        <v>575</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>575</v>
       </c>
       <c r="D8" s="46" t="s">
         <v>629</v>
       </c>
-      <c r="E8" s="87" t="s">
+      <c r="E8" s="70" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>8</v>
       </c>
-      <c r="B9" s="88" t="s">
-        <v>630</v>
-      </c>
-      <c r="C9" s="87" t="s">
+      <c r="B9" s="71" t="s">
+        <v>575</v>
+      </c>
+      <c r="C9" s="70" t="s">
         <v>628</v>
       </c>
-      <c r="D9" s="88" t="s">
-        <v>630</v>
+      <c r="D9" s="71" t="s">
+        <v>575</v>
       </c>
       <c r="E9" s="46" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>9</v>
       </c>
-      <c r="B10" s="88" t="s">
-        <v>630</v>
+      <c r="B10" s="71" t="s">
+        <v>575</v>
       </c>
       <c r="C10" s="46" t="s">
         <v>629</v>
       </c>
-      <c r="D10" s="87" t="s">
+      <c r="D10" s="70" t="s">
         <v>628</v>
       </c>
-      <c r="E10" s="88" t="s">
-        <v>630</v>
+      <c r="E10" s="71" t="s">
+        <v>575</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G3:J8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/webform_testing.xlsx
+++ b/webform_testing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Требования" sheetId="1" r:id="rId1"/>
@@ -12,16 +12,15 @@
     <sheet name="Граничные значения" sheetId="7" r:id="rId3"/>
     <sheet name="Тест кейсы" sheetId="5" r:id="rId4"/>
     <sheet name="Bug report" sheetId="2" r:id="rId5"/>
-    <sheet name="Данные " sheetId="8" r:id="rId6"/>
-    <sheet name="Лист1" sheetId="10" r:id="rId7"/>
-    <sheet name="Pairwise" sheetId="9" r:id="rId8"/>
+    <sheet name="Лист1" sheetId="10" r:id="rId6"/>
+    <sheet name="Pairwise" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="788">
   <si>
     <t>Требования к
 https://itcareer.pythonanywhere.com/</t>
@@ -1653,11 +1652,6 @@
     </r>
   </si>
   <si>
-    <t>1. Заполнить поля Name: Test
-Surame: Testovich
-Email: testing@mail.ru</t>
-  </si>
-  <si>
     <r>
       <t>Поле Password не является обязательным к заполнению, Под кнопкой "Submit" отображается сообщение "Success Hello:</t>
     </r>
@@ -1706,10 +1700,6 @@
 2.Снять фокус с поля</t>
   </si>
   <si>
-    <t>1.Ввести в поле Surname:__Testovich
-2.Снять фокус с поля</t>
-  </si>
-  <si>
     <t>1.Ввести в поле Email:testing@@mail.ru
 2.Снять фокус с поля</t>
   </si>
@@ -1736,22 +1726,7 @@
     <t xml:space="preserve">Поле не изменяет свое состояние вводе количества символов больше допустимого </t>
   </si>
   <si>
-    <t>1.Ввести в поле Name:Testovichtttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttt</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.Ввести в поле Email:testing@mail.ruuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuu
-</t>
-  </si>
-  <si>
-    <t>1. Заполнить поля
-Surame: Testovich
-Email:testing@mail.ru
-Password: Qwerty@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Заполнить поля Name: Test
-Surame: Testovich
-Password: Qwerty@123
 </t>
   </si>
   <si>
@@ -1865,13 +1840,6 @@
     <t xml:space="preserve">Валидация при нажатии кнопки "Submit" </t>
   </si>
   <si>
-    <t>1. Заполнить поля
-Name: Test
-Surame: Testovich
-Email:testing@mail.ru
-Password: Qwerty@123</t>
-  </si>
-  <si>
     <t>При наведении кнопка меняет цвет, появляется курсорпоинтер, при клике отправляет данные на сервер</t>
   </si>
   <si>
@@ -1885,16 +1853,10 @@
     <t>Нажатии на клавишу отправляет данные на сервер</t>
   </si>
   <si>
-    <t>Проверить вход пользователя с корректными данными</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Нажать на клавишу "Enter"
 </t>
   </si>
   <si>
-    <t>Проверить вход пользователя с отправкой всех пустых полей</t>
-  </si>
-  <si>
     <t>TC-36</t>
   </si>
   <si>
@@ -1911,24 +1873,6 @@
   </si>
   <si>
     <t>TC-41</t>
-  </si>
-  <si>
-    <t>1. Заполнить поля
-Name: Test
-Email:testing@mail.ru
-Password: Qwerty@123</t>
-  </si>
-  <si>
-    <t>1. Заполнить поля
-Name: Test
-Surame: Testovich
-Password: Qwerty@123</t>
-  </si>
-  <si>
-    <t>1. Заполнить поля
-Name: Test
-Surame: Testovich
-Email:testing@mail.ru</t>
   </si>
   <si>
     <r>
@@ -2275,9 +2219,6 @@
     <t>testingtestingtestingtestingtestingtestingtestingtestingtesting@mail.ru</t>
   </si>
   <si>
-    <t>Имя почтового ящика (до @)</t>
-  </si>
-  <si>
     <t>testing123@mail.ru</t>
   </si>
   <si>
@@ -2430,6 +2371,1281 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Te
+Surame: Nurmalov
+Email:testing@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <r>
+      <t>Под кнопкой "Submit" отображается сообщение "Success Hello:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Te  Nurmalov</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"  в голубой рамке</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Tes
+Surame: Nurmalov
+Email:testing@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <r>
+      <t>Под кнопкой "Submit" отображается сообщение "Success Hello:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Test  Nurmalov</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"  в голубой рамке</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Под кнопкой "Submit" отображается сообщение "Success Hello:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Tes  Nurmalov</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"  в голубой рамке</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email:testing@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test123
+Surame: Nurmalov
+Email:testing@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <r>
+      <t>Под кнопкой "Submit" отображается сообщение "Success Hello:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Test123  Nurmalov</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"  в голубой рамке</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name:  Test 
+Surame: Nurmalov
+Email:testing@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Удаляет пробелы с начале и конце
+Под кнопкой "Submit" отображается сообщение "Success Hello:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  Test Nurmalov</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"  в голубой рамке</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name:  TEST
+Surame: Nurmalov
+Email:testing@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <r>
+      <t>Под кнопкой "Submit" отображается сообщение "Success Hello:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  TEST   Nurmalov</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"  в голубой рамке.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Удаляет пробелы с начале и конце
+Под кнопкой "Submit" отображается сообщение "Success Hello:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  TEST Nurmalov</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"  в голубой рамке</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name:  test
+Surame: Nurmalov
+Email:testing@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <r>
+      <t>Под кнопкой "Submit" отображается сообщение "Success Hello:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  test   Nurmalov</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"  в голубой рамке.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Удаляет пробелы с начале и конце
+Под кнопкой "Submit" отображается сообщение "Success Hello:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  test  Nurmalov</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"  в голубой рамке</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name:  testttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttt
+Surame: Nurmalov
+Email:testing@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <r>
+      <t>Под кнопкой "Submit" отображается сообщение "Success Hello:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  testttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttt   Nurmalov</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"  в голубой рамке.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name:  testtttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttt
+Surame: Nurmalov
+Email:testing@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <r>
+      <t>Под кнопкой "Submit" отображается сообщение "Success Hello:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  testtttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttt   Nurmalov</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"  в голубой рамке.</t>
+    </r>
+  </si>
+  <si>
+    <t>Отправка пробелов в поле Name</t>
+  </si>
+  <si>
+    <t>Отправка меньше минимального количества символов в поле Name</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Surame: Nurmalov
+Email:testing@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name:                        
+Surame: Nurmalov
+Email:testing@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: T                       
+Surame: Nurmalov
+Email:testing@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: ~`!@#$%^
+&amp;*'()_+=-\|&lt;/&gt;{.}[,]";:?
+Surame: Nurmalov
+Email:testing@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>Отправка спецсимволов  в поле Name</t>
+  </si>
+  <si>
+    <t>Отправка SQL-инъекцию  в поле Name</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: SELECT * from USERS
+Surame: Nurmalov
+Email:testing@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <r>
+      <t>Определяет  SQL-инъекцию как текст
+Под кнопкой "Submit" отображается сообщение "Success Hello:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  SELECT * from USERS  Nurmalov</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"  в голубой рамке</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: &lt;b&gt;data &lt;/b&gt;
+Surame: Nurmalov
+Email:testing@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>Отправка тэгов  в поле Name</t>
+  </si>
+  <si>
+    <r>
+      <t>Определяет  тэги как текст
+Под кнопкой "Submit" отображается сообщение "Success Hello:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  SELECT * from USERS  Nurmalov</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"  в голубой рамке</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: testtttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttt
+Surame: Nurmalov
+Email:testing@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: тест
+Surame: Nurmalov
+Email:testing@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <r>
+      <t>Определяет  тэги как текст
+Под кнопкой "Submit" отображается сообщение "Success Hello:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  тест  Nurmalov</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"  в голубой рамке</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: __Test
+Surame: Nurmalov
+Email:testing@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <r>
+      <t>Определяет  тэги как текст
+Под кнопкой "Submit" отображается сообщение "Success Hello:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  __Test  Nurmalov</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"  в голубой рамке</t>
+    </r>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с корректными данными поля Name</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с некорректными данными поля Name</t>
+  </si>
+  <si>
+    <t>Проверка вход пользователя с отправкой всех пустых полей</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя c двумя символами подряд в поле Name</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя c русскими символами в поле Name</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя c 129 символами (max+1) в поле Name</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя c максимальным количеством в поле Name</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя c 127 символами (max-1) в поле Name</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя c символами в нижнем регистре в поле Name</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя c символами в верхнем регистре в поле Name</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя c пробелами в начале и конце  в поле Name</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя c разрешенными спецсимволами  в поле Name</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя c арабскими цифрами  в поле Name</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя c четырями символами в поле Name</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с минимальным количеством символов+1 в поле Name</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с минимальным количеством символов в поле Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Заполнить поля Name: Test
+Surame: Nurmalov
+Password: Qwerty@123
+</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля Name: Test
+Surame: Nurmalov
+Email: testing@mail.ru</t>
+  </si>
+  <si>
+    <t>1.Ввести в поле Surname:__Nurmalov
+2.Снять фокус с поля</t>
+  </si>
+  <si>
+    <t>1.Ввести в поле Name:Nurmalovttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttt</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email:testing@mail.ru</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с некорректными данными поля Surname</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с корректными данными поля Surname</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с минимальным количеством символов в поле Surname</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nu
+Email:testing@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <r>
+      <t>Под кнопкой "Submit" отображается сообщение "Success Hello:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Test  Nu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"  в голубой рамке</t>
+    </r>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с минимальным количеством символов+1 в поле Surname</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nur
+Email:testing@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <r>
+      <t>Под кнопкой "Submit" отображается сообщение "Success Hello:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Test  Nur</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"  в голубой рамке</t>
+    </r>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с арабскими цифрами в поле Surname</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov123
+Email:testing@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <r>
+      <t>Под кнопкой "Submit" отображается сообщение "Success Hello:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Test  Nurmalov123</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"  в голубой рамке</t>
+    </r>
+  </si>
+  <si>
+    <t>Проверка входа пользователя c разрешенными спецсимволами  в поле Surname</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: N.ur,m-al_l ov'
+Email:testing@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <r>
+      <t>Под кнопкой "Submit" отображается сообщение "Success Hello:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Test  N.ur,m-al_l ov'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"  в голубой рамке</t>
+    </r>
+  </si>
+  <si>
+    <t>Проверка входа пользователя c пробелами в начале и конце  в поле Surname</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame:  Nurmalov 
+Email:testing@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <r>
+      <t>Удаляет пробелы с начале и конце
+Под кнопкой "Submit" отображается сообщение "Success Hello:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  Test   Nurmalov</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"  в голубой рамке.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: T.e,s -t_ n'
+Surame: Nurmalov
+Email:testing@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <r>
+      <t>Под кнопкой "Submit" отображается сообщение "Success Hello:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> T.e,s -t_ n' Nurmalov</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"  в голубой рамке</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Под кнопкой "Submit" отображается сообщение "Success Hello:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> T.e,s -t_ n'  Nurmalov</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"  в голубой рамке</t>
+    </r>
+  </si>
+  <si>
+    <t>Проверка входа пользователя c символами в верхнем регистре  в поле Surname</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: NURMALOV 
+Email:testing@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: nurmalov 
+Email:testing@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя c символами в нижнем регистре  в поле Surname</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя c 127 символами в поле Surname</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalovvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvv 
+Email:testing@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <r>
+      <t>Под кнопкой "Submit" отображается сообщение "Success Hello:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  Test   nurmalov</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"  в голубой рамке.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Под кнопкой "Submit" отображается сообщение "Success Hello:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  Test nurmalov</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"  в голубой рамке</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Под кнопкой "Submit" отображается сообщение "Success Hello:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  Test   NURMALOV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"  в голубой рамке.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Под кнопкой "Submit" отображается сообщение "Success Hello:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  Test NURMALOV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"  в голубой рамке</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Под кнопкой "Submit" отображается сообщение "Success Hello:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  Test   Nurmalovvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvv </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">"  в голубой рамке. </t>
+    </r>
+  </si>
+  <si>
+    <t>Проверка входа пользователя c 128 символами в поле Surname</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalovvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvv
+Email:testing@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <r>
+      <t>Под кнопкой "Submit" отображается сообщение "Success Hello:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  Test   Nurmalovvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">"  в голубой рамке. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Под кнопкой "Submit" отображается сообщение "Success Hello:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  Test Nurmalovvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">"  в голубой рамке
+Символы выходят за границы рамки </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Под кнопкой "Submit" отображается сообщение "Success Hello:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  Test Nurmalovvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvv </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">"  в голубой рамке
+Символы выходят за границы рамки </t>
+    </r>
+  </si>
+  <si>
+    <t>Отправка пробелов в поле Surname</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame:                         
+Email:testing@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>Отправка пустого  поля Surname</t>
+  </si>
+  <si>
+    <t>Отправка меньше минимального количества символов в поле Surname</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame:N
+Email:testing@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame:~`!@#$%^&amp;*'()_+=-\|&lt;/&gt;{.}[,]";:?
+Email:testing@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <r>
+      <t>Под кнопкой "Submit" отображается сообщение "Success Hello:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  Test ~`!@#$%^&amp;*'()_+=-\|&lt;/&gt;{.}[,]";:?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">"  в голубой рамке
+ </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Под кнопкой "Submit" отображается сообщение "Success Hello:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  Test N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">"  в голубой рамке
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Отправка спецсимволов в поле Surname</t>
+  </si>
+  <si>
+    <t>Отправка SQL-инъекции в поле Surname</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: SELECT * from USERS
+Email:testing@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <r>
+      <t>SQL-инъекция определяется как текст
+Под кнопкой "Submit" отображается сообщение "Success Hello:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  Test SELECT * from USERS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">"  в голубой рамке
+ </t>
+    </r>
+  </si>
+  <si>
+    <t>Отправка тэгов в поле Surname</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: &lt;b&gt;data &lt;/b&gt;
+Email:testing@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <r>
+      <t>Тэги  определяются как текст
+Под кнопкой "Submit" отображается сообщение "Success Hello:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  Test &lt;b&gt;data &lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">"  в голубой рамке
+ </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2491,7 +3707,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2555,6 +3771,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2801,7 +4035,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2982,6 +4216,12 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3034,17 +4274,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -3698,8 +4950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58:C58"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3710,11 +4962,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
@@ -3731,7 +4983,7 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="86" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -3742,7 +4994,7 @@
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="83"/>
+      <c r="B4" s="87"/>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
@@ -3751,7 +5003,7 @@
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="83"/>
+      <c r="B5" s="87"/>
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
@@ -3760,7 +5012,7 @@
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="84"/>
+      <c r="B6" s="88"/>
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
@@ -3769,7 +5021,7 @@
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="89" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -3780,7 +5032,7 @@
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="83"/>
+      <c r="B8" s="87"/>
       <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
@@ -3789,7 +5041,7 @@
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="84"/>
+      <c r="B9" s="88"/>
       <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
@@ -3842,10 +5094,10 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="75"/>
+      <c r="C14" s="79"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -3863,7 +5115,7 @@
       <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="89" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -3874,7 +5126,7 @@
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="83"/>
+      <c r="B17" s="87"/>
       <c r="C17" s="4" t="s">
         <v>39</v>
       </c>
@@ -3883,7 +5135,7 @@
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="84"/>
+      <c r="B18" s="88"/>
       <c r="C18" s="4" t="s">
         <v>41</v>
       </c>
@@ -3892,7 +5144,7 @@
       <c r="A19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="90" t="s">
         <v>43</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -3903,7 +5155,7 @@
       <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="86"/>
+      <c r="B20" s="90"/>
       <c r="C20" s="4" t="s">
         <v>46</v>
       </c>
@@ -3912,7 +5164,7 @@
       <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="86"/>
+      <c r="B21" s="90"/>
       <c r="C21" s="4" t="s">
         <v>48</v>
       </c>
@@ -3921,7 +5173,7 @@
       <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="86"/>
+      <c r="B22" s="90"/>
       <c r="C22" s="4" t="s">
         <v>50</v>
       </c>
@@ -4236,10 +5488,10 @@
     </row>
     <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
-      <c r="B51" s="72" t="s">
+      <c r="B51" s="76" t="s">
         <v>129</v>
       </c>
-      <c r="C51" s="73"/>
+      <c r="C51" s="77"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -4353,10 +5605,10 @@
     </row>
     <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12"/>
-      <c r="B62" s="74" t="s">
+      <c r="B62" s="78" t="s">
         <v>156</v>
       </c>
-      <c r="C62" s="75"/>
+      <c r="C62" s="79"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -4470,10 +5722,10 @@
     </row>
     <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="14"/>
-      <c r="B73" s="76" t="s">
+      <c r="B73" s="80" t="s">
         <v>169</v>
       </c>
-      <c r="C73" s="77"/>
+      <c r="C73" s="81"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
@@ -4598,10 +5850,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="15"/>
-      <c r="B85" s="78" t="s">
+      <c r="B85" s="82" t="s">
         <v>188</v>
       </c>
-      <c r="C85" s="79"/>
+      <c r="C85" s="83"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
@@ -4752,11 +6004,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="92" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
@@ -4764,11 +6016,11 @@
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="92" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
@@ -4776,16 +6028,16 @@
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="91" t="s">
         <v>265</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
     </row>
     <row r="4" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
@@ -4824,7 +6076,7 @@
         <v>81</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="E5" s="33" t="s">
         <v>274</v>
@@ -4850,7 +6102,7 @@
         <v>87</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="E6" s="33" t="s">
         <v>276</v>
@@ -4876,7 +6128,7 @@
         <v>101</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="E7" s="33" t="s">
         <v>277</v>
@@ -4902,7 +6154,7 @@
         <v>101</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="E8" s="35" t="s">
         <v>278</v>
@@ -4918,16 +6170,16 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="87" t="s">
+      <c r="A9" s="91" t="s">
         <v>282</v>
       </c>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
     </row>
     <row r="10" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
@@ -4943,7 +6195,7 @@
         <v>292</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="F10" s="36" t="s">
         <v>275</v>
@@ -4992,10 +6244,10 @@
         <v>103</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>92</v>
@@ -5018,10 +6270,10 @@
         <v>103</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>92</v>
@@ -5034,16 +6286,16 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="87" t="s">
+      <c r="A14" s="91" t="s">
         <v>291</v>
       </c>
-      <c r="B14" s="87"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
     </row>
     <row r="15" spans="1:8" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
@@ -5056,7 +6308,7 @@
         <v>81</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="E15" s="35" t="s">
         <v>296</v>
@@ -5082,7 +6334,7 @@
         <v>93</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="E16" s="35" t="s">
         <v>305</v>
@@ -5108,7 +6360,7 @@
         <v>105</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="E17" s="35" t="s">
         <v>301</v>
@@ -5134,7 +6386,7 @@
         <v>105</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="E18" s="35" t="s">
         <v>303</v>
@@ -5160,7 +6412,7 @@
         <v>93</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="E19" s="35" t="s">
         <v>307</v>
@@ -5186,7 +6438,7 @@
         <v>105</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="E20" s="35" t="s">
         <v>309</v>
@@ -5212,7 +6464,7 @@
         <v>105</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="E21" s="35" t="s">
         <v>311</v>
@@ -5238,7 +6490,7 @@
         <v>93</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="E22" s="35" t="s">
         <v>313</v>
@@ -5264,7 +6516,7 @@
         <v>105</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="E23" s="35" t="s">
         <v>315</v>
@@ -5290,7 +6542,7 @@
         <v>105</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="E24" s="35" t="s">
         <v>317</v>
@@ -5316,7 +6568,7 @@
         <v>105</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="E25" s="35" t="s">
         <v>381</v>
@@ -5332,16 +6584,16 @@
       </c>
     </row>
     <row r="26" spans="1:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="87" t="s">
+      <c r="A26" s="91" t="s">
         <v>318</v>
       </c>
-      <c r="B26" s="87"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="91"/>
     </row>
     <row r="27" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
@@ -5354,10 +6606,10 @@
         <v>81</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F27" s="36" t="s">
         <v>275</v>
@@ -5380,7 +6632,7 @@
         <v>96</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="E28" s="33" t="s">
         <v>335</v>
@@ -5406,7 +6658,7 @@
         <v>107</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="E29" s="33" t="s">
         <v>336</v>
@@ -5432,7 +6684,7 @@
         <v>107</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="E30" s="35" t="s">
         <v>337</v>
@@ -5798,11 +7050,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="92" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
@@ -5810,11 +7062,11 @@
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="92" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
@@ -5822,16 +7074,16 @@
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="91" t="s">
         <v>338</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
     </row>
     <row r="4" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
@@ -5870,7 +7122,7 @@
         <v>81</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="E5" s="33" t="s">
         <v>341</v>
@@ -5896,7 +7148,7 @@
         <v>81</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="E6" s="33" t="s">
         <v>345</v>
@@ -5922,7 +7174,7 @@
         <v>81</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="E7" s="35" t="s">
         <v>348</v>
@@ -5948,7 +7200,7 @@
         <v>81</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="E8" s="35" t="s">
         <v>350</v>
@@ -5974,7 +7226,7 @@
         <v>101</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="E9" s="33" t="s">
         <v>277</v>
@@ -6000,7 +7252,7 @@
         <v>101</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="E10" s="35" t="s">
         <v>278</v>
@@ -6016,16 +7268,16 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="91" t="s">
         <v>351</v>
       </c>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
     </row>
     <row r="12" spans="1:8" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
@@ -6041,7 +7293,7 @@
         <v>292</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="F12" s="36" t="s">
         <v>364</v>
@@ -6067,7 +7319,7 @@
         <v>292</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="F13" s="36" t="s">
         <v>375</v>
@@ -6093,7 +7345,7 @@
         <v>292</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="F14" s="36" t="s">
         <v>374</v>
@@ -6119,7 +7371,7 @@
         <v>292</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="F15" s="36" t="s">
         <v>373</v>
@@ -6145,7 +7397,7 @@
         <v>292</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>92</v>
@@ -6171,7 +7423,7 @@
         <v>292</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>92</v>
@@ -6184,16 +7436,16 @@
       </c>
     </row>
     <row r="18" spans="1:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="87" t="s">
+      <c r="A18" s="91" t="s">
         <v>382</v>
       </c>
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
     </row>
     <row r="19" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
@@ -6206,7 +7458,7 @@
         <v>81</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="E19" s="35" t="s">
         <v>384</v>
@@ -6232,7 +7484,7 @@
         <v>81</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="E20" s="35" t="s">
         <v>387</v>
@@ -6258,7 +7510,7 @@
         <v>81</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="E21" s="35" t="s">
         <v>390</v>
@@ -6284,7 +7536,7 @@
         <v>81</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="E22" s="35" t="s">
         <v>392</v>
@@ -6310,7 +7562,7 @@
         <v>105</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="E23" s="35" t="s">
         <v>395</v>
@@ -6336,7 +7588,7 @@
         <v>105</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="E24" s="35" t="s">
         <v>399</v>
@@ -6362,7 +7614,7 @@
         <v>81</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="E25" s="35" t="s">
         <v>401</v>
@@ -6388,7 +7640,7 @@
         <v>81</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="E26" s="35" t="s">
         <v>408</v>
@@ -6414,7 +7666,7 @@
         <v>81</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="E27" s="35" t="s">
         <v>410</v>
@@ -6464,7 +7716,7 @@
         <v>81</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="E28" s="35" t="s">
         <v>412</v>
@@ -6514,7 +7766,7 @@
         <v>105</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="E29" s="35" t="s">
         <v>414</v>
@@ -6564,7 +7816,7 @@
         <v>105</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="E30" s="35" t="s">
         <v>309</v>
@@ -6637,7 +7889,7 @@
         <v>81</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="E31" s="35" t="s">
         <v>424</v>
@@ -6688,7 +7940,7 @@
         <v>81</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="E32" s="35" t="s">
         <v>296</v>
@@ -6739,7 +7991,7 @@
         <v>81</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="E33" s="35" t="s">
         <v>430</v>
@@ -6790,7 +8042,7 @@
         <v>81</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="E34" s="35" t="s">
         <v>431</v>
@@ -6841,7 +8093,7 @@
         <v>105</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="E35" s="35" t="s">
         <v>432</v>
@@ -6892,7 +8144,7 @@
         <v>105</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="E36" s="35" t="s">
         <v>315</v>
@@ -6933,16 +8185,16 @@
       <c r="CE36" s="34"/>
     </row>
     <row r="37" spans="1:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="87" t="s">
+      <c r="A37" s="91" t="s">
         <v>318</v>
       </c>
-      <c r="B37" s="87"/>
-      <c r="C37" s="87"/>
-      <c r="D37" s="87"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="87"/>
-      <c r="G37" s="87"/>
-      <c r="H37" s="87"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="91"/>
+      <c r="E37" s="91"/>
+      <c r="F37" s="91"/>
+      <c r="G37" s="91"/>
+      <c r="H37" s="91"/>
       <c r="K37" s="34"/>
       <c r="N37" s="34"/>
       <c r="Q37" s="34"/>
@@ -6980,7 +8232,7 @@
         <v>81</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="E38" s="35" t="s">
         <v>440</v>
@@ -7031,7 +8283,7 @@
         <v>81</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="E39" s="35" t="s">
         <v>442</v>
@@ -7057,7 +8309,7 @@
         <v>81</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="E40" s="35" t="s">
         <v>444</v>
@@ -7083,7 +8335,7 @@
         <v>81</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="E41" s="35" t="s">
         <v>446</v>
@@ -7109,7 +8361,7 @@
         <v>107</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="E42" s="35" t="s">
         <v>448</v>
@@ -7135,7 +8387,7 @@
         <v>107</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="E43" s="35" t="s">
         <v>450</v>
@@ -7244,10 +8496,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7262,18 +8514,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="92" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="92" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
@@ -7445,7 +8697,7 @@
         <v>465</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>498</v>
+        <v>699</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>89</v>
@@ -7477,7 +8729,7 @@
         <v>452</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>499</v>
+        <v>731</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>95</v>
@@ -7509,13 +8761,13 @@
         <v>452</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>478</v>
+        <v>732</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>86</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J10" s="46" t="s">
         <v>281</v>
@@ -7669,13 +8921,13 @@
         <v>452</v>
       </c>
       <c r="G15" s="44" t="s">
+        <v>481</v>
+      </c>
+      <c r="H15" s="50" t="s">
         <v>482</v>
       </c>
-      <c r="H15" s="50" t="s">
+      <c r="I15" s="50" t="s">
         <v>483</v>
-      </c>
-      <c r="I15" s="50" t="s">
-        <v>484</v>
       </c>
       <c r="J15" s="46" t="s">
         <v>281</v>
@@ -7695,19 +8947,19 @@
         <v>32</v>
       </c>
       <c r="E16" s="44" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F16" s="35" t="s">
         <v>452</v>
       </c>
       <c r="G16" s="44" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>56</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J16" s="46" t="s">
         <v>281</v>
@@ -7733,7 +8985,7 @@
         <v>452</v>
       </c>
       <c r="G17" s="44" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>59</v>
@@ -7762,7 +9014,7 @@
         <v>452</v>
       </c>
       <c r="G18" s="44" t="s">
-        <v>487</v>
+        <v>733</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>59</v>
@@ -7791,7 +9043,7 @@
         <v>452</v>
       </c>
       <c r="G19" s="44" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H19" s="11" t="s">
         <v>59</v>
@@ -7820,7 +9072,7 @@
         <v>452</v>
       </c>
       <c r="G20" s="44" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>59</v>
@@ -7843,19 +9095,19 @@
         <v>32</v>
       </c>
       <c r="E21" s="44" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F21" s="35" t="s">
         <v>452</v>
       </c>
       <c r="G21" s="44" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H21" s="11" t="s">
         <v>62</v>
       </c>
       <c r="I21" s="50" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="J21" s="46" t="s">
         <v>281</v>
@@ -7872,19 +9124,19 @@
         <v>32</v>
       </c>
       <c r="E22" s="44" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F22" s="35" t="s">
         <v>452</v>
       </c>
       <c r="G22" s="44" t="s">
-        <v>496</v>
+        <v>734</v>
       </c>
       <c r="H22" s="11" t="s">
         <v>62</v>
       </c>
       <c r="I22" s="50" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="J22" s="46" t="s">
         <v>281</v>
@@ -7901,19 +9153,19 @@
         <v>32</v>
       </c>
       <c r="E23" s="44" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F23" s="35" t="s">
         <v>452</v>
       </c>
       <c r="G23" s="44" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="H23" s="11" t="s">
         <v>62</v>
       </c>
       <c r="I23" s="50" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="J23" s="46" t="s">
         <v>281</v>
@@ -7930,19 +9182,19 @@
         <v>32</v>
       </c>
       <c r="E24" s="44" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F24" s="35" t="s">
         <v>452</v>
       </c>
       <c r="G24" s="44" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="H24" s="11" t="s">
         <v>62</v>
       </c>
       <c r="I24" s="50" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="J24" s="46" t="s">
         <v>281</v>
@@ -7959,13 +9211,13 @@
         <v>32</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F25" s="35" t="s">
         <v>452</v>
       </c>
       <c r="G25" s="44" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="H25" s="53" t="s">
         <v>65</v>
@@ -7988,13 +9240,13 @@
         <v>32</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="F26" s="35" t="s">
         <v>452</v>
       </c>
       <c r="G26" s="44" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="H26" s="53" t="s">
         <v>65</v>
@@ -8017,13 +9269,13 @@
         <v>32</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F27" s="55" t="s">
         <v>452</v>
       </c>
       <c r="G27" s="56" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="H27" s="53" t="s">
         <v>65</v>
@@ -8046,13 +9298,13 @@
         <v>32</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="F28" s="35" t="s">
         <v>452</v>
       </c>
       <c r="G28" s="44" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="H28" s="11" t="s">
         <v>65</v>
@@ -8069,7 +9321,7 @@
         <v>256</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D29" s="33" t="s">
         <v>32</v>
@@ -8081,7 +9333,7 @@
         <v>452</v>
       </c>
       <c r="G29" s="44" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>68</v>
@@ -8104,19 +9356,19 @@
         <v>32</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F30" s="35" t="s">
         <v>452</v>
       </c>
       <c r="G30" s="44" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="J30" s="49" t="s">
         <v>279</v>
@@ -8133,19 +9385,19 @@
         <v>32</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F31" s="35" t="s">
         <v>452</v>
       </c>
       <c r="G31" s="44" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="J31" s="49" t="s">
         <v>279</v>
@@ -8162,19 +9414,19 @@
         <v>32</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="F32" s="35" t="s">
         <v>452</v>
       </c>
       <c r="G32" s="44" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="J32" s="49" t="s">
         <v>279</v>
@@ -8191,19 +9443,19 @@
         <v>32</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F33" s="35" t="s">
         <v>452</v>
       </c>
       <c r="G33" s="44" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="J33" s="49" t="s">
         <v>279</v>
@@ -8220,19 +9472,19 @@
         <v>32</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="F34" s="35" t="s">
         <v>452</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="J34" s="49" t="s">
         <v>279</v>
@@ -8249,19 +9501,19 @@
         <v>32</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F35" s="35" t="s">
         <v>452</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="I35" s="24" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="J35" s="49" t="s">
         <v>279</v>
@@ -8269,7 +9521,7 @@
     </row>
     <row r="36" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="33" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="C36" s="59" t="s">
         <v>75</v>
@@ -8278,19 +9530,19 @@
         <v>32</v>
       </c>
       <c r="E36" s="60" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F36" s="35" t="s">
         <v>452</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="H36" s="61" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="I36" s="61" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="J36" s="49" t="s">
         <v>279</v>
@@ -8298,7 +9550,7 @@
     </row>
     <row r="37" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="C37" s="59" t="s">
         <v>75</v>
@@ -8307,16 +9559,16 @@
         <v>32</v>
       </c>
       <c r="E37" s="60" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="H37" s="61" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="I37" s="61" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="J37" s="49" t="s">
         <v>279</v>
@@ -8324,7 +9576,7 @@
     </row>
     <row r="38" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="C38" s="59" t="s">
         <v>78</v>
@@ -8333,19 +9585,19 @@
         <v>32</v>
       </c>
       <c r="E38" s="60" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>531</v>
+        <v>682</v>
       </c>
       <c r="G38" s="36" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="H38" s="61" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="I38" s="61" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="J38" s="49" t="s">
         <v>279</v>
@@ -8353,7 +9605,7 @@
     </row>
     <row r="39" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="C39" s="59" t="s">
         <v>78</v>
@@ -8362,19 +9614,19 @@
         <v>32</v>
       </c>
       <c r="E39" s="60" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>531</v>
+        <v>682</v>
       </c>
       <c r="G39" s="36" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="H39" s="61" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="I39" s="61" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="J39" s="49" t="s">
         <v>279</v>
@@ -8382,28 +9634,25 @@
     </row>
     <row r="40" spans="1:10" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="33" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="C40" s="59" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D40" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E40" s="60" t="s">
-        <v>536</v>
-      </c>
-      <c r="F40" s="36" t="s">
-        <v>531</v>
+        <v>717</v>
       </c>
       <c r="G40" s="36" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="H40" s="62" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I40" s="62" t="s">
-        <v>548</v>
+        <v>86</v>
       </c>
       <c r="J40" s="49" t="s">
         <v>279</v>
@@ -8411,80 +9660,43 @@
     </row>
     <row r="41" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="33" t="s">
-        <v>544</v>
-      </c>
-      <c r="C41" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E41" s="60" t="s">
-        <v>538</v>
-      </c>
-      <c r="G41" s="36" t="s">
-        <v>537</v>
-      </c>
-      <c r="H41" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="I41" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="J41" s="49" t="s">
-        <v>279</v>
+        <v>536</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="33" t="s">
-        <v>549</v>
-      </c>
-      <c r="C42" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="D42" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E42" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="F42" s="24" t="s">
-        <v>498</v>
-      </c>
-      <c r="G42" s="36" t="s">
-        <v>537</v>
-      </c>
-      <c r="H42" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="I42" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="J42" s="46" t="s">
-        <v>281</v>
-      </c>
+        <v>538</v>
+      </c>
+      <c r="C42" s="59"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="46"/>
     </row>
     <row r="43" spans="1:10" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="33" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="C43" s="59" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D43" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E43" s="60" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F43" s="36" t="s">
-        <v>545</v>
+        <v>735</v>
       </c>
       <c r="G43" s="36" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I43" s="62" t="s">
         <v>86</v>
@@ -8495,28 +9707,28 @@
     </row>
     <row r="44" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="33" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="C44" s="59" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D44" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E44" s="60" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F44" s="36" t="s">
-        <v>546</v>
+        <v>736</v>
       </c>
       <c r="G44" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I44" s="62" t="s">
         <v>537</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I44" s="62" t="s">
-        <v>86</v>
       </c>
       <c r="J44" s="46" t="s">
         <v>281</v>
@@ -8524,51 +9736,51 @@
     </row>
     <row r="45" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="33" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="C45" s="59" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D45" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E45" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="F45" s="36" t="s">
-        <v>547</v>
+        <v>110</v>
       </c>
       <c r="G45" s="36" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I45" s="62" t="s">
-        <v>548</v>
-      </c>
-      <c r="J45" s="46" t="s">
-        <v>281</v>
+        <v>111</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J45" s="49" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" s="59" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D46" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E46" s="60" t="s">
-        <v>110</v>
+      <c r="E46" t="s">
+        <v>113</v>
+      </c>
+      <c r="F46" s="36" t="s">
+        <v>682</v>
       </c>
       <c r="G46" s="36" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="J46" s="49" t="s">
         <v>279</v>
@@ -8576,127 +9788,1110 @@
     </row>
     <row r="47" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C47" s="59" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D47" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E47" t="s">
-        <v>113</v>
+      <c r="E47" s="60" t="s">
+        <v>543</v>
       </c>
       <c r="F47" s="36" t="s">
-        <v>531</v>
+        <v>682</v>
       </c>
       <c r="G47" s="36" t="s">
-        <v>534</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="J47" s="49" t="s">
-        <v>279</v>
+        <v>530</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="J47" s="46" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C48" s="59" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D48" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E48" s="60" t="s">
-        <v>554</v>
+      <c r="E48" s="4" t="s">
+        <v>544</v>
       </c>
       <c r="F48" s="36" t="s">
-        <v>531</v>
+        <v>682</v>
       </c>
       <c r="G48" s="36" t="s">
-        <v>537</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="J48" s="46" t="s">
-        <v>281</v>
+        <v>545</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J48" s="49" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="49" spans="3:10" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C49" s="59" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D49" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="F49" s="36" t="s">
-        <v>531</v>
+        <v>682</v>
       </c>
       <c r="G49" s="36" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="J49" s="49" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="50" spans="3:10" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="59" t="s">
-        <v>121</v>
-      </c>
-      <c r="D50" s="33" t="s">
+    <row r="50" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="96" t="s">
+        <v>715</v>
+      </c>
+      <c r="D50" s="96"/>
+      <c r="E50" s="96"/>
+      <c r="F50" s="96"/>
+      <c r="G50" s="96"/>
+      <c r="H50" s="96"/>
+      <c r="I50" s="96"/>
+      <c r="J50" s="96"/>
+    </row>
+    <row r="51" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C51" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="F50" s="36" t="s">
-        <v>531</v>
-      </c>
-      <c r="G50" s="36" t="s">
-        <v>558</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="J50" s="49" t="s">
+      <c r="E51" s="60" t="s">
+        <v>730</v>
+      </c>
+      <c r="F51" s="36" t="s">
+        <v>677</v>
+      </c>
+      <c r="G51" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H51" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="I51" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="J51" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C52" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D52" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="60" t="s">
+        <v>729</v>
+      </c>
+      <c r="F52" s="36" t="s">
+        <v>679</v>
+      </c>
+      <c r="G52" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H52" s="62" t="s">
+        <v>681</v>
+      </c>
+      <c r="I52" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="J52" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C53" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D53" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="60" t="s">
+        <v>728</v>
+      </c>
+      <c r="F53" s="36" t="s">
+        <v>682</v>
+      </c>
+      <c r="G53" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H53" s="62" t="s">
+        <v>680</v>
+      </c>
+      <c r="I53" s="62" t="s">
+        <v>680</v>
+      </c>
+      <c r="J53" s="49" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C51" s="34"/>
-    </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C52" s="34"/>
-    </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C53" s="34"/>
-    </row>
-    <row r="54" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C54" s="34"/>
-    </row>
-    <row r="55" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C55" s="34"/>
+    <row r="54" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C54" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="60" t="s">
+        <v>727</v>
+      </c>
+      <c r="F54" s="36" t="s">
+        <v>683</v>
+      </c>
+      <c r="G54" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H54" s="62" t="s">
+        <v>684</v>
+      </c>
+      <c r="I54" s="62" t="s">
+        <v>684</v>
+      </c>
+      <c r="J54" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C55" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="60" t="s">
+        <v>726</v>
+      </c>
+      <c r="F55" s="36" t="s">
+        <v>754</v>
+      </c>
+      <c r="G55" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H55" s="62" t="s">
+        <v>756</v>
+      </c>
+      <c r="I55" s="62" t="s">
+        <v>755</v>
+      </c>
+      <c r="J55" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="56" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C56" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D56" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="60" t="s">
+        <v>725</v>
+      </c>
+      <c r="F56" s="36" t="s">
+        <v>685</v>
+      </c>
+      <c r="G56" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H56" s="62" t="s">
+        <v>753</v>
+      </c>
+      <c r="I56" s="62" t="s">
+        <v>686</v>
+      </c>
+      <c r="J56" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="57" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C57" s="59"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="62"/>
+      <c r="I57" s="62"/>
+      <c r="J57" s="49"/>
+    </row>
+    <row r="58" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C58" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D58" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="60" t="s">
+        <v>724</v>
+      </c>
+      <c r="F58" s="36" t="s">
+        <v>687</v>
+      </c>
+      <c r="G58" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H58" s="62" t="s">
+        <v>688</v>
+      </c>
+      <c r="I58" s="62" t="s">
+        <v>689</v>
+      </c>
+      <c r="J58" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="59" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C59" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D59" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" s="60" t="s">
+        <v>723</v>
+      </c>
+      <c r="F59" s="36" t="s">
+        <v>690</v>
+      </c>
+      <c r="G59" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H59" s="62" t="s">
+        <v>691</v>
+      </c>
+      <c r="I59" s="62" t="s">
+        <v>692</v>
+      </c>
+      <c r="J59" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="60" spans="3:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="C60" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D60" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" s="60" t="s">
+        <v>722</v>
+      </c>
+      <c r="F60" s="36" t="s">
+        <v>693</v>
+      </c>
+      <c r="G60" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H60" s="62" t="s">
+        <v>694</v>
+      </c>
+      <c r="I60" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="J60" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="61" spans="3:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="C61" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D61" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61" s="60" t="s">
+        <v>721</v>
+      </c>
+      <c r="F61" s="36" t="s">
+        <v>695</v>
+      </c>
+      <c r="G61" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H61" s="62" t="s">
+        <v>696</v>
+      </c>
+      <c r="I61" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="J61" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="62" spans="3:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="C62" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D62" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" s="60" t="s">
+        <v>721</v>
+      </c>
+      <c r="F62" s="36" t="s">
+        <v>695</v>
+      </c>
+      <c r="G62" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H62" s="62" t="s">
+        <v>696</v>
+      </c>
+      <c r="I62" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="J62" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="63" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C63" s="96" t="s">
+        <v>716</v>
+      </c>
+      <c r="D63" s="96"/>
+      <c r="E63" s="96"/>
+      <c r="F63" s="96"/>
+      <c r="G63" s="96"/>
+      <c r="H63" s="96"/>
+      <c r="I63" s="96"/>
+      <c r="J63" s="96"/>
+    </row>
+    <row r="64" spans="3:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="C64" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="D64" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E64" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="F64" s="24" t="s">
+        <v>699</v>
+      </c>
+      <c r="G64" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H64" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="I64" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="J64" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="65" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C65" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="D65" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E65" s="60" t="s">
+        <v>697</v>
+      </c>
+      <c r="F65" s="24" t="s">
+        <v>700</v>
+      </c>
+      <c r="G65" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H65" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="I65" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="J65" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="66" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C66" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="D66" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E66" s="60" t="s">
+        <v>698</v>
+      </c>
+      <c r="F66" s="24" t="s">
+        <v>701</v>
+      </c>
+      <c r="G66" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H66" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="I66" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="J66" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="67" spans="3:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="C67" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="D67" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E67" s="60" t="s">
+        <v>703</v>
+      </c>
+      <c r="F67" s="24" t="s">
+        <v>702</v>
+      </c>
+      <c r="G67" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H67" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="I67" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="J67" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="68" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C68" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="D68" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E68" s="60" t="s">
+        <v>704</v>
+      </c>
+      <c r="F68" s="24" t="s">
+        <v>705</v>
+      </c>
+      <c r="G68" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H68" s="62" t="s">
+        <v>706</v>
+      </c>
+      <c r="I68" s="62" t="s">
+        <v>706</v>
+      </c>
+      <c r="J68" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="69" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C69" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="D69" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E69" s="60" t="s">
+        <v>708</v>
+      </c>
+      <c r="F69" s="24" t="s">
+        <v>707</v>
+      </c>
+      <c r="G69" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H69" s="62" t="s">
+        <v>709</v>
+      </c>
+      <c r="I69" s="62" t="s">
+        <v>709</v>
+      </c>
+      <c r="J69" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="70" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C70" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="D70" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E70" s="60" t="s">
+        <v>708</v>
+      </c>
+      <c r="F70" s="24" t="s">
+        <v>707</v>
+      </c>
+      <c r="G70" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H70" s="62" t="s">
+        <v>709</v>
+      </c>
+      <c r="I70" s="62" t="s">
+        <v>709</v>
+      </c>
+      <c r="J70" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="71" spans="3:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="C71" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="D71" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E71" s="60" t="s">
+        <v>720</v>
+      </c>
+      <c r="F71" s="24" t="s">
+        <v>710</v>
+      </c>
+      <c r="G71" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H71" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="I71" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="J71" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="72" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C72" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="D72" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E72" s="60" t="s">
+        <v>719</v>
+      </c>
+      <c r="F72" s="24" t="s">
+        <v>711</v>
+      </c>
+      <c r="G72" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H72" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="I72" s="62" t="s">
+        <v>712</v>
+      </c>
+      <c r="J72" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="73" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C73" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="D73" s="98" t="s">
+        <v>32</v>
+      </c>
+      <c r="E73" s="60" t="s">
+        <v>718</v>
+      </c>
+      <c r="F73" s="24" t="s">
+        <v>713</v>
+      </c>
+      <c r="G73" s="99" t="s">
+        <v>530</v>
+      </c>
+      <c r="H73" s="100" t="s">
+        <v>89</v>
+      </c>
+      <c r="I73" s="100" t="s">
+        <v>714</v>
+      </c>
+      <c r="J73" s="101" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C74" s="102" t="s">
+        <v>738</v>
+      </c>
+      <c r="D74" s="102"/>
+      <c r="E74" s="102"/>
+      <c r="F74" s="102"/>
+      <c r="G74" s="102"/>
+      <c r="H74" s="102"/>
+      <c r="I74" s="102"/>
+      <c r="J74" s="102"/>
+    </row>
+    <row r="75" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C75" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D75" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E75" s="60" t="s">
+        <v>739</v>
+      </c>
+      <c r="F75" s="36" t="s">
+        <v>740</v>
+      </c>
+      <c r="G75" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H75" s="62" t="s">
+        <v>741</v>
+      </c>
+      <c r="I75" s="62" t="s">
+        <v>741</v>
+      </c>
+      <c r="J75" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="76" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C76" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D76" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E76" s="60" t="s">
+        <v>742</v>
+      </c>
+      <c r="F76" s="36" t="s">
+        <v>743</v>
+      </c>
+      <c r="G76" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H76" s="62" t="s">
+        <v>744</v>
+      </c>
+      <c r="I76" s="62" t="s">
+        <v>744</v>
+      </c>
+      <c r="J76" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="77" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C77" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D77" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E77" s="60" t="s">
+        <v>745</v>
+      </c>
+      <c r="F77" s="36" t="s">
+        <v>746</v>
+      </c>
+      <c r="G77" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H77" s="62" t="s">
+        <v>747</v>
+      </c>
+      <c r="I77" s="62" t="s">
+        <v>747</v>
+      </c>
+      <c r="J77" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="78" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C78" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D78" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E78" s="60" t="s">
+        <v>748</v>
+      </c>
+      <c r="F78" s="36" t="s">
+        <v>749</v>
+      </c>
+      <c r="G78" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H78" s="62" t="s">
+        <v>750</v>
+      </c>
+      <c r="I78" s="62" t="s">
+        <v>750</v>
+      </c>
+      <c r="J78" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="79" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C79" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D79" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E79" s="60" t="s">
+        <v>751</v>
+      </c>
+      <c r="F79" s="36" t="s">
+        <v>752</v>
+      </c>
+      <c r="G79" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H79" s="62" t="s">
+        <v>753</v>
+      </c>
+      <c r="I79" s="62" t="s">
+        <v>686</v>
+      </c>
+      <c r="J79" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="80" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C80" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D80" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E80" s="60" t="s">
+        <v>757</v>
+      </c>
+      <c r="F80" s="36" t="s">
+        <v>758</v>
+      </c>
+      <c r="G80" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H80" s="62" t="s">
+        <v>765</v>
+      </c>
+      <c r="I80" s="62" t="s">
+        <v>766</v>
+      </c>
+      <c r="J80" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="81" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C81" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D81" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E81" s="60" t="s">
+        <v>760</v>
+      </c>
+      <c r="F81" s="36" t="s">
+        <v>759</v>
+      </c>
+      <c r="G81" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H81" s="62" t="s">
+        <v>763</v>
+      </c>
+      <c r="I81" s="62" t="s">
+        <v>764</v>
+      </c>
+      <c r="J81" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="82" spans="3:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="C82" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D82" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E82" s="60" t="s">
+        <v>761</v>
+      </c>
+      <c r="F82" s="36" t="s">
+        <v>762</v>
+      </c>
+      <c r="G82" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H82" s="62" t="s">
+        <v>767</v>
+      </c>
+      <c r="I82" s="62" t="s">
+        <v>772</v>
+      </c>
+      <c r="J82" s="101" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="83" spans="3:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="C83" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D83" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E83" s="60" t="s">
+        <v>768</v>
+      </c>
+      <c r="F83" s="36" t="s">
+        <v>769</v>
+      </c>
+      <c r="G83" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H83" s="62" t="s">
+        <v>770</v>
+      </c>
+      <c r="I83" s="62" t="s">
+        <v>771</v>
+      </c>
+      <c r="J83" s="101" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C84" s="96" t="s">
+        <v>737</v>
+      </c>
+      <c r="D84" s="96"/>
+      <c r="E84" s="96"/>
+      <c r="F84" s="96"/>
+      <c r="G84" s="96"/>
+      <c r="H84" s="96"/>
+      <c r="I84" s="96"/>
+      <c r="J84" s="96"/>
+    </row>
+    <row r="85" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C85" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D85" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E85" s="60" t="s">
+        <v>773</v>
+      </c>
+      <c r="F85" s="24" t="s">
+        <v>774</v>
+      </c>
+      <c r="G85" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H85" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="I85" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="J85" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="86" spans="3:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="C86" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D86" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E86" s="60" t="s">
+        <v>768</v>
+      </c>
+      <c r="F86" s="36" t="s">
+        <v>769</v>
+      </c>
+      <c r="G86" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H86" s="62" t="s">
+        <v>770</v>
+      </c>
+      <c r="I86" s="62" t="s">
+        <v>771</v>
+      </c>
+      <c r="J86" s="101" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="87" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C87" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="D87" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E87" s="60" t="s">
+        <v>775</v>
+      </c>
+      <c r="F87" s="24" t="s">
+        <v>774</v>
+      </c>
+      <c r="G87" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H87" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="I87" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="J87" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="88" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C88" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D88" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E88" s="60" t="s">
+        <v>776</v>
+      </c>
+      <c r="F88" s="24" t="s">
+        <v>777</v>
+      </c>
+      <c r="G88" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H88" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="I88" s="62" t="s">
+        <v>780</v>
+      </c>
+      <c r="J88" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="89" spans="3:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="C89" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D89" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E89" s="60" t="s">
+        <v>781</v>
+      </c>
+      <c r="F89" s="24" t="s">
+        <v>778</v>
+      </c>
+      <c r="G89" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H89" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="I89" s="62" t="s">
+        <v>779</v>
+      </c>
+      <c r="J89" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="90" spans="3:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="C90" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D90" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E90" s="60" t="s">
+        <v>782</v>
+      </c>
+      <c r="F90" s="24" t="s">
+        <v>783</v>
+      </c>
+      <c r="G90" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H90" s="62" t="s">
+        <v>784</v>
+      </c>
+      <c r="I90" s="62" t="s">
+        <v>784</v>
+      </c>
+      <c r="J90" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="91" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C91" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D91" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E91" s="60" t="s">
+        <v>785</v>
+      </c>
+      <c r="F91" s="24" t="s">
+        <v>786</v>
+      </c>
+      <c r="G91" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H91" s="62" t="s">
+        <v>787</v>
+      </c>
+      <c r="I91" s="62" t="s">
+        <v>787</v>
+      </c>
+      <c r="J91" s="49" t="s">
+        <v>279</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
+    <mergeCell ref="C84:J84"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C63:J63"/>
+    <mergeCell ref="C74:J74"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" location="Требования!R11C1" display="T-4"/>
@@ -8735,15 +10930,50 @@
     <hyperlink ref="C37" location="Требования!R31C1" display="F-11"/>
     <hyperlink ref="C38" location="Требования!R32C1" display="F-11/2"/>
     <hyperlink ref="C39" location="Требования!R32C1" display="F-11/2"/>
-    <hyperlink ref="C40" location="Требования!R33C1" display="F-11/2"/>
-    <hyperlink ref="C41" location="Требования!R34C1" display="F-11/2"/>
-    <hyperlink ref="C42" location="Требования!R34C1" display="F-11/2"/>
-    <hyperlink ref="C43:C45" location="Требования!R34C1" display="F-11/2"/>
-    <hyperlink ref="C46" location="Требования!R44C1" display="F-12/5"/>
-    <hyperlink ref="C47" location="Требования!R45C1" display="F-15"/>
-    <hyperlink ref="C48" location="Требования!R46C1" display="F-16"/>
-    <hyperlink ref="C49" location="Требования!R47C1" display="F-17"/>
-    <hyperlink ref="C50" location="Требования!R48C1" display="F-18"/>
+    <hyperlink ref="C53" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C40" location="Требования!R34C1" display="F-11/2"/>
+    <hyperlink ref="C64" location="Требования!R35C1" display="F-12/1"/>
+    <hyperlink ref="C42:C44" location="Требования!R34C1" display="F-11/2"/>
+    <hyperlink ref="C45" location="Требования!R44C1" display="F-12/5"/>
+    <hyperlink ref="C46" location="Требования!R45C1" display="F-15"/>
+    <hyperlink ref="C47" location="Требования!R46C1" display="F-16"/>
+    <hyperlink ref="C48" location="Требования!R47C1" display="F-17"/>
+    <hyperlink ref="C49" location="Требования!R48C1" display="F-18"/>
+    <hyperlink ref="C51" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C52" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C54" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C55" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C56" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C58" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C59" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C60" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C61" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C62" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C65" location="Требования!R40C1" display="F-13/1"/>
+    <hyperlink ref="C66" location="Требования!R40C1" display="F-13/1"/>
+    <hyperlink ref="C67" location="Требования!R40C1" display="F-13/1"/>
+    <hyperlink ref="C68" location="Требования!R40C1" display="F-13/1"/>
+    <hyperlink ref="C69" location="Требования!R40C1" display="F-13/1"/>
+    <hyperlink ref="C70" location="Требования!R40C1" display="F-13/1"/>
+    <hyperlink ref="C71" location="Требования!R40C1" display="F-13/1"/>
+    <hyperlink ref="C72" location="Требования!R40C1" display="F-13/1"/>
+    <hyperlink ref="C73" location="Требования!R40C1" display="F-13/1"/>
+    <hyperlink ref="C75" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C76" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C77" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C78" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C79" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C80" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C81" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C82" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C83" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C85" location="Требования!R41C1" display="F-13/2"/>
+    <hyperlink ref="C87" location="Требования!R36C1" display="F-12/2"/>
+    <hyperlink ref="C86" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C88" location="Требования!R41C1" display="F-13/2"/>
+    <hyperlink ref="C89" location="Требования!R41C1" display="F-13/2"/>
+    <hyperlink ref="C90" location="Требования!R41C1" display="F-13/2"/>
+    <hyperlink ref="C91" location="Требования!R41C1" display="F-13/2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8769,18 +10999,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="92" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="92" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -8911,1785 +11141,1537 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D21"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="9" max="9" width="31.42578125" customWidth="1"/>
-    <col min="10" max="10" width="48.85546875" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>559</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>560</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>561</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
-        <v>563</v>
-      </c>
-      <c r="B2" s="64" t="s">
-        <v>583</v>
-      </c>
-      <c r="D2" t="s">
-        <v>598</v>
-      </c>
-      <c r="I2" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
-        <v>564</v>
-      </c>
-      <c r="B3" s="64" t="s">
-        <v>584</v>
-      </c>
-      <c r="D3" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
-        <v>565</v>
-      </c>
-      <c r="B4" s="64" t="s">
-        <v>585</v>
-      </c>
-      <c r="D4" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
-        <v>566</v>
-      </c>
-      <c r="B5" s="65" t="s">
-        <v>586</v>
-      </c>
-      <c r="D5" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
-        <v>567</v>
-      </c>
-      <c r="B6" s="64" t="s">
-        <v>587</v>
-      </c>
-      <c r="D6" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="64" t="s">
-        <v>568</v>
-      </c>
-      <c r="B7" s="64" t="s">
-        <v>588</v>
-      </c>
-      <c r="D7" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="64" t="s">
-        <v>569</v>
-      </c>
-      <c r="B8" s="64" t="s">
-        <v>589</v>
-      </c>
-      <c r="D8" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64" t="s">
-        <v>570</v>
-      </c>
-      <c r="B9" s="64" t="s">
-        <v>590</v>
-      </c>
-      <c r="D9" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="66" t="s">
-        <v>571</v>
-      </c>
-      <c r="B10" s="66" t="s">
-        <v>591</v>
-      </c>
-      <c r="D10" s="63" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="66" t="s">
-        <v>572</v>
-      </c>
-      <c r="B11" s="66" t="s">
-        <v>592</v>
-      </c>
-      <c r="D11" s="63" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
-        <v>574</v>
-      </c>
-      <c r="B12" s="46" t="s">
-        <v>593</v>
-      </c>
-      <c r="D12" s="63">
-        <v>12345678</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
-        <v>575</v>
-      </c>
-      <c r="B13" s="46" t="s">
-        <v>575</v>
-      </c>
-      <c r="D13" s="67" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
-        <v>576</v>
-      </c>
-      <c r="B14" s="46" t="s">
-        <v>594</v>
-      </c>
-      <c r="D14" s="67" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="67" t="s">
-        <v>577</v>
-      </c>
-      <c r="B15" s="67" t="s">
-        <v>577</v>
-      </c>
-      <c r="D15" s="67" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="67" t="s">
-        <v>578</v>
-      </c>
-      <c r="B16" s="67" t="s">
-        <v>578</v>
-      </c>
-      <c r="D16" s="63" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="67" t="s">
-        <v>579</v>
-      </c>
-      <c r="B17" s="67" t="s">
-        <v>579</v>
-      </c>
-      <c r="D17" s="68" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
-        <v>580</v>
-      </c>
-      <c r="B18" s="67" t="s">
-        <v>595</v>
-      </c>
-      <c r="D18" s="63" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
-        <v>581</v>
-      </c>
-      <c r="B19" s="67" t="s">
-        <v>596</v>
-      </c>
-      <c r="D19" s="68" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
-        <v>582</v>
-      </c>
-      <c r="B20" s="67" t="s">
-        <v>597</v>
-      </c>
-      <c r="D20" s="69" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="63" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="41" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K41" s="59"/>
-    </row>
-    <row r="42" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K42" s="59"/>
-    </row>
-    <row r="43" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K43" s="59"/>
-    </row>
-    <row r="44" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K44" s="59"/>
-    </row>
-    <row r="45" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K45" s="59"/>
-    </row>
-    <row r="46" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K46" s="59"/>
-    </row>
-    <row r="47" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K47" s="59"/>
-    </row>
-    <row r="48" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K48" s="59"/>
-    </row>
-    <row r="49" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K49" s="59"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I115"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
-        <v>559</v>
-      </c>
-      <c r="B1" s="93" t="s">
-        <v>560</v>
-      </c>
-      <c r="C1" s="93" t="s">
-        <v>561</v>
-      </c>
-      <c r="D1" s="93" t="s">
-        <v>562</v>
+      <c r="A1" s="73" t="s">
+        <v>548</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1" s="74" t="s">
+        <v>550</v>
+      </c>
+      <c r="D1" s="74" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>598</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="E2" s="95"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>598</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="E3" s="95"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
-        <v>565</v>
-      </c>
-      <c r="B4" s="94" t="s">
-        <v>585</v>
-      </c>
-      <c r="C4" s="94" t="s">
-        <v>633</v>
-      </c>
-      <c r="D4" s="94" t="s">
-        <v>598</v>
-      </c>
+      <c r="A4" s="75" t="s">
+        <v>554</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>574</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>622</v>
+      </c>
+      <c r="D4" s="75" t="s">
+        <v>587</v>
+      </c>
+      <c r="E4" s="95"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="64" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>598</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="E5" s="97"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="64" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>598</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="E6" s="97"/>
       <c r="I6" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="64" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>598</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="E7" s="97"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="64" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>598</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="E8" s="97"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="64" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>598</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="E9" s="97"/>
     </row>
     <row r="10" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="66" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>598</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="E10" s="97"/>
     </row>
     <row r="11" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="66" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>598</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="E11" s="97"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
+        <v>563</v>
+      </c>
+      <c r="B12" s="28" t="s">
         <v>574</v>
       </c>
-      <c r="B12" s="28" t="s">
-        <v>585</v>
-      </c>
       <c r="C12" s="28" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>598</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="E12" s="97"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="46" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>598</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="E13" s="97"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="46" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>598</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="E14" s="97"/>
     </row>
     <row r="15" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="67" t="s">
+        <v>566</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>622</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>587</v>
+      </c>
+      <c r="E15" s="97"/>
+    </row>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="67" t="s">
+        <v>567</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>622</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>587</v>
+      </c>
+      <c r="E16" s="97"/>
+    </row>
+    <row r="17" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="67" t="s">
+        <v>568</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>622</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>587</v>
+      </c>
+      <c r="E17" s="97"/>
+    </row>
+    <row r="18" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="67" t="s">
+        <v>569</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>622</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>587</v>
+      </c>
+      <c r="E18" s="97"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="46" t="s">
+        <v>570</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>622</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>587</v>
+      </c>
+      <c r="E19" s="97"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="46" t="s">
+        <v>571</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>622</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>587</v>
+      </c>
+      <c r="E20" s="97"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B21" s="64" t="s">
+        <v>572</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>622</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>587</v>
+      </c>
+      <c r="E21" s="97"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B22" s="64" t="s">
+        <v>573</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>622</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>587</v>
+      </c>
+      <c r="E22" s="97"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B23" s="65" t="s">
+        <v>575</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>622</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>587</v>
+      </c>
+      <c r="E23" s="97"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B24" s="64" t="s">
+        <v>576</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>622</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>587</v>
+      </c>
+      <c r="E24" s="97"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B25" s="64" t="s">
         <v>577</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="C25" s="28" t="s">
+        <v>622</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>587</v>
+      </c>
+      <c r="E25" s="97"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B26" s="64" t="s">
+        <v>578</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>622</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>587</v>
+      </c>
+      <c r="E26" s="97"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B27" s="64" t="s">
+        <v>579</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>622</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>587</v>
+      </c>
+      <c r="E27" s="97"/>
+    </row>
+    <row r="28" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A28" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B28" s="66" t="s">
+        <v>580</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>622</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>587</v>
+      </c>
+      <c r="E28" s="97"/>
+    </row>
+    <row r="29" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B29" s="66" t="s">
+        <v>581</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>622</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>587</v>
+      </c>
+      <c r="E29" s="97"/>
+    </row>
+    <row r="30" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>582</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>622</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>587</v>
+      </c>
+      <c r="E30" s="97"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B31" s="46" t="s">
+        <v>564</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>622</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>587</v>
+      </c>
+      <c r="E31" s="97"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B32" s="46" t="s">
+        <v>583</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>622</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>587</v>
+      </c>
+      <c r="E32" s="97"/>
+    </row>
+    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B33" s="67" t="s">
+        <v>566</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>622</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>587</v>
+      </c>
+      <c r="E33" s="97"/>
+    </row>
+    <row r="34" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B34" s="67" t="s">
+        <v>567</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>622</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>587</v>
+      </c>
+      <c r="E34" s="97"/>
+    </row>
+    <row r="35" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A35" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B35" s="67" t="s">
+        <v>568</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>622</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>587</v>
+      </c>
+      <c r="E35" s="97"/>
+    </row>
+    <row r="36" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B36" s="67" t="s">
+        <v>584</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>622</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B37" s="67" t="s">
         <v>585</v>
       </c>
-      <c r="C15" s="28" t="s">
-        <v>633</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="67" t="s">
-        <v>578</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>585</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>633</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="67" t="s">
-        <v>579</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>585</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>633</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
-        <v>580</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>585</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>633</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
-        <v>581</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>585</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>633</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
-        <v>582</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>585</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>633</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="64" t="s">
-        <v>565</v>
-      </c>
-      <c r="B21" s="64" t="s">
-        <v>583</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>633</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="64" t="s">
-        <v>565</v>
-      </c>
-      <c r="B22" s="64" t="s">
-        <v>584</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>633</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="64" t="s">
-        <v>565</v>
-      </c>
-      <c r="B23" s="65" t="s">
+      <c r="C37" s="28" t="s">
+        <v>622</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B38" s="67" t="s">
         <v>586</v>
       </c>
-      <c r="C23" s="28" t="s">
-        <v>633</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="64" t="s">
-        <v>565</v>
-      </c>
-      <c r="B24" s="64" t="s">
+      <c r="C38" s="28" t="s">
+        <v>622</v>
+      </c>
+      <c r="D38" s="28" t="s">
         <v>587</v>
       </c>
-      <c r="C24" s="28" t="s">
-        <v>633</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="64" t="s">
-        <v>565</v>
-      </c>
-      <c r="B25" s="64" t="s">
-        <v>588</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>633</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="64" t="s">
-        <v>565</v>
-      </c>
-      <c r="B26" s="64" t="s">
-        <v>589</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>633</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="64" t="s">
-        <v>565</v>
-      </c>
-      <c r="B27" s="64" t="s">
-        <v>590</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>633</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A28" s="64" t="s">
-        <v>565</v>
-      </c>
-      <c r="B28" s="66" t="s">
-        <v>591</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>633</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="64" t="s">
-        <v>565</v>
-      </c>
-      <c r="B29" s="66" t="s">
-        <v>592</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>633</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="64" t="s">
-        <v>565</v>
-      </c>
-      <c r="B30" s="46" t="s">
-        <v>593</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>633</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="64" t="s">
-        <v>565</v>
-      </c>
-      <c r="B31" s="46" t="s">
-        <v>575</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>633</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="64" t="s">
-        <v>565</v>
-      </c>
-      <c r="B32" s="46" t="s">
-        <v>594</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>633</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="64" t="s">
-        <v>565</v>
-      </c>
-      <c r="B33" s="67" t="s">
-        <v>577</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>633</v>
-      </c>
-      <c r="D33" s="28" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="64" t="s">
-        <v>565</v>
-      </c>
-      <c r="B34" s="67" t="s">
-        <v>578</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>633</v>
-      </c>
-      <c r="D34" s="28" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A35" s="64" t="s">
-        <v>565</v>
-      </c>
-      <c r="B35" s="67" t="s">
-        <v>579</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>633</v>
-      </c>
-      <c r="D35" s="28" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="64" t="s">
-        <v>565</v>
-      </c>
-      <c r="B36" s="67" t="s">
-        <v>595</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>633</v>
-      </c>
-      <c r="D36" s="28" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="64" t="s">
-        <v>565</v>
-      </c>
-      <c r="B37" s="67" t="s">
-        <v>596</v>
-      </c>
-      <c r="C37" s="28" t="s">
-        <v>633</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="64" t="s">
-        <v>565</v>
-      </c>
-      <c r="B38" s="67" t="s">
-        <v>597</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>633</v>
-      </c>
-      <c r="D38" s="28" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B39" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C39" t="s">
+        <v>620</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B40" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C40" s="72" t="s">
+        <v>624</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B41" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C41" s="72" t="s">
+        <v>625</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B42" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C42" s="72" t="s">
+        <v>623</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B43" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C43" s="72" t="s">
+        <v>628</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A44" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B44" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C44" s="72" t="s">
+        <v>626</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A45" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B45" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C45" s="72" t="s">
+        <v>627</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B46" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C46" s="72" t="s">
+        <v>629</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B47" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>630</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B48" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C48" t="s">
         <v>631</v>
       </c>
-      <c r="D39" s="28" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="64" t="s">
-        <v>565</v>
-      </c>
-      <c r="B40" s="64" t="s">
-        <v>585</v>
-      </c>
-      <c r="C40" s="91" t="s">
-        <v>635</v>
-      </c>
-      <c r="D40" s="28" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="64" t="s">
-        <v>565</v>
-      </c>
-      <c r="B41" s="64" t="s">
-        <v>585</v>
-      </c>
-      <c r="C41" s="91" t="s">
-        <v>636</v>
-      </c>
-      <c r="D41" s="28" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="64" t="s">
-        <v>565</v>
-      </c>
-      <c r="B42" s="64" t="s">
-        <v>585</v>
-      </c>
-      <c r="C42" s="91" t="s">
-        <v>634</v>
-      </c>
-      <c r="D42" s="28" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="64" t="s">
-        <v>565</v>
-      </c>
-      <c r="B43" s="64" t="s">
-        <v>585</v>
-      </c>
-      <c r="C43" s="91" t="s">
-        <v>640</v>
-      </c>
-      <c r="D43" s="28" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A44" s="64" t="s">
-        <v>565</v>
-      </c>
-      <c r="B44" s="64" t="s">
-        <v>585</v>
-      </c>
-      <c r="C44" s="91" t="s">
-        <v>637</v>
-      </c>
-      <c r="D44" s="28" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A45" s="64" t="s">
-        <v>565</v>
-      </c>
-      <c r="B45" s="64" t="s">
-        <v>585</v>
-      </c>
-      <c r="C45" s="91" t="s">
-        <v>638</v>
-      </c>
-      <c r="D45" s="28" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="64" t="s">
-        <v>565</v>
-      </c>
-      <c r="B46" s="64" t="s">
-        <v>585</v>
-      </c>
-      <c r="C46" s="91" t="s">
-        <v>641</v>
-      </c>
-      <c r="D46" s="28" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="64" t="s">
-        <v>565</v>
-      </c>
-      <c r="B47" s="64" t="s">
-        <v>585</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>642</v>
-      </c>
-      <c r="D47" s="28" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="64" t="s">
-        <v>565</v>
-      </c>
-      <c r="B48" s="64" t="s">
-        <v>585</v>
-      </c>
-      <c r="C48" t="s">
-        <v>643</v>
-      </c>
       <c r="D48" s="28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B49" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C49" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B50" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C50" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B51" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C51" s="67" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B52" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C52" s="67" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B53" s="64" t="s">
-        <v>585</v>
-      </c>
-      <c r="C53" s="91" t="s">
-        <v>649</v>
+        <v>574</v>
+      </c>
+      <c r="C53" s="72" t="s">
+        <v>637</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B54" s="64" t="s">
-        <v>585</v>
-      </c>
-      <c r="C54" s="91" t="s">
-        <v>650</v>
+        <v>574</v>
+      </c>
+      <c r="C54" s="72" t="s">
+        <v>638</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B55" s="64" t="s">
-        <v>585</v>
-      </c>
-      <c r="C55" s="91" t="s">
-        <v>646</v>
+        <v>574</v>
+      </c>
+      <c r="C55" s="72" t="s">
+        <v>634</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B56" s="64" t="s">
-        <v>585</v>
-      </c>
-      <c r="C56" s="91" t="s">
-        <v>647</v>
+        <v>574</v>
+      </c>
+      <c r="C56" s="72" t="s">
+        <v>635</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B57" s="64" t="s">
-        <v>585</v>
-      </c>
-      <c r="C57" s="91" t="s">
-        <v>633</v>
+        <v>574</v>
+      </c>
+      <c r="C57" s="72" t="s">
+        <v>622</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B58" s="64" t="s">
-        <v>585</v>
-      </c>
-      <c r="C58" s="91" t="s">
-        <v>648</v>
+        <v>574</v>
+      </c>
+      <c r="C58" s="72" t="s">
+        <v>636</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B59" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C59" s="59" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B60" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C60" s="59" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B61" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C61" s="59" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B62" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C62" s="59" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B63" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C63" s="59" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B64" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C64" s="59" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>598</v>
-      </c>
-      <c r="E64" s="91"/>
+        <v>587</v>
+      </c>
+      <c r="E64" s="72"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B65" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C65" s="59" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B66" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C66" s="59" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B67" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C67" s="59" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B68" s="64" t="s">
-        <v>585</v>
-      </c>
-      <c r="C68" s="91" t="s">
-        <v>659</v>
+        <v>574</v>
+      </c>
+      <c r="C68" s="72" t="s">
+        <v>647</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B69" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C69" s="59" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B70" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C70" s="59" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B71" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C71" s="59" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B72" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C72" s="59" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B73" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C73" s="59" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B74" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C74" s="59" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B75" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C75" s="59" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B76" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C76" s="59" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B77" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C77" s="59" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B78" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C78" s="59" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B79" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C79" s="59" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="D79" s="28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B80" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C80" s="59" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B81" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C81" s="59" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B82" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C82" s="59" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B83" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C83" s="59" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="D83" s="28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B84" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C84" s="59" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="D84" s="28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B85" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C85" s="59" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="D85" s="28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B86" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C86" s="59" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="D86" s="28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B87" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C87" s="59" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B88" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C88" s="59" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B89" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C89" s="59" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B90" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C90" s="59" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B91" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C91" s="59" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B92" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C92" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="D92" s="28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B93" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C93" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A94" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B94" s="64" t="s">
-        <v>585</v>
-      </c>
-      <c r="C94" s="91" t="s">
-        <v>685</v>
+        <v>574</v>
+      </c>
+      <c r="C94" s="72" t="s">
+        <v>673</v>
       </c>
       <c r="D94" s="28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A95" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B95" s="64" t="s">
-        <v>585</v>
-      </c>
-      <c r="C95" s="91" t="s">
-        <v>686</v>
+        <v>574</v>
+      </c>
+      <c r="C95" s="72" t="s">
+        <v>674</v>
       </c>
       <c r="D95" s="28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B96" s="64" t="s">
-        <v>585</v>
-      </c>
-      <c r="C96" s="91" t="s">
-        <v>687</v>
+        <v>574</v>
+      </c>
+      <c r="C96" s="72" t="s">
+        <v>675</v>
       </c>
       <c r="D96" s="28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B97" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C97" s="28" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="D97" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B98" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="D98" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B99" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C99" s="28" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="D99" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B100" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C100" s="28" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="D100" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B101" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="D101" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B102" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="D102" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B103" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C103" s="28" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="D103" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B104" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C104" s="28" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="D104" s="63" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B105" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C105" s="28" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="D105" s="63" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B106" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C106" s="28" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="D106" s="63">
         <v>12345678</v>
@@ -10697,128 +12679,128 @@
     </row>
     <row r="107" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B107" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C107" s="28" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="D107" s="67" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B108" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C108" s="28" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="D108" s="67" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B109" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C109" s="28" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="D109" s="67" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B110" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C110" s="28" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="D110" s="63" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B111" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C111" s="28" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="D111" s="68" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B112" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C112" s="28" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="D112" s="63" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B113" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C113" s="28" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="D113" s="68" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B114" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C114" s="28" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="D114" s="69" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B115" s="64" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C115" s="28" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="D115" s="63" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -10877,7 +12859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
@@ -10896,16 +12878,16 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="28"/>
       <c r="B1" s="28" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -10913,16 +12895,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="70" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="C2" s="70" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="D2" s="70" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="E2" s="70" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -10930,144 +12912,144 @@
         <v>2</v>
       </c>
       <c r="B3" s="70" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>629</v>
-      </c>
-      <c r="G3" s="90" t="s">
-        <v>630</v>
-      </c>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
+        <v>618</v>
+      </c>
+      <c r="G3" s="93" t="s">
+        <v>619</v>
+      </c>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="28">
         <v>3</v>
       </c>
       <c r="B4" s="70" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="C4" s="71" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="D4" s="71" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="E4" s="71" t="s">
-        <v>575</v>
-      </c>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
+        <v>564</v>
+      </c>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="28">
         <v>4</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="D5" s="71" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="E5" s="70" t="s">
-        <v>628</v>
-      </c>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
+        <v>617</v>
+      </c>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="28">
         <v>5</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="C6" s="71" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="D6" s="70" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>629</v>
-      </c>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
+        <v>618</v>
+      </c>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>6</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="E7" s="71" t="s">
-        <v>575</v>
-      </c>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
+        <v>564</v>
+      </c>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>7</v>
       </c>
       <c r="B8" s="71" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="C8" s="71" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="E8" s="70" t="s">
-        <v>628</v>
-      </c>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
+        <v>617</v>
+      </c>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>8</v>
       </c>
       <c r="B9" s="71" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="C9" s="70" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="D9" s="71" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="E9" s="46" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -11075,16 +13057,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="71" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="D10" s="70" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="E10" s="71" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>

--- a/webform_testing.xlsx
+++ b/webform_testing.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Классы эквивалентности" sheetId="6" r:id="rId2"/>
     <sheet name="Граничные значения" sheetId="7" r:id="rId3"/>
     <sheet name="Тест кейсы" sheetId="5" r:id="rId4"/>
-    <sheet name="Bug report" sheetId="2" r:id="rId5"/>
-    <sheet name="Лист1" sheetId="10" r:id="rId6"/>
+    <sheet name="Лист1" sheetId="10" r:id="rId5"/>
+    <sheet name="Bug report" sheetId="2" r:id="rId6"/>
     <sheet name="Pairwise" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211" refMode="R1C1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2231" uniqueCount="840">
   <si>
     <t>Требования к
 https://itcareer.pythonanywhere.com/</t>
@@ -2056,9 +2056,6 @@
     <t>Нурмалов</t>
   </si>
   <si>
-    <t>_____nurmalov</t>
-  </si>
-  <si>
     <t>Qwerty@123</t>
   </si>
   <si>
@@ -2159,9 +2156,6 @@
     <t>Qwerty@123qwertY.</t>
   </si>
   <si>
-    <t>qwertyui</t>
-  </si>
-  <si>
     <t>йцуКен123@</t>
   </si>
   <si>
@@ -2244,9 +2238,6 @@
     <t>TESTING@mail.ru</t>
   </si>
   <si>
-    <t>12312442112@mail.ru</t>
-  </si>
-  <si>
     <t xml:space="preserve">testingtestingtestingtestingtestingtestingtestingtestingtestingti@mail.ru
 </t>
   </si>
@@ -2331,9 +2322,6 @@
     <t>testing@mail.~`!@#$%^~`!@#$%^</t>
   </si>
   <si>
-    <t xml:space="preserve">testing@mail. ru </t>
-  </si>
-  <si>
     <t>testing@mail.r u</t>
   </si>
   <si>
@@ -2356,10 +2344,6 @@
   </si>
   <si>
     <t>testingmail.ru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testingtestingtestingtestingtestingtestingtestingtestingtestingt@mailmailmailmailmailmailmailmail@ruuuuuuuuuuuuuuu
-</t>
   </si>
   <si>
     <t xml:space="preserve">testingtestingtestingtestingtestingtestingtestingtestingtestingte@mailmailmailmailmailmailmailmaiml@ruuuuuuuuuuuuuuuu
@@ -3646,6 +3630,364 @@
       <t xml:space="preserve">"  в голубой рамке
  </t>
     </r>
+  </si>
+  <si>
+    <t>Проверка входа пользователя c 129 символами в поле Surname</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalovvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvv
+Email:testing@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <r>
+      <t>Под кнопкой "Submit" отображается сообщение "Success Hello:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  Test   Nurmalovvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">"  в голубой рамке. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Под кнопкой "Submit" отображается сообщение "Success Hello:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  Test Nurmalovvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">"  в голубой рамке
+Символы выходят за границы рамки </t>
+    </r>
+  </si>
+  <si>
+    <t>Проверка входа пользователя c русскими символами в поле Surname</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Нурмалов
+Email:testing@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <r>
+      <t>Под кнопкой "Submit" отображается сообщение "Success Hello:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  Test Нурмалов</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"  в голубой рамке</t>
+    </r>
+  </si>
+  <si>
+    <t>Проверка входа пользователя c двумя подряд символами в поле Surname</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: __Nurmalov
+Email:testing@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <r>
+      <t>Под кнопкой "Submit" отображается сообщение "Success Hello:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  Test __Nurmalov</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"  в голубой рамке</t>
+    </r>
+  </si>
+  <si>
+    <t>__nurmalov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testingtestingtestingtestingtestingtestingtestingtestingtestgt@mailmailmailmailmailmailmailmail@ruuuuuuuuuuuuuuu
+</t>
+  </si>
+  <si>
+    <t>qwertyui123</t>
+  </si>
+  <si>
+    <t>Qwerty@</t>
+  </si>
+  <si>
+    <t>Qwert123</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с корректными данными поля Email</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с 5 символами до @ в поле Email</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email:testi@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email:test@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с 4 символами до @ в поле Email</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email: testing123@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с  цифрами до @ в поле Email</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с 64 символами до @ в поле Email</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email:testingtestingtestingtestingtestingtestingtestingtestingtestingt@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с 63 символами до @ в поле Email</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с корректными символами до @ в поле Email</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с символами в верхнем регистре до @ в поле Email</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email: 12312442112@mail.ru
+Password: Qwerty@124</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с одними цифрами до @ в поле Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+12312442112@mail.ru</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с одними цифрами после @ и до последней .  в поле Email</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с 3 символами после @ и до последней .  в поле Email</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с 2 символами после @ и до последней .  в поле Email</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с цифрами после @ и до последней .  в поле Email</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email:testingtestingtestingtestingtestingtestingtestingtestingtesting@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email:t.es-ting@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email: TESTING@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email: testing@mai.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email: testing@ma.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email: testing@mail123.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с 32 символами после @ и до последней .  в поле Email</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email: testing@mailmailmailmailmailmailmailmail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с 31 символами после @ и до последней .  в поле Email</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email: testing@mailmailmailmailmailmailmailmai.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с корректными символами после @ и до последней .  в поле Email</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email: testing@m.a-il.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email: testing@MAIL.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с символами в верхнем регистре после @ и до последней .  в поле Email</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email: testing@1242153511414.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email: testing@mail.ruu
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с 3 символами после последней .  в поле Email</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с 15 символами после последней .  в поле Email</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с 16 символами после последней .  в поле Email</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email: testing@mail.ruuuuuuuuuuuuuu
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email: testing@mail.ruuuuuuuuuuuuuuu
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с 112 символами в поле Email</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email: testingtestingtestingtestingtestingtestingtestingtestingtestgt@mailmailmailmailmailmailmailmail@ruuuuuuuuuuuuuuu
+Password: Qwerty@123</t>
   </si>
 </sst>
 </file>
@@ -4035,7 +4377,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -4216,12 +4558,21 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4273,29 +4624,32 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4950,8 +5304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4962,11 +5316,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
@@ -4983,7 +5337,7 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="91" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -4994,7 +5348,7 @@
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="87"/>
+      <c r="B4" s="92"/>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
@@ -5003,7 +5357,7 @@
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="87"/>
+      <c r="B5" s="92"/>
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
@@ -5012,7 +5366,7 @@
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="88"/>
+      <c r="B6" s="93"/>
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
@@ -5021,7 +5375,7 @@
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="94" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -5032,7 +5386,7 @@
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="87"/>
+      <c r="B8" s="92"/>
       <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
@@ -5041,7 +5395,7 @@
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="88"/>
+      <c r="B9" s="93"/>
       <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
@@ -5094,10 +5448,10 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="79"/>
+      <c r="C14" s="84"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -5115,7 +5469,7 @@
       <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="89" t="s">
+      <c r="B16" s="94" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -5126,7 +5480,7 @@
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="87"/>
+      <c r="B17" s="92"/>
       <c r="C17" s="4" t="s">
         <v>39</v>
       </c>
@@ -5135,7 +5489,7 @@
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="88"/>
+      <c r="B18" s="93"/>
       <c r="C18" s="4" t="s">
         <v>41</v>
       </c>
@@ -5144,7 +5498,7 @@
       <c r="A19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="90" t="s">
+      <c r="B19" s="95" t="s">
         <v>43</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -5155,7 +5509,7 @@
       <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="90"/>
+      <c r="B20" s="95"/>
       <c r="C20" s="4" t="s">
         <v>46</v>
       </c>
@@ -5164,7 +5518,7 @@
       <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="90"/>
+      <c r="B21" s="95"/>
       <c r="C21" s="4" t="s">
         <v>48</v>
       </c>
@@ -5173,7 +5527,7 @@
       <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="90"/>
+      <c r="B22" s="95"/>
       <c r="C22" s="4" t="s">
         <v>50</v>
       </c>
@@ -5488,10 +5842,10 @@
     </row>
     <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
-      <c r="B51" s="76" t="s">
+      <c r="B51" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="C51" s="77"/>
+      <c r="C51" s="82"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -5605,10 +5959,10 @@
     </row>
     <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12"/>
-      <c r="B62" s="78" t="s">
+      <c r="B62" s="83" t="s">
         <v>156</v>
       </c>
-      <c r="C62" s="79"/>
+      <c r="C62" s="84"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -5722,10 +6076,10 @@
     </row>
     <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="14"/>
-      <c r="B73" s="80" t="s">
+      <c r="B73" s="85" t="s">
         <v>169</v>
       </c>
-      <c r="C73" s="81"/>
+      <c r="C73" s="86"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
@@ -5850,10 +6204,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="15"/>
-      <c r="B85" s="82" t="s">
+      <c r="B85" s="87" t="s">
         <v>188</v>
       </c>
-      <c r="C85" s="83"/>
+      <c r="C85" s="88"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
@@ -6004,11 +6358,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="97" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
@@ -6016,11 +6370,11 @@
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="97" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
@@ -6028,16 +6382,16 @@
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="96" t="s">
         <v>265</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
     </row>
     <row r="4" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
@@ -6076,7 +6430,7 @@
         <v>81</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E5" s="33" t="s">
         <v>274</v>
@@ -6102,7 +6456,7 @@
         <v>87</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E6" s="33" t="s">
         <v>276</v>
@@ -6128,7 +6482,7 @@
         <v>101</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E7" s="33" t="s">
         <v>277</v>
@@ -6154,7 +6508,7 @@
         <v>101</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E8" s="35" t="s">
         <v>278</v>
@@ -6170,16 +6524,16 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="96" t="s">
         <v>282</v>
       </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
     </row>
     <row r="10" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
@@ -6195,7 +6549,7 @@
         <v>292</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F10" s="36" t="s">
         <v>275</v>
@@ -6247,7 +6601,7 @@
         <v>495</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>92</v>
@@ -6273,7 +6627,7 @@
         <v>495</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>92</v>
@@ -6286,16 +6640,16 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="91" t="s">
+      <c r="A14" s="96" t="s">
         <v>291</v>
       </c>
-      <c r="B14" s="91"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
     </row>
     <row r="15" spans="1:8" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
@@ -6308,7 +6662,7 @@
         <v>81</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E15" s="35" t="s">
         <v>296</v>
@@ -6334,7 +6688,7 @@
         <v>93</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E16" s="35" t="s">
         <v>305</v>
@@ -6360,7 +6714,7 @@
         <v>105</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E17" s="35" t="s">
         <v>301</v>
@@ -6386,7 +6740,7 @@
         <v>105</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E18" s="35" t="s">
         <v>303</v>
@@ -6412,7 +6766,7 @@
         <v>93</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E19" s="35" t="s">
         <v>307</v>
@@ -6438,7 +6792,7 @@
         <v>105</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E20" s="35" t="s">
         <v>309</v>
@@ -6464,7 +6818,7 @@
         <v>105</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E21" s="35" t="s">
         <v>311</v>
@@ -6490,7 +6844,7 @@
         <v>93</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E22" s="35" t="s">
         <v>313</v>
@@ -6516,7 +6870,7 @@
         <v>105</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E23" s="35" t="s">
         <v>315</v>
@@ -6542,7 +6896,7 @@
         <v>105</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E24" s="35" t="s">
         <v>317</v>
@@ -6568,7 +6922,7 @@
         <v>105</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E25" s="35" t="s">
         <v>381</v>
@@ -6584,16 +6938,16 @@
       </c>
     </row>
     <row r="26" spans="1:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="91" t="s">
+      <c r="A26" s="96" t="s">
         <v>318</v>
       </c>
-      <c r="B26" s="91"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="91"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="96"/>
     </row>
     <row r="27" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
@@ -6606,7 +6960,7 @@
         <v>81</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E27" s="33" t="s">
         <v>496</v>
@@ -6632,7 +6986,7 @@
         <v>96</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E28" s="33" t="s">
         <v>335</v>
@@ -6658,7 +7012,7 @@
         <v>107</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E29" s="33" t="s">
         <v>336</v>
@@ -6684,7 +7038,7 @@
         <v>107</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E30" s="35" t="s">
         <v>337</v>
@@ -7050,11 +7404,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="97" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
@@ -7062,11 +7416,11 @@
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="97" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
@@ -7074,16 +7428,16 @@
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="96" t="s">
         <v>338</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
     </row>
     <row r="4" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
@@ -7122,7 +7476,7 @@
         <v>81</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E5" s="33" t="s">
         <v>341</v>
@@ -7148,7 +7502,7 @@
         <v>81</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E6" s="33" t="s">
         <v>345</v>
@@ -7174,7 +7528,7 @@
         <v>81</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E7" s="35" t="s">
         <v>348</v>
@@ -7200,7 +7554,7 @@
         <v>81</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E8" s="35" t="s">
         <v>350</v>
@@ -7226,7 +7580,7 @@
         <v>101</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E9" s="33" t="s">
         <v>277</v>
@@ -7252,7 +7606,7 @@
         <v>101</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E10" s="35" t="s">
         <v>278</v>
@@ -7268,16 +7622,16 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="96" t="s">
         <v>351</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
     </row>
     <row r="12" spans="1:8" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
@@ -7293,7 +7647,7 @@
         <v>292</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F12" s="36" t="s">
         <v>364</v>
@@ -7319,7 +7673,7 @@
         <v>292</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F13" s="36" t="s">
         <v>375</v>
@@ -7345,7 +7699,7 @@
         <v>292</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F14" s="36" t="s">
         <v>374</v>
@@ -7371,7 +7725,7 @@
         <v>292</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F15" s="36" t="s">
         <v>373</v>
@@ -7397,7 +7751,7 @@
         <v>292</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>92</v>
@@ -7423,7 +7777,7 @@
         <v>292</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>92</v>
@@ -7436,16 +7790,16 @@
       </c>
     </row>
     <row r="18" spans="1:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="91" t="s">
+      <c r="A18" s="96" t="s">
         <v>382</v>
       </c>
-      <c r="B18" s="91"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="91"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
     </row>
     <row r="19" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
@@ -7458,7 +7812,7 @@
         <v>81</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E19" s="35" t="s">
         <v>384</v>
@@ -7484,7 +7838,7 @@
         <v>81</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E20" s="35" t="s">
         <v>387</v>
@@ -7510,7 +7864,7 @@
         <v>81</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E21" s="35" t="s">
         <v>390</v>
@@ -7536,7 +7890,7 @@
         <v>81</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E22" s="35" t="s">
         <v>392</v>
@@ -7562,7 +7916,7 @@
         <v>105</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E23" s="35" t="s">
         <v>395</v>
@@ -7588,7 +7942,7 @@
         <v>105</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E24" s="35" t="s">
         <v>399</v>
@@ -7614,7 +7968,7 @@
         <v>81</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E25" s="35" t="s">
         <v>401</v>
@@ -7640,7 +7994,7 @@
         <v>81</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E26" s="35" t="s">
         <v>408</v>
@@ -7666,7 +8020,7 @@
         <v>81</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E27" s="35" t="s">
         <v>410</v>
@@ -7716,7 +8070,7 @@
         <v>81</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E28" s="35" t="s">
         <v>412</v>
@@ -7766,7 +8120,7 @@
         <v>105</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E29" s="35" t="s">
         <v>414</v>
@@ -7816,7 +8170,7 @@
         <v>105</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E30" s="35" t="s">
         <v>309</v>
@@ -7889,7 +8243,7 @@
         <v>81</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E31" s="35" t="s">
         <v>424</v>
@@ -7940,7 +8294,7 @@
         <v>81</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E32" s="35" t="s">
         <v>296</v>
@@ -7991,7 +8345,7 @@
         <v>81</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E33" s="35" t="s">
         <v>430</v>
@@ -8042,7 +8396,7 @@
         <v>81</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E34" s="35" t="s">
         <v>431</v>
@@ -8093,7 +8447,7 @@
         <v>105</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E35" s="35" t="s">
         <v>432</v>
@@ -8144,7 +8498,7 @@
         <v>105</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E36" s="35" t="s">
         <v>315</v>
@@ -8185,16 +8539,16 @@
       <c r="CE36" s="34"/>
     </row>
     <row r="37" spans="1:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="91" t="s">
+      <c r="A37" s="96" t="s">
         <v>318</v>
       </c>
-      <c r="B37" s="91"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="91"/>
-      <c r="E37" s="91"/>
-      <c r="F37" s="91"/>
-      <c r="G37" s="91"/>
-      <c r="H37" s="91"/>
+      <c r="B37" s="96"/>
+      <c r="C37" s="96"/>
+      <c r="D37" s="96"/>
+      <c r="E37" s="96"/>
+      <c r="F37" s="96"/>
+      <c r="G37" s="96"/>
+      <c r="H37" s="96"/>
       <c r="K37" s="34"/>
       <c r="N37" s="34"/>
       <c r="Q37" s="34"/>
@@ -8232,7 +8586,7 @@
         <v>81</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E38" s="35" t="s">
         <v>440</v>
@@ -8283,7 +8637,7 @@
         <v>81</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E39" s="35" t="s">
         <v>442</v>
@@ -8309,7 +8663,7 @@
         <v>81</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E40" s="35" t="s">
         <v>444</v>
@@ -8335,7 +8689,7 @@
         <v>81</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E41" s="35" t="s">
         <v>446</v>
@@ -8361,7 +8715,7 @@
         <v>107</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E42" s="35" t="s">
         <v>448</v>
@@ -8387,7 +8741,7 @@
         <v>107</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E43" s="35" t="s">
         <v>450</v>
@@ -8496,10 +8850,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F128" sqref="F128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8514,18 +8868,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="97" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="97" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
@@ -8697,7 +9051,7 @@
         <v>465</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>89</v>
@@ -8729,7 +9083,7 @@
         <v>452</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>95</v>
@@ -8761,7 +9115,7 @@
         <v>452</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>86</v>
@@ -9014,7 +9368,7 @@
         <v>452</v>
       </c>
       <c r="G18" s="44" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>59</v>
@@ -9130,7 +9484,7 @@
         <v>452</v>
       </c>
       <c r="G22" s="44" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="H22" s="11" t="s">
         <v>62</v>
@@ -9588,7 +9942,7 @@
         <v>525</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G38" s="36" t="s">
         <v>528</v>
@@ -9617,7 +9971,7 @@
         <v>527</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G39" s="36" t="s">
         <v>530</v>
@@ -9643,7 +9997,7 @@
         <v>32</v>
       </c>
       <c r="E40" s="60" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="G40" s="36" t="s">
         <v>530</v>
@@ -9690,7 +10044,7 @@
         <v>94</v>
       </c>
       <c r="F43" s="36" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="G43" s="36" t="s">
         <v>530</v>
@@ -9719,7 +10073,7 @@
         <v>97</v>
       </c>
       <c r="F44" s="36" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="G44" s="36" t="s">
         <v>530</v>
@@ -9771,7 +10125,7 @@
         <v>113</v>
       </c>
       <c r="F46" s="36" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G46" s="36" t="s">
         <v>528</v>
@@ -9797,7 +10151,7 @@
         <v>543</v>
       </c>
       <c r="F47" s="36" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G47" s="36" t="s">
         <v>530</v>
@@ -9823,7 +10177,7 @@
         <v>544</v>
       </c>
       <c r="F48" s="36" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G48" s="36" t="s">
         <v>545</v>
@@ -9849,7 +10203,7 @@
         <v>546</v>
       </c>
       <c r="F49" s="36" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G49" s="36" t="s">
         <v>547</v>
@@ -9865,16 +10219,16 @@
       </c>
     </row>
     <row r="50" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="96" t="s">
-        <v>715</v>
-      </c>
-      <c r="D50" s="96"/>
-      <c r="E50" s="96"/>
-      <c r="F50" s="96"/>
-      <c r="G50" s="96"/>
-      <c r="H50" s="96"/>
-      <c r="I50" s="96"/>
-      <c r="J50" s="96"/>
+      <c r="C50" s="98" t="s">
+        <v>710</v>
+      </c>
+      <c r="D50" s="98"/>
+      <c r="E50" s="98"/>
+      <c r="F50" s="98"/>
+      <c r="G50" s="98"/>
+      <c r="H50" s="98"/>
+      <c r="I50" s="98"/>
+      <c r="J50" s="98"/>
     </row>
     <row r="51" spans="3:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C51" s="59" t="s">
@@ -9884,16 +10238,16 @@
         <v>32</v>
       </c>
       <c r="E51" s="60" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="F51" s="36" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="G51" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H51" s="62" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="I51" s="62" t="s">
         <v>86</v>
@@ -9910,16 +10264,16 @@
         <v>32</v>
       </c>
       <c r="E52" s="60" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="F52" s="36" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="G52" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H52" s="62" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="I52" s="62" t="s">
         <v>86</v>
@@ -9936,19 +10290,19 @@
         <v>32</v>
       </c>
       <c r="E53" s="60" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="F53" s="36" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G53" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H53" s="62" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="I53" s="62" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="J53" s="49" t="s">
         <v>279</v>
@@ -9962,19 +10316,19 @@
         <v>32</v>
       </c>
       <c r="E54" s="60" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="F54" s="36" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="G54" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H54" s="62" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="I54" s="62" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="J54" s="49" t="s">
         <v>279</v>
@@ -9988,19 +10342,19 @@
         <v>32</v>
       </c>
       <c r="E55" s="60" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="F55" s="36" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="G55" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H55" s="62" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="I55" s="62" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="J55" s="49" t="s">
         <v>279</v>
@@ -10014,19 +10368,19 @@
         <v>32</v>
       </c>
       <c r="E56" s="60" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="F56" s="36" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="G56" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H56" s="62" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="I56" s="62" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="J56" s="49" t="s">
         <v>279</v>
@@ -10050,19 +10404,19 @@
         <v>32</v>
       </c>
       <c r="E58" s="60" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="F58" s="36" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="G58" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H58" s="62" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="I58" s="62" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="J58" s="49" t="s">
         <v>279</v>
@@ -10076,19 +10430,19 @@
         <v>32</v>
       </c>
       <c r="E59" s="60" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="F59" s="36" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="G59" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H59" s="62" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="I59" s="62" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="J59" s="49" t="s">
         <v>279</v>
@@ -10102,16 +10456,16 @@
         <v>32</v>
       </c>
       <c r="E60" s="60" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="F60" s="36" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="G60" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H60" s="62" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="I60" s="62" t="s">
         <v>86</v>
@@ -10128,16 +10482,16 @@
         <v>32</v>
       </c>
       <c r="E61" s="60" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="F61" s="36" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="G61" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H61" s="62" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="I61" s="62" t="s">
         <v>86</v>
@@ -10154,16 +10508,16 @@
         <v>32</v>
       </c>
       <c r="E62" s="60" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="F62" s="36" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="G62" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H62" s="62" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="I62" s="62" t="s">
         <v>86</v>
@@ -10173,16 +10527,16 @@
       </c>
     </row>
     <row r="63" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C63" s="96" t="s">
-        <v>716</v>
-      </c>
-      <c r="D63" s="96"/>
-      <c r="E63" s="96"/>
-      <c r="F63" s="96"/>
-      <c r="G63" s="96"/>
-      <c r="H63" s="96"/>
-      <c r="I63" s="96"/>
-      <c r="J63" s="96"/>
+      <c r="C63" s="98" t="s">
+        <v>711</v>
+      </c>
+      <c r="D63" s="98"/>
+      <c r="E63" s="98"/>
+      <c r="F63" s="98"/>
+      <c r="G63" s="98"/>
+      <c r="H63" s="98"/>
+      <c r="I63" s="98"/>
+      <c r="J63" s="98"/>
     </row>
     <row r="64" spans="3:10" ht="60" x14ac:dyDescent="0.25">
       <c r="C64" s="59" t="s">
@@ -10195,7 +10549,7 @@
         <v>88</v>
       </c>
       <c r="F64" s="24" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="G64" s="36" t="s">
         <v>530</v>
@@ -10218,10 +10572,10 @@
         <v>32</v>
       </c>
       <c r="E65" s="60" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="F65" s="24" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="G65" s="36" t="s">
         <v>530</v>
@@ -10244,10 +10598,10 @@
         <v>32</v>
       </c>
       <c r="E66" s="60" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="F66" s="24" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G66" s="36" t="s">
         <v>530</v>
@@ -10270,10 +10624,10 @@
         <v>32</v>
       </c>
       <c r="E67" s="60" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="F67" s="24" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="G67" s="36" t="s">
         <v>530</v>
@@ -10296,19 +10650,19 @@
         <v>32</v>
       </c>
       <c r="E68" s="60" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="F68" s="24" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="G68" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H68" s="62" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="I68" s="62" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="J68" s="49" t="s">
         <v>279</v>
@@ -10322,19 +10676,19 @@
         <v>32</v>
       </c>
       <c r="E69" s="60" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="F69" s="24" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="G69" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H69" s="62" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="I69" s="62" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="J69" s="49" t="s">
         <v>279</v>
@@ -10348,19 +10702,19 @@
         <v>32</v>
       </c>
       <c r="E70" s="60" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="F70" s="24" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="G70" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H70" s="62" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="I70" s="62" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="J70" s="49" t="s">
         <v>279</v>
@@ -10374,10 +10728,10 @@
         <v>32</v>
       </c>
       <c r="E71" s="60" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="F71" s="24" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="G71" s="36" t="s">
         <v>530</v>
@@ -10400,10 +10754,10 @@
         <v>32</v>
       </c>
       <c r="E72" s="60" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="F72" s="24" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="G72" s="36" t="s">
         <v>530</v>
@@ -10412,7 +10766,7 @@
         <v>89</v>
       </c>
       <c r="I72" s="62" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="J72" s="46" t="s">
         <v>281</v>
@@ -10422,39 +10776,39 @@
       <c r="C73" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="98" t="s">
+      <c r="D73" s="77" t="s">
         <v>32</v>
       </c>
       <c r="E73" s="60" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="F73" s="24" t="s">
-        <v>713</v>
-      </c>
-      <c r="G73" s="99" t="s">
+        <v>708</v>
+      </c>
+      <c r="G73" s="78" t="s">
         <v>530</v>
       </c>
-      <c r="H73" s="100" t="s">
+      <c r="H73" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="I73" s="100" t="s">
-        <v>714</v>
-      </c>
-      <c r="J73" s="101" t="s">
+      <c r="I73" s="79" t="s">
+        <v>709</v>
+      </c>
+      <c r="J73" s="80" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="102" t="s">
-        <v>738</v>
-      </c>
-      <c r="D74" s="102"/>
-      <c r="E74" s="102"/>
-      <c r="F74" s="102"/>
-      <c r="G74" s="102"/>
-      <c r="H74" s="102"/>
-      <c r="I74" s="102"/>
-      <c r="J74" s="102"/>
+      <c r="C74" s="99" t="s">
+        <v>733</v>
+      </c>
+      <c r="D74" s="99"/>
+      <c r="E74" s="99"/>
+      <c r="F74" s="99"/>
+      <c r="G74" s="99"/>
+      <c r="H74" s="99"/>
+      <c r="I74" s="99"/>
+      <c r="J74" s="99"/>
     </row>
     <row r="75" spans="3:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C75" s="59" t="s">
@@ -10464,19 +10818,19 @@
         <v>32</v>
       </c>
       <c r="E75" s="60" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="F75" s="36" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="G75" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H75" s="62" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="I75" s="62" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="J75" s="49" t="s">
         <v>279</v>
@@ -10490,19 +10844,19 @@
         <v>32</v>
       </c>
       <c r="E76" s="60" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="F76" s="36" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="G76" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H76" s="62" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="I76" s="62" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="J76" s="49" t="s">
         <v>279</v>
@@ -10516,19 +10870,19 @@
         <v>32</v>
       </c>
       <c r="E77" s="60" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="F77" s="36" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="G77" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H77" s="62" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="I77" s="62" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="J77" s="49" t="s">
         <v>279</v>
@@ -10542,19 +10896,19 @@
         <v>32</v>
       </c>
       <c r="E78" s="60" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="F78" s="36" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="G78" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H78" s="62" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="I78" s="62" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="J78" s="49" t="s">
         <v>279</v>
@@ -10568,19 +10922,19 @@
         <v>32</v>
       </c>
       <c r="E79" s="60" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="F79" s="36" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G79" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H79" s="62" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="I79" s="62" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="J79" s="49" t="s">
         <v>279</v>
@@ -10594,19 +10948,19 @@
         <v>32</v>
       </c>
       <c r="E80" s="60" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="F80" s="36" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G80" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H80" s="62" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="I80" s="62" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="J80" s="49" t="s">
         <v>279</v>
@@ -10620,19 +10974,19 @@
         <v>32</v>
       </c>
       <c r="E81" s="60" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="F81" s="36" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="G81" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H81" s="62" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="I81" s="62" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="J81" s="49" t="s">
         <v>279</v>
@@ -10646,21 +11000,21 @@
         <v>32</v>
       </c>
       <c r="E82" s="60" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="F82" s="36" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="G82" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H82" s="62" t="s">
+        <v>762</v>
+      </c>
+      <c r="I82" s="62" t="s">
         <v>767</v>
       </c>
-      <c r="I82" s="62" t="s">
-        <v>772</v>
-      </c>
-      <c r="J82" s="101" t="s">
+      <c r="J82" s="80" t="s">
         <v>281</v>
       </c>
     </row>
@@ -10672,35 +11026,35 @@
         <v>32</v>
       </c>
       <c r="E83" s="60" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="F83" s="36" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="G83" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H83" s="62" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="I83" s="62" t="s">
-        <v>771</v>
-      </c>
-      <c r="J83" s="101" t="s">
+        <v>766</v>
+      </c>
+      <c r="J83" s="80" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="96" t="s">
-        <v>737</v>
-      </c>
-      <c r="D84" s="96"/>
-      <c r="E84" s="96"/>
-      <c r="F84" s="96"/>
-      <c r="G84" s="96"/>
-      <c r="H84" s="96"/>
-      <c r="I84" s="96"/>
-      <c r="J84" s="96"/>
+      <c r="C84" s="98" t="s">
+        <v>732</v>
+      </c>
+      <c r="D84" s="98"/>
+      <c r="E84" s="98"/>
+      <c r="F84" s="98"/>
+      <c r="G84" s="98"/>
+      <c r="H84" s="98"/>
+      <c r="I84" s="98"/>
+      <c r="J84" s="98"/>
     </row>
     <row r="85" spans="3:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C85" s="59" t="s">
@@ -10710,10 +11064,10 @@
         <v>32</v>
       </c>
       <c r="E85" s="60" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="F85" s="24" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="G85" s="36" t="s">
         <v>530</v>
@@ -10736,21 +11090,21 @@
         <v>32</v>
       </c>
       <c r="E86" s="60" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="F86" s="36" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="G86" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H86" s="62" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="I86" s="62" t="s">
-        <v>771</v>
-      </c>
-      <c r="J86" s="101" t="s">
+        <v>766</v>
+      </c>
+      <c r="J86" s="80" t="s">
         <v>281</v>
       </c>
     </row>
@@ -10762,10 +11116,10 @@
         <v>32</v>
       </c>
       <c r="E87" s="60" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="F87" s="24" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="G87" s="36" t="s">
         <v>530</v>
@@ -10788,10 +11142,10 @@
         <v>32</v>
       </c>
       <c r="E88" s="60" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="F88" s="24" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="G88" s="36" t="s">
         <v>530</v>
@@ -10800,7 +11154,7 @@
         <v>92</v>
       </c>
       <c r="I88" s="62" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="J88" s="46" t="s">
         <v>281</v>
@@ -10814,10 +11168,10 @@
         <v>32</v>
       </c>
       <c r="E89" s="60" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F89" s="24" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="G89" s="36" t="s">
         <v>530</v>
@@ -10826,7 +11180,7 @@
         <v>92</v>
       </c>
       <c r="I89" s="62" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="J89" s="46" t="s">
         <v>281</v>
@@ -10840,19 +11194,19 @@
         <v>32</v>
       </c>
       <c r="E90" s="60" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="F90" s="24" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="G90" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H90" s="62" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="I90" s="62" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="J90" s="49" t="s">
         <v>279</v>
@@ -10866,26 +11220,663 @@
         <v>32</v>
       </c>
       <c r="E91" s="60" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="F91" s="24" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="G91" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H91" s="62" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="I91" s="62" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="J91" s="49" t="s">
         <v>279</v>
       </c>
     </row>
+    <row r="92" spans="3:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="C92" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D92" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E92" s="60" t="s">
+        <v>783</v>
+      </c>
+      <c r="F92" s="36" t="s">
+        <v>784</v>
+      </c>
+      <c r="G92" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H92" s="62" t="s">
+        <v>785</v>
+      </c>
+      <c r="I92" s="62" t="s">
+        <v>786</v>
+      </c>
+      <c r="J92" s="80" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="93" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C93" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D93" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E93" s="60" t="s">
+        <v>787</v>
+      </c>
+      <c r="F93" s="36" t="s">
+        <v>788</v>
+      </c>
+      <c r="G93" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H93" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="I93" s="62" t="s">
+        <v>789</v>
+      </c>
+      <c r="J93" s="80" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="94" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C94" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D94" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E94" s="60" t="s">
+        <v>790</v>
+      </c>
+      <c r="F94" s="36" t="s">
+        <v>791</v>
+      </c>
+      <c r="G94" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H94" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="I94" s="62" t="s">
+        <v>792</v>
+      </c>
+      <c r="J94" s="80" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="95" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C95" s="99" t="s">
+        <v>798</v>
+      </c>
+      <c r="D95" s="99"/>
+      <c r="E95" s="99"/>
+      <c r="F95" s="99"/>
+      <c r="G95" s="99"/>
+      <c r="H95" s="99"/>
+      <c r="I95" s="99"/>
+      <c r="J95" s="99"/>
+    </row>
+    <row r="96" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C96" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D96" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E96" s="60" t="s">
+        <v>802</v>
+      </c>
+      <c r="F96" s="36" t="s">
+        <v>801</v>
+      </c>
+      <c r="G96" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H96" s="62" t="s">
+        <v>675</v>
+      </c>
+      <c r="I96" s="62" t="s">
+        <v>675</v>
+      </c>
+      <c r="J96" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="97" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C97" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D97" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E97" s="60" t="s">
+        <v>799</v>
+      </c>
+      <c r="F97" s="36" t="s">
+        <v>800</v>
+      </c>
+      <c r="G97" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H97" s="62" t="s">
+        <v>675</v>
+      </c>
+      <c r="I97" s="62" t="s">
+        <v>675</v>
+      </c>
+      <c r="J97" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="98" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C98" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D98" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E98" s="60" t="s">
+        <v>804</v>
+      </c>
+      <c r="F98" s="36" t="s">
+        <v>803</v>
+      </c>
+      <c r="G98" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H98" s="62" t="s">
+        <v>675</v>
+      </c>
+      <c r="I98" s="62" t="s">
+        <v>675</v>
+      </c>
+      <c r="J98" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="99" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C99" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D99" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E99" s="60" t="s">
+        <v>804</v>
+      </c>
+      <c r="F99" s="36" t="s">
+        <v>803</v>
+      </c>
+      <c r="G99" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H99" s="62" t="s">
+        <v>675</v>
+      </c>
+      <c r="I99" s="62" t="s">
+        <v>675</v>
+      </c>
+      <c r="J99" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="100" spans="3:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="C100" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D100" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E100" s="60" t="s">
+        <v>805</v>
+      </c>
+      <c r="F100" s="36" t="s">
+        <v>806</v>
+      </c>
+      <c r="G100" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H100" s="62" t="s">
+        <v>675</v>
+      </c>
+      <c r="I100" s="62" t="s">
+        <v>675</v>
+      </c>
+      <c r="J100" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="101" spans="3:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="C101" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D101" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E101" s="60" t="s">
+        <v>807</v>
+      </c>
+      <c r="F101" s="36" t="s">
+        <v>817</v>
+      </c>
+      <c r="G101" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H101" s="62" t="s">
+        <v>675</v>
+      </c>
+      <c r="I101" s="62" t="s">
+        <v>675</v>
+      </c>
+      <c r="J101" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="102" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C102" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D102" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E102" s="60" t="s">
+        <v>808</v>
+      </c>
+      <c r="F102" s="36" t="s">
+        <v>818</v>
+      </c>
+      <c r="G102" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H102" s="62" t="s">
+        <v>675</v>
+      </c>
+      <c r="I102" s="62" t="s">
+        <v>675</v>
+      </c>
+      <c r="J102" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="103" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C103" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D103" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E103" s="60" t="s">
+        <v>809</v>
+      </c>
+      <c r="F103" s="36" t="s">
+        <v>819</v>
+      </c>
+      <c r="G103" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H103" s="62" t="s">
+        <v>675</v>
+      </c>
+      <c r="I103" s="62" t="s">
+        <v>675</v>
+      </c>
+      <c r="J103" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="104" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C104" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D104" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E104" s="60" t="s">
+        <v>811</v>
+      </c>
+      <c r="F104" s="36" t="s">
+        <v>810</v>
+      </c>
+      <c r="G104" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H104" s="62" t="s">
+        <v>675</v>
+      </c>
+      <c r="I104" s="62" t="s">
+        <v>675</v>
+      </c>
+      <c r="J104" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="105" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C105" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D105" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E105" s="60" t="s">
+        <v>814</v>
+      </c>
+      <c r="F105" s="36" t="s">
+        <v>820</v>
+      </c>
+      <c r="G105" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H105" s="62" t="s">
+        <v>675</v>
+      </c>
+      <c r="I105" s="62" t="s">
+        <v>675</v>
+      </c>
+      <c r="J105" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="106" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C106" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D106" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E106" s="60" t="s">
+        <v>815</v>
+      </c>
+      <c r="F106" s="36" t="s">
+        <v>821</v>
+      </c>
+      <c r="G106" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H106" s="62" t="s">
+        <v>675</v>
+      </c>
+      <c r="I106" s="62" t="s">
+        <v>675</v>
+      </c>
+      <c r="J106" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="107" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C107" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D107" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E107" s="60" t="s">
+        <v>816</v>
+      </c>
+      <c r="F107" s="36" t="s">
+        <v>822</v>
+      </c>
+      <c r="G107" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H107" s="62" t="s">
+        <v>675</v>
+      </c>
+      <c r="I107" s="62" t="s">
+        <v>675</v>
+      </c>
+      <c r="J107" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="108" spans="3:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="C108" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D108" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E108" s="60" t="s">
+        <v>823</v>
+      </c>
+      <c r="F108" s="36" t="s">
+        <v>824</v>
+      </c>
+      <c r="G108" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H108" s="62" t="s">
+        <v>675</v>
+      </c>
+      <c r="I108" s="62" t="s">
+        <v>675</v>
+      </c>
+      <c r="J108" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="109" spans="3:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="C109" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D109" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E109" s="60" t="s">
+        <v>825</v>
+      </c>
+      <c r="F109" s="36" t="s">
+        <v>826</v>
+      </c>
+      <c r="G109" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H109" s="62" t="s">
+        <v>675</v>
+      </c>
+      <c r="I109" s="62" t="s">
+        <v>675</v>
+      </c>
+      <c r="J109" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="110" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C110" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D110" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E110" s="60" t="s">
+        <v>827</v>
+      </c>
+      <c r="F110" s="36" t="s">
+        <v>828</v>
+      </c>
+      <c r="G110" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H110" s="62" t="s">
+        <v>675</v>
+      </c>
+      <c r="I110" s="62" t="s">
+        <v>675</v>
+      </c>
+      <c r="J110" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="111" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C111" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D111" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E111" s="60" t="s">
+        <v>830</v>
+      </c>
+      <c r="F111" s="36" t="s">
+        <v>829</v>
+      </c>
+      <c r="G111" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H111" s="62" t="s">
+        <v>675</v>
+      </c>
+      <c r="I111" s="62" t="s">
+        <v>675</v>
+      </c>
+      <c r="J111" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="112" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C112" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D112" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E112" s="60" t="s">
+        <v>813</v>
+      </c>
+      <c r="F112" s="36" t="s">
+        <v>831</v>
+      </c>
+      <c r="G112" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H112" s="62" t="s">
+        <v>675</v>
+      </c>
+      <c r="I112" s="62" t="s">
+        <v>675</v>
+      </c>
+      <c r="J112" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="113" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C113" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D113" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E113" s="60" t="s">
+        <v>833</v>
+      </c>
+      <c r="F113" s="36" t="s">
+        <v>832</v>
+      </c>
+      <c r="G113" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H113" s="62" t="s">
+        <v>675</v>
+      </c>
+      <c r="I113" s="62" t="s">
+        <v>675</v>
+      </c>
+      <c r="J113" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="114" spans="3:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="C114" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D114" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E114" s="60" t="s">
+        <v>834</v>
+      </c>
+      <c r="F114" s="36" t="s">
+        <v>836</v>
+      </c>
+      <c r="G114" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H114" s="62" t="s">
+        <v>675</v>
+      </c>
+      <c r="I114" s="62" t="s">
+        <v>675</v>
+      </c>
+      <c r="J114" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="115" spans="3:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="C115" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D115" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E115" s="60" t="s">
+        <v>835</v>
+      </c>
+      <c r="F115" s="36" t="s">
+        <v>837</v>
+      </c>
+      <c r="G115" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H115" s="62" t="s">
+        <v>675</v>
+      </c>
+      <c r="I115" s="62" t="s">
+        <v>675</v>
+      </c>
+      <c r="J115" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="116" spans="3:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="C116" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D116" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E116" s="60" t="s">
+        <v>838</v>
+      </c>
+      <c r="F116" s="36" t="s">
+        <v>839</v>
+      </c>
+      <c r="G116" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H116" s="62" t="s">
+        <v>675</v>
+      </c>
+      <c r="I116" s="62" t="s">
+        <v>675</v>
+      </c>
+      <c r="J116" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="C95:J95"/>
     <mergeCell ref="C84:J84"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -10974,6 +11965,30 @@
     <hyperlink ref="C89" location="Требования!R41C1" display="F-13/2"/>
     <hyperlink ref="C90" location="Требования!R41C1" display="F-13/2"/>
     <hyperlink ref="C91" location="Требования!R41C1" display="F-13/2"/>
+    <hyperlink ref="C92" location="Требования!R41C1" display="F-13/2"/>
+    <hyperlink ref="C93" location="Требования!R41C1" display="F-13/2"/>
+    <hyperlink ref="C94" location="Требования!R41C1" display="F-13/2"/>
+    <hyperlink ref="C97" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C96" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C98" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C99" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C100" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C101" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C102" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C103" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C104" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C105" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C106" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C107" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C108" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C109" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C110" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C111" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C112" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C113" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C114" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C115" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C116" location="Требования!R33C1" display="F-11/2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10981,6 +11996,1757 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I117"/>
+  <sheetViews>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="72" t="s">
+        <v>548</v>
+      </c>
+      <c r="B1" s="73" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1" s="73" t="s">
+        <v>550</v>
+      </c>
+      <c r="D1" s="73" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="64" t="s">
+        <v>552</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E2" s="75"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="64" t="s">
+        <v>553</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E3" s="75"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="74" t="s">
+        <v>554</v>
+      </c>
+      <c r="B4" s="74" t="s">
+        <v>574</v>
+      </c>
+      <c r="C4" s="74" t="s">
+        <v>620</v>
+      </c>
+      <c r="D4" s="74" t="s">
+        <v>586</v>
+      </c>
+      <c r="E4" s="75"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="64" t="s">
+        <v>555</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E5" s="76"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="64" t="s">
+        <v>556</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E6" s="76"/>
+      <c r="I6" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="64" t="s">
+        <v>557</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E7" s="76"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="64" t="s">
+        <v>558</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E8" s="76"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="64" t="s">
+        <v>559</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E9" s="76"/>
+    </row>
+    <row r="10" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="66" t="s">
+        <v>560</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E10" s="76"/>
+    </row>
+    <row r="11" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="66" t="s">
+        <v>561</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E11" s="76"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
+        <v>563</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E12" s="76"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="46" t="s">
+        <v>564</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E13" s="76"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="46" t="s">
+        <v>565</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E14" s="76"/>
+    </row>
+    <row r="15" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="67" t="s">
+        <v>566</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E15" s="76"/>
+    </row>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="67" t="s">
+        <v>567</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E16" s="76"/>
+    </row>
+    <row r="17" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="67" t="s">
+        <v>568</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E17" s="76"/>
+    </row>
+    <row r="18" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="67" t="s">
+        <v>569</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E18" s="76"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="46" t="s">
+        <v>570</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E19" s="76"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="46" t="s">
+        <v>571</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E20" s="76"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B21" s="64" t="s">
+        <v>572</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E21" s="76"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B22" s="64" t="s">
+        <v>573</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E22" s="76"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B23" s="65" t="s">
+        <v>575</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E23" s="76"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B24" s="64" t="s">
+        <v>576</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E24" s="76"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B25" s="64" t="s">
+        <v>577</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E25" s="76"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B26" s="64" t="s">
+        <v>578</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E26" s="76"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B27" s="64" t="s">
+        <v>579</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E27" s="76"/>
+    </row>
+    <row r="28" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A28" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B28" s="66" t="s">
+        <v>580</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E28" s="76"/>
+    </row>
+    <row r="29" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B29" s="66" t="s">
+        <v>581</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E29" s="76"/>
+    </row>
+    <row r="30" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>582</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E30" s="76"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B31" s="46" t="s">
+        <v>564</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E31" s="76"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B32" s="46" t="s">
+        <v>583</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E32" s="76"/>
+    </row>
+    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B33" s="67" t="s">
+        <v>566</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E33" s="76"/>
+    </row>
+    <row r="34" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B34" s="67" t="s">
+        <v>567</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E34" s="76"/>
+    </row>
+    <row r="35" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A35" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B35" s="67" t="s">
+        <v>568</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E35" s="76"/>
+    </row>
+    <row r="36" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B36" s="67" t="s">
+        <v>584</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E36" s="76"/>
+    </row>
+    <row r="37" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B37" s="67" t="s">
+        <v>585</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E37" s="76"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B38" s="67" t="s">
+        <v>793</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E38" s="76"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B39" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C39" s="63" t="s">
+        <v>618</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B40" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C40" s="102" t="s">
+        <v>622</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B41" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C41" s="103" t="s">
+        <v>623</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E41" s="76"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B42" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C42" s="103" t="s">
+        <v>621</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E42" s="76"/>
+    </row>
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B43" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C43" s="103" t="s">
+        <v>626</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E43" s="76"/>
+    </row>
+    <row r="44" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A44" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B44" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C44" s="103" t="s">
+        <v>624</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E44" s="76"/>
+    </row>
+    <row r="45" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A45" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B45" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C45" s="103" t="s">
+        <v>625</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E45" s="76"/>
+    </row>
+    <row r="46" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B46" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C46" s="103" t="s">
+        <v>627</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E46" s="76"/>
+    </row>
+    <row r="47" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B47" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C47" s="104" t="s">
+        <v>628</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B48" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C48" s="63" t="s">
+        <v>629</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B49" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C49" s="63" t="s">
+        <v>630</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B50" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C50" s="63" t="s">
+        <v>631</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B51" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C51" s="67" t="s">
+        <v>568</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B52" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C52" s="67" t="s">
+        <v>567</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B53" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C53" s="102" t="s">
+        <v>634</v>
+      </c>
+      <c r="D53" s="28" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B54" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C54" s="102" t="s">
+        <v>635</v>
+      </c>
+      <c r="D54" s="28" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B55" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C55" s="102" t="s">
+        <v>632</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B56" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C56" s="103" t="s">
+        <v>633</v>
+      </c>
+      <c r="D56" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E56" s="76"/>
+    </row>
+    <row r="57" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="64"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="103"/>
+      <c r="D57" s="28"/>
+    </row>
+    <row r="58" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B58" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C58" s="103" t="s">
+        <v>812</v>
+      </c>
+      <c r="D58" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E58" s="76"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B59" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C59" s="105" t="s">
+        <v>619</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B60" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C60" s="105" t="s">
+        <v>636</v>
+      </c>
+      <c r="D60" s="28" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B61" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C61" s="106" t="s">
+        <v>637</v>
+      </c>
+      <c r="D61" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E61" s="76"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B62" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C62" s="106" t="s">
+        <v>638</v>
+      </c>
+      <c r="D62" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E62" s="76"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B63" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C63" s="106" t="s">
+        <v>639</v>
+      </c>
+      <c r="D63" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E63" s="76"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B64" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C64" s="106" t="s">
+        <v>640</v>
+      </c>
+      <c r="D64" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E64" s="108"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B65" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C65" s="106" t="s">
+        <v>641</v>
+      </c>
+      <c r="D65" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E65" s="76"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B66" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C66" s="105" t="s">
+        <v>642</v>
+      </c>
+      <c r="D66" s="28" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B67" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C67" s="106" t="s">
+        <v>643</v>
+      </c>
+      <c r="D67" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E67" s="76"/>
+    </row>
+    <row r="68" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A68" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B68" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C68" s="102" t="s">
+        <v>644</v>
+      </c>
+      <c r="D68" s="28" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B69" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C69" s="105" t="s">
+        <v>645</v>
+      </c>
+      <c r="D69" s="28" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B70" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C70" s="105" t="s">
+        <v>646</v>
+      </c>
+      <c r="D70" s="28" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B71" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C71" s="105" t="s">
+        <v>647</v>
+      </c>
+      <c r="D71" s="28" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B72" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C72" s="105" t="s">
+        <v>648</v>
+      </c>
+      <c r="D72" s="28" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B73" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C73" s="105" t="s">
+        <v>649</v>
+      </c>
+      <c r="D73" s="28" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B74" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C74" s="106" t="s">
+        <v>650</v>
+      </c>
+      <c r="D74" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E74" s="76"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B75" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C75" s="106" t="s">
+        <v>651</v>
+      </c>
+      <c r="D75" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E75" s="76"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B76" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C76" s="105" t="s">
+        <v>652</v>
+      </c>
+      <c r="D76" s="28" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B77" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C77" s="105" t="s">
+        <v>653</v>
+      </c>
+      <c r="D77" s="28" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B78" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C78" s="105" t="s">
+        <v>654</v>
+      </c>
+      <c r="D78" s="28" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B79" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C79" s="106" t="s">
+        <v>655</v>
+      </c>
+      <c r="D79" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E79" s="76"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B80" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C80" s="106" t="s">
+        <v>656</v>
+      </c>
+      <c r="D80" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E80" s="76"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B81" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C81" s="106" t="s">
+        <v>657</v>
+      </c>
+      <c r="D81" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E81" s="76"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B82" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C82" s="105" t="s">
+        <v>658</v>
+      </c>
+      <c r="D82" s="28" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B83" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C83" s="105" t="s">
+        <v>659</v>
+      </c>
+      <c r="D83" s="28" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B84" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C84" s="105" t="s">
+        <v>660</v>
+      </c>
+      <c r="D84" s="28" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="64"/>
+      <c r="B85" s="64"/>
+      <c r="C85" s="106"/>
+      <c r="D85" s="28"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B86" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C86" s="105" t="s">
+        <v>661</v>
+      </c>
+      <c r="D86" s="28" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B87" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C87" s="105" t="s">
+        <v>662</v>
+      </c>
+      <c r="D87" s="28" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B88" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C88" s="105" t="s">
+        <v>663</v>
+      </c>
+      <c r="D88" s="28" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B89" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C89" s="105" t="s">
+        <v>664</v>
+      </c>
+      <c r="D89" s="28" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B90" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C90" s="105" t="s">
+        <v>665</v>
+      </c>
+      <c r="D90" s="28" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B91" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C91" s="105" t="s">
+        <v>666</v>
+      </c>
+      <c r="D91" s="28" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B92" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C92" s="63" t="s">
+        <v>667</v>
+      </c>
+      <c r="D92" s="28" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B93" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C93" s="63" t="s">
+        <v>668</v>
+      </c>
+      <c r="D93" s="28" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A94" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B94" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C94" s="103" t="s">
+        <v>794</v>
+      </c>
+      <c r="D94" s="28" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A95" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B95" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C95" s="102" t="s">
+        <v>669</v>
+      </c>
+      <c r="D95" s="28" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B96" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C96" s="102" t="s">
+        <v>670</v>
+      </c>
+      <c r="D96" s="28" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B97" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C97" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D97" s="107" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B98" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C98" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D98" s="107" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B99" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C99" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D99" s="107" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B100" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C100" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D100" s="107" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B101" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C101" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D101" s="107" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B102" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C102" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D102" s="63" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B103" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C103" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D103" s="63" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B104" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C104" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D104" s="63" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B105" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C105" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D105" s="63" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B106" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C106" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D106" s="63">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A107" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B107" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C107" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D107" s="67" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B108" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C108" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D108" s="67" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A109" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B109" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C109" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D109" s="67" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B110" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C110" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D110" s="63" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B111" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C111" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D111" s="63" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B112" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C112" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D112" s="63" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B113" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C113" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D113" s="68" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B114" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C114" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D114" s="69" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B115" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C115" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D115" s="63" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B116" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C116" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D116" s="63" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B117" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C117" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D117" s="63" t="s">
+        <v>797</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C40" r:id="rId1"/>
+    <hyperlink ref="C41" r:id="rId2"/>
+    <hyperlink ref="C42" r:id="rId3"/>
+    <hyperlink ref="C43" r:id="rId4"/>
+    <hyperlink ref="C44" r:id="rId5"/>
+    <hyperlink ref="C45" r:id="rId6"/>
+    <hyperlink ref="C53" r:id="rId7"/>
+    <hyperlink ref="C54" r:id="rId8"/>
+    <hyperlink ref="C55" r:id="rId9"/>
+    <hyperlink ref="C56" r:id="rId10"/>
+    <hyperlink ref="C58" r:id="rId11" display="12312442112@mail.ru"/>
+    <hyperlink ref="C59" r:id="rId12"/>
+    <hyperlink ref="C60" r:id="rId13" display="testing@.ru"/>
+    <hyperlink ref="C61" r:id="rId14"/>
+    <hyperlink ref="C62" r:id="rId15"/>
+    <hyperlink ref="C63" r:id="rId16"/>
+    <hyperlink ref="C64" r:id="rId17"/>
+    <hyperlink ref="C65" r:id="rId18"/>
+    <hyperlink ref="C66" r:id="rId19"/>
+    <hyperlink ref="C67" r:id="rId20"/>
+    <hyperlink ref="C68" r:id="rId21"/>
+    <hyperlink ref="C69" r:id="rId22"/>
+    <hyperlink ref="C70" r:id="rId23"/>
+    <hyperlink ref="C71" r:id="rId24"/>
+    <hyperlink ref="C72" r:id="rId25"/>
+    <hyperlink ref="C73" r:id="rId26"/>
+    <hyperlink ref="C74" r:id="rId27"/>
+    <hyperlink ref="C75" r:id="rId28"/>
+    <hyperlink ref="C76" r:id="rId29"/>
+    <hyperlink ref="C77" r:id="rId30"/>
+    <hyperlink ref="C78" r:id="rId31"/>
+    <hyperlink ref="C79" r:id="rId32"/>
+    <hyperlink ref="C80" r:id="rId33"/>
+    <hyperlink ref="C81" r:id="rId34"/>
+    <hyperlink ref="C82" r:id="rId35"/>
+    <hyperlink ref="C83" r:id="rId36"/>
+    <hyperlink ref="C84" r:id="rId37"/>
+    <hyperlink ref="C86" r:id="rId38"/>
+    <hyperlink ref="C87" r:id="rId39"/>
+    <hyperlink ref="C88" r:id="rId40"/>
+    <hyperlink ref="C89" r:id="rId41"/>
+    <hyperlink ref="C90" r:id="rId42"/>
+    <hyperlink ref="C91" r:id="rId43"/>
+    <hyperlink ref="C94" r:id="rId44"/>
+    <hyperlink ref="C95" r:id="rId45"/>
+    <hyperlink ref="C96" r:id="rId46"/>
+    <hyperlink ref="C46" r:id="rId47"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
@@ -10999,18 +13765,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="97" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="97" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -11136,1726 +13902,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I115"/>
-  <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
-        <v>548</v>
-      </c>
-      <c r="B1" s="74" t="s">
-        <v>549</v>
-      </c>
-      <c r="C1" s="74" t="s">
-        <v>550</v>
-      </c>
-      <c r="D1" s="74" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
-        <v>552</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>574</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>587</v>
-      </c>
-      <c r="E2" s="95"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
-        <v>553</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>574</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>587</v>
-      </c>
-      <c r="E3" s="95"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>554</v>
-      </c>
-      <c r="B4" s="75" t="s">
-        <v>574</v>
-      </c>
-      <c r="C4" s="75" t="s">
-        <v>622</v>
-      </c>
-      <c r="D4" s="75" t="s">
-        <v>587</v>
-      </c>
-      <c r="E4" s="95"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
-        <v>555</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>574</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>587</v>
-      </c>
-      <c r="E5" s="97"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
-        <v>556</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>574</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>587</v>
-      </c>
-      <c r="E6" s="97"/>
-      <c r="I6" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="64" t="s">
-        <v>557</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>574</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>587</v>
-      </c>
-      <c r="E7" s="97"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="64" t="s">
-        <v>558</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>574</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>587</v>
-      </c>
-      <c r="E8" s="97"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="64" t="s">
-        <v>559</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>574</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>587</v>
-      </c>
-      <c r="E9" s="97"/>
-    </row>
-    <row r="10" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="66" t="s">
-        <v>560</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>574</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>587</v>
-      </c>
-      <c r="E10" s="97"/>
-    </row>
-    <row r="11" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="66" t="s">
-        <v>561</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>574</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>587</v>
-      </c>
-      <c r="E11" s="97"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
-        <v>563</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>574</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>587</v>
-      </c>
-      <c r="E12" s="97"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
-        <v>564</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>574</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>587</v>
-      </c>
-      <c r="E13" s="97"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
-        <v>565</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>574</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>587</v>
-      </c>
-      <c r="E14" s="97"/>
-    </row>
-    <row r="15" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="67" t="s">
-        <v>566</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>574</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>587</v>
-      </c>
-      <c r="E15" s="97"/>
-    </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="67" t="s">
-        <v>567</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>574</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>587</v>
-      </c>
-      <c r="E16" s="97"/>
-    </row>
-    <row r="17" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="67" t="s">
-        <v>568</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>574</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>587</v>
-      </c>
-      <c r="E17" s="97"/>
-    </row>
-    <row r="18" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
-        <v>569</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>574</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>587</v>
-      </c>
-      <c r="E18" s="97"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
-        <v>570</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>574</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>587</v>
-      </c>
-      <c r="E19" s="97"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
-        <v>571</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>574</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>587</v>
-      </c>
-      <c r="E20" s="97"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B21" s="64" t="s">
-        <v>572</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>587</v>
-      </c>
-      <c r="E21" s="97"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B22" s="64" t="s">
-        <v>573</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>587</v>
-      </c>
-      <c r="E22" s="97"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B23" s="65" t="s">
-        <v>575</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>587</v>
-      </c>
-      <c r="E23" s="97"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B24" s="64" t="s">
-        <v>576</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>587</v>
-      </c>
-      <c r="E24" s="97"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B25" s="64" t="s">
-        <v>577</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>587</v>
-      </c>
-      <c r="E25" s="97"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B26" s="64" t="s">
-        <v>578</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>587</v>
-      </c>
-      <c r="E26" s="97"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B27" s="64" t="s">
-        <v>579</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>587</v>
-      </c>
-      <c r="E27" s="97"/>
-    </row>
-    <row r="28" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A28" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B28" s="66" t="s">
-        <v>580</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>587</v>
-      </c>
-      <c r="E28" s="97"/>
-    </row>
-    <row r="29" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B29" s="66" t="s">
-        <v>581</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>587</v>
-      </c>
-      <c r="E29" s="97"/>
-    </row>
-    <row r="30" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B30" s="46" t="s">
-        <v>582</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>587</v>
-      </c>
-      <c r="E30" s="97"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B31" s="46" t="s">
-        <v>564</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>587</v>
-      </c>
-      <c r="E31" s="97"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B32" s="46" t="s">
-        <v>583</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>587</v>
-      </c>
-      <c r="E32" s="97"/>
-    </row>
-    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B33" s="67" t="s">
-        <v>566</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D33" s="28" t="s">
-        <v>587</v>
-      </c>
-      <c r="E33" s="97"/>
-    </row>
-    <row r="34" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B34" s="67" t="s">
-        <v>567</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D34" s="28" t="s">
-        <v>587</v>
-      </c>
-      <c r="E34" s="97"/>
-    </row>
-    <row r="35" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A35" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B35" s="67" t="s">
-        <v>568</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D35" s="28" t="s">
-        <v>587</v>
-      </c>
-      <c r="E35" s="97"/>
-    </row>
-    <row r="36" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B36" s="67" t="s">
-        <v>584</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D36" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B37" s="67" t="s">
-        <v>585</v>
-      </c>
-      <c r="C37" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B38" s="67" t="s">
-        <v>586</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D38" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B39" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C39" t="s">
-        <v>620</v>
-      </c>
-      <c r="D39" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B40" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C40" s="72" t="s">
-        <v>624</v>
-      </c>
-      <c r="D40" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B41" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C41" s="72" t="s">
-        <v>625</v>
-      </c>
-      <c r="D41" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B42" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C42" s="72" t="s">
-        <v>623</v>
-      </c>
-      <c r="D42" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B43" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C43" s="72" t="s">
-        <v>628</v>
-      </c>
-      <c r="D43" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A44" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B44" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C44" s="72" t="s">
-        <v>626</v>
-      </c>
-      <c r="D44" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A45" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B45" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C45" s="72" t="s">
-        <v>627</v>
-      </c>
-      <c r="D45" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B46" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C46" s="72" t="s">
-        <v>629</v>
-      </c>
-      <c r="D46" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B47" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>630</v>
-      </c>
-      <c r="D47" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B48" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C48" t="s">
-        <v>631</v>
-      </c>
-      <c r="D48" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B49" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C49" t="s">
-        <v>632</v>
-      </c>
-      <c r="D49" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B50" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C50" t="s">
-        <v>633</v>
-      </c>
-      <c r="D50" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B51" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C51" s="67" t="s">
-        <v>568</v>
-      </c>
-      <c r="D51" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B52" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C52" s="67" t="s">
-        <v>567</v>
-      </c>
-      <c r="D52" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B53" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C53" s="72" t="s">
-        <v>637</v>
-      </c>
-      <c r="D53" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B54" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C54" s="72" t="s">
-        <v>638</v>
-      </c>
-      <c r="D54" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B55" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C55" s="72" t="s">
-        <v>634</v>
-      </c>
-      <c r="D55" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B56" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C56" s="72" t="s">
-        <v>635</v>
-      </c>
-      <c r="D56" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B57" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C57" s="72" t="s">
-        <v>622</v>
-      </c>
-      <c r="D57" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B58" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C58" s="72" t="s">
-        <v>636</v>
-      </c>
-      <c r="D58" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B59" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C59" s="59" t="s">
-        <v>621</v>
-      </c>
-      <c r="D59" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B60" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C60" s="59" t="s">
-        <v>639</v>
-      </c>
-      <c r="D60" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B61" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C61" s="59" t="s">
-        <v>640</v>
-      </c>
-      <c r="D61" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B62" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C62" s="59" t="s">
-        <v>641</v>
-      </c>
-      <c r="D62" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B63" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C63" s="59" t="s">
-        <v>642</v>
-      </c>
-      <c r="D63" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B64" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C64" s="59" t="s">
-        <v>643</v>
-      </c>
-      <c r="D64" s="28" t="s">
-        <v>587</v>
-      </c>
-      <c r="E64" s="72"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B65" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C65" s="59" t="s">
-        <v>644</v>
-      </c>
-      <c r="D65" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B66" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C66" s="59" t="s">
-        <v>645</v>
-      </c>
-      <c r="D66" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B67" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C67" s="59" t="s">
-        <v>646</v>
-      </c>
-      <c r="D67" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A68" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B68" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C68" s="72" t="s">
-        <v>647</v>
-      </c>
-      <c r="D68" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B69" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C69" s="59" t="s">
-        <v>648</v>
-      </c>
-      <c r="D69" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B70" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C70" s="59" t="s">
-        <v>649</v>
-      </c>
-      <c r="D70" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B71" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C71" s="59" t="s">
-        <v>650</v>
-      </c>
-      <c r="D71" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B72" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C72" s="59" t="s">
-        <v>651</v>
-      </c>
-      <c r="D72" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B73" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C73" s="59" t="s">
-        <v>652</v>
-      </c>
-      <c r="D73" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B74" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C74" s="59" t="s">
-        <v>653</v>
-      </c>
-      <c r="D74" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B75" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C75" s="59" t="s">
-        <v>654</v>
-      </c>
-      <c r="D75" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B76" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C76" s="59" t="s">
-        <v>655</v>
-      </c>
-      <c r="D76" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B77" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C77" s="59" t="s">
-        <v>656</v>
-      </c>
-      <c r="D77" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B78" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C78" s="59" t="s">
-        <v>657</v>
-      </c>
-      <c r="D78" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B79" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C79" s="59" t="s">
-        <v>658</v>
-      </c>
-      <c r="D79" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B80" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C80" s="59" t="s">
-        <v>659</v>
-      </c>
-      <c r="D80" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B81" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C81" s="59" t="s">
-        <v>660</v>
-      </c>
-      <c r="D81" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B82" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C82" s="59" t="s">
-        <v>661</v>
-      </c>
-      <c r="D82" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B83" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C83" s="59" t="s">
-        <v>662</v>
-      </c>
-      <c r="D83" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B84" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C84" s="59" t="s">
-        <v>663</v>
-      </c>
-      <c r="D84" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B85" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C85" s="59" t="s">
-        <v>664</v>
-      </c>
-      <c r="D85" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B86" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C86" s="59" t="s">
-        <v>665</v>
-      </c>
-      <c r="D86" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B87" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C87" s="59" t="s">
-        <v>666</v>
-      </c>
-      <c r="D87" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B88" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C88" s="59" t="s">
-        <v>667</v>
-      </c>
-      <c r="D88" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B89" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C89" s="59" t="s">
-        <v>668</v>
-      </c>
-      <c r="D89" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B90" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C90" s="59" t="s">
-        <v>669</v>
-      </c>
-      <c r="D90" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B91" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C91" s="59" t="s">
-        <v>670</v>
-      </c>
-      <c r="D91" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B92" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C92" t="s">
-        <v>671</v>
-      </c>
-      <c r="D92" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B93" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C93" t="s">
-        <v>672</v>
-      </c>
-      <c r="D93" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A94" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B94" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C94" s="72" t="s">
-        <v>673</v>
-      </c>
-      <c r="D94" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A95" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B95" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C95" s="72" t="s">
-        <v>674</v>
-      </c>
-      <c r="D95" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B96" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C96" s="72" t="s">
-        <v>675</v>
-      </c>
-      <c r="D96" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B97" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C97" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D97" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B98" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C98" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D98" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B99" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C99" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D99" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B100" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C100" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D100" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B101" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C101" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D101" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B102" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C102" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D102" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B103" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C103" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D103" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B104" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C104" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D104" s="63" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B105" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C105" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D105" s="63" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B106" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C106" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D106" s="63">
-        <v>12345678</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A107" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B107" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C107" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D107" s="67" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B108" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C108" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D108" s="67" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A109" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B109" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C109" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D109" s="67" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B110" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C110" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D110" s="63" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B111" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C111" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D111" s="68" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B112" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C112" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D112" s="63" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B113" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C113" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D113" s="68" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B114" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C114" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D114" s="69" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B115" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C115" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D115" s="63" t="s">
-        <v>588</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C40" r:id="rId1"/>
-    <hyperlink ref="C41" r:id="rId2"/>
-    <hyperlink ref="C42" r:id="rId3"/>
-    <hyperlink ref="C43" r:id="rId4"/>
-    <hyperlink ref="C44" r:id="rId5"/>
-    <hyperlink ref="C45" r:id="rId6"/>
-    <hyperlink ref="C46" r:id="rId7"/>
-    <hyperlink ref="C53" r:id="rId8"/>
-    <hyperlink ref="C54" r:id="rId9"/>
-    <hyperlink ref="C55" r:id="rId10"/>
-    <hyperlink ref="C56" r:id="rId11"/>
-    <hyperlink ref="C57" r:id="rId12"/>
-    <hyperlink ref="C58" r:id="rId13"/>
-    <hyperlink ref="C59" r:id="rId14"/>
-    <hyperlink ref="C60" r:id="rId15" display="testing@.ru"/>
-    <hyperlink ref="C61" r:id="rId16"/>
-    <hyperlink ref="C62" r:id="rId17"/>
-    <hyperlink ref="C63" r:id="rId18"/>
-    <hyperlink ref="C64" r:id="rId19"/>
-    <hyperlink ref="C65" r:id="rId20"/>
-    <hyperlink ref="C66" r:id="rId21"/>
-    <hyperlink ref="C67" r:id="rId22"/>
-    <hyperlink ref="C68" r:id="rId23"/>
-    <hyperlink ref="C69" r:id="rId24"/>
-    <hyperlink ref="C70" r:id="rId25"/>
-    <hyperlink ref="C71" r:id="rId26"/>
-    <hyperlink ref="C72" r:id="rId27"/>
-    <hyperlink ref="C73" r:id="rId28"/>
-    <hyperlink ref="C74" r:id="rId29"/>
-    <hyperlink ref="C75" r:id="rId30"/>
-    <hyperlink ref="C76" r:id="rId31"/>
-    <hyperlink ref="C77" r:id="rId32"/>
-    <hyperlink ref="C78" r:id="rId33"/>
-    <hyperlink ref="C79" r:id="rId34"/>
-    <hyperlink ref="C80" r:id="rId35"/>
-    <hyperlink ref="C81" r:id="rId36"/>
-    <hyperlink ref="C82" r:id="rId37"/>
-    <hyperlink ref="C83" r:id="rId38"/>
-    <hyperlink ref="C84" r:id="rId39"/>
-    <hyperlink ref="C85" r:id="rId40"/>
-    <hyperlink ref="C86" r:id="rId41"/>
-    <hyperlink ref="C87" r:id="rId42"/>
-    <hyperlink ref="C88" r:id="rId43"/>
-    <hyperlink ref="C89" r:id="rId44"/>
-    <hyperlink ref="C90" r:id="rId45"/>
-    <hyperlink ref="C91" r:id="rId46"/>
-    <hyperlink ref="C94" r:id="rId47"/>
-    <hyperlink ref="C95" r:id="rId48"/>
-    <hyperlink ref="C96" r:id="rId49"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -12895,16 +13941,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="70" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C2" s="70" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D2" s="70" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E2" s="70" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -12912,30 +13958,30 @@
         <v>2</v>
       </c>
       <c r="B3" s="70" t="s">
+        <v>615</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>616</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>616</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>616</v>
+      </c>
+      <c r="G3" s="100" t="s">
         <v>617</v>
       </c>
-      <c r="C3" s="46" t="s">
-        <v>618</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>618</v>
-      </c>
-      <c r="E3" s="46" t="s">
-        <v>618</v>
-      </c>
-      <c r="G3" s="93" t="s">
-        <v>619</v>
-      </c>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="28">
         <v>3</v>
       </c>
       <c r="B4" s="70" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C4" s="71" t="s">
         <v>564</v>
@@ -12946,73 +13992,73 @@
       <c r="E4" s="71" t="s">
         <v>564</v>
       </c>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="28">
         <v>4</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D5" s="71" t="s">
         <v>564</v>
       </c>
       <c r="E5" s="70" t="s">
-        <v>617</v>
-      </c>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
+        <v>615</v>
+      </c>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="101"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="28">
         <v>5</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C6" s="71" t="s">
         <v>564</v>
       </c>
       <c r="D6" s="70" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>618</v>
-      </c>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
+        <v>616</v>
+      </c>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>6</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E7" s="71" t="s">
         <v>564</v>
       </c>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
@@ -13025,15 +14071,15 @@
         <v>564</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E8" s="70" t="s">
-        <v>617</v>
-      </c>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
+        <v>615</v>
+      </c>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
@@ -13043,13 +14089,13 @@
         <v>564</v>
       </c>
       <c r="C9" s="70" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D9" s="71" t="s">
         <v>564</v>
       </c>
       <c r="E9" s="46" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -13060,10 +14106,10 @@
         <v>564</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D10" s="70" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E10" s="71" t="s">
         <v>564</v>

--- a/webform_testing.xlsx
+++ b/webform_testing.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2231" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="895">
   <si>
     <t>Требования к
 https://itcareer.pythonanywhere.com/</t>
@@ -2270,10 +2270,6 @@
     <t>testing@m.a-il.ru</t>
   </si>
   <si>
-    <t>testing@~`!@#$%^~`!@#$%^
-&amp;*'()_+=-\|&lt;/&gt;{.}[,]";:?.ru</t>
-  </si>
-  <si>
     <t>tesing@ mail .ru</t>
   </si>
   <si>
@@ -2293,9 +2289,6 @@
   </si>
   <si>
     <t>testing@1242153511414.ru</t>
-  </si>
-  <si>
-    <t>testing@.mail.ru</t>
   </si>
   <si>
     <t>testing@mail.</t>
@@ -3988,6 +3981,286 @@
 Surame: Nurmalov
 Email: testingtestingtestingtestingtestingtestingtestingtestingtestgt@mailmailmailmailmailmailmailmail@ruuuuuuuuuuuuuuu
 Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с некорректными данными поля Email</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame:Nurmalov
+Email:  testing @mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame:Nurmalov
+Email:  test ing@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>Отправка пробелов в середине имени почтового ящика до  @ в поле Email</t>
+  </si>
+  <si>
+    <t>Отправка пробелов на начале и до @ в поле Email</t>
+  </si>
+  <si>
+    <t>Отправка без имени почтового ящика до @ в поле Email</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame:Nurmalov
+Email:@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>Отправка тэгов в поле Email</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame:Nurmalov
+Email:&lt;b&gt;data &lt;/b&gt;
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>Отправка SQL-инъекций в поле Email</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame:Nurmalov
+Email: SELECT * from USERS
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с 65 символами до @ в поле Email</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email:testingtestingtestingtestingtestingtestingtestingtestingtestingti@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с русскими символами до @ в поле Email</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email:тестинг@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с двумя корректными символами до @ в поле Email</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email: ..testing@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя без имени домена (после @ и до последней) в поле Email</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email: testing@.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с одним символом имени домена (после @ и до последней) в поле Email</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email: testing@m.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с 33 символом имени домена (после @ и до последней) в поле Email</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email: testing@mailmailmailmailmailmailmailmailm.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>testing@~`!@#$%^~`!@#$%^.ru
+&amp;*'()_+=-\|&lt;/&gt;{.}[,]";:?.ru</t>
+  </si>
+  <si>
+    <t>Отправка спецсимволов до @ в поле Email</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame:Nurmalov
+Email:~`!@#$%^&amp;*'()_+=-\|&lt;/&gt;{.}[,]";:?@mail.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>Отправка спецсимволов имени домена (после @ и до последней) в поле Email</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email: testing@~`!@#$%^~`!@#$%^.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>Отправка пробелов в середине имени домена (после @ и до последней) в поле Email</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email: testing@ma il.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>Отправка пробелов в начале и конце имени домена (после @ и до последней) в поле Email</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email: testing@ mail .ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>Отправка пробелов в имени домена (после @ и до последней) в поле Email</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email: testing@            .ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>Отправка русскими символами в имени домена (после @ и до последней) в поле Email</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email: testing@маил.ru
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>Отправка без имени домена (после последней .  )в поле Email</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email: testing@mail.
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email: testing@mail.r
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email: testing@mail.ruuuuuuuuuuuuuuuu
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>Отправка с цифрами в имени домена (после последней .  )в поле Email</t>
+  </si>
+  <si>
+    <t>Отправка с 17 символами в имени домена (после последней .  )в поле Email</t>
+  </si>
+  <si>
+    <t>Отправка с одним символом в имени домена (после последней .  )в поле Email</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email: testing@mail.123
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>Отправка спецсимволом в имени домена (после последней .  )в поле Email</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email: testing@mail.testing@mail.~`!@#$%^~`!@#$%^
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>Отправка с пробелами в середине имени домена (после последней .  )в поле Email</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email: testing@mail.r u
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>Отправка  пробелов в середине имени домена (после последней .  )в поле Email</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email: testing@mail.          
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>Отправка  русских символов в  имени домена (после последней .  )в поле Email</t>
+  </si>
+  <si>
+    <t>Отправка  двух подряд @ в поле Email</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email: testing@@mail.ru       
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>Отправка  без @ в поле Email</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email: testingmail.ru       
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email: testingtestingtestingtestingtestingtestingtestingtestingtestingte@mailmailmailmailmailmailmailmaiml@ruuuuuuuuuuuuuuuu   
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>Отправка  117 символов в поле Email</t>
   </si>
 </sst>
 </file>
@@ -4573,6 +4846,21 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4624,10 +4912,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4635,21 +4923,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5316,11 +5589,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
@@ -5337,7 +5610,7 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="98" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -5348,7 +5621,7 @@
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="92"/>
+      <c r="B4" s="99"/>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
@@ -5357,7 +5630,7 @@
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="92"/>
+      <c r="B5" s="99"/>
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
@@ -5366,7 +5639,7 @@
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="93"/>
+      <c r="B6" s="100"/>
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
@@ -5375,7 +5648,7 @@
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="101" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -5386,7 +5659,7 @@
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="92"/>
+      <c r="B8" s="99"/>
       <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
@@ -5395,7 +5668,7 @@
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="93"/>
+      <c r="B9" s="100"/>
       <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
@@ -5448,10 +5721,10 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="84"/>
+      <c r="C14" s="91"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -5469,7 +5742,7 @@
       <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="94" t="s">
+      <c r="B16" s="101" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -5480,7 +5753,7 @@
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="92"/>
+      <c r="B17" s="99"/>
       <c r="C17" s="4" t="s">
         <v>39</v>
       </c>
@@ -5489,7 +5762,7 @@
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="93"/>
+      <c r="B18" s="100"/>
       <c r="C18" s="4" t="s">
         <v>41</v>
       </c>
@@ -5498,7 +5771,7 @@
       <c r="A19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="95" t="s">
+      <c r="B19" s="102" t="s">
         <v>43</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -5509,7 +5782,7 @@
       <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="95"/>
+      <c r="B20" s="102"/>
       <c r="C20" s="4" t="s">
         <v>46</v>
       </c>
@@ -5518,7 +5791,7 @@
       <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="95"/>
+      <c r="B21" s="102"/>
       <c r="C21" s="4" t="s">
         <v>48</v>
       </c>
@@ -5527,7 +5800,7 @@
       <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="95"/>
+      <c r="B22" s="102"/>
       <c r="C22" s="4" t="s">
         <v>50</v>
       </c>
@@ -5842,10 +6115,10 @@
     </row>
     <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
-      <c r="B51" s="81" t="s">
+      <c r="B51" s="88" t="s">
         <v>129</v>
       </c>
-      <c r="C51" s="82"/>
+      <c r="C51" s="89"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -5959,10 +6232,10 @@
     </row>
     <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12"/>
-      <c r="B62" s="83" t="s">
+      <c r="B62" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="C62" s="84"/>
+      <c r="C62" s="91"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -6076,10 +6349,10 @@
     </row>
     <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="14"/>
-      <c r="B73" s="85" t="s">
+      <c r="B73" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="C73" s="86"/>
+      <c r="C73" s="93"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
@@ -6204,10 +6477,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="15"/>
-      <c r="B85" s="87" t="s">
+      <c r="B85" s="94" t="s">
         <v>188</v>
       </c>
-      <c r="C85" s="88"/>
+      <c r="C85" s="95"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
@@ -6358,11 +6631,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="104" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
@@ -6370,11 +6643,11 @@
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="104" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
@@ -6382,16 +6655,16 @@
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="103" t="s">
         <v>265</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
     </row>
     <row r="4" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
@@ -6524,16 +6797,16 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="96" t="s">
+      <c r="A9" s="103" t="s">
         <v>282</v>
       </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
     </row>
     <row r="10" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
@@ -6640,16 +6913,16 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="103" t="s">
         <v>291</v>
       </c>
-      <c r="B14" s="96"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
     </row>
     <row r="15" spans="1:8" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
@@ -6938,16 +7211,16 @@
       </c>
     </row>
     <row r="26" spans="1:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="96" t="s">
+      <c r="A26" s="103" t="s">
         <v>318</v>
       </c>
-      <c r="B26" s="96"/>
-      <c r="C26" s="96"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="96"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="103"/>
     </row>
     <row r="27" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
@@ -7404,11 +7677,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="104" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
@@ -7416,11 +7689,11 @@
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="104" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
@@ -7428,16 +7701,16 @@
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="103" t="s">
         <v>338</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
     </row>
     <row r="4" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
@@ -7622,16 +7895,16 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="103" t="s">
         <v>351</v>
       </c>
-      <c r="B11" s="96"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
     </row>
     <row r="12" spans="1:8" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
@@ -7790,16 +8063,16 @@
       </c>
     </row>
     <row r="18" spans="1:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="96" t="s">
+      <c r="A18" s="103" t="s">
         <v>382</v>
       </c>
-      <c r="B18" s="96"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
     </row>
     <row r="19" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
@@ -8539,16 +8812,16 @@
       <c r="CE36" s="34"/>
     </row>
     <row r="37" spans="1:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="96" t="s">
+      <c r="A37" s="103" t="s">
         <v>318</v>
       </c>
-      <c r="B37" s="96"/>
-      <c r="C37" s="96"/>
-      <c r="D37" s="96"/>
-      <c r="E37" s="96"/>
-      <c r="F37" s="96"/>
-      <c r="G37" s="96"/>
-      <c r="H37" s="96"/>
+      <c r="B37" s="103"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="103"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="103"/>
+      <c r="H37" s="103"/>
       <c r="K37" s="34"/>
       <c r="N37" s="34"/>
       <c r="Q37" s="34"/>
@@ -8850,10 +9123,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J116"/>
+  <dimension ref="A1:J145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F128" sqref="F128"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G149" sqref="G149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8868,18 +9141,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="104" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="104" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
@@ -9051,7 +9324,7 @@
         <v>465</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>89</v>
@@ -9083,7 +9356,7 @@
         <v>452</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>95</v>
@@ -9115,7 +9388,7 @@
         <v>452</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>86</v>
@@ -9368,7 +9641,7 @@
         <v>452</v>
       </c>
       <c r="G18" s="44" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>59</v>
@@ -9484,7 +9757,7 @@
         <v>452</v>
       </c>
       <c r="G22" s="44" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="H22" s="11" t="s">
         <v>62</v>
@@ -9942,7 +10215,7 @@
         <v>525</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="G38" s="36" t="s">
         <v>528</v>
@@ -9971,7 +10244,7 @@
         <v>527</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="G39" s="36" t="s">
         <v>530</v>
@@ -9997,7 +10270,7 @@
         <v>32</v>
       </c>
       <c r="E40" s="60" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G40" s="36" t="s">
         <v>530</v>
@@ -10044,7 +10317,7 @@
         <v>94</v>
       </c>
       <c r="F43" s="36" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="G43" s="36" t="s">
         <v>530</v>
@@ -10073,7 +10346,7 @@
         <v>97</v>
       </c>
       <c r="F44" s="36" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="G44" s="36" t="s">
         <v>530</v>
@@ -10125,7 +10398,7 @@
         <v>113</v>
       </c>
       <c r="F46" s="36" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="G46" s="36" t="s">
         <v>528</v>
@@ -10151,7 +10424,7 @@
         <v>543</v>
       </c>
       <c r="F47" s="36" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="G47" s="36" t="s">
         <v>530</v>
@@ -10177,7 +10450,7 @@
         <v>544</v>
       </c>
       <c r="F48" s="36" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="G48" s="36" t="s">
         <v>545</v>
@@ -10203,7 +10476,7 @@
         <v>546</v>
       </c>
       <c r="F49" s="36" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="G49" s="36" t="s">
         <v>547</v>
@@ -10219,16 +10492,16 @@
       </c>
     </row>
     <row r="50" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="98" t="s">
-        <v>710</v>
-      </c>
-      <c r="D50" s="98"/>
-      <c r="E50" s="98"/>
-      <c r="F50" s="98"/>
-      <c r="G50" s="98"/>
-      <c r="H50" s="98"/>
-      <c r="I50" s="98"/>
-      <c r="J50" s="98"/>
+      <c r="C50" s="106" t="s">
+        <v>708</v>
+      </c>
+      <c r="D50" s="106"/>
+      <c r="E50" s="106"/>
+      <c r="F50" s="106"/>
+      <c r="G50" s="106"/>
+      <c r="H50" s="106"/>
+      <c r="I50" s="106"/>
+      <c r="J50" s="106"/>
     </row>
     <row r="51" spans="3:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C51" s="59" t="s">
@@ -10238,16 +10511,16 @@
         <v>32</v>
       </c>
       <c r="E51" s="60" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F51" s="36" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G51" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H51" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I51" s="62" t="s">
         <v>86</v>
@@ -10264,16 +10537,16 @@
         <v>32</v>
       </c>
       <c r="E52" s="60" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F52" s="36" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G52" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H52" s="62" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="I52" s="62" t="s">
         <v>86</v>
@@ -10290,19 +10563,19 @@
         <v>32</v>
       </c>
       <c r="E53" s="60" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F53" s="36" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="G53" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H53" s="62" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I53" s="62" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J53" s="49" t="s">
         <v>279</v>
@@ -10316,19 +10589,19 @@
         <v>32</v>
       </c>
       <c r="E54" s="60" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F54" s="36" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G54" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H54" s="62" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="I54" s="62" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="J54" s="49" t="s">
         <v>279</v>
@@ -10342,19 +10615,19 @@
         <v>32</v>
       </c>
       <c r="E55" s="60" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F55" s="36" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="G55" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H55" s="62" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="I55" s="62" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="J55" s="49" t="s">
         <v>279</v>
@@ -10368,19 +10641,19 @@
         <v>32</v>
       </c>
       <c r="E56" s="60" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F56" s="36" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G56" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H56" s="62" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I56" s="62" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="J56" s="49" t="s">
         <v>279</v>
@@ -10404,19 +10677,19 @@
         <v>32</v>
       </c>
       <c r="E58" s="60" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F58" s="36" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G58" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H58" s="62" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="I58" s="62" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="J58" s="49" t="s">
         <v>279</v>
@@ -10430,19 +10703,19 @@
         <v>32</v>
       </c>
       <c r="E59" s="60" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="F59" s="36" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="G59" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H59" s="62" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="I59" s="62" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="J59" s="49" t="s">
         <v>279</v>
@@ -10456,16 +10729,16 @@
         <v>32</v>
       </c>
       <c r="E60" s="60" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F60" s="36" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G60" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H60" s="62" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="I60" s="62" t="s">
         <v>86</v>
@@ -10482,16 +10755,16 @@
         <v>32</v>
       </c>
       <c r="E61" s="60" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="F61" s="36" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G61" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H61" s="62" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="I61" s="62" t="s">
         <v>86</v>
@@ -10508,16 +10781,16 @@
         <v>32</v>
       </c>
       <c r="E62" s="60" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="F62" s="36" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G62" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H62" s="62" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="I62" s="62" t="s">
         <v>86</v>
@@ -10527,16 +10800,16 @@
       </c>
     </row>
     <row r="63" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C63" s="98" t="s">
-        <v>711</v>
-      </c>
-      <c r="D63" s="98"/>
-      <c r="E63" s="98"/>
-      <c r="F63" s="98"/>
-      <c r="G63" s="98"/>
-      <c r="H63" s="98"/>
-      <c r="I63" s="98"/>
-      <c r="J63" s="98"/>
+      <c r="C63" s="106" t="s">
+        <v>709</v>
+      </c>
+      <c r="D63" s="106"/>
+      <c r="E63" s="106"/>
+      <c r="F63" s="106"/>
+      <c r="G63" s="106"/>
+      <c r="H63" s="106"/>
+      <c r="I63" s="106"/>
+      <c r="J63" s="106"/>
     </row>
     <row r="64" spans="3:10" ht="60" x14ac:dyDescent="0.25">
       <c r="C64" s="59" t="s">
@@ -10549,7 +10822,7 @@
         <v>88</v>
       </c>
       <c r="F64" s="24" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G64" s="36" t="s">
         <v>530</v>
@@ -10572,10 +10845,10 @@
         <v>32</v>
       </c>
       <c r="E65" s="60" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="F65" s="24" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="G65" s="36" t="s">
         <v>530</v>
@@ -10598,10 +10871,10 @@
         <v>32</v>
       </c>
       <c r="E66" s="60" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F66" s="24" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G66" s="36" t="s">
         <v>530</v>
@@ -10624,10 +10897,10 @@
         <v>32</v>
       </c>
       <c r="E67" s="60" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="F67" s="24" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G67" s="36" t="s">
         <v>530</v>
@@ -10650,19 +10923,19 @@
         <v>32</v>
       </c>
       <c r="E68" s="60" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F68" s="24" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G68" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H68" s="62" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="I68" s="62" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="J68" s="49" t="s">
         <v>279</v>
@@ -10676,19 +10949,19 @@
         <v>32</v>
       </c>
       <c r="E69" s="60" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F69" s="24" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G69" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H69" s="62" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="I69" s="62" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="J69" s="49" t="s">
         <v>279</v>
@@ -10702,19 +10975,19 @@
         <v>32</v>
       </c>
       <c r="E70" s="60" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F70" s="24" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G70" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H70" s="62" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="I70" s="62" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="J70" s="49" t="s">
         <v>279</v>
@@ -10728,10 +11001,10 @@
         <v>32</v>
       </c>
       <c r="E71" s="60" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F71" s="24" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="G71" s="36" t="s">
         <v>530</v>
@@ -10754,10 +11027,10 @@
         <v>32</v>
       </c>
       <c r="E72" s="60" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="F72" s="24" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G72" s="36" t="s">
         <v>530</v>
@@ -10766,7 +11039,7 @@
         <v>89</v>
       </c>
       <c r="I72" s="62" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="J72" s="46" t="s">
         <v>281</v>
@@ -10780,10 +11053,10 @@
         <v>32</v>
       </c>
       <c r="E73" s="60" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F73" s="24" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G73" s="78" t="s">
         <v>530</v>
@@ -10792,23 +11065,23 @@
         <v>89</v>
       </c>
       <c r="I73" s="79" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="J73" s="80" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="99" t="s">
-        <v>733</v>
-      </c>
-      <c r="D74" s="99"/>
-      <c r="E74" s="99"/>
-      <c r="F74" s="99"/>
-      <c r="G74" s="99"/>
-      <c r="H74" s="99"/>
-      <c r="I74" s="99"/>
-      <c r="J74" s="99"/>
+      <c r="C74" s="105" t="s">
+        <v>731</v>
+      </c>
+      <c r="D74" s="105"/>
+      <c r="E74" s="105"/>
+      <c r="F74" s="105"/>
+      <c r="G74" s="105"/>
+      <c r="H74" s="105"/>
+      <c r="I74" s="105"/>
+      <c r="J74" s="105"/>
     </row>
     <row r="75" spans="3:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C75" s="59" t="s">
@@ -10818,19 +11091,19 @@
         <v>32</v>
       </c>
       <c r="E75" s="60" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="F75" s="36" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G75" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H75" s="62" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="I75" s="62" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="J75" s="49" t="s">
         <v>279</v>
@@ -10844,19 +11117,19 @@
         <v>32</v>
       </c>
       <c r="E76" s="60" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F76" s="36" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="G76" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H76" s="62" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="I76" s="62" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="J76" s="49" t="s">
         <v>279</v>
@@ -10870,19 +11143,19 @@
         <v>32</v>
       </c>
       <c r="E77" s="60" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F77" s="36" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="G77" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H77" s="62" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I77" s="62" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="J77" s="49" t="s">
         <v>279</v>
@@ -10896,19 +11169,19 @@
         <v>32</v>
       </c>
       <c r="E78" s="60" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F78" s="36" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="G78" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H78" s="62" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="I78" s="62" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="J78" s="49" t="s">
         <v>279</v>
@@ -10922,19 +11195,19 @@
         <v>32</v>
       </c>
       <c r="E79" s="60" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F79" s="36" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="G79" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H79" s="62" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I79" s="62" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="J79" s="49" t="s">
         <v>279</v>
@@ -10948,19 +11221,19 @@
         <v>32</v>
       </c>
       <c r="E80" s="60" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F80" s="36" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="G80" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H80" s="62" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="I80" s="62" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="J80" s="49" t="s">
         <v>279</v>
@@ -10974,19 +11247,19 @@
         <v>32</v>
       </c>
       <c r="E81" s="60" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F81" s="36" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="G81" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H81" s="62" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="I81" s="62" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="J81" s="49" t="s">
         <v>279</v>
@@ -11000,19 +11273,19 @@
         <v>32</v>
       </c>
       <c r="E82" s="60" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F82" s="36" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="G82" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H82" s="62" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="I82" s="62" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="J82" s="80" t="s">
         <v>281</v>
@@ -11026,35 +11299,35 @@
         <v>32</v>
       </c>
       <c r="E83" s="60" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F83" s="36" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G83" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H83" s="62" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I83" s="62" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="J83" s="80" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="98" t="s">
-        <v>732</v>
-      </c>
-      <c r="D84" s="98"/>
-      <c r="E84" s="98"/>
-      <c r="F84" s="98"/>
-      <c r="G84" s="98"/>
-      <c r="H84" s="98"/>
-      <c r="I84" s="98"/>
-      <c r="J84" s="98"/>
+      <c r="C84" s="106" t="s">
+        <v>730</v>
+      </c>
+      <c r="D84" s="106"/>
+      <c r="E84" s="106"/>
+      <c r="F84" s="106"/>
+      <c r="G84" s="106"/>
+      <c r="H84" s="106"/>
+      <c r="I84" s="106"/>
+      <c r="J84" s="106"/>
     </row>
     <row r="85" spans="3:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C85" s="59" t="s">
@@ -11064,10 +11337,10 @@
         <v>32</v>
       </c>
       <c r="E85" s="60" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F85" s="24" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="G85" s="36" t="s">
         <v>530</v>
@@ -11090,19 +11363,19 @@
         <v>32</v>
       </c>
       <c r="E86" s="60" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F86" s="36" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G86" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H86" s="62" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I86" s="62" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="J86" s="80" t="s">
         <v>281</v>
@@ -11116,10 +11389,10 @@
         <v>32</v>
       </c>
       <c r="E87" s="60" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F87" s="24" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="G87" s="36" t="s">
         <v>530</v>
@@ -11142,10 +11415,10 @@
         <v>32</v>
       </c>
       <c r="E88" s="60" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F88" s="24" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="G88" s="36" t="s">
         <v>530</v>
@@ -11154,7 +11427,7 @@
         <v>92</v>
       </c>
       <c r="I88" s="62" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="J88" s="46" t="s">
         <v>281</v>
@@ -11168,10 +11441,10 @@
         <v>32</v>
       </c>
       <c r="E89" s="60" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F89" s="24" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="G89" s="36" t="s">
         <v>530</v>
@@ -11180,7 +11453,7 @@
         <v>92</v>
       </c>
       <c r="I89" s="62" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="J89" s="46" t="s">
         <v>281</v>
@@ -11194,19 +11467,19 @@
         <v>32</v>
       </c>
       <c r="E90" s="60" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F90" s="24" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="G90" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H90" s="62" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="I90" s="62" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="J90" s="49" t="s">
         <v>279</v>
@@ -11220,19 +11493,19 @@
         <v>32</v>
       </c>
       <c r="E91" s="60" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="F91" s="24" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="G91" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H91" s="62" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="I91" s="62" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="J91" s="49" t="s">
         <v>279</v>
@@ -11246,19 +11519,19 @@
         <v>32</v>
       </c>
       <c r="E92" s="60" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F92" s="36" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G92" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H92" s="62" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="I92" s="62" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="J92" s="80" t="s">
         <v>281</v>
@@ -11272,10 +11545,10 @@
         <v>32</v>
       </c>
       <c r="E93" s="60" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F93" s="36" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G93" s="36" t="s">
         <v>530</v>
@@ -11284,7 +11557,7 @@
         <v>92</v>
       </c>
       <c r="I93" s="62" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="J93" s="80" t="s">
         <v>281</v>
@@ -11298,10 +11571,10 @@
         <v>32</v>
       </c>
       <c r="E94" s="60" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F94" s="36" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="G94" s="36" t="s">
         <v>530</v>
@@ -11310,23 +11583,23 @@
         <v>92</v>
       </c>
       <c r="I94" s="62" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="J94" s="80" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="99" t="s">
-        <v>798</v>
-      </c>
-      <c r="D95" s="99"/>
-      <c r="E95" s="99"/>
-      <c r="F95" s="99"/>
-      <c r="G95" s="99"/>
-      <c r="H95" s="99"/>
-      <c r="I95" s="99"/>
-      <c r="J95" s="99"/>
+      <c r="C95" s="105" t="s">
+        <v>796</v>
+      </c>
+      <c r="D95" s="105"/>
+      <c r="E95" s="105"/>
+      <c r="F95" s="105"/>
+      <c r="G95" s="105"/>
+      <c r="H95" s="105"/>
+      <c r="I95" s="105"/>
+      <c r="J95" s="105"/>
     </row>
     <row r="96" spans="3:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C96" s="59" t="s">
@@ -11336,19 +11609,19 @@
         <v>32</v>
       </c>
       <c r="E96" s="60" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="F96" s="36" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G96" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H96" s="62" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I96" s="62" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J96" s="49" t="s">
         <v>279</v>
@@ -11362,19 +11635,19 @@
         <v>32</v>
       </c>
       <c r="E97" s="60" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="F97" s="36" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="G97" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H97" s="62" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I97" s="62" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J97" s="49" t="s">
         <v>279</v>
@@ -11388,19 +11661,19 @@
         <v>32</v>
       </c>
       <c r="E98" s="60" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="F98" s="36" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="G98" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H98" s="62" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I98" s="62" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J98" s="49" t="s">
         <v>279</v>
@@ -11414,19 +11687,19 @@
         <v>32</v>
       </c>
       <c r="E99" s="60" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="F99" s="36" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="G99" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H99" s="62" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I99" s="62" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J99" s="49" t="s">
         <v>279</v>
@@ -11440,19 +11713,19 @@
         <v>32</v>
       </c>
       <c r="E100" s="60" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="F100" s="36" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="G100" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H100" s="62" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I100" s="62" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J100" s="49" t="s">
         <v>279</v>
@@ -11466,19 +11739,19 @@
         <v>32</v>
       </c>
       <c r="E101" s="60" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="F101" s="36" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="G101" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H101" s="62" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I101" s="62" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J101" s="49" t="s">
         <v>279</v>
@@ -11492,19 +11765,19 @@
         <v>32</v>
       </c>
       <c r="E102" s="60" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="F102" s="36" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="G102" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H102" s="62" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I102" s="62" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J102" s="49" t="s">
         <v>279</v>
@@ -11518,19 +11791,19 @@
         <v>32</v>
       </c>
       <c r="E103" s="60" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F103" s="36" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="G103" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H103" s="62" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I103" s="62" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J103" s="49" t="s">
         <v>279</v>
@@ -11544,19 +11817,19 @@
         <v>32</v>
       </c>
       <c r="E104" s="60" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="F104" s="36" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G104" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H104" s="62" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I104" s="62" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J104" s="49" t="s">
         <v>279</v>
@@ -11570,19 +11843,19 @@
         <v>32</v>
       </c>
       <c r="E105" s="60" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F105" s="36" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="G105" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H105" s="62" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I105" s="62" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J105" s="49" t="s">
         <v>279</v>
@@ -11596,19 +11869,19 @@
         <v>32</v>
       </c>
       <c r="E106" s="60" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F106" s="36" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="G106" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H106" s="62" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I106" s="62" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J106" s="49" t="s">
         <v>279</v>
@@ -11622,19 +11895,19 @@
         <v>32</v>
       </c>
       <c r="E107" s="60" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F107" s="36" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="G107" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H107" s="62" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I107" s="62" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J107" s="49" t="s">
         <v>279</v>
@@ -11648,19 +11921,19 @@
         <v>32</v>
       </c>
       <c r="E108" s="60" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="F108" s="36" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G108" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H108" s="62" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I108" s="62" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J108" s="49" t="s">
         <v>279</v>
@@ -11674,19 +11947,19 @@
         <v>32</v>
       </c>
       <c r="E109" s="60" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F109" s="36" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="G109" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H109" s="62" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I109" s="62" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J109" s="49" t="s">
         <v>279</v>
@@ -11700,19 +11973,19 @@
         <v>32</v>
       </c>
       <c r="E110" s="60" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F110" s="36" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G110" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H110" s="62" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I110" s="62" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J110" s="49" t="s">
         <v>279</v>
@@ -11726,19 +11999,19 @@
         <v>32</v>
       </c>
       <c r="E111" s="60" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="F111" s="36" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="G111" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H111" s="62" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I111" s="62" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J111" s="49" t="s">
         <v>279</v>
@@ -11752,19 +12025,19 @@
         <v>32</v>
       </c>
       <c r="E112" s="60" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F112" s="36" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G112" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H112" s="62" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I112" s="62" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J112" s="49" t="s">
         <v>279</v>
@@ -11778,19 +12051,19 @@
         <v>32</v>
       </c>
       <c r="E113" s="60" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F113" s="36" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G113" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H113" s="62" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I113" s="62" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J113" s="49" t="s">
         <v>279</v>
@@ -11804,19 +12077,19 @@
         <v>32</v>
       </c>
       <c r="E114" s="60" t="s">
+        <v>832</v>
+      </c>
+      <c r="F114" s="36" t="s">
         <v>834</v>
-      </c>
-      <c r="F114" s="36" t="s">
-        <v>836</v>
       </c>
       <c r="G114" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H114" s="62" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I114" s="62" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J114" s="49" t="s">
         <v>279</v>
@@ -11830,19 +12103,19 @@
         <v>32</v>
       </c>
       <c r="E115" s="60" t="s">
+        <v>833</v>
+      </c>
+      <c r="F115" s="36" t="s">
         <v>835</v>
-      </c>
-      <c r="F115" s="36" t="s">
-        <v>837</v>
       </c>
       <c r="G115" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H115" s="62" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I115" s="62" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J115" s="49" t="s">
         <v>279</v>
@@ -11856,26 +12129,767 @@
         <v>32</v>
       </c>
       <c r="E116" s="60" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="F116" s="36" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="G116" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H116" s="62" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I116" s="62" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J116" s="49" t="s">
         <v>279</v>
       </c>
     </row>
+    <row r="117" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C117" s="105" t="s">
+        <v>838</v>
+      </c>
+      <c r="D117" s="105"/>
+      <c r="E117" s="105"/>
+      <c r="F117" s="105"/>
+      <c r="G117" s="105"/>
+      <c r="H117" s="105"/>
+      <c r="I117" s="105"/>
+      <c r="J117" s="105"/>
+    </row>
+    <row r="118" spans="3:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="C118" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D118" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E118" s="60" t="s">
+        <v>862</v>
+      </c>
+      <c r="F118" s="24" t="s">
+        <v>863</v>
+      </c>
+      <c r="G118" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H118" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="I118" s="62" t="s">
+        <v>673</v>
+      </c>
+      <c r="J118" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="119" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C119" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D119" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E119" s="60" t="s">
+        <v>842</v>
+      </c>
+      <c r="F119" s="24" t="s">
+        <v>839</v>
+      </c>
+      <c r="G119" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H119" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="I119" s="62" t="s">
+        <v>673</v>
+      </c>
+      <c r="J119" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="120" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C120" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D120" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E120" s="60" t="s">
+        <v>841</v>
+      </c>
+      <c r="F120" s="24" t="s">
+        <v>840</v>
+      </c>
+      <c r="G120" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H120" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="I120" s="62" t="s">
+        <v>673</v>
+      </c>
+      <c r="J120" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="121" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C121" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D121" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E121" s="60" t="s">
+        <v>843</v>
+      </c>
+      <c r="F121" s="24" t="s">
+        <v>844</v>
+      </c>
+      <c r="G121" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H121" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="I121" s="62" t="s">
+        <v>673</v>
+      </c>
+      <c r="J121" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="122" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C122" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D122" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E122" s="60" t="s">
+        <v>845</v>
+      </c>
+      <c r="F122" s="24" t="s">
+        <v>846</v>
+      </c>
+      <c r="G122" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H122" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="I122" s="62" t="s">
+        <v>673</v>
+      </c>
+      <c r="J122" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="123" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C123" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D123" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E123" s="60" t="s">
+        <v>847</v>
+      </c>
+      <c r="F123" s="24" t="s">
+        <v>848</v>
+      </c>
+      <c r="G123" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H123" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="I123" s="62" t="s">
+        <v>673</v>
+      </c>
+      <c r="J123" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="124" spans="3:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="C124" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D124" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E124" s="60" t="s">
+        <v>849</v>
+      </c>
+      <c r="F124" s="36" t="s">
+        <v>850</v>
+      </c>
+      <c r="G124" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H124" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="I124" s="62" t="s">
+        <v>673</v>
+      </c>
+      <c r="J124" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="125" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C125" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D125" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E125" s="60" t="s">
+        <v>851</v>
+      </c>
+      <c r="F125" s="36" t="s">
+        <v>852</v>
+      </c>
+      <c r="G125" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H125" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="I125" s="62" t="s">
+        <v>673</v>
+      </c>
+      <c r="J125" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="126" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C126" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D126" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E126" s="60" t="s">
+        <v>853</v>
+      </c>
+      <c r="F126" s="36" t="s">
+        <v>854</v>
+      </c>
+      <c r="G126" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H126" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="I126" s="62" t="s">
+        <v>673</v>
+      </c>
+      <c r="J126" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="127" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C127" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D127" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E127" s="60" t="s">
+        <v>855</v>
+      </c>
+      <c r="F127" s="36" t="s">
+        <v>856</v>
+      </c>
+      <c r="G127" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H127" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="I127" s="62" t="s">
+        <v>673</v>
+      </c>
+      <c r="J127" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="128" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C128" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D128" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E128" s="60" t="s">
+        <v>857</v>
+      </c>
+      <c r="F128" s="36" t="s">
+        <v>858</v>
+      </c>
+      <c r="G128" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H128" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="I128" s="62" t="s">
+        <v>673</v>
+      </c>
+      <c r="J128" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="129" spans="3:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="C129" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D129" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E129" s="60" t="s">
+        <v>859</v>
+      </c>
+      <c r="F129" s="36" t="s">
+        <v>860</v>
+      </c>
+      <c r="G129" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H129" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="I129" s="62" t="s">
+        <v>673</v>
+      </c>
+      <c r="J129" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="130" spans="3:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="C130" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D130" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E130" s="60" t="s">
+        <v>864</v>
+      </c>
+      <c r="F130" s="36" t="s">
+        <v>865</v>
+      </c>
+      <c r="G130" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H130" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="I130" s="62" t="s">
+        <v>673</v>
+      </c>
+      <c r="J130" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="131" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C131" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D131" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E131" s="60" t="s">
+        <v>866</v>
+      </c>
+      <c r="F131" s="36" t="s">
+        <v>867</v>
+      </c>
+      <c r="G131" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H131" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="I131" s="62" t="s">
+        <v>673</v>
+      </c>
+      <c r="J131" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="132" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C132" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D132" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E132" s="60" t="s">
+        <v>868</v>
+      </c>
+      <c r="F132" s="36" t="s">
+        <v>869</v>
+      </c>
+      <c r="G132" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H132" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="I132" s="62" t="s">
+        <v>673</v>
+      </c>
+      <c r="J132" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="133" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C133" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D133" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E133" s="60" t="s">
+        <v>870</v>
+      </c>
+      <c r="F133" s="36" t="s">
+        <v>871</v>
+      </c>
+      <c r="G133" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H133" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="I133" s="62" t="s">
+        <v>673</v>
+      </c>
+      <c r="J133" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="134" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C134" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D134" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E134" s="60" t="s">
+        <v>872</v>
+      </c>
+      <c r="F134" s="36" t="s">
+        <v>873</v>
+      </c>
+      <c r="G134" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H134" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="I134" s="62" t="s">
+        <v>673</v>
+      </c>
+      <c r="J134" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="135" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C135" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D135" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E135" s="60" t="s">
+        <v>874</v>
+      </c>
+      <c r="F135" s="36" t="s">
+        <v>875</v>
+      </c>
+      <c r="G135" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H135" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="I135" s="62" t="s">
+        <v>673</v>
+      </c>
+      <c r="J135" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="136" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C136" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D136" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E136" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="F136" s="36" t="s">
+        <v>876</v>
+      </c>
+      <c r="G136" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H136" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="I136" s="62" t="s">
+        <v>673</v>
+      </c>
+      <c r="J136" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="137" spans="3:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="C137" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D137" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E137" s="60" t="s">
+        <v>879</v>
+      </c>
+      <c r="F137" s="36" t="s">
+        <v>877</v>
+      </c>
+      <c r="G137" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H137" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="I137" s="62" t="s">
+        <v>673</v>
+      </c>
+      <c r="J137" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="138" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C138" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D138" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E138" s="60" t="s">
+        <v>878</v>
+      </c>
+      <c r="F138" s="36" t="s">
+        <v>881</v>
+      </c>
+      <c r="G138" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H138" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="I138" s="62" t="s">
+        <v>673</v>
+      </c>
+      <c r="J138" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="139" spans="3:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="C139" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D139" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E139" s="60" t="s">
+        <v>882</v>
+      </c>
+      <c r="F139" s="36" t="s">
+        <v>883</v>
+      </c>
+      <c r="G139" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H139" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="I139" s="62" t="s">
+        <v>673</v>
+      </c>
+      <c r="J139" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="140" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C140" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D140" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E140" s="60" t="s">
+        <v>884</v>
+      </c>
+      <c r="F140" s="36" t="s">
+        <v>885</v>
+      </c>
+      <c r="G140" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H140" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="I140" s="62" t="s">
+        <v>673</v>
+      </c>
+      <c r="J140" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="141" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C141" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D141" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E141" s="60" t="s">
+        <v>886</v>
+      </c>
+      <c r="F141" s="36" t="s">
+        <v>887</v>
+      </c>
+      <c r="G141" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H141" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="I141" s="62" t="s">
+        <v>673</v>
+      </c>
+      <c r="J141" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="142" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C142" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D142" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E142" s="60" t="s">
+        <v>888</v>
+      </c>
+      <c r="F142" s="36" t="s">
+        <v>887</v>
+      </c>
+      <c r="G142" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H142" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="I142" s="62" t="s">
+        <v>673</v>
+      </c>
+      <c r="J142" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="143" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C143" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D143" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E143" s="60" t="s">
+        <v>889</v>
+      </c>
+      <c r="F143" s="36" t="s">
+        <v>890</v>
+      </c>
+      <c r="G143" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H143" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="I143" s="62" t="s">
+        <v>673</v>
+      </c>
+      <c r="J143" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="144" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C144" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D144" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E144" s="60" t="s">
+        <v>891</v>
+      </c>
+      <c r="F144" s="36" t="s">
+        <v>892</v>
+      </c>
+      <c r="G144" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H144" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="I144" s="62" t="s">
+        <v>673</v>
+      </c>
+      <c r="J144" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="145" spans="3:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="C145" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D145" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E145" s="60" t="s">
+        <v>894</v>
+      </c>
+      <c r="F145" s="36" t="s">
+        <v>893</v>
+      </c>
+      <c r="G145" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H145" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="I145" s="62" t="s">
+        <v>673</v>
+      </c>
+      <c r="J145" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="C117:J117"/>
     <mergeCell ref="C95:J95"/>
     <mergeCell ref="C84:J84"/>
     <mergeCell ref="A1:C1"/>
@@ -11989,6 +13003,34 @@
     <hyperlink ref="C114" location="Требования!R33C1" display="F-11/2"/>
     <hyperlink ref="C115" location="Требования!R33C1" display="F-11/2"/>
     <hyperlink ref="C116" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C118" location="Требования!R41C1" display="F-13/2"/>
+    <hyperlink ref="C119" location="Требования!R41C1" display="F-13/2"/>
+    <hyperlink ref="C120" location="Требования!R41C1" display="F-13/2"/>
+    <hyperlink ref="C121" location="Требования!R41C1" display="F-13/2"/>
+    <hyperlink ref="C122" location="Требования!R41C1" display="F-13/2"/>
+    <hyperlink ref="C123" location="Требования!R41C1" display="F-13/2"/>
+    <hyperlink ref="C124" location="Требования!R41C1" display="F-13/2"/>
+    <hyperlink ref="C125" location="Требования!R41C1" display="F-13/2"/>
+    <hyperlink ref="C126" location="Требования!R41C1" display="F-13/2"/>
+    <hyperlink ref="C127" location="Требования!R41C1" display="F-13/2"/>
+    <hyperlink ref="C128" location="Требования!R41C1" display="F-13/2"/>
+    <hyperlink ref="C129" location="Требования!R41C1" display="F-13/2"/>
+    <hyperlink ref="C130" location="Требования!R41C1" display="F-13/2"/>
+    <hyperlink ref="C131" location="Требования!R41C1" display="F-13/2"/>
+    <hyperlink ref="C132" location="Требования!R41C1" display="F-13/2"/>
+    <hyperlink ref="C133" location="Требования!R41C1" display="F-13/2"/>
+    <hyperlink ref="C134" location="Требования!R41C1" display="F-13/2"/>
+    <hyperlink ref="C135" location="Требования!R41C1" display="F-13/2"/>
+    <hyperlink ref="C136" location="Требования!R41C1" display="F-13/2"/>
+    <hyperlink ref="C137" location="Требования!R41C1" display="F-13/2"/>
+    <hyperlink ref="C138" location="Требования!R41C1" display="F-13/2"/>
+    <hyperlink ref="C139" location="Требования!R41C1" display="F-13/2"/>
+    <hyperlink ref="C140" location="Требования!R41C1" display="F-13/2"/>
+    <hyperlink ref="C141" location="Требования!R41C1" display="F-13/2"/>
+    <hyperlink ref="C142" location="Требования!R41C1" display="F-13/2"/>
+    <hyperlink ref="C143" location="Требования!R41C1" display="F-13/2"/>
+    <hyperlink ref="C144" location="Требования!R41C1" display="F-13/2"/>
+    <hyperlink ref="C145" location="Требования!R41C1" display="F-13/2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11999,8 +13041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12100,7 +13142,7 @@
       </c>
       <c r="E6" s="76"/>
       <c r="I6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -12573,7 +13615,7 @@
         <v>554</v>
       </c>
       <c r="B38" s="67" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C38" s="28" t="s">
         <v>620</v>
@@ -12604,7 +13646,7 @@
       <c r="B40" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="C40" s="102" t="s">
+      <c r="C40" s="81" t="s">
         <v>622</v>
       </c>
       <c r="D40" s="28" t="s">
@@ -12618,7 +13660,7 @@
       <c r="B41" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="C41" s="103" t="s">
+      <c r="C41" s="82" t="s">
         <v>623</v>
       </c>
       <c r="D41" s="28" t="s">
@@ -12633,7 +13675,7 @@
       <c r="B42" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="C42" s="103" t="s">
+      <c r="C42" s="82" t="s">
         <v>621</v>
       </c>
       <c r="D42" s="28" t="s">
@@ -12648,7 +13690,7 @@
       <c r="B43" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="C43" s="103" t="s">
+      <c r="C43" s="82" t="s">
         <v>626</v>
       </c>
       <c r="D43" s="28" t="s">
@@ -12663,7 +13705,7 @@
       <c r="B44" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="C44" s="103" t="s">
+      <c r="C44" s="82" t="s">
         <v>624</v>
       </c>
       <c r="D44" s="28" t="s">
@@ -12678,7 +13720,7 @@
       <c r="B45" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="C45" s="103" t="s">
+      <c r="C45" s="82" t="s">
         <v>625</v>
       </c>
       <c r="D45" s="28" t="s">
@@ -12693,7 +13735,7 @@
       <c r="B46" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="C46" s="103" t="s">
+      <c r="C46" s="82" t="s">
         <v>627</v>
       </c>
       <c r="D46" s="28" t="s">
@@ -12708,12 +13750,13 @@
       <c r="B47" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="C47" s="104" t="s">
+      <c r="C47" s="83" t="s">
         <v>628</v>
       </c>
       <c r="D47" s="28" t="s">
         <v>586</v>
       </c>
+      <c r="E47" s="76"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="64" t="s">
@@ -12728,6 +13771,7 @@
       <c r="D48" s="28" t="s">
         <v>586</v>
       </c>
+      <c r="E48" s="76"/>
     </row>
     <row r="49" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="64" t="s">
@@ -12742,6 +13786,7 @@
       <c r="D49" s="28" t="s">
         <v>586</v>
       </c>
+      <c r="E49" s="76"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="64" t="s">
@@ -12756,6 +13801,7 @@
       <c r="D50" s="28" t="s">
         <v>586</v>
       </c>
+      <c r="E50" s="76"/>
     </row>
     <row r="51" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="64" t="s">
@@ -12770,6 +13816,7 @@
       <c r="D51" s="28" t="s">
         <v>586</v>
       </c>
+      <c r="E51" s="76"/>
     </row>
     <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="64" t="s">
@@ -12784,6 +13831,7 @@
       <c r="D52" s="28" t="s">
         <v>586</v>
       </c>
+      <c r="E52" s="76"/>
     </row>
     <row r="53" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="64" t="s">
@@ -12792,12 +13840,13 @@
       <c r="B53" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="C53" s="102" t="s">
+      <c r="C53" s="81" t="s">
         <v>634</v>
       </c>
       <c r="D53" s="28" t="s">
         <v>586</v>
       </c>
+      <c r="E53" s="76"/>
     </row>
     <row r="54" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="64" t="s">
@@ -12806,12 +13855,13 @@
       <c r="B54" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="C54" s="102" t="s">
+      <c r="C54" s="81" t="s">
         <v>635</v>
       </c>
       <c r="D54" s="28" t="s">
         <v>586</v>
       </c>
+      <c r="E54" s="76"/>
     </row>
     <row r="55" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="64" t="s">
@@ -12820,12 +13870,13 @@
       <c r="B55" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="C55" s="102" t="s">
+      <c r="C55" s="81" t="s">
         <v>632</v>
       </c>
       <c r="D55" s="28" t="s">
         <v>586</v>
       </c>
+      <c r="E55" s="76"/>
     </row>
     <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="64" t="s">
@@ -12834,7 +13885,7 @@
       <c r="B56" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="C56" s="103" t="s">
+      <c r="C56" s="82" t="s">
         <v>633</v>
       </c>
       <c r="D56" s="28" t="s">
@@ -12845,7 +13896,7 @@
     <row r="57" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="64"/>
       <c r="B57" s="64"/>
-      <c r="C57" s="103"/>
+      <c r="C57" s="82"/>
       <c r="D57" s="28"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12855,8 +13906,8 @@
       <c r="B58" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="C58" s="103" t="s">
-        <v>812</v>
+      <c r="C58" s="82" t="s">
+        <v>810</v>
       </c>
       <c r="D58" s="28" t="s">
         <v>586</v>
@@ -12870,12 +13921,13 @@
       <c r="B59" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="C59" s="105" t="s">
+      <c r="C59" s="84" t="s">
         <v>619</v>
       </c>
       <c r="D59" s="28" t="s">
         <v>586</v>
       </c>
+      <c r="E59" s="76"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="64" t="s">
@@ -12884,12 +13936,13 @@
       <c r="B60" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="C60" s="105" t="s">
+      <c r="C60" s="84" t="s">
         <v>636</v>
       </c>
       <c r="D60" s="28" t="s">
         <v>586</v>
       </c>
+      <c r="E60" s="76"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="64" t="s">
@@ -12898,7 +13951,7 @@
       <c r="B61" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="C61" s="106" t="s">
+      <c r="C61" s="85" t="s">
         <v>637</v>
       </c>
       <c r="D61" s="28" t="s">
@@ -12913,7 +13966,7 @@
       <c r="B62" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="C62" s="106" t="s">
+      <c r="C62" s="85" t="s">
         <v>638</v>
       </c>
       <c r="D62" s="28" t="s">
@@ -12928,7 +13981,7 @@
       <c r="B63" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="C63" s="106" t="s">
+      <c r="C63" s="85" t="s">
         <v>639</v>
       </c>
       <c r="D63" s="28" t="s">
@@ -12943,13 +13996,13 @@
       <c r="B64" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="C64" s="106" t="s">
+      <c r="C64" s="85" t="s">
         <v>640</v>
       </c>
       <c r="D64" s="28" t="s">
         <v>586</v>
       </c>
-      <c r="E64" s="108"/>
+      <c r="E64" s="87"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="64" t="s">
@@ -12958,7 +14011,7 @@
       <c r="B65" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="C65" s="106" t="s">
+      <c r="C65" s="85" t="s">
         <v>641</v>
       </c>
       <c r="D65" s="28" t="s">
@@ -12973,12 +14026,13 @@
       <c r="B66" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="C66" s="105" t="s">
+      <c r="C66" s="84" t="s">
         <v>642</v>
       </c>
       <c r="D66" s="28" t="s">
         <v>586</v>
       </c>
+      <c r="E66" s="76"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="64" t="s">
@@ -12987,7 +14041,7 @@
       <c r="B67" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="C67" s="106" t="s">
+      <c r="C67" s="85" t="s">
         <v>643</v>
       </c>
       <c r="D67" s="28" t="s">
@@ -13002,12 +14056,13 @@
       <c r="B68" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="C68" s="102" t="s">
-        <v>644</v>
+      <c r="C68" s="81" t="s">
+        <v>861</v>
       </c>
       <c r="D68" s="28" t="s">
         <v>586</v>
       </c>
+      <c r="E68" s="76"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="64" t="s">
@@ -13016,12 +14071,13 @@
       <c r="B69" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="C69" s="105" t="s">
-        <v>645</v>
+      <c r="C69" s="84" t="s">
+        <v>644</v>
       </c>
       <c r="D69" s="28" t="s">
         <v>586</v>
       </c>
+      <c r="E69" s="76"/>
     </row>
     <row r="70" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="64" t="s">
@@ -13030,12 +14086,13 @@
       <c r="B70" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="C70" s="105" t="s">
-        <v>646</v>
+      <c r="C70" s="84" t="s">
+        <v>645</v>
       </c>
       <c r="D70" s="28" t="s">
         <v>586</v>
       </c>
+      <c r="E70" s="76"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="64" t="s">
@@ -13044,12 +14101,13 @@
       <c r="B71" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="C71" s="105" t="s">
-        <v>647</v>
+      <c r="C71" s="84" t="s">
+        <v>646</v>
       </c>
       <c r="D71" s="28" t="s">
         <v>586</v>
       </c>
+      <c r="E71" s="76"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="64" t="s">
@@ -13058,12 +14116,13 @@
       <c r="B72" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="C72" s="105" t="s">
-        <v>648</v>
+      <c r="C72" s="84" t="s">
+        <v>647</v>
       </c>
       <c r="D72" s="28" t="s">
         <v>586</v>
       </c>
+      <c r="E72" s="76"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="64" t="s">
@@ -13072,12 +14131,13 @@
       <c r="B73" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="C73" s="105" t="s">
-        <v>649</v>
+      <c r="C73" s="84" t="s">
+        <v>648</v>
       </c>
       <c r="D73" s="28" t="s">
         <v>586</v>
       </c>
+      <c r="E73" s="76"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="64" t="s">
@@ -13086,8 +14146,8 @@
       <c r="B74" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="C74" s="106" t="s">
-        <v>650</v>
+      <c r="C74" s="85" t="s">
+        <v>649</v>
       </c>
       <c r="D74" s="28" t="s">
         <v>586</v>
@@ -13101,8 +14161,8 @@
       <c r="B75" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="C75" s="106" t="s">
-        <v>651</v>
+      <c r="C75" s="85" t="s">
+        <v>650</v>
       </c>
       <c r="D75" s="28" t="s">
         <v>586</v>
@@ -13110,18 +14170,10 @@
       <c r="E75" s="76"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="B76" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="C76" s="105" t="s">
-        <v>652</v>
-      </c>
-      <c r="D76" s="28" t="s">
-        <v>586</v>
-      </c>
+      <c r="A76" s="64"/>
+      <c r="B76" s="64"/>
+      <c r="C76" s="84"/>
+      <c r="D76" s="28"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="64" t="s">
@@ -13130,12 +14182,13 @@
       <c r="B77" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="C77" s="105" t="s">
-        <v>653</v>
+      <c r="C77" s="84" t="s">
+        <v>651</v>
       </c>
       <c r="D77" s="28" t="s">
         <v>586</v>
       </c>
+      <c r="E77" s="76"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="64" t="s">
@@ -13144,12 +14197,13 @@
       <c r="B78" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="C78" s="105" t="s">
-        <v>654</v>
+      <c r="C78" s="84" t="s">
+        <v>652</v>
       </c>
       <c r="D78" s="28" t="s">
         <v>586</v>
       </c>
+      <c r="E78" s="76"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="64" t="s">
@@ -13158,8 +14212,8 @@
       <c r="B79" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="C79" s="106" t="s">
-        <v>655</v>
+      <c r="C79" s="85" t="s">
+        <v>653</v>
       </c>
       <c r="D79" s="28" t="s">
         <v>586</v>
@@ -13173,8 +14227,8 @@
       <c r="B80" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="C80" s="106" t="s">
-        <v>656</v>
+      <c r="C80" s="85" t="s">
+        <v>654</v>
       </c>
       <c r="D80" s="28" t="s">
         <v>586</v>
@@ -13188,8 +14242,8 @@
       <c r="B81" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="C81" s="106" t="s">
-        <v>657</v>
+      <c r="C81" s="85" t="s">
+        <v>655</v>
       </c>
       <c r="D81" s="28" t="s">
         <v>586</v>
@@ -13203,12 +14257,13 @@
       <c r="B82" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="C82" s="105" t="s">
-        <v>658</v>
+      <c r="C82" s="84" t="s">
+        <v>656</v>
       </c>
       <c r="D82" s="28" t="s">
         <v>586</v>
       </c>
+      <c r="E82" s="76"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="64" t="s">
@@ -13217,12 +14272,13 @@
       <c r="B83" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="C83" s="105" t="s">
-        <v>659</v>
+      <c r="C83" s="84" t="s">
+        <v>657</v>
       </c>
       <c r="D83" s="28" t="s">
         <v>586</v>
       </c>
+      <c r="E83" s="76"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="64" t="s">
@@ -13231,17 +14287,18 @@
       <c r="B84" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="C84" s="105" t="s">
-        <v>660</v>
+      <c r="C84" s="84" t="s">
+        <v>658</v>
       </c>
       <c r="D84" s="28" t="s">
         <v>586</v>
       </c>
+      <c r="E84" s="76"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="64"/>
       <c r="B85" s="64"/>
-      <c r="C85" s="106"/>
+      <c r="C85" s="85"/>
       <c r="D85" s="28"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -13251,12 +14308,13 @@
       <c r="B86" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="C86" s="105" t="s">
-        <v>661</v>
+      <c r="C86" s="84" t="s">
+        <v>659</v>
       </c>
       <c r="D86" s="28" t="s">
         <v>586</v>
       </c>
+      <c r="E86" s="76"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="64" t="s">
@@ -13265,12 +14323,13 @@
       <c r="B87" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="C87" s="105" t="s">
-        <v>662</v>
+      <c r="C87" s="84" t="s">
+        <v>660</v>
       </c>
       <c r="D87" s="28" t="s">
         <v>586</v>
       </c>
+      <c r="E87" s="76"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="64" t="s">
@@ -13279,12 +14338,13 @@
       <c r="B88" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="C88" s="105" t="s">
-        <v>663</v>
+      <c r="C88" s="84" t="s">
+        <v>661</v>
       </c>
       <c r="D88" s="28" t="s">
         <v>586</v>
       </c>
+      <c r="E88" s="76"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="64" t="s">
@@ -13293,8 +14353,8 @@
       <c r="B89" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="C89" s="105" t="s">
-        <v>664</v>
+      <c r="C89" s="84" t="s">
+        <v>662</v>
       </c>
       <c r="D89" s="28" t="s">
         <v>586</v>
@@ -13307,8 +14367,8 @@
       <c r="B90" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="C90" s="105" t="s">
-        <v>665</v>
+      <c r="C90" s="84" t="s">
+        <v>663</v>
       </c>
       <c r="D90" s="28" t="s">
         <v>586</v>
@@ -13321,8 +14381,8 @@
       <c r="B91" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="C91" s="105" t="s">
-        <v>666</v>
+      <c r="C91" s="84" t="s">
+        <v>664</v>
       </c>
       <c r="D91" s="28" t="s">
         <v>586</v>
@@ -13336,11 +14396,12 @@
         <v>574</v>
       </c>
       <c r="C92" s="63" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D92" s="28" t="s">
         <v>586</v>
       </c>
+      <c r="E92" s="76"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="64" t="s">
@@ -13350,11 +14411,12 @@
         <v>574</v>
       </c>
       <c r="C93" s="63" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D93" s="28" t="s">
         <v>586</v>
       </c>
+      <c r="E93" s="76"/>
     </row>
     <row r="94" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A94" s="64" t="s">
@@ -13363,12 +14425,13 @@
       <c r="B94" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="C94" s="103" t="s">
-        <v>794</v>
+      <c r="C94" s="82" t="s">
+        <v>792</v>
       </c>
       <c r="D94" s="28" t="s">
         <v>586</v>
       </c>
+      <c r="E94" s="76"/>
     </row>
     <row r="95" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A95" s="64" t="s">
@@ -13377,8 +14440,8 @@
       <c r="B95" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="C95" s="102" t="s">
-        <v>669</v>
+      <c r="C95" s="81" t="s">
+        <v>667</v>
       </c>
       <c r="D95" s="28" t="s">
         <v>586</v>
@@ -13391,8 +14454,8 @@
       <c r="B96" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="C96" s="102" t="s">
-        <v>670</v>
+      <c r="C96" s="82" t="s">
+        <v>668</v>
       </c>
       <c r="D96" s="28" t="s">
         <v>586</v>
@@ -13408,7 +14471,7 @@
       <c r="C97" s="28" t="s">
         <v>620</v>
       </c>
-      <c r="D97" s="107" t="s">
+      <c r="D97" s="86" t="s">
         <v>612</v>
       </c>
     </row>
@@ -13422,7 +14485,7 @@
       <c r="C98" s="28" t="s">
         <v>620</v>
       </c>
-      <c r="D98" s="107" t="s">
+      <c r="D98" s="86" t="s">
         <v>588</v>
       </c>
     </row>
@@ -13436,7 +14499,7 @@
       <c r="C99" s="28" t="s">
         <v>620</v>
       </c>
-      <c r="D99" s="107" t="s">
+      <c r="D99" s="86" t="s">
         <v>605</v>
       </c>
     </row>
@@ -13450,7 +14513,7 @@
       <c r="C100" s="28" t="s">
         <v>620</v>
       </c>
-      <c r="D100" s="107" t="s">
+      <c r="D100" s="86" t="s">
         <v>606</v>
       </c>
     </row>
@@ -13464,7 +14527,7 @@
       <c r="C101" s="28" t="s">
         <v>620</v>
       </c>
-      <c r="D101" s="107" t="s">
+      <c r="D101" s="86" t="s">
         <v>610</v>
       </c>
     </row>
@@ -13605,7 +14668,7 @@
         <v>620</v>
       </c>
       <c r="D111" s="63" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -13675,7 +14738,7 @@
         <v>620</v>
       </c>
       <c r="D116" s="63" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -13689,7 +14752,7 @@
         <v>620</v>
       </c>
       <c r="D117" s="63" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
   </sheetData>
@@ -13706,7 +14769,7 @@
     <hyperlink ref="C56" r:id="rId10"/>
     <hyperlink ref="C58" r:id="rId11" display="12312442112@mail.ru"/>
     <hyperlink ref="C59" r:id="rId12"/>
-    <hyperlink ref="C60" r:id="rId13" display="testing@.ru"/>
+    <hyperlink ref="C60" r:id="rId13"/>
     <hyperlink ref="C61" r:id="rId14"/>
     <hyperlink ref="C62" r:id="rId15"/>
     <hyperlink ref="C63" r:id="rId16"/>
@@ -13722,25 +14785,24 @@
     <hyperlink ref="C73" r:id="rId26"/>
     <hyperlink ref="C74" r:id="rId27"/>
     <hyperlink ref="C75" r:id="rId28"/>
-    <hyperlink ref="C76" r:id="rId29"/>
-    <hyperlink ref="C77" r:id="rId30"/>
-    <hyperlink ref="C78" r:id="rId31"/>
-    <hyperlink ref="C79" r:id="rId32"/>
-    <hyperlink ref="C80" r:id="rId33"/>
-    <hyperlink ref="C81" r:id="rId34"/>
-    <hyperlink ref="C82" r:id="rId35"/>
-    <hyperlink ref="C83" r:id="rId36"/>
-    <hyperlink ref="C84" r:id="rId37"/>
-    <hyperlink ref="C86" r:id="rId38"/>
-    <hyperlink ref="C87" r:id="rId39"/>
-    <hyperlink ref="C88" r:id="rId40"/>
-    <hyperlink ref="C89" r:id="rId41"/>
-    <hyperlink ref="C90" r:id="rId42"/>
-    <hyperlink ref="C91" r:id="rId43"/>
-    <hyperlink ref="C94" r:id="rId44"/>
-    <hyperlink ref="C95" r:id="rId45"/>
-    <hyperlink ref="C96" r:id="rId46"/>
-    <hyperlink ref="C46" r:id="rId47"/>
+    <hyperlink ref="C77" r:id="rId29"/>
+    <hyperlink ref="C78" r:id="rId30"/>
+    <hyperlink ref="C79" r:id="rId31"/>
+    <hyperlink ref="C80" r:id="rId32"/>
+    <hyperlink ref="C81" r:id="rId33"/>
+    <hyperlink ref="C82" r:id="rId34"/>
+    <hyperlink ref="C83" r:id="rId35"/>
+    <hyperlink ref="C84" r:id="rId36"/>
+    <hyperlink ref="C86" r:id="rId37"/>
+    <hyperlink ref="C87" r:id="rId38"/>
+    <hyperlink ref="C88" r:id="rId39"/>
+    <hyperlink ref="C89" r:id="rId40"/>
+    <hyperlink ref="C90" r:id="rId41"/>
+    <hyperlink ref="C91" r:id="rId42"/>
+    <hyperlink ref="C94" r:id="rId43"/>
+    <hyperlink ref="C95" r:id="rId44"/>
+    <hyperlink ref="C96" r:id="rId45"/>
+    <hyperlink ref="C46" r:id="rId46"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13765,18 +14827,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="104" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="104" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -13969,12 +15031,12 @@
       <c r="E3" s="46" t="s">
         <v>616</v>
       </c>
-      <c r="G3" s="100" t="s">
+      <c r="G3" s="107" t="s">
         <v>617</v>
       </c>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="28">
@@ -13992,10 +15054,10 @@
       <c r="E4" s="71" t="s">
         <v>564</v>
       </c>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="28">
@@ -14013,10 +15075,10 @@
       <c r="E5" s="70" t="s">
         <v>615</v>
       </c>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="28">
@@ -14034,10 +15096,10 @@
       <c r="E6" s="46" t="s">
         <v>616</v>
       </c>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
@@ -14055,10 +15117,10 @@
       <c r="E7" s="71" t="s">
         <v>564</v>
       </c>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
@@ -14076,10 +15138,10 @@
       <c r="E8" s="70" t="s">
         <v>615</v>
       </c>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="28">

--- a/webform_testing.xlsx
+++ b/webform_testing.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2460" uniqueCount="897">
   <si>
     <t>Требования к
 https://itcareer.pythonanywhere.com/</t>
@@ -4261,6 +4261,16 @@
   </si>
   <si>
     <t>Отправка  117 символов в поле Email</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email: testingtestingtestingtestingtestingtestingtestingtestingtesting@mailmailmailmailmailmailmailmai@ruuuuuuuuuuuuuu
+Password: Qwerty@123</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с 111 символами в поле Email</t>
   </si>
 </sst>
 </file>
@@ -9123,10 +9133,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J145"/>
+  <dimension ref="A1:J146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G149" sqref="G149"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118:J146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12147,45 +12157,45 @@
         <v>279</v>
       </c>
     </row>
-    <row r="117" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C117" s="105" t="s">
+    <row r="117" spans="3:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="C117" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D117" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E117" s="60" t="s">
+        <v>896</v>
+      </c>
+      <c r="F117" s="36" t="s">
+        <v>895</v>
+      </c>
+      <c r="G117" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H117" s="62" t="s">
+        <v>673</v>
+      </c>
+      <c r="I117" s="62" t="s">
+        <v>673</v>
+      </c>
+      <c r="J117" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="118" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C118" s="105" t="s">
         <v>838</v>
       </c>
-      <c r="D117" s="105"/>
-      <c r="E117" s="105"/>
-      <c r="F117" s="105"/>
-      <c r="G117" s="105"/>
-      <c r="H117" s="105"/>
-      <c r="I117" s="105"/>
-      <c r="J117" s="105"/>
-    </row>
-    <row r="118" spans="3:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="C118" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="D118" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E118" s="60" t="s">
-        <v>862</v>
-      </c>
-      <c r="F118" s="24" t="s">
-        <v>863</v>
-      </c>
-      <c r="G118" s="36" t="s">
-        <v>530</v>
-      </c>
-      <c r="H118" s="62" t="s">
-        <v>95</v>
-      </c>
-      <c r="I118" s="62" t="s">
-        <v>673</v>
-      </c>
-      <c r="J118" s="46" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="119" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="D118" s="105"/>
+      <c r="E118" s="105"/>
+      <c r="F118" s="105"/>
+      <c r="G118" s="105"/>
+      <c r="H118" s="105"/>
+      <c r="I118" s="105"/>
+      <c r="J118" s="105"/>
+    </row>
+    <row r="119" spans="3:10" ht="90" x14ac:dyDescent="0.25">
       <c r="C119" s="59" t="s">
         <v>103</v>
       </c>
@@ -12193,10 +12203,10 @@
         <v>32</v>
       </c>
       <c r="E119" s="60" t="s">
-        <v>842</v>
+        <v>862</v>
       </c>
       <c r="F119" s="24" t="s">
-        <v>839</v>
+        <v>863</v>
       </c>
       <c r="G119" s="36" t="s">
         <v>530</v>
@@ -12219,10 +12229,10 @@
         <v>32</v>
       </c>
       <c r="E120" s="60" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="F120" s="24" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G120" s="36" t="s">
         <v>530</v>
@@ -12245,10 +12255,10 @@
         <v>32</v>
       </c>
       <c r="E121" s="60" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F121" s="24" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="G121" s="36" t="s">
         <v>530</v>
@@ -12271,10 +12281,10 @@
         <v>32</v>
       </c>
       <c r="E122" s="60" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F122" s="24" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="G122" s="36" t="s">
         <v>530</v>
@@ -12297,10 +12307,10 @@
         <v>32</v>
       </c>
       <c r="E123" s="60" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F123" s="24" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="G123" s="36" t="s">
         <v>530</v>
@@ -12315,7 +12325,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="124" spans="3:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C124" s="59" t="s">
         <v>103</v>
       </c>
@@ -12323,10 +12333,10 @@
         <v>32</v>
       </c>
       <c r="E124" s="60" t="s">
-        <v>849</v>
-      </c>
-      <c r="F124" s="36" t="s">
-        <v>850</v>
+        <v>847</v>
+      </c>
+      <c r="F124" s="24" t="s">
+        <v>848</v>
       </c>
       <c r="G124" s="36" t="s">
         <v>530</v>
@@ -12341,7 +12351,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="125" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:10" ht="105" x14ac:dyDescent="0.25">
       <c r="C125" s="59" t="s">
         <v>103</v>
       </c>
@@ -12349,10 +12359,10 @@
         <v>32</v>
       </c>
       <c r="E125" s="60" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F125" s="36" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="G125" s="36" t="s">
         <v>530</v>
@@ -12375,10 +12385,10 @@
         <v>32</v>
       </c>
       <c r="E126" s="60" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F126" s="36" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="G126" s="36" t="s">
         <v>530</v>
@@ -12401,10 +12411,10 @@
         <v>32</v>
       </c>
       <c r="E127" s="60" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="F127" s="36" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="G127" s="36" t="s">
         <v>530</v>
@@ -12427,10 +12437,10 @@
         <v>32</v>
       </c>
       <c r="E128" s="60" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="F128" s="36" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="G128" s="36" t="s">
         <v>530</v>
@@ -12445,7 +12455,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="129" spans="3:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C129" s="59" t="s">
         <v>103</v>
       </c>
@@ -12453,10 +12463,10 @@
         <v>32</v>
       </c>
       <c r="E129" s="60" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="F129" s="36" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="G129" s="36" t="s">
         <v>530</v>
@@ -12471,7 +12481,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="130" spans="3:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:10" ht="105" x14ac:dyDescent="0.25">
       <c r="C130" s="59" t="s">
         <v>103</v>
       </c>
@@ -12479,10 +12489,10 @@
         <v>32</v>
       </c>
       <c r="E130" s="60" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="F130" s="36" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="G130" s="36" t="s">
         <v>530</v>
@@ -12497,7 +12507,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="131" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:10" ht="90" x14ac:dyDescent="0.25">
       <c r="C131" s="59" t="s">
         <v>103</v>
       </c>
@@ -12505,10 +12515,10 @@
         <v>32</v>
       </c>
       <c r="E131" s="60" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F131" s="36" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="G131" s="36" t="s">
         <v>530</v>
@@ -12531,10 +12541,10 @@
         <v>32</v>
       </c>
       <c r="E132" s="60" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F132" s="36" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="G132" s="36" t="s">
         <v>530</v>
@@ -12557,10 +12567,10 @@
         <v>32</v>
       </c>
       <c r="E133" s="60" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F133" s="36" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="G133" s="36" t="s">
         <v>530</v>
@@ -12583,10 +12593,10 @@
         <v>32</v>
       </c>
       <c r="E134" s="60" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F134" s="36" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="G134" s="36" t="s">
         <v>530</v>
@@ -12609,10 +12619,10 @@
         <v>32</v>
       </c>
       <c r="E135" s="60" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F135" s="36" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="G135" s="36" t="s">
         <v>530</v>
@@ -12635,10 +12645,10 @@
         <v>32</v>
       </c>
       <c r="E136" s="60" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="F136" s="36" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G136" s="36" t="s">
         <v>530</v>
@@ -12653,7 +12663,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="137" spans="3:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C137" s="59" t="s">
         <v>103</v>
       </c>
@@ -12661,10 +12671,10 @@
         <v>32</v>
       </c>
       <c r="E137" s="60" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="F137" s="36" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="G137" s="36" t="s">
         <v>530</v>
@@ -12679,7 +12689,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="138" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:10" ht="90" x14ac:dyDescent="0.25">
       <c r="C138" s="59" t="s">
         <v>103</v>
       </c>
@@ -12687,10 +12697,10 @@
         <v>32</v>
       </c>
       <c r="E138" s="60" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="F138" s="36" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="G138" s="36" t="s">
         <v>530</v>
@@ -12705,7 +12715,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="139" spans="3:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C139" s="59" t="s">
         <v>103</v>
       </c>
@@ -12713,10 +12723,10 @@
         <v>32</v>
       </c>
       <c r="E139" s="60" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="F139" s="36" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G139" s="36" t="s">
         <v>530</v>
@@ -12731,7 +12741,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="140" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:10" ht="105" x14ac:dyDescent="0.25">
       <c r="C140" s="59" t="s">
         <v>103</v>
       </c>
@@ -12739,10 +12749,10 @@
         <v>32</v>
       </c>
       <c r="E140" s="60" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="F140" s="36" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="G140" s="36" t="s">
         <v>530</v>
@@ -12765,10 +12775,10 @@
         <v>32</v>
       </c>
       <c r="E141" s="60" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="F141" s="36" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="G141" s="36" t="s">
         <v>530</v>
@@ -12791,7 +12801,7 @@
         <v>32</v>
       </c>
       <c r="E142" s="60" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="F142" s="36" t="s">
         <v>887</v>
@@ -12817,10 +12827,10 @@
         <v>32</v>
       </c>
       <c r="E143" s="60" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F143" s="36" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="G143" s="36" t="s">
         <v>530</v>
@@ -12843,10 +12853,10 @@
         <v>32</v>
       </c>
       <c r="E144" s="60" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="F144" s="36" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="G144" s="36" t="s">
         <v>530</v>
@@ -12861,7 +12871,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="145" spans="3:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C145" s="59" t="s">
         <v>103</v>
       </c>
@@ -12869,10 +12879,10 @@
         <v>32</v>
       </c>
       <c r="E145" s="60" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="F145" s="36" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G145" s="36" t="s">
         <v>530</v>
@@ -12887,9 +12897,35 @@
         <v>281</v>
       </c>
     </row>
+    <row r="146" spans="3:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="C146" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D146" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E146" s="60" t="s">
+        <v>894</v>
+      </c>
+      <c r="F146" s="36" t="s">
+        <v>893</v>
+      </c>
+      <c r="G146" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H146" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="I146" s="62" t="s">
+        <v>673</v>
+      </c>
+      <c r="J146" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C117:J117"/>
+    <mergeCell ref="C118:J118"/>
     <mergeCell ref="C95:J95"/>
     <mergeCell ref="C84:J84"/>
     <mergeCell ref="A1:C1"/>
@@ -13003,7 +13039,6 @@
     <hyperlink ref="C114" location="Требования!R33C1" display="F-11/2"/>
     <hyperlink ref="C115" location="Требования!R33C1" display="F-11/2"/>
     <hyperlink ref="C116" location="Требования!R33C1" display="F-11/2"/>
-    <hyperlink ref="C118" location="Требования!R41C1" display="F-13/2"/>
     <hyperlink ref="C119" location="Требования!R41C1" display="F-13/2"/>
     <hyperlink ref="C120" location="Требования!R41C1" display="F-13/2"/>
     <hyperlink ref="C121" location="Требования!R41C1" display="F-13/2"/>
@@ -13031,6 +13066,8 @@
     <hyperlink ref="C143" location="Требования!R41C1" display="F-13/2"/>
     <hyperlink ref="C144" location="Требования!R41C1" display="F-13/2"/>
     <hyperlink ref="C145" location="Требования!R41C1" display="F-13/2"/>
+    <hyperlink ref="C146" location="Требования!R41C1" display="F-13/2"/>
+    <hyperlink ref="C117" location="Требования!R33C1" display="F-11/2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13042,7 +13079,7 @@
   <dimension ref="A1:I117"/>
   <sheetViews>
     <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/webform_testing.xlsx
+++ b/webform_testing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Требования" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2460" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2638" uniqueCount="942">
   <si>
     <t>Требования к
 https://itcareer.pythonanywhere.com/</t>
@@ -2092,13 +2092,6 @@
 Ввести данные в поля:
 Name:Test
 Surname:Nurmalov
-Password:qwerty123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Ввести данные в поля:
-Name:Test
-Surname:Nurmalov
 Password:Qwerty@123</t>
   </si>
   <si>
@@ -2157,9 +2150,6 @@
   </si>
   <si>
     <t>йцуКен123@</t>
-  </si>
-  <si>
-    <t>qwe rty @123</t>
   </si>
   <si>
     <t>Qwert@@123</t>
@@ -4271,6 +4261,232 @@
   </si>
   <si>
     <t>Проверка входа пользователя с 111 символами в поле Email</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с корректными данными поля Password</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с 9 символами в поле Password</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email:testing@mail.ru
+Password: Qwer@1234</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с 8 символами в поле Password</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email:testing@mail.ru
+Password: Qwer@123</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email:testing@mail.ru
+Password: Qwerty@1231!2.</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с корректными символами в поле Password</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с 16 символами в поле Password</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с двумя обязательными символами в поле Password</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email:testing@mail.ru
+Password: Qwert@@123</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с некорректными данными поля Password</t>
+  </si>
+  <si>
+    <t>Ввести данные в поля:
+Surname:Nurmalov
+Email:testing@mail.com
+Password:Qwerty@123</t>
+  </si>
+  <si>
+    <t>Password: Qwe@123</t>
+  </si>
+  <si>
+    <t>Password: 
+Qwerty@12312312312</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email:testing@mail.ru
+Password: QWERTY@123</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email:testing@mail.ru
+Password: qwerty@123</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с всеми символами в нижнем регистре в поле Password</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с всеми символами в верхнем регистре в поле Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email:testing@mail.ru
+Password:                        </t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя со всеми пробелами в поле Password</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с пустым в полем Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email:testing@mail.ru
+Password: </t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с одними цифрами в поле Password</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email:testing@mail.ru
+Password: 12345678</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email:testing@mail.ru
+Password: ~`!@#$%^
+&amp;*'()_+=-\|&lt;/&gt;{.}[,]";:?</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с одними спецсимволами в поле Password</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с SQL-инъекции в поле Password</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email:testing@mail.ru
+Password: SELECT * from USERS</t>
+  </si>
+  <si>
+    <t>Отправка тэгов в поле Password</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email:testing@mail.ru
+Password: &lt;b&gt;data &lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с 17 символами в поле Password</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email:testing@mail.ru
+Password: Qwerty@123qwertY.</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя без корректных спецсимволов в поле Password</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email:testing@mail.ru
+Password: qwertyui123</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с русскими символами в поле Password</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email:testing@mail.ru
+Password: йцуКен123@</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с пробелами в середине поля Password</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с пробелами в начале и конце поля Password</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email:testing@mail.ru
+Password: Qwe rty @123</t>
+  </si>
+  <si>
+    <t>Qwe rty @123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email:testing@mail.ru
+Password:  Qwert@123 </t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя с 7 символами в поле Password</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email:testing@mail.ru
+Password: Qwe@123</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email:testing@mail.ru
+Password: Qwerty@</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя без цифр в поле Password</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email:testing@mail.ru
+Password: Qwert123</t>
+  </si>
+  <si>
+    <t>Проверка входа пользователя без специсимволов в поле Password</t>
   </si>
 </sst>
 </file>
@@ -5587,8 +5803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6624,8 +6840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CE55"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6791,7 +7007,7 @@
         <v>101</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>590</v>
+        <v>906</v>
       </c>
       <c r="E8" s="35" t="s">
         <v>278</v>
@@ -6829,7 +7045,7 @@
         <v>81</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>292</v>
+        <v>495</v>
       </c>
       <c r="E10" s="43" t="s">
         <v>591</v>
@@ -6855,7 +7071,7 @@
         <v>90</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>292</v>
+        <v>495</v>
       </c>
       <c r="E11" s="43" t="s">
         <v>293</v>
@@ -6971,7 +7187,7 @@
         <v>93</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E16" s="35" t="s">
         <v>305</v>
@@ -6997,7 +7213,7 @@
         <v>105</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E17" s="35" t="s">
         <v>301</v>
@@ -7023,7 +7239,7 @@
         <v>105</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E18" s="35" t="s">
         <v>303</v>
@@ -7049,7 +7265,7 @@
         <v>93</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E19" s="35" t="s">
         <v>307</v>
@@ -7075,7 +7291,7 @@
         <v>105</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E20" s="35" t="s">
         <v>309</v>
@@ -7101,7 +7317,7 @@
         <v>105</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E21" s="35" t="s">
         <v>311</v>
@@ -7127,7 +7343,7 @@
         <v>93</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E22" s="35" t="s">
         <v>313</v>
@@ -7153,7 +7369,7 @@
         <v>105</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E23" s="35" t="s">
         <v>315</v>
@@ -7179,7 +7395,7 @@
         <v>105</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E24" s="35" t="s">
         <v>317</v>
@@ -7205,7 +7421,7 @@
         <v>105</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E25" s="35" t="s">
         <v>381</v>
@@ -7243,7 +7459,7 @@
         <v>81</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E27" s="33" t="s">
         <v>496</v>
@@ -7269,7 +7485,7 @@
         <v>96</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E28" s="33" t="s">
         <v>335</v>
@@ -7295,10 +7511,10 @@
         <v>107</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>336</v>
+        <v>907</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>98</v>
@@ -7321,10 +7537,10 @@
         <v>107</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>337</v>
+        <v>908</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>98</v>
@@ -7670,8 +7886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CE55"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7759,7 +7975,7 @@
         <v>81</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E5" s="33" t="s">
         <v>341</v>
@@ -7785,7 +8001,7 @@
         <v>81</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E6" s="33" t="s">
         <v>345</v>
@@ -7863,7 +8079,7 @@
         <v>101</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E9" s="33" t="s">
         <v>277</v>
@@ -7889,7 +8105,7 @@
         <v>101</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E10" s="35" t="s">
         <v>278</v>
@@ -7930,7 +8146,7 @@
         <v>292</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F12" s="36" t="s">
         <v>364</v>
@@ -7956,7 +8172,7 @@
         <v>292</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F13" s="36" t="s">
         <v>375</v>
@@ -7982,7 +8198,7 @@
         <v>292</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F14" s="36" t="s">
         <v>374</v>
@@ -8008,7 +8224,7 @@
         <v>292</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F15" s="36" t="s">
         <v>373</v>
@@ -8060,7 +8276,7 @@
         <v>292</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>92</v>
@@ -8095,7 +8311,7 @@
         <v>81</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E19" s="35" t="s">
         <v>384</v>
@@ -8121,7 +8337,7 @@
         <v>81</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E20" s="35" t="s">
         <v>387</v>
@@ -8147,7 +8363,7 @@
         <v>81</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E21" s="35" t="s">
         <v>390</v>
@@ -8173,7 +8389,7 @@
         <v>81</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E22" s="35" t="s">
         <v>392</v>
@@ -8199,7 +8415,7 @@
         <v>105</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E23" s="35" t="s">
         <v>395</v>
@@ -8225,7 +8441,7 @@
         <v>105</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E24" s="35" t="s">
         <v>399</v>
@@ -8251,7 +8467,7 @@
         <v>81</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E25" s="35" t="s">
         <v>401</v>
@@ -8277,7 +8493,7 @@
         <v>81</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E26" s="35" t="s">
         <v>408</v>
@@ -8303,7 +8519,7 @@
         <v>81</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E27" s="35" t="s">
         <v>410</v>
@@ -8353,7 +8569,7 @@
         <v>81</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E28" s="35" t="s">
         <v>412</v>
@@ -8403,7 +8619,7 @@
         <v>105</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E29" s="35" t="s">
         <v>414</v>
@@ -8453,7 +8669,7 @@
         <v>105</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E30" s="35" t="s">
         <v>309</v>
@@ -8526,7 +8742,7 @@
         <v>81</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E31" s="35" t="s">
         <v>424</v>
@@ -8577,7 +8793,7 @@
         <v>81</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E32" s="35" t="s">
         <v>296</v>
@@ -8628,7 +8844,7 @@
         <v>81</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E33" s="35" t="s">
         <v>430</v>
@@ -8679,7 +8895,7 @@
         <v>81</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E34" s="35" t="s">
         <v>431</v>
@@ -8730,7 +8946,7 @@
         <v>105</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E35" s="35" t="s">
         <v>432</v>
@@ -8781,7 +8997,7 @@
         <v>105</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E36" s="35" t="s">
         <v>315</v>
@@ -8869,7 +9085,7 @@
         <v>81</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E38" s="35" t="s">
         <v>440</v>
@@ -8920,7 +9136,7 @@
         <v>81</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E39" s="35" t="s">
         <v>442</v>
@@ -8946,7 +9162,7 @@
         <v>81</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E40" s="35" t="s">
         <v>444</v>
@@ -8972,7 +9188,7 @@
         <v>81</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E41" s="35" t="s">
         <v>446</v>
@@ -8998,7 +9214,7 @@
         <v>107</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E42" s="35" t="s">
         <v>448</v>
@@ -9024,7 +9240,7 @@
         <v>107</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E43" s="35" t="s">
         <v>450</v>
@@ -9133,10 +9349,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J146"/>
+  <dimension ref="A1:J170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118:J146"/>
+    <sheetView tabSelected="1" topLeftCell="B167" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E176" sqref="E176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9334,7 +9550,7 @@
         <v>465</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>89</v>
@@ -9366,7 +9582,7 @@
         <v>452</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>95</v>
@@ -9398,7 +9614,7 @@
         <v>452</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>86</v>
@@ -9651,7 +9867,7 @@
         <v>452</v>
       </c>
       <c r="G18" s="44" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>59</v>
@@ -9767,7 +9983,7 @@
         <v>452</v>
       </c>
       <c r="G22" s="44" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="H22" s="11" t="s">
         <v>62</v>
@@ -10225,7 +10441,7 @@
         <v>525</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="G38" s="36" t="s">
         <v>528</v>
@@ -10254,7 +10470,7 @@
         <v>527</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="G39" s="36" t="s">
         <v>530</v>
@@ -10280,7 +10496,7 @@
         <v>32</v>
       </c>
       <c r="E40" s="60" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G40" s="36" t="s">
         <v>530</v>
@@ -10327,7 +10543,7 @@
         <v>94</v>
       </c>
       <c r="F43" s="36" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="G43" s="36" t="s">
         <v>530</v>
@@ -10356,7 +10572,7 @@
         <v>97</v>
       </c>
       <c r="F44" s="36" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="G44" s="36" t="s">
         <v>530</v>
@@ -10408,7 +10624,7 @@
         <v>113</v>
       </c>
       <c r="F46" s="36" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="G46" s="36" t="s">
         <v>528</v>
@@ -10434,7 +10650,7 @@
         <v>543</v>
       </c>
       <c r="F47" s="36" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="G47" s="36" t="s">
         <v>530</v>
@@ -10460,7 +10676,7 @@
         <v>544</v>
       </c>
       <c r="F48" s="36" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="G48" s="36" t="s">
         <v>545</v>
@@ -10486,7 +10702,7 @@
         <v>546</v>
       </c>
       <c r="F49" s="36" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="G49" s="36" t="s">
         <v>547</v>
@@ -10503,7 +10719,7 @@
     </row>
     <row r="50" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C50" s="106" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D50" s="106"/>
       <c r="E50" s="106"/>
@@ -10521,16 +10737,16 @@
         <v>32</v>
       </c>
       <c r="E51" s="60" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F51" s="36" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G51" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H51" s="62" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="I51" s="62" t="s">
         <v>86</v>
@@ -10547,16 +10763,16 @@
         <v>32</v>
       </c>
       <c r="E52" s="60" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F52" s="36" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G52" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H52" s="62" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="I52" s="62" t="s">
         <v>86</v>
@@ -10573,19 +10789,19 @@
         <v>32</v>
       </c>
       <c r="E53" s="60" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F53" s="36" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="G53" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H53" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I53" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J53" s="49" t="s">
         <v>279</v>
@@ -10599,19 +10815,19 @@
         <v>32</v>
       </c>
       <c r="E54" s="60" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F54" s="36" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G54" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H54" s="62" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="I54" s="62" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J54" s="49" t="s">
         <v>279</v>
@@ -10625,19 +10841,19 @@
         <v>32</v>
       </c>
       <c r="E55" s="60" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F55" s="36" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="G55" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H55" s="62" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="I55" s="62" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="J55" s="49" t="s">
         <v>279</v>
@@ -10651,19 +10867,19 @@
         <v>32</v>
       </c>
       <c r="E56" s="60" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="F56" s="36" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G56" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H56" s="62" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="I56" s="62" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="J56" s="49" t="s">
         <v>279</v>
@@ -10687,19 +10903,19 @@
         <v>32</v>
       </c>
       <c r="E58" s="60" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F58" s="36" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G58" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H58" s="62" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="I58" s="62" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="J58" s="49" t="s">
         <v>279</v>
@@ -10713,19 +10929,19 @@
         <v>32</v>
       </c>
       <c r="E59" s="60" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="F59" s="36" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="G59" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H59" s="62" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I59" s="62" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J59" s="49" t="s">
         <v>279</v>
@@ -10739,16 +10955,16 @@
         <v>32</v>
       </c>
       <c r="E60" s="60" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F60" s="36" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="G60" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H60" s="62" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="I60" s="62" t="s">
         <v>86</v>
@@ -10765,16 +10981,16 @@
         <v>32</v>
       </c>
       <c r="E61" s="60" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="F61" s="36" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G61" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H61" s="62" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="I61" s="62" t="s">
         <v>86</v>
@@ -10791,16 +11007,16 @@
         <v>32</v>
       </c>
       <c r="E62" s="60" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="F62" s="36" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G62" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H62" s="62" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="I62" s="62" t="s">
         <v>86</v>
@@ -10811,7 +11027,7 @@
     </row>
     <row r="63" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C63" s="106" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D63" s="106"/>
       <c r="E63" s="106"/>
@@ -10832,7 +11048,7 @@
         <v>88</v>
       </c>
       <c r="F64" s="24" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G64" s="36" t="s">
         <v>530</v>
@@ -10855,10 +11071,10 @@
         <v>32</v>
       </c>
       <c r="E65" s="60" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F65" s="24" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="G65" s="36" t="s">
         <v>530</v>
@@ -10881,10 +11097,10 @@
         <v>32</v>
       </c>
       <c r="E66" s="60" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F66" s="24" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G66" s="36" t="s">
         <v>530</v>
@@ -10907,10 +11123,10 @@
         <v>32</v>
       </c>
       <c r="E67" s="60" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="F67" s="24" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="G67" s="36" t="s">
         <v>530</v>
@@ -10933,19 +11149,19 @@
         <v>32</v>
       </c>
       <c r="E68" s="60" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F68" s="24" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G68" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H68" s="62" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="I68" s="62" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="J68" s="49" t="s">
         <v>279</v>
@@ -10959,19 +11175,19 @@
         <v>32</v>
       </c>
       <c r="E69" s="60" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F69" s="24" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G69" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H69" s="62" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="I69" s="62" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="J69" s="49" t="s">
         <v>279</v>
@@ -10985,19 +11201,19 @@
         <v>32</v>
       </c>
       <c r="E70" s="60" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F70" s="24" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G70" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H70" s="62" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="I70" s="62" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="J70" s="49" t="s">
         <v>279</v>
@@ -11011,10 +11227,10 @@
         <v>32</v>
       </c>
       <c r="E71" s="60" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F71" s="24" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="G71" s="36" t="s">
         <v>530</v>
@@ -11037,10 +11253,10 @@
         <v>32</v>
       </c>
       <c r="E72" s="60" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F72" s="24" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G72" s="36" t="s">
         <v>530</v>
@@ -11049,7 +11265,7 @@
         <v>89</v>
       </c>
       <c r="I72" s="62" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="J72" s="46" t="s">
         <v>281</v>
@@ -11063,10 +11279,10 @@
         <v>32</v>
       </c>
       <c r="E73" s="60" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F73" s="24" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G73" s="78" t="s">
         <v>530</v>
@@ -11075,7 +11291,7 @@
         <v>89</v>
       </c>
       <c r="I73" s="79" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="J73" s="80" t="s">
         <v>281</v>
@@ -11083,7 +11299,7 @@
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C74" s="105" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D74" s="105"/>
       <c r="E74" s="105"/>
@@ -11101,19 +11317,19 @@
         <v>32</v>
       </c>
       <c r="E75" s="60" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="F75" s="36" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="G75" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H75" s="62" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="I75" s="62" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="J75" s="49" t="s">
         <v>279</v>
@@ -11127,19 +11343,19 @@
         <v>32</v>
       </c>
       <c r="E76" s="60" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F76" s="36" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="G76" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H76" s="62" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="I76" s="62" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="J76" s="49" t="s">
         <v>279</v>
@@ -11153,19 +11369,19 @@
         <v>32</v>
       </c>
       <c r="E77" s="60" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="F77" s="36" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="G77" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H77" s="62" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I77" s="62" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="J77" s="49" t="s">
         <v>279</v>
@@ -11179,19 +11395,19 @@
         <v>32</v>
       </c>
       <c r="E78" s="60" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F78" s="36" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G78" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H78" s="62" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I78" s="62" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="J78" s="49" t="s">
         <v>279</v>
@@ -11205,19 +11421,19 @@
         <v>32</v>
       </c>
       <c r="E79" s="60" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F79" s="36" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="G79" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H79" s="62" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="I79" s="62" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="J79" s="49" t="s">
         <v>279</v>
@@ -11231,19 +11447,19 @@
         <v>32</v>
       </c>
       <c r="E80" s="60" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F80" s="36" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="G80" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H80" s="62" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="I80" s="62" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="J80" s="49" t="s">
         <v>279</v>
@@ -11257,19 +11473,19 @@
         <v>32</v>
       </c>
       <c r="E81" s="60" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F81" s="36" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G81" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H81" s="62" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="I81" s="62" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="J81" s="49" t="s">
         <v>279</v>
@@ -11283,19 +11499,19 @@
         <v>32</v>
       </c>
       <c r="E82" s="60" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="F82" s="36" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G82" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H82" s="62" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="I82" s="62" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="J82" s="80" t="s">
         <v>281</v>
@@ -11309,19 +11525,19 @@
         <v>32</v>
       </c>
       <c r="E83" s="60" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F83" s="36" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G83" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H83" s="62" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="I83" s="62" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="J83" s="80" t="s">
         <v>281</v>
@@ -11329,7 +11545,7 @@
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C84" s="106" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D84" s="106"/>
       <c r="E84" s="106"/>
@@ -11347,10 +11563,10 @@
         <v>32</v>
       </c>
       <c r="E85" s="60" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F85" s="24" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="G85" s="36" t="s">
         <v>530</v>
@@ -11373,19 +11589,19 @@
         <v>32</v>
       </c>
       <c r="E86" s="60" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F86" s="36" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G86" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H86" s="62" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="I86" s="62" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="J86" s="80" t="s">
         <v>281</v>
@@ -11399,10 +11615,10 @@
         <v>32</v>
       </c>
       <c r="E87" s="60" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F87" s="24" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="G87" s="36" t="s">
         <v>530</v>
@@ -11425,10 +11641,10 @@
         <v>32</v>
       </c>
       <c r="E88" s="60" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F88" s="24" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="G88" s="36" t="s">
         <v>530</v>
@@ -11437,7 +11653,7 @@
         <v>92</v>
       </c>
       <c r="I88" s="62" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="J88" s="46" t="s">
         <v>281</v>
@@ -11451,10 +11667,10 @@
         <v>32</v>
       </c>
       <c r="E89" s="60" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F89" s="24" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="G89" s="36" t="s">
         <v>530</v>
@@ -11463,7 +11679,7 @@
         <v>92</v>
       </c>
       <c r="I89" s="62" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="J89" s="46" t="s">
         <v>281</v>
@@ -11477,19 +11693,19 @@
         <v>32</v>
       </c>
       <c r="E90" s="60" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F90" s="24" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G90" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H90" s="62" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="I90" s="62" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="J90" s="49" t="s">
         <v>279</v>
@@ -11503,19 +11719,19 @@
         <v>32</v>
       </c>
       <c r="E91" s="60" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="F91" s="24" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="G91" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H91" s="62" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="I91" s="62" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="J91" s="49" t="s">
         <v>279</v>
@@ -11529,19 +11745,19 @@
         <v>32</v>
       </c>
       <c r="E92" s="60" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F92" s="36" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G92" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H92" s="62" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="I92" s="62" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="J92" s="80" t="s">
         <v>281</v>
@@ -11555,10 +11771,10 @@
         <v>32</v>
       </c>
       <c r="E93" s="60" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F93" s="36" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G93" s="36" t="s">
         <v>530</v>
@@ -11567,7 +11783,7 @@
         <v>92</v>
       </c>
       <c r="I93" s="62" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="J93" s="80" t="s">
         <v>281</v>
@@ -11581,10 +11797,10 @@
         <v>32</v>
       </c>
       <c r="E94" s="60" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="F94" s="36" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G94" s="36" t="s">
         <v>530</v>
@@ -11593,7 +11809,7 @@
         <v>92</v>
       </c>
       <c r="I94" s="62" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="J94" s="80" t="s">
         <v>281</v>
@@ -11601,7 +11817,7 @@
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C95" s="105" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D95" s="105"/>
       <c r="E95" s="105"/>
@@ -11619,19 +11835,19 @@
         <v>32</v>
       </c>
       <c r="E96" s="60" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="F96" s="36" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="G96" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H96" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I96" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J96" s="49" t="s">
         <v>279</v>
@@ -11645,19 +11861,19 @@
         <v>32</v>
       </c>
       <c r="E97" s="60" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F97" s="36" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="G97" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H97" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I97" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J97" s="49" t="s">
         <v>279</v>
@@ -11671,19 +11887,19 @@
         <v>32</v>
       </c>
       <c r="E98" s="60" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="F98" s="36" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G98" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H98" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I98" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J98" s="49" t="s">
         <v>279</v>
@@ -11697,19 +11913,19 @@
         <v>32</v>
       </c>
       <c r="E99" s="60" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="F99" s="36" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G99" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H99" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I99" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J99" s="49" t="s">
         <v>279</v>
@@ -11723,19 +11939,19 @@
         <v>32</v>
       </c>
       <c r="E100" s="60" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F100" s="36" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="G100" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H100" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I100" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J100" s="49" t="s">
         <v>279</v>
@@ -11749,19 +11965,19 @@
         <v>32</v>
       </c>
       <c r="E101" s="60" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="F101" s="36" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="G101" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H101" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I101" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J101" s="49" t="s">
         <v>279</v>
@@ -11775,19 +11991,19 @@
         <v>32</v>
       </c>
       <c r="E102" s="60" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F102" s="36" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="G102" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H102" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I102" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J102" s="49" t="s">
         <v>279</v>
@@ -11801,19 +12017,19 @@
         <v>32</v>
       </c>
       <c r="E103" s="60" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="F103" s="36" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="G103" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H103" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I103" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J103" s="49" t="s">
         <v>279</v>
@@ -11827,19 +12043,19 @@
         <v>32</v>
       </c>
       <c r="E104" s="60" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F104" s="36" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G104" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H104" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I104" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J104" s="49" t="s">
         <v>279</v>
@@ -11853,19 +12069,19 @@
         <v>32</v>
       </c>
       <c r="E105" s="60" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="F105" s="36" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="G105" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H105" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I105" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J105" s="49" t="s">
         <v>279</v>
@@ -11879,19 +12095,19 @@
         <v>32</v>
       </c>
       <c r="E106" s="60" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F106" s="36" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="G106" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H106" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I106" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J106" s="49" t="s">
         <v>279</v>
@@ -11905,19 +12121,19 @@
         <v>32</v>
       </c>
       <c r="E107" s="60" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F107" s="36" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="G107" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H107" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I107" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J107" s="49" t="s">
         <v>279</v>
@@ -11931,19 +12147,19 @@
         <v>32</v>
       </c>
       <c r="E108" s="60" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F108" s="36" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="G108" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H108" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I108" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J108" s="49" t="s">
         <v>279</v>
@@ -11957,19 +12173,19 @@
         <v>32</v>
       </c>
       <c r="E109" s="60" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="F109" s="36" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G109" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H109" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I109" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J109" s="49" t="s">
         <v>279</v>
@@ -11983,19 +12199,19 @@
         <v>32</v>
       </c>
       <c r="E110" s="60" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F110" s="36" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="G110" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H110" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I110" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J110" s="49" t="s">
         <v>279</v>
@@ -12009,19 +12225,19 @@
         <v>32</v>
       </c>
       <c r="E111" s="60" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="F111" s="36" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="G111" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H111" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I111" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J111" s="49" t="s">
         <v>279</v>
@@ -12035,19 +12251,19 @@
         <v>32</v>
       </c>
       <c r="E112" s="60" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="F112" s="36" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="G112" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H112" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I112" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J112" s="49" t="s">
         <v>279</v>
@@ -12061,19 +12277,19 @@
         <v>32</v>
       </c>
       <c r="E113" s="60" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="F113" s="36" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G113" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H113" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I113" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J113" s="49" t="s">
         <v>279</v>
@@ -12087,19 +12303,19 @@
         <v>32</v>
       </c>
       <c r="E114" s="60" t="s">
+        <v>830</v>
+      </c>
+      <c r="F114" s="36" t="s">
         <v>832</v>
-      </c>
-      <c r="F114" s="36" t="s">
-        <v>834</v>
       </c>
       <c r="G114" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H114" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I114" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J114" s="49" t="s">
         <v>279</v>
@@ -12113,19 +12329,19 @@
         <v>32</v>
       </c>
       <c r="E115" s="60" t="s">
+        <v>831</v>
+      </c>
+      <c r="F115" s="36" t="s">
         <v>833</v>
-      </c>
-      <c r="F115" s="36" t="s">
-        <v>835</v>
       </c>
       <c r="G115" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H115" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I115" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J115" s="49" t="s">
         <v>279</v>
@@ -12139,19 +12355,19 @@
         <v>32</v>
       </c>
       <c r="E116" s="60" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="F116" s="36" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="G116" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H116" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I116" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J116" s="49" t="s">
         <v>279</v>
@@ -12165,19 +12381,19 @@
         <v>32</v>
       </c>
       <c r="E117" s="60" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="F117" s="36" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="G117" s="36" t="s">
         <v>530</v>
       </c>
       <c r="H117" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I117" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J117" s="49" t="s">
         <v>279</v>
@@ -12185,7 +12401,7 @@
     </row>
     <row r="118" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C118" s="105" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D118" s="105"/>
       <c r="E118" s="105"/>
@@ -12197,16 +12413,16 @@
     </row>
     <row r="119" spans="3:10" ht="90" x14ac:dyDescent="0.25">
       <c r="C119" s="59" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D119" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E119" s="60" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="F119" s="24" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="G119" s="36" t="s">
         <v>530</v>
@@ -12215,7 +12431,7 @@
         <v>95</v>
       </c>
       <c r="I119" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J119" s="46" t="s">
         <v>281</v>
@@ -12223,16 +12439,16 @@
     </row>
     <row r="120" spans="3:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C120" s="59" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D120" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E120" s="60" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="F120" s="24" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="G120" s="36" t="s">
         <v>530</v>
@@ -12241,7 +12457,7 @@
         <v>95</v>
       </c>
       <c r="I120" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J120" s="46" t="s">
         <v>281</v>
@@ -12249,16 +12465,16 @@
     </row>
     <row r="121" spans="3:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C121" s="59" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D121" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E121" s="60" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F121" s="24" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="G121" s="36" t="s">
         <v>530</v>
@@ -12267,7 +12483,7 @@
         <v>95</v>
       </c>
       <c r="I121" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J121" s="46" t="s">
         <v>281</v>
@@ -12275,16 +12491,16 @@
     </row>
     <row r="122" spans="3:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C122" s="59" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D122" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E122" s="60" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F122" s="24" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="G122" s="36" t="s">
         <v>530</v>
@@ -12293,7 +12509,7 @@
         <v>95</v>
       </c>
       <c r="I122" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J122" s="46" t="s">
         <v>281</v>
@@ -12301,16 +12517,16 @@
     </row>
     <row r="123" spans="3:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C123" s="59" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D123" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E123" s="60" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F123" s="24" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="G123" s="36" t="s">
         <v>530</v>
@@ -12319,7 +12535,7 @@
         <v>95</v>
       </c>
       <c r="I123" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J123" s="46" t="s">
         <v>281</v>
@@ -12327,16 +12543,16 @@
     </row>
     <row r="124" spans="3:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C124" s="59" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D124" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E124" s="60" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F124" s="24" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="G124" s="36" t="s">
         <v>530</v>
@@ -12345,7 +12561,7 @@
         <v>95</v>
       </c>
       <c r="I124" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J124" s="46" t="s">
         <v>281</v>
@@ -12353,16 +12569,16 @@
     </row>
     <row r="125" spans="3:10" ht="105" x14ac:dyDescent="0.25">
       <c r="C125" s="59" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D125" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E125" s="60" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F125" s="36" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="G125" s="36" t="s">
         <v>530</v>
@@ -12371,7 +12587,7 @@
         <v>95</v>
       </c>
       <c r="I125" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J125" s="46" t="s">
         <v>281</v>
@@ -12379,16 +12595,16 @@
     </row>
     <row r="126" spans="3:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C126" s="59" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D126" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E126" s="60" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F126" s="36" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="G126" s="36" t="s">
         <v>530</v>
@@ -12397,7 +12613,7 @@
         <v>95</v>
       </c>
       <c r="I126" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J126" s="46" t="s">
         <v>281</v>
@@ -12405,16 +12621,16 @@
     </row>
     <row r="127" spans="3:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C127" s="59" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D127" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E127" s="60" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F127" s="36" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="G127" s="36" t="s">
         <v>530</v>
@@ -12423,7 +12639,7 @@
         <v>95</v>
       </c>
       <c r="I127" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J127" s="46" t="s">
         <v>281</v>
@@ -12431,16 +12647,16 @@
     </row>
     <row r="128" spans="3:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C128" s="59" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D128" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E128" s="60" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="F128" s="36" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="G128" s="36" t="s">
         <v>530</v>
@@ -12449,7 +12665,7 @@
         <v>95</v>
       </c>
       <c r="I128" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J128" s="46" t="s">
         <v>281</v>
@@ -12457,16 +12673,16 @@
     </row>
     <row r="129" spans="3:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C129" s="59" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D129" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E129" s="60" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="F129" s="36" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="G129" s="36" t="s">
         <v>530</v>
@@ -12475,7 +12691,7 @@
         <v>95</v>
       </c>
       <c r="I129" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J129" s="46" t="s">
         <v>281</v>
@@ -12483,16 +12699,16 @@
     </row>
     <row r="130" spans="3:10" ht="105" x14ac:dyDescent="0.25">
       <c r="C130" s="59" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D130" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E130" s="60" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="F130" s="36" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="G130" s="36" t="s">
         <v>530</v>
@@ -12501,7 +12717,7 @@
         <v>95</v>
       </c>
       <c r="I130" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J130" s="46" t="s">
         <v>281</v>
@@ -12509,16 +12725,16 @@
     </row>
     <row r="131" spans="3:10" ht="90" x14ac:dyDescent="0.25">
       <c r="C131" s="59" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D131" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E131" s="60" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F131" s="36" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="G131" s="36" t="s">
         <v>530</v>
@@ -12527,7 +12743,7 @@
         <v>95</v>
       </c>
       <c r="I131" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J131" s="46" t="s">
         <v>281</v>
@@ -12535,16 +12751,16 @@
     </row>
     <row r="132" spans="3:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C132" s="59" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D132" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E132" s="60" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F132" s="36" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="G132" s="36" t="s">
         <v>530</v>
@@ -12553,7 +12769,7 @@
         <v>95</v>
       </c>
       <c r="I132" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J132" s="46" t="s">
         <v>281</v>
@@ -12561,16 +12777,16 @@
     </row>
     <row r="133" spans="3:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C133" s="59" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D133" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E133" s="60" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F133" s="36" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="G133" s="36" t="s">
         <v>530</v>
@@ -12579,7 +12795,7 @@
         <v>95</v>
       </c>
       <c r="I133" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J133" s="46" t="s">
         <v>281</v>
@@ -12587,16 +12803,16 @@
     </row>
     <row r="134" spans="3:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C134" s="59" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D134" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E134" s="60" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F134" s="36" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="G134" s="36" t="s">
         <v>530</v>
@@ -12605,7 +12821,7 @@
         <v>95</v>
       </c>
       <c r="I134" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J134" s="46" t="s">
         <v>281</v>
@@ -12613,16 +12829,16 @@
     </row>
     <row r="135" spans="3:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C135" s="59" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D135" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E135" s="60" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F135" s="36" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="G135" s="36" t="s">
         <v>530</v>
@@ -12631,7 +12847,7 @@
         <v>95</v>
       </c>
       <c r="I135" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J135" s="46" t="s">
         <v>281</v>
@@ -12639,16 +12855,16 @@
     </row>
     <row r="136" spans="3:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C136" s="59" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D136" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E136" s="60" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F136" s="36" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="G136" s="36" t="s">
         <v>530</v>
@@ -12657,7 +12873,7 @@
         <v>95</v>
       </c>
       <c r="I136" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J136" s="46" t="s">
         <v>281</v>
@@ -12665,16 +12881,16 @@
     </row>
     <row r="137" spans="3:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C137" s="59" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D137" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E137" s="60" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F137" s="36" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="G137" s="36" t="s">
         <v>530</v>
@@ -12683,7 +12899,7 @@
         <v>95</v>
       </c>
       <c r="I137" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J137" s="46" t="s">
         <v>281</v>
@@ -12691,16 +12907,16 @@
     </row>
     <row r="138" spans="3:10" ht="90" x14ac:dyDescent="0.25">
       <c r="C138" s="59" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D138" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E138" s="60" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F138" s="36" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="G138" s="36" t="s">
         <v>530</v>
@@ -12709,7 +12925,7 @@
         <v>95</v>
       </c>
       <c r="I138" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J138" s="46" t="s">
         <v>281</v>
@@ -12717,16 +12933,16 @@
     </row>
     <row r="139" spans="3:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C139" s="59" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D139" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E139" s="60" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F139" s="36" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G139" s="36" t="s">
         <v>530</v>
@@ -12735,7 +12951,7 @@
         <v>95</v>
       </c>
       <c r="I139" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J139" s="46" t="s">
         <v>281</v>
@@ -12743,16 +12959,16 @@
     </row>
     <row r="140" spans="3:10" ht="105" x14ac:dyDescent="0.25">
       <c r="C140" s="59" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D140" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E140" s="60" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F140" s="36" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G140" s="36" t="s">
         <v>530</v>
@@ -12761,7 +12977,7 @@
         <v>95</v>
       </c>
       <c r="I140" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J140" s="46" t="s">
         <v>281</v>
@@ -12769,16 +12985,16 @@
     </row>
     <row r="141" spans="3:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C141" s="59" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D141" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E141" s="60" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="F141" s="36" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="G141" s="36" t="s">
         <v>530</v>
@@ -12787,7 +13003,7 @@
         <v>95</v>
       </c>
       <c r="I141" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J141" s="46" t="s">
         <v>281</v>
@@ -12795,16 +13011,16 @@
     </row>
     <row r="142" spans="3:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C142" s="59" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D142" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E142" s="60" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="F142" s="36" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="G142" s="36" t="s">
         <v>530</v>
@@ -12813,7 +13029,7 @@
         <v>95</v>
       </c>
       <c r="I142" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J142" s="46" t="s">
         <v>281</v>
@@ -12821,16 +13037,16 @@
     </row>
     <row r="143" spans="3:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C143" s="59" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D143" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E143" s="60" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="F143" s="36" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="G143" s="36" t="s">
         <v>530</v>
@@ -12839,7 +13055,7 @@
         <v>95</v>
       </c>
       <c r="I143" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J143" s="46" t="s">
         <v>281</v>
@@ -12847,16 +13063,16 @@
     </row>
     <row r="144" spans="3:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C144" s="59" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D144" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E144" s="60" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="F144" s="36" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="G144" s="36" t="s">
         <v>530</v>
@@ -12865,7 +13081,7 @@
         <v>95</v>
       </c>
       <c r="I144" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J144" s="46" t="s">
         <v>281</v>
@@ -12873,16 +13089,16 @@
     </row>
     <row r="145" spans="3:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C145" s="59" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D145" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E145" s="60" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="F145" s="36" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="G145" s="36" t="s">
         <v>530</v>
@@ -12891,7 +13107,7 @@
         <v>95</v>
       </c>
       <c r="I145" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J145" s="46" t="s">
         <v>281</v>
@@ -12899,16 +13115,16 @@
     </row>
     <row r="146" spans="3:10" ht="135" x14ac:dyDescent="0.25">
       <c r="C146" s="59" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D146" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E146" s="60" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="F146" s="36" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="G146" s="36" t="s">
         <v>530</v>
@@ -12917,14 +13133,612 @@
         <v>95</v>
       </c>
       <c r="I146" s="62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J146" s="46" t="s">
         <v>281</v>
       </c>
     </row>
+    <row r="147" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C147" s="105" t="s">
+        <v>895</v>
+      </c>
+      <c r="D147" s="105"/>
+      <c r="E147" s="105"/>
+      <c r="F147" s="105"/>
+      <c r="G147" s="105"/>
+      <c r="H147" s="105"/>
+      <c r="I147" s="105"/>
+      <c r="J147" s="105"/>
+    </row>
+    <row r="148" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C148" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D148" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E148" s="60" t="s">
+        <v>898</v>
+      </c>
+      <c r="F148" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="G148" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H148" s="62" t="s">
+        <v>671</v>
+      </c>
+      <c r="I148" s="62" t="s">
+        <v>671</v>
+      </c>
+      <c r="J148" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="149" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C149" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D149" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E149" s="60" t="s">
+        <v>896</v>
+      </c>
+      <c r="F149" s="36" t="s">
+        <v>897</v>
+      </c>
+      <c r="G149" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H149" s="62" t="s">
+        <v>671</v>
+      </c>
+      <c r="I149" s="62" t="s">
+        <v>671</v>
+      </c>
+      <c r="J149" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="150" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C150" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D150" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E150" s="60" t="s">
+        <v>901</v>
+      </c>
+      <c r="F150" s="36" t="s">
+        <v>900</v>
+      </c>
+      <c r="G150" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H150" s="62" t="s">
+        <v>671</v>
+      </c>
+      <c r="I150" s="62" t="s">
+        <v>671</v>
+      </c>
+      <c r="J150" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="151" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C151" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D151" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E151" s="60" t="s">
+        <v>902</v>
+      </c>
+      <c r="F151" s="36" t="s">
+        <v>900</v>
+      </c>
+      <c r="G151" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H151" s="62" t="s">
+        <v>671</v>
+      </c>
+      <c r="I151" s="62" t="s">
+        <v>671</v>
+      </c>
+      <c r="J151" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="152" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C152" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D152" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E152" s="60" t="s">
+        <v>902</v>
+      </c>
+      <c r="F152" s="36" t="s">
+        <v>900</v>
+      </c>
+      <c r="G152" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H152" s="62" t="s">
+        <v>671</v>
+      </c>
+      <c r="I152" s="62" t="s">
+        <v>671</v>
+      </c>
+      <c r="J152" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="153" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C153" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D153" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E153" s="60" t="s">
+        <v>903</v>
+      </c>
+      <c r="F153" s="36" t="s">
+        <v>904</v>
+      </c>
+      <c r="G153" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H153" s="62" t="s">
+        <v>671</v>
+      </c>
+      <c r="I153" s="62" t="s">
+        <v>671</v>
+      </c>
+      <c r="J153" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="154" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C154" s="105" t="s">
+        <v>905</v>
+      </c>
+      <c r="D154" s="105"/>
+      <c r="E154" s="105"/>
+      <c r="F154" s="105"/>
+      <c r="G154" s="105"/>
+      <c r="H154" s="105"/>
+      <c r="I154" s="105"/>
+      <c r="J154" s="105"/>
+    </row>
+    <row r="155" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C155" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="D155" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E155" s="60" t="s">
+        <v>912</v>
+      </c>
+      <c r="F155" s="36" t="s">
+        <v>909</v>
+      </c>
+      <c r="G155" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H155" s="62" t="s">
+        <v>671</v>
+      </c>
+      <c r="I155" s="62" t="s">
+        <v>671</v>
+      </c>
+      <c r="J155" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="156" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C156" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="D156" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E156" s="60" t="s">
+        <v>911</v>
+      </c>
+      <c r="F156" s="36" t="s">
+        <v>910</v>
+      </c>
+      <c r="G156" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H156" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="I156" s="62" t="s">
+        <v>671</v>
+      </c>
+      <c r="J156" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="157" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C157" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="D157" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E157" s="60" t="s">
+        <v>914</v>
+      </c>
+      <c r="F157" s="36" t="s">
+        <v>913</v>
+      </c>
+      <c r="G157" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H157" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="I157" s="62" t="s">
+        <v>671</v>
+      </c>
+      <c r="J157" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="158" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C158" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="D158" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E158" s="60" t="s">
+        <v>915</v>
+      </c>
+      <c r="F158" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="G158" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H158" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="I158" s="62" t="s">
+        <v>671</v>
+      </c>
+      <c r="J158" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="159" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C159" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="D159" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E159" s="60" t="s">
+        <v>917</v>
+      </c>
+      <c r="F159" s="36" t="s">
+        <v>918</v>
+      </c>
+      <c r="G159" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H159" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="I159" s="62" t="s">
+        <v>671</v>
+      </c>
+      <c r="J159" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="160" spans="3:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="C160" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="D160" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E160" s="60" t="s">
+        <v>920</v>
+      </c>
+      <c r="F160" s="36" t="s">
+        <v>919</v>
+      </c>
+      <c r="G160" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H160" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="I160" s="62" t="s">
+        <v>671</v>
+      </c>
+      <c r="J160" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="161" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C161" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="D161" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E161" s="60" t="s">
+        <v>921</v>
+      </c>
+      <c r="F161" s="36" t="s">
+        <v>922</v>
+      </c>
+      <c r="G161" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H161" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="I161" s="62" t="s">
+        <v>671</v>
+      </c>
+      <c r="J161" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="162" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C162" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="D162" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E162" s="60" t="s">
+        <v>923</v>
+      </c>
+      <c r="F162" s="36" t="s">
+        <v>924</v>
+      </c>
+      <c r="G162" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H162" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="I162" s="62" t="s">
+        <v>671</v>
+      </c>
+      <c r="J162" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="163" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C163" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="D163" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E163" s="60" t="s">
+        <v>925</v>
+      </c>
+      <c r="F163" s="36" t="s">
+        <v>926</v>
+      </c>
+      <c r="G163" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H163" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="I163" s="62" t="s">
+        <v>671</v>
+      </c>
+      <c r="J163" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="164" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C164" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="D164" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E164" s="60" t="s">
+        <v>927</v>
+      </c>
+      <c r="F164" s="36" t="s">
+        <v>928</v>
+      </c>
+      <c r="G164" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H164" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="I164" s="62" t="s">
+        <v>671</v>
+      </c>
+      <c r="J164" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="165" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C165" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="D165" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E165" s="60" t="s">
+        <v>929</v>
+      </c>
+      <c r="F165" s="36" t="s">
+        <v>930</v>
+      </c>
+      <c r="G165" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H165" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="I165" s="62" t="s">
+        <v>671</v>
+      </c>
+      <c r="J165" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="166" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C166" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="D166" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E166" s="60" t="s">
+        <v>931</v>
+      </c>
+      <c r="F166" s="36" t="s">
+        <v>933</v>
+      </c>
+      <c r="G166" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H166" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="I166" s="62" t="s">
+        <v>671</v>
+      </c>
+      <c r="J166" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="167" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C167" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="D167" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E167" s="60" t="s">
+        <v>932</v>
+      </c>
+      <c r="F167" s="36" t="s">
+        <v>935</v>
+      </c>
+      <c r="G167" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H167" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="I167" s="62" t="s">
+        <v>671</v>
+      </c>
+      <c r="J167" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="168" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C168" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="D168" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E168" s="60" t="s">
+        <v>936</v>
+      </c>
+      <c r="F168" s="36" t="s">
+        <v>937</v>
+      </c>
+      <c r="G168" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H168" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="I168" s="62" t="s">
+        <v>671</v>
+      </c>
+      <c r="J168" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="169" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C169" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="D169" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E169" s="60" t="s">
+        <v>939</v>
+      </c>
+      <c r="F169" s="36" t="s">
+        <v>938</v>
+      </c>
+      <c r="G169" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H169" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="I169" s="62" t="s">
+        <v>671</v>
+      </c>
+      <c r="J169" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="170" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C170" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="D170" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E170" s="60" t="s">
+        <v>941</v>
+      </c>
+      <c r="F170" s="36" t="s">
+        <v>940</v>
+      </c>
+      <c r="G170" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="H170" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="I170" s="62" t="s">
+        <v>671</v>
+      </c>
+      <c r="J170" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="C147:J147"/>
+    <mergeCell ref="C154:J154"/>
     <mergeCell ref="C118:J118"/>
     <mergeCell ref="C95:J95"/>
     <mergeCell ref="C84:J84"/>
@@ -13039,35 +13853,57 @@
     <hyperlink ref="C114" location="Требования!R33C1" display="F-11/2"/>
     <hyperlink ref="C115" location="Требования!R33C1" display="F-11/2"/>
     <hyperlink ref="C116" location="Требования!R33C1" display="F-11/2"/>
-    <hyperlink ref="C119" location="Требования!R41C1" display="F-13/2"/>
-    <hyperlink ref="C120" location="Требования!R41C1" display="F-13/2"/>
-    <hyperlink ref="C121" location="Требования!R41C1" display="F-13/2"/>
-    <hyperlink ref="C122" location="Требования!R41C1" display="F-13/2"/>
-    <hyperlink ref="C123" location="Требования!R41C1" display="F-13/2"/>
-    <hyperlink ref="C124" location="Требования!R41C1" display="F-13/2"/>
-    <hyperlink ref="C125" location="Требования!R41C1" display="F-13/2"/>
-    <hyperlink ref="C126" location="Требования!R41C1" display="F-13/2"/>
-    <hyperlink ref="C127" location="Требования!R41C1" display="F-13/2"/>
-    <hyperlink ref="C128" location="Требования!R41C1" display="F-13/2"/>
-    <hyperlink ref="C129" location="Требования!R41C1" display="F-13/2"/>
-    <hyperlink ref="C130" location="Требования!R41C1" display="F-13/2"/>
-    <hyperlink ref="C131" location="Требования!R41C1" display="F-13/2"/>
-    <hyperlink ref="C132" location="Требования!R41C1" display="F-13/2"/>
-    <hyperlink ref="C133" location="Требования!R41C1" display="F-13/2"/>
-    <hyperlink ref="C134" location="Требования!R41C1" display="F-13/2"/>
-    <hyperlink ref="C135" location="Требования!R41C1" display="F-13/2"/>
-    <hyperlink ref="C136" location="Требования!R41C1" display="F-13/2"/>
-    <hyperlink ref="C137" location="Требования!R41C1" display="F-13/2"/>
-    <hyperlink ref="C138" location="Требования!R41C1" display="F-13/2"/>
-    <hyperlink ref="C139" location="Требования!R41C1" display="F-13/2"/>
-    <hyperlink ref="C140" location="Требования!R41C1" display="F-13/2"/>
-    <hyperlink ref="C141" location="Требования!R41C1" display="F-13/2"/>
-    <hyperlink ref="C142" location="Требования!R41C1" display="F-13/2"/>
-    <hyperlink ref="C143" location="Требования!R41C1" display="F-13/2"/>
-    <hyperlink ref="C144" location="Требования!R41C1" display="F-13/2"/>
-    <hyperlink ref="C145" location="Требования!R41C1" display="F-13/2"/>
-    <hyperlink ref="C146" location="Требования!R41C1" display="F-13/2"/>
+    <hyperlink ref="C119" location="Требования!R42C1" display="F-13/3"/>
     <hyperlink ref="C117" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C149" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C148" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C150" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C151" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C152" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C153" location="Требования!R33C1" display="F-11/2"/>
+    <hyperlink ref="C120" location="Требования!R42C1" display="F-13/3"/>
+    <hyperlink ref="C121" location="Требования!R42C1" display="F-13/3"/>
+    <hyperlink ref="C122" location="Требования!R42C1" display="F-13/3"/>
+    <hyperlink ref="C123" location="Требования!R42C1" display="F-13/3"/>
+    <hyperlink ref="C124" location="Требования!R42C1" display="F-13/3"/>
+    <hyperlink ref="C125" location="Требования!R42C1" display="F-13/3"/>
+    <hyperlink ref="C126" location="Требования!R42C1" display="F-13/3"/>
+    <hyperlink ref="C127" location="Требования!R42C1" display="F-13/3"/>
+    <hyperlink ref="C128" location="Требования!R42C1" display="F-13/3"/>
+    <hyperlink ref="C129" location="Требования!R42C1" display="F-13/3"/>
+    <hyperlink ref="C130" location="Требования!R42C1" display="F-13/3"/>
+    <hyperlink ref="C131" location="Требования!R42C1" display="F-13/3"/>
+    <hyperlink ref="C132" location="Требования!R42C1" display="F-13/3"/>
+    <hyperlink ref="C133" location="Требования!R42C1" display="F-13/3"/>
+    <hyperlink ref="C134" location="Требования!R42C1" display="F-13/3"/>
+    <hyperlink ref="C135" location="Требования!R42C1" display="F-13/3"/>
+    <hyperlink ref="C136" location="Требования!R42C1" display="F-13/3"/>
+    <hyperlink ref="C137" location="Требования!R42C1" display="F-13/3"/>
+    <hyperlink ref="C138" location="Требования!R42C1" display="F-13/3"/>
+    <hyperlink ref="C139" location="Требования!R42C1" display="F-13/3"/>
+    <hyperlink ref="C140" location="Требования!R42C1" display="F-13/3"/>
+    <hyperlink ref="C141" location="Требования!R42C1" display="F-13/3"/>
+    <hyperlink ref="C142" location="Требования!R42C1" display="F-13/3"/>
+    <hyperlink ref="C143" location="Требования!R42C1" display="F-13/3"/>
+    <hyperlink ref="C144" location="Требования!R42C1" display="F-13/3"/>
+    <hyperlink ref="C145" location="Требования!R42C1" display="F-13/3"/>
+    <hyperlink ref="C146" location="Требования!R42C1" display="F-13/3"/>
+    <hyperlink ref="C155" location="Требования!R43C1" display="F-13/4"/>
+    <hyperlink ref="C156" location="Требования!R43C1" display="F-13/4"/>
+    <hyperlink ref="C157" location="Требования!R43C1" display="F-13/4"/>
+    <hyperlink ref="C158" location="Требования!R43C1" display="F-13/4"/>
+    <hyperlink ref="C159" location="Требования!R43C1" display="F-13/4"/>
+    <hyperlink ref="C160" location="Требования!R43C1" display="F-13/4"/>
+    <hyperlink ref="C161" location="Требования!R43C1" display="F-13/4"/>
+    <hyperlink ref="C162" location="Требования!R43C1" display="F-13/4"/>
+    <hyperlink ref="C163" location="Требования!R43C1" display="F-13/4"/>
+    <hyperlink ref="C164" location="Требования!R43C1" display="F-13/4"/>
+    <hyperlink ref="C165" location="Требования!R43C1" display="F-13/4"/>
+    <hyperlink ref="C166" location="Требования!R43C1" display="F-13/4"/>
+    <hyperlink ref="C167" location="Требования!R43C1" display="F-13/4"/>
+    <hyperlink ref="C168" location="Требования!R43C1" display="F-13/4"/>
+    <hyperlink ref="C169" location="Требования!R43C1" display="F-13/4"/>
+    <hyperlink ref="C170" location="Требования!R43C1" display="F-13/4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13078,8 +13914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13112,7 +13948,7 @@
         <v>574</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>586</v>
@@ -13127,7 +13963,7 @@
         <v>574</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>586</v>
@@ -13142,7 +13978,7 @@
         <v>574</v>
       </c>
       <c r="C4" s="74" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D4" s="74" t="s">
         <v>586</v>
@@ -13157,7 +13993,7 @@
         <v>574</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>586</v>
@@ -13172,14 +14008,14 @@
         <v>574</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>586</v>
       </c>
       <c r="E6" s="76"/>
       <c r="I6" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -13190,7 +14026,7 @@
         <v>574</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>586</v>
@@ -13205,7 +14041,7 @@
         <v>574</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>586</v>
@@ -13220,7 +14056,7 @@
         <v>574</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>586</v>
@@ -13235,7 +14071,7 @@
         <v>574</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D10" s="28" t="s">
         <v>586</v>
@@ -13250,7 +14086,7 @@
         <v>574</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>586</v>
@@ -13265,7 +14101,7 @@
         <v>574</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>586</v>
@@ -13280,7 +14116,7 @@
         <v>574</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>586</v>
@@ -13295,7 +14131,7 @@
         <v>574</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D14" s="28" t="s">
         <v>586</v>
@@ -13310,7 +14146,7 @@
         <v>574</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>586</v>
@@ -13325,7 +14161,7 @@
         <v>574</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D16" s="28" t="s">
         <v>586</v>
@@ -13340,7 +14176,7 @@
         <v>574</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D17" s="28" t="s">
         <v>586</v>
@@ -13355,7 +14191,7 @@
         <v>574</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>586</v>
@@ -13370,7 +14206,7 @@
         <v>574</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D19" s="28" t="s">
         <v>586</v>
@@ -13385,7 +14221,7 @@
         <v>574</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D20" s="28" t="s">
         <v>586</v>
@@ -13400,7 +14236,7 @@
         <v>572</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D21" s="28" t="s">
         <v>586</v>
@@ -13415,7 +14251,7 @@
         <v>573</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D22" s="28" t="s">
         <v>586</v>
@@ -13430,7 +14266,7 @@
         <v>575</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D23" s="28" t="s">
         <v>586</v>
@@ -13445,7 +14281,7 @@
         <v>576</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D24" s="28" t="s">
         <v>586</v>
@@ -13460,7 +14296,7 @@
         <v>577</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D25" s="28" t="s">
         <v>586</v>
@@ -13475,7 +14311,7 @@
         <v>578</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D26" s="28" t="s">
         <v>586</v>
@@ -13490,7 +14326,7 @@
         <v>579</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D27" s="28" t="s">
         <v>586</v>
@@ -13505,7 +14341,7 @@
         <v>580</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D28" s="28" t="s">
         <v>586</v>
@@ -13520,7 +14356,7 @@
         <v>581</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D29" s="28" t="s">
         <v>586</v>
@@ -13535,7 +14371,7 @@
         <v>582</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D30" s="28" t="s">
         <v>586</v>
@@ -13550,7 +14386,7 @@
         <v>564</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D31" s="28" t="s">
         <v>586</v>
@@ -13565,7 +14401,7 @@
         <v>583</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D32" s="28" t="s">
         <v>586</v>
@@ -13580,7 +14416,7 @@
         <v>566</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D33" s="28" t="s">
         <v>586</v>
@@ -13595,7 +14431,7 @@
         <v>567</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D34" s="28" t="s">
         <v>586</v>
@@ -13610,7 +14446,7 @@
         <v>568</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D35" s="28" t="s">
         <v>586</v>
@@ -13625,7 +14461,7 @@
         <v>584</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D36" s="28" t="s">
         <v>586</v>
@@ -13640,7 +14476,7 @@
         <v>585</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D37" s="28" t="s">
         <v>586</v>
@@ -13652,10 +14488,10 @@
         <v>554</v>
       </c>
       <c r="B38" s="67" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D38" s="28" t="s">
         <v>586</v>
@@ -13670,7 +14506,7 @@
         <v>574</v>
       </c>
       <c r="C39" s="63" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D39" s="28" t="s">
         <v>586</v>
@@ -13684,7 +14520,7 @@
         <v>574</v>
       </c>
       <c r="C40" s="81" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D40" s="28" t="s">
         <v>586</v>
@@ -13698,7 +14534,7 @@
         <v>574</v>
       </c>
       <c r="C41" s="82" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D41" s="28" t="s">
         <v>586</v>
@@ -13713,7 +14549,7 @@
         <v>574</v>
       </c>
       <c r="C42" s="82" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D42" s="28" t="s">
         <v>586</v>
@@ -13728,7 +14564,7 @@
         <v>574</v>
       </c>
       <c r="C43" s="82" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D43" s="28" t="s">
         <v>586</v>
@@ -13743,7 +14579,7 @@
         <v>574</v>
       </c>
       <c r="C44" s="82" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D44" s="28" t="s">
         <v>586</v>
@@ -13758,7 +14594,7 @@
         <v>574</v>
       </c>
       <c r="C45" s="82" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D45" s="28" t="s">
         <v>586</v>
@@ -13773,7 +14609,7 @@
         <v>574</v>
       </c>
       <c r="C46" s="82" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D46" s="28" t="s">
         <v>586</v>
@@ -13788,7 +14624,7 @@
         <v>574</v>
       </c>
       <c r="C47" s="83" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D47" s="28" t="s">
         <v>586</v>
@@ -13803,7 +14639,7 @@
         <v>574</v>
       </c>
       <c r="C48" s="63" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D48" s="28" t="s">
         <v>586</v>
@@ -13818,7 +14654,7 @@
         <v>574</v>
       </c>
       <c r="C49" s="63" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D49" s="28" t="s">
         <v>586</v>
@@ -13833,7 +14669,7 @@
         <v>574</v>
       </c>
       <c r="C50" s="63" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D50" s="28" t="s">
         <v>586</v>
@@ -13878,7 +14714,7 @@
         <v>574</v>
       </c>
       <c r="C53" s="81" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D53" s="28" t="s">
         <v>586</v>
@@ -13893,7 +14729,7 @@
         <v>574</v>
       </c>
       <c r="C54" s="81" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D54" s="28" t="s">
         <v>586</v>
@@ -13908,7 +14744,7 @@
         <v>574</v>
       </c>
       <c r="C55" s="81" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D55" s="28" t="s">
         <v>586</v>
@@ -13923,7 +14759,7 @@
         <v>574</v>
       </c>
       <c r="C56" s="82" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D56" s="28" t="s">
         <v>586</v>
@@ -13944,7 +14780,7 @@
         <v>574</v>
       </c>
       <c r="C58" s="82" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D58" s="28" t="s">
         <v>586</v>
@@ -13959,7 +14795,7 @@
         <v>574</v>
       </c>
       <c r="C59" s="84" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D59" s="28" t="s">
         <v>586</v>
@@ -13974,7 +14810,7 @@
         <v>574</v>
       </c>
       <c r="C60" s="84" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D60" s="28" t="s">
         <v>586</v>
@@ -13989,7 +14825,7 @@
         <v>574</v>
       </c>
       <c r="C61" s="85" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D61" s="28" t="s">
         <v>586</v>
@@ -14004,7 +14840,7 @@
         <v>574</v>
       </c>
       <c r="C62" s="85" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D62" s="28" t="s">
         <v>586</v>
@@ -14019,7 +14855,7 @@
         <v>574</v>
       </c>
       <c r="C63" s="85" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D63" s="28" t="s">
         <v>586</v>
@@ -14034,7 +14870,7 @@
         <v>574</v>
       </c>
       <c r="C64" s="85" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D64" s="28" t="s">
         <v>586</v>
@@ -14049,7 +14885,7 @@
         <v>574</v>
       </c>
       <c r="C65" s="85" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D65" s="28" t="s">
         <v>586</v>
@@ -14064,7 +14900,7 @@
         <v>574</v>
       </c>
       <c r="C66" s="84" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D66" s="28" t="s">
         <v>586</v>
@@ -14079,7 +14915,7 @@
         <v>574</v>
       </c>
       <c r="C67" s="85" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D67" s="28" t="s">
         <v>586</v>
@@ -14094,7 +14930,7 @@
         <v>574</v>
       </c>
       <c r="C68" s="81" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D68" s="28" t="s">
         <v>586</v>
@@ -14109,7 +14945,7 @@
         <v>574</v>
       </c>
       <c r="C69" s="84" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D69" s="28" t="s">
         <v>586</v>
@@ -14124,7 +14960,7 @@
         <v>574</v>
       </c>
       <c r="C70" s="84" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D70" s="28" t="s">
         <v>586</v>
@@ -14139,7 +14975,7 @@
         <v>574</v>
       </c>
       <c r="C71" s="84" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D71" s="28" t="s">
         <v>586</v>
@@ -14154,7 +14990,7 @@
         <v>574</v>
       </c>
       <c r="C72" s="84" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D72" s="28" t="s">
         <v>586</v>
@@ -14169,7 +15005,7 @@
         <v>574</v>
       </c>
       <c r="C73" s="84" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D73" s="28" t="s">
         <v>586</v>
@@ -14184,7 +15020,7 @@
         <v>574</v>
       </c>
       <c r="C74" s="85" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D74" s="28" t="s">
         <v>586</v>
@@ -14199,7 +15035,7 @@
         <v>574</v>
       </c>
       <c r="C75" s="85" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D75" s="28" t="s">
         <v>586</v>
@@ -14220,7 +15056,7 @@
         <v>574</v>
       </c>
       <c r="C77" s="84" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D77" s="28" t="s">
         <v>586</v>
@@ -14235,7 +15071,7 @@
         <v>574</v>
       </c>
       <c r="C78" s="84" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D78" s="28" t="s">
         <v>586</v>
@@ -14250,7 +15086,7 @@
         <v>574</v>
       </c>
       <c r="C79" s="85" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D79" s="28" t="s">
         <v>586</v>
@@ -14265,7 +15101,7 @@
         <v>574</v>
       </c>
       <c r="C80" s="85" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D80" s="28" t="s">
         <v>586</v>
@@ -14280,7 +15116,7 @@
         <v>574</v>
       </c>
       <c r="C81" s="85" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D81" s="28" t="s">
         <v>586</v>
@@ -14295,7 +15131,7 @@
         <v>574</v>
       </c>
       <c r="C82" s="84" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D82" s="28" t="s">
         <v>586</v>
@@ -14310,7 +15146,7 @@
         <v>574</v>
       </c>
       <c r="C83" s="84" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D83" s="28" t="s">
         <v>586</v>
@@ -14325,7 +15161,7 @@
         <v>574</v>
       </c>
       <c r="C84" s="84" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D84" s="28" t="s">
         <v>586</v>
@@ -14346,7 +15182,7 @@
         <v>574</v>
       </c>
       <c r="C86" s="84" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D86" s="28" t="s">
         <v>586</v>
@@ -14361,7 +15197,7 @@
         <v>574</v>
       </c>
       <c r="C87" s="84" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D87" s="28" t="s">
         <v>586</v>
@@ -14376,7 +15212,7 @@
         <v>574</v>
       </c>
       <c r="C88" s="84" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D88" s="28" t="s">
         <v>586</v>
@@ -14391,7 +15227,7 @@
         <v>574</v>
       </c>
       <c r="C89" s="84" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D89" s="28" t="s">
         <v>586</v>
@@ -14405,7 +15241,7 @@
         <v>574</v>
       </c>
       <c r="C90" s="84" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D90" s="28" t="s">
         <v>586</v>
@@ -14419,7 +15255,7 @@
         <v>574</v>
       </c>
       <c r="C91" s="84" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D91" s="28" t="s">
         <v>586</v>
@@ -14433,7 +15269,7 @@
         <v>574</v>
       </c>
       <c r="C92" s="63" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D92" s="28" t="s">
         <v>586</v>
@@ -14448,7 +15284,7 @@
         <v>574</v>
       </c>
       <c r="C93" s="63" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D93" s="28" t="s">
         <v>586</v>
@@ -14463,7 +15299,7 @@
         <v>574</v>
       </c>
       <c r="C94" s="82" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D94" s="28" t="s">
         <v>586</v>
@@ -14478,11 +15314,12 @@
         <v>574</v>
       </c>
       <c r="C95" s="81" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D95" s="28" t="s">
         <v>586</v>
       </c>
+      <c r="E95" s="76"/>
     </row>
     <row r="96" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="64" t="s">
@@ -14492,13 +15329,14 @@
         <v>574</v>
       </c>
       <c r="C96" s="82" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D96" s="28" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E96" s="76"/>
+    </row>
+    <row r="97" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="64" t="s">
         <v>554</v>
       </c>
@@ -14506,13 +15344,14 @@
         <v>574</v>
       </c>
       <c r="C97" s="28" t="s">
-        <v>620</v>
-      </c>
-      <c r="D97" s="86" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+      <c r="D97" s="85" t="s">
+        <v>610</v>
+      </c>
+      <c r="E97" s="76"/>
+    </row>
+    <row r="98" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="64" t="s">
         <v>554</v>
       </c>
@@ -14520,13 +15359,14 @@
         <v>574</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>620</v>
-      </c>
-      <c r="D98" s="86" t="s">
+        <v>618</v>
+      </c>
+      <c r="D98" s="85" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" s="76"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="64" t="s">
         <v>554</v>
       </c>
@@ -14534,13 +15374,14 @@
         <v>574</v>
       </c>
       <c r="C99" s="28" t="s">
-        <v>620</v>
-      </c>
-      <c r="D99" s="86" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+      <c r="D99" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="E99" s="76"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="64" t="s">
         <v>554</v>
       </c>
@@ -14548,13 +15389,14 @@
         <v>574</v>
       </c>
       <c r="C100" s="28" t="s">
-        <v>620</v>
-      </c>
-      <c r="D100" s="86" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+      <c r="D100" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="E100" s="76"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="64" t="s">
         <v>554</v>
       </c>
@@ -14562,13 +15404,14 @@
         <v>574</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D101" s="86" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+      <c r="E101" s="76"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="64" t="s">
         <v>554</v>
       </c>
@@ -14576,13 +15419,14 @@
         <v>574</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>620</v>
-      </c>
-      <c r="D102" s="63" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+      <c r="D102" s="84" t="s">
+        <v>611</v>
+      </c>
+      <c r="E102" s="76"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="64" t="s">
         <v>554</v>
       </c>
@@ -14590,13 +15434,14 @@
         <v>574</v>
       </c>
       <c r="C103" s="28" t="s">
-        <v>620</v>
-      </c>
-      <c r="D103" s="63" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+      <c r="D103" s="84" t="s">
+        <v>612</v>
+      </c>
+      <c r="E103" s="76"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="64" t="s">
         <v>554</v>
       </c>
@@ -14604,13 +15449,14 @@
         <v>574</v>
       </c>
       <c r="C104" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D104" s="63" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104" s="76"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="64" t="s">
         <v>554</v>
       </c>
@@ -14618,13 +15464,14 @@
         <v>574</v>
       </c>
       <c r="C105" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D105" s="63" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105" s="76"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="64" t="s">
         <v>554</v>
       </c>
@@ -14632,13 +15479,14 @@
         <v>574</v>
       </c>
       <c r="C106" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D106" s="63">
         <v>12345678</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E106" s="76"/>
+    </row>
+    <row r="107" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="64" t="s">
         <v>554</v>
       </c>
@@ -14646,13 +15494,14 @@
         <v>574</v>
       </c>
       <c r="C107" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D107" s="67" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E107" s="76"/>
+    </row>
+    <row r="108" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="64" t="s">
         <v>554</v>
       </c>
@@ -14660,13 +15509,14 @@
         <v>574</v>
       </c>
       <c r="C108" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D108" s="67" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E108" s="76"/>
+    </row>
+    <row r="109" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="64" t="s">
         <v>554</v>
       </c>
@@ -14674,13 +15524,14 @@
         <v>574</v>
       </c>
       <c r="C109" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D109" s="67" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109" s="76"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="64" t="s">
         <v>554</v>
       </c>
@@ -14688,13 +15539,14 @@
         <v>574</v>
       </c>
       <c r="C110" s="28" t="s">
-        <v>620</v>
-      </c>
-      <c r="D110" s="63" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+      <c r="D110" s="84" t="s">
+        <v>606</v>
+      </c>
+      <c r="E110" s="76"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="64" t="s">
         <v>554</v>
       </c>
@@ -14702,13 +15554,14 @@
         <v>574</v>
       </c>
       <c r="C111" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D111" s="63" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <v>791</v>
+      </c>
+      <c r="E111" s="76"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="64" t="s">
         <v>554</v>
       </c>
@@ -14716,13 +15569,14 @@
         <v>574</v>
       </c>
       <c r="C112" s="28" t="s">
-        <v>620</v>
-      </c>
-      <c r="D112" s="63" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+      <c r="D112" s="84" t="s">
+        <v>607</v>
+      </c>
+      <c r="E112" s="76"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="64" t="s">
         <v>554</v>
       </c>
@@ -14730,13 +15584,14 @@
         <v>574</v>
       </c>
       <c r="C113" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D113" s="68" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+        <v>934</v>
+      </c>
+      <c r="E113" s="76"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="64" t="s">
         <v>554</v>
       </c>
@@ -14744,13 +15599,14 @@
         <v>574</v>
       </c>
       <c r="C114" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D114" s="69" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+        <v>609</v>
+      </c>
+      <c r="E114" s="76"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="64" t="s">
         <v>554</v>
       </c>
@@ -14758,13 +15614,14 @@
         <v>574</v>
       </c>
       <c r="C115" s="28" t="s">
-        <v>620</v>
-      </c>
-      <c r="D115" s="63" t="s">
+        <v>618</v>
+      </c>
+      <c r="D115" s="84" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115" s="76"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="64" t="s">
         <v>554</v>
       </c>
@@ -14772,13 +15629,14 @@
         <v>574</v>
       </c>
       <c r="C116" s="28" t="s">
-        <v>620</v>
-      </c>
-      <c r="D116" s="63" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+      <c r="D116" s="84" t="s">
+        <v>792</v>
+      </c>
+      <c r="E116" s="76"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="64" t="s">
         <v>554</v>
       </c>
@@ -14786,10 +15644,10 @@
         <v>574</v>
       </c>
       <c r="C117" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D117" s="63" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
   </sheetData>
@@ -14840,6 +15698,16 @@
     <hyperlink ref="C95" r:id="rId44"/>
     <hyperlink ref="C96" r:id="rId45"/>
     <hyperlink ref="C46" r:id="rId46"/>
+    <hyperlink ref="D97" r:id="rId47"/>
+    <hyperlink ref="D98" r:id="rId48"/>
+    <hyperlink ref="D99" r:id="rId49"/>
+    <hyperlink ref="D100" r:id="rId50"/>
+    <hyperlink ref="D102" r:id="rId51"/>
+    <hyperlink ref="D103" r:id="rId52"/>
+    <hyperlink ref="D110" r:id="rId53"/>
+    <hyperlink ref="D112" r:id="rId54"/>
+    <hyperlink ref="D115" r:id="rId55"/>
+    <hyperlink ref="D116" r:id="rId56"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15040,16 +15908,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="70" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C2" s="70" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D2" s="70" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E2" s="70" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -15057,19 +15925,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="70" t="s">
+        <v>613</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>614</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>614</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>614</v>
+      </c>
+      <c r="G3" s="107" t="s">
         <v>615</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>616</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>616</v>
-      </c>
-      <c r="E3" s="46" t="s">
-        <v>616</v>
-      </c>
-      <c r="G3" s="107" t="s">
-        <v>617</v>
       </c>
       <c r="H3" s="108"/>
       <c r="I3" s="108"/>
@@ -15080,7 +15948,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="70" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C4" s="71" t="s">
         <v>564</v>
@@ -15101,16 +15969,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D5" s="71" t="s">
         <v>564</v>
       </c>
       <c r="E5" s="70" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G5" s="108"/>
       <c r="H5" s="108"/>
@@ -15122,16 +15990,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C6" s="71" t="s">
         <v>564</v>
       </c>
       <c r="D6" s="70" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G6" s="108"/>
       <c r="H6" s="108"/>
@@ -15143,13 +16011,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E7" s="71" t="s">
         <v>564</v>
@@ -15170,10 +16038,10 @@
         <v>564</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E8" s="70" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G8" s="108"/>
       <c r="H8" s="108"/>
@@ -15188,13 +16056,13 @@
         <v>564</v>
       </c>
       <c r="C9" s="70" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D9" s="71" t="s">
         <v>564</v>
       </c>
       <c r="E9" s="46" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -15205,10 +16073,10 @@
         <v>564</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D10" s="70" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E10" s="71" t="s">
         <v>564</v>

--- a/webform_testing.xlsx
+++ b/webform_testing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Требования" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2730" uniqueCount="982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2818" uniqueCount="1021">
   <si>
     <t>Требования к
 https://itcareer.pythonanywhere.com/</t>
@@ -1648,9 +1648,6 @@
     <t>Ввод количества символов больше допустимого в поле Password</t>
   </si>
   <si>
-    <t xml:space="preserve">Поле не изменяет свое состояние вводе количества символов больше допустимого </t>
-  </si>
-  <si>
     <t xml:space="preserve">1.Ввести в поле Email:testing@mail.ruuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuu
 </t>
   </si>
@@ -1663,9 +1660,6 @@
   </si>
   <si>
     <t>Password: Qwerty@123</t>
-  </si>
-  <si>
-    <t>1.Ввести в поле Password:qwerty12312312312312312312312313123123123123121231231231231231231231231231231231231231231231231231231231231231231</t>
   </si>
   <si>
     <t>Ввод количества символов,
@@ -4448,9 +4442,6 @@
     <t>Заголовок веб-страницы "Demo Form",  вместо "Registration form"</t>
   </si>
   <si>
-    <t>Несоответветствует протокол передачи данных</t>
-  </si>
-  <si>
     <t>Major</t>
   </si>
   <si>
@@ -4606,6 +4597,145 @@
   </si>
   <si>
     <t>Плейсхолдер  должен называтся "Surname*"</t>
+  </si>
+  <si>
+    <t>Несоответсвие плейсхолдера для поля Email</t>
+  </si>
+  <si>
+    <t>1. Проверить плейсхолдер для поля Email</t>
+  </si>
+  <si>
+    <t>Плейсхолдер  называется "Your email address."</t>
+  </si>
+  <si>
+    <t>Плейсхолдер  должен называтся "Email  *"</t>
+  </si>
+  <si>
+    <t>BR-10</t>
+  </si>
+  <si>
+    <t>Плейсхолдер  называется  "Enter your password."</t>
+  </si>
+  <si>
+    <t>Плейсхолдер  должен называтся  "Password *"</t>
+  </si>
+  <si>
+    <t>Несоответсвие плейсхолдера для поля Password</t>
+  </si>
+  <si>
+    <t>1. Проверить плейсхолдер для поля Password</t>
+  </si>
+  <si>
+    <t>BR-11</t>
+  </si>
+  <si>
+    <t>BR-12</t>
+  </si>
+  <si>
+    <t>Протокол передачи данных не является защищенным</t>
+  </si>
+  <si>
+    <t>1.Кликнуть на поля Name, Surname, Email, Password</t>
+  </si>
+  <si>
+    <t>Поле не подсвечивается голубой тенью, при наведении на него</t>
+  </si>
+  <si>
+    <t>Плейсходер не пропадает с поля, при клике на него</t>
+  </si>
+  <si>
+    <t>BR-13</t>
+  </si>
+  <si>
+    <t>Поле не изменяет свое состояние</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поле не изменяет свое состояние </t>
+  </si>
+  <si>
+    <t>1.Ввести в поле Name: Testttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttt</t>
+  </si>
+  <si>
+    <t>Поле Name подсвечивается красной тенью</t>
+  </si>
+  <si>
+    <t>Поля подсвечиваются голубой тенью</t>
+  </si>
+  <si>
+    <t>BR-14</t>
+  </si>
+  <si>
+    <t>BR-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поле Name не подсвечивается красной тенью при вводе количества символов больше допустимого </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поле Surname не подсвечивается красной тенью при вводе количества символов больше допустимого </t>
+  </si>
+  <si>
+    <t>Поле Surname подсвечивается красной тенью</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поле Email не подсвечивается красной тенью при вводе количества символов больше допустимого </t>
+  </si>
+  <si>
+    <t>1.Ввести в поле Surname: Nurmalovttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttt</t>
+  </si>
+  <si>
+    <t>1.Ввести в поле Email: testing@mail.ruuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuu</t>
+  </si>
+  <si>
+    <t>Поле Email подсвечивается красной тенью</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поле Password не подсвечивается красной тенью при вводе количества символов больше допустимого </t>
+  </si>
+  <si>
+    <t>Поле Password подсвечивается красной тенью</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поле не изменяют свое состояние  вводе количества символов больше допустимого </t>
+  </si>
+  <si>
+    <t>1.Ввести в поле Password: Qwerty@1231231231231231231231231312312312312312123123123123123123123123123123123123123123123123123123123123123123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не отображается валидационное сообщение, при отправке пустого поля Email </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не отображается валидационное сообщение, при отправке пустого поля Password </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кнопка Submit не изменяет своего состояние при отправке запроса нажатием клавишей "Enter" </t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email:testing@mail.ru
+Password: Qwerty@123
+2. Нажать на клавишу "Enter"</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Email:testing@mail.ru
+2. Нажать на клавишу "Enter"</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name: Test
+Surame: Nurmalov
+Password: Qwerty@123
+2. Нажать на клавишу "Enter"</t>
+  </si>
+  <si>
+    <t>Кнопка "Submit"  меняет цвет на темно-зеленый , запрос отправляется на сервер</t>
+  </si>
+  <si>
+    <t>Кнопка "Submit"  не изменяет своего состояние , запрос отправляется на сервер</t>
   </si>
 </sst>
 </file>
@@ -5200,6 +5330,20 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5251,10 +5395,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5262,20 +5406,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5858,6 +5988,171 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>639535</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2975881</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>5443</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Рисунок 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13593535" y="9960429"/>
+          <a:ext cx="2336346" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>606136</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85424</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2944091</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Рисунок 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13577454" y="10788060"/>
+          <a:ext cx="2337955" cy="867077"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>503465</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3020786</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>926646</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Рисунок 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13457465" y="12695464"/>
+          <a:ext cx="2517321" cy="790575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6151,7 +6446,7 @@
   <dimension ref="A1:D95"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6162,11 +6457,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
@@ -6183,7 +6478,7 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="99" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -6194,7 +6489,7 @@
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="94"/>
+      <c r="B4" s="100"/>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
@@ -6203,7 +6498,7 @@
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="94"/>
+      <c r="B5" s="100"/>
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
@@ -6212,7 +6507,7 @@
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="95"/>
+      <c r="B6" s="101"/>
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
@@ -6221,7 +6516,7 @@
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="102" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -6232,7 +6527,7 @@
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="94"/>
+      <c r="B8" s="100"/>
       <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
@@ -6241,7 +6536,7 @@
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="95"/>
+      <c r="B9" s="101"/>
       <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
@@ -6294,10 +6589,10 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="86"/>
+      <c r="C14" s="92"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -6315,7 +6610,7 @@
       <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="102" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -6326,7 +6621,7 @@
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="94"/>
+      <c r="B17" s="100"/>
       <c r="C17" s="4" t="s">
         <v>39</v>
       </c>
@@ -6335,7 +6630,7 @@
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="95"/>
+      <c r="B18" s="101"/>
       <c r="C18" s="4" t="s">
         <v>41</v>
       </c>
@@ -6344,7 +6639,7 @@
       <c r="A19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="97" t="s">
+      <c r="B19" s="103" t="s">
         <v>43</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -6355,7 +6650,7 @@
       <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="97"/>
+      <c r="B20" s="103"/>
       <c r="C20" s="4" t="s">
         <v>46</v>
       </c>
@@ -6364,7 +6659,7 @@
       <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="97"/>
+      <c r="B21" s="103"/>
       <c r="C21" s="4" t="s">
         <v>48</v>
       </c>
@@ -6373,7 +6668,7 @@
       <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="97"/>
+      <c r="B22" s="103"/>
       <c r="C22" s="4" t="s">
         <v>50</v>
       </c>
@@ -6688,10 +6983,10 @@
     </row>
     <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
-      <c r="B51" s="83" t="s">
+      <c r="B51" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="C51" s="84"/>
+      <c r="C51" s="90"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -6805,10 +7100,10 @@
     </row>
     <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12"/>
-      <c r="B62" s="85" t="s">
+      <c r="B62" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="C62" s="86"/>
+      <c r="C62" s="92"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -6922,10 +7217,10 @@
     </row>
     <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="14"/>
-      <c r="B73" s="87" t="s">
+      <c r="B73" s="93" t="s">
         <v>169</v>
       </c>
-      <c r="C73" s="88"/>
+      <c r="C73" s="94"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
@@ -7050,10 +7345,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="15"/>
-      <c r="B85" s="89" t="s">
+      <c r="B85" s="95" t="s">
         <v>188</v>
       </c>
-      <c r="C85" s="90"/>
+      <c r="C85" s="96"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
@@ -7204,11 +7499,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="105" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
@@ -7216,11 +7511,11 @@
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="105" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
@@ -7228,16 +7523,16 @@
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="104" t="s">
         <v>263</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
     </row>
     <row r="4" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
@@ -7276,16 +7571,16 @@
         <v>81</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E5" s="33" t="s">
         <v>272</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H5" s="38" t="s">
         <v>277</v>
@@ -7302,7 +7597,7 @@
         <v>87</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E6" s="33" t="s">
         <v>274</v>
@@ -7328,7 +7623,7 @@
         <v>101</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E7" s="33" t="s">
         <v>275</v>
@@ -7354,7 +7649,7 @@
         <v>101</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E8" s="35" t="s">
         <v>276</v>
@@ -7370,16 +7665,16 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="98" t="s">
+      <c r="A9" s="104" t="s">
         <v>280</v>
       </c>
-      <c r="B9" s="98"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
     </row>
     <row r="10" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
@@ -7392,16 +7687,16 @@
         <v>81</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H10" s="38" t="s">
         <v>277</v>
@@ -7418,7 +7713,7 @@
         <v>90</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E11" s="43" t="s">
         <v>290</v>
@@ -7444,10 +7739,10 @@
         <v>103</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>92</v>
@@ -7470,10 +7765,10 @@
         <v>103</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>92</v>
@@ -7486,16 +7781,16 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="98" t="s">
+      <c r="A14" s="104" t="s">
         <v>289</v>
       </c>
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
     </row>
     <row r="15" spans="1:8" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
@@ -7508,16 +7803,16 @@
         <v>81</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E15" s="35" t="s">
         <v>293</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H15" s="38" t="s">
         <v>277</v>
@@ -7534,7 +7829,7 @@
         <v>93</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E16" s="35" t="s">
         <v>302</v>
@@ -7543,7 +7838,7 @@
         <v>95</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H16" s="39" t="s">
         <v>279</v>
@@ -7560,7 +7855,7 @@
         <v>105</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E17" s="35" t="s">
         <v>298</v>
@@ -7569,7 +7864,7 @@
         <v>95</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H17" s="39" t="s">
         <v>279</v>
@@ -7586,7 +7881,7 @@
         <v>105</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E18" s="35" t="s">
         <v>300</v>
@@ -7595,7 +7890,7 @@
         <v>95</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H18" s="39" t="s">
         <v>279</v>
@@ -7612,7 +7907,7 @@
         <v>93</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E19" s="35" t="s">
         <v>304</v>
@@ -7621,7 +7916,7 @@
         <v>95</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H19" s="39" t="s">
         <v>279</v>
@@ -7638,7 +7933,7 @@
         <v>105</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E20" s="35" t="s">
         <v>306</v>
@@ -7647,7 +7942,7 @@
         <v>95</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H20" s="39" t="s">
         <v>279</v>
@@ -7664,7 +7959,7 @@
         <v>105</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E21" s="35" t="s">
         <v>308</v>
@@ -7673,7 +7968,7 @@
         <v>95</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H21" s="39" t="s">
         <v>279</v>
@@ -7690,7 +7985,7 @@
         <v>93</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E22" s="35" t="s">
         <v>310</v>
@@ -7699,7 +7994,7 @@
         <v>95</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H22" s="39" t="s">
         <v>279</v>
@@ -7716,7 +8011,7 @@
         <v>105</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E23" s="35" t="s">
         <v>312</v>
@@ -7725,7 +8020,7 @@
         <v>95</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H23" s="39" t="s">
         <v>279</v>
@@ -7742,7 +8037,7 @@
         <v>105</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E24" s="35" t="s">
         <v>314</v>
@@ -7751,7 +8046,7 @@
         <v>95</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H24" s="39" t="s">
         <v>279</v>
@@ -7768,7 +8063,7 @@
         <v>105</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E25" s="35" t="s">
         <v>370</v>
@@ -7777,23 +8072,23 @@
         <v>95</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H25" s="39" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="98" t="s">
+      <c r="A26" s="104" t="s">
         <v>315</v>
       </c>
-      <c r="B26" s="98"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="98"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="104"/>
     </row>
     <row r="27" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
@@ -7806,16 +8101,16 @@
         <v>81</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H27" s="38" t="s">
         <v>277</v>
@@ -7832,7 +8127,7 @@
         <v>96</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E28" s="33" t="s">
         <v>332</v>
@@ -7841,7 +8136,7 @@
         <v>98</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H28" s="39" t="s">
         <v>279</v>
@@ -7858,16 +8153,16 @@
         <v>107</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>98</v>
       </c>
       <c r="G29" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H29" s="39" t="s">
         <v>279</v>
@@ -7884,16 +8179,16 @@
         <v>107</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>98</v>
       </c>
       <c r="G30" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H30" s="39" t="s">
         <v>279</v>
@@ -8250,11 +8545,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="105" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
@@ -8262,11 +8557,11 @@
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="105" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
@@ -8274,16 +8569,16 @@
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="104" t="s">
         <v>335</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
     </row>
     <row r="4" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
@@ -8322,7 +8617,7 @@
         <v>81</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E5" s="33" t="s">
         <v>338</v>
@@ -8331,7 +8626,7 @@
         <v>278</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H5" s="39" t="s">
         <v>279</v>
@@ -8348,13 +8643,13 @@
         <v>81</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E6" s="33" t="s">
         <v>341</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>278</v>
@@ -8374,7 +8669,7 @@
         <v>81</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E7" s="35" t="s">
         <v>343</v>
@@ -8400,13 +8695,13 @@
         <v>81</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E8" s="35" t="s">
         <v>345</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>278</v>
@@ -8426,7 +8721,7 @@
         <v>101</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E9" s="33" t="s">
         <v>275</v>
@@ -8452,7 +8747,7 @@
         <v>101</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E10" s="35" t="s">
         <v>276</v>
@@ -8468,16 +8763,16 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="98" t="s">
+      <c r="A11" s="104" t="s">
         <v>346</v>
       </c>
-      <c r="B11" s="98"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
     </row>
     <row r="12" spans="1:8" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
@@ -8490,16 +8785,16 @@
         <v>81</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="H12" s="38" t="s">
         <v>277</v>
@@ -8516,16 +8811,16 @@
         <v>81</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="H13" s="38" t="s">
         <v>277</v>
@@ -8542,13 +8837,13 @@
         <v>81</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="G14" s="36" t="s">
         <v>366</v>
@@ -8568,13 +8863,13 @@
         <v>81</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>278</v>
@@ -8594,10 +8889,10 @@
         <v>103</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>92</v>
@@ -8620,32 +8915,32 @@
         <v>103</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H17" s="39" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="98" t="s">
+      <c r="A18" s="104" t="s">
         <v>371</v>
       </c>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="98"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
     </row>
     <row r="19" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
@@ -8658,16 +8953,16 @@
         <v>81</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E19" s="35" t="s">
         <v>373</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H19" s="38" t="s">
         <v>277</v>
@@ -8684,16 +8979,16 @@
         <v>81</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E20" s="35" t="s">
         <v>376</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H20" s="38" t="s">
         <v>277</v>
@@ -8710,16 +9005,16 @@
         <v>81</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E21" s="35" t="s">
         <v>379</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H21" s="38" t="s">
         <v>277</v>
@@ -8736,16 +9031,16 @@
         <v>81</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E22" s="35" t="s">
         <v>381</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H22" s="38" t="s">
         <v>277</v>
@@ -8762,7 +9057,7 @@
         <v>105</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E23" s="35" t="s">
         <v>384</v>
@@ -8771,7 +9066,7 @@
         <v>95</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H23" s="39" t="s">
         <v>279</v>
@@ -8788,7 +9083,7 @@
         <v>105</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E24" s="35" t="s">
         <v>388</v>
@@ -8797,7 +9092,7 @@
         <v>95</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H24" s="39" t="s">
         <v>279</v>
@@ -8814,16 +9109,16 @@
         <v>81</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E25" s="35" t="s">
         <v>390</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H25" s="38" t="s">
         <v>277</v>
@@ -8840,16 +9135,16 @@
         <v>81</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E26" s="35" t="s">
         <v>397</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H26" s="38" t="s">
         <v>277</v>
@@ -8866,16 +9161,16 @@
         <v>81</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E27" s="35" t="s">
         <v>399</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H27" s="38" t="s">
         <v>277</v>
@@ -8916,16 +9211,16 @@
         <v>81</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E28" s="35" t="s">
         <v>401</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="H28" s="38" t="s">
         <v>277</v>
@@ -8966,7 +9261,7 @@
         <v>105</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E29" s="35" t="s">
         <v>403</v>
@@ -8975,7 +9270,7 @@
         <v>95</v>
       </c>
       <c r="G29" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H29" s="39" t="s">
         <v>279</v>
@@ -9016,7 +9311,7 @@
         <v>105</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E30" s="35" t="s">
         <v>306</v>
@@ -9025,7 +9320,7 @@
         <v>95</v>
       </c>
       <c r="G30" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H30" s="39" t="s">
         <v>279</v>
@@ -9089,7 +9384,7 @@
         <v>81</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E31" s="35" t="s">
         <v>413</v>
@@ -9098,7 +9393,7 @@
         <v>95</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H31" s="39" t="s">
         <v>279</v>
@@ -9140,16 +9435,16 @@
         <v>81</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E32" s="35" t="s">
         <v>293</v>
       </c>
       <c r="F32" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="H32" s="38" t="s">
         <v>277</v>
@@ -9191,16 +9486,16 @@
         <v>81</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E33" s="35" t="s">
         <v>419</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H33" s="38" t="s">
         <v>277</v>
@@ -9242,16 +9537,16 @@
         <v>81</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E34" s="35" t="s">
         <v>420</v>
       </c>
       <c r="F34" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="H34" s="38" t="s">
         <v>277</v>
@@ -9293,7 +9588,7 @@
         <v>105</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E35" s="35" t="s">
         <v>421</v>
@@ -9344,7 +9639,7 @@
         <v>105</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E36" s="35" t="s">
         <v>312</v>
@@ -9353,7 +9648,7 @@
         <v>95</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H36" s="39" t="s">
         <v>279</v>
@@ -9385,16 +9680,16 @@
       <c r="CE36" s="34"/>
     </row>
     <row r="37" spans="1:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="98" t="s">
+      <c r="A37" s="104" t="s">
         <v>315</v>
       </c>
-      <c r="B37" s="98"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="98"/>
-      <c r="E37" s="98"/>
-      <c r="F37" s="98"/>
-      <c r="G37" s="98"/>
-      <c r="H37" s="98"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="104"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="104"/>
+      <c r="G37" s="104"/>
+      <c r="H37" s="104"/>
       <c r="K37" s="34"/>
       <c r="N37" s="34"/>
       <c r="Q37" s="34"/>
@@ -9432,16 +9727,16 @@
         <v>81</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E38" s="35" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="G38" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H38" s="38" t="s">
         <v>277</v>
@@ -9483,16 +9778,16 @@
         <v>81</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="G39" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H39" s="38" t="s">
         <v>277</v>
@@ -9509,16 +9804,16 @@
         <v>81</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="G40" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H40" s="38" t="s">
         <v>277</v>
@@ -9535,16 +9830,16 @@
         <v>81</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E41" s="35" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="G41" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H41" s="38" t="s">
         <v>277</v>
@@ -9561,16 +9856,16 @@
         <v>107</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="F42" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="G42" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H42" s="39" t="s">
         <v>279</v>
@@ -9587,13 +9882,13 @@
         <v>107</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="F43" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="G43" s="36" t="s">
         <v>209</v>
@@ -9698,8 +9993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9714,18 +10009,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="105" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="105" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
@@ -9764,7 +10059,7 @@
         <v>434</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C4" s="37" t="s">
         <v>23</v>
@@ -9791,10 +10086,10 @@
     </row>
     <row r="5" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C5" s="37" t="s">
         <v>26</v>
@@ -9817,10 +10112,10 @@
     </row>
     <row r="6" spans="1:10" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C6" s="37" t="s">
         <v>29</v>
@@ -9847,7 +10142,7 @@
     </row>
     <row r="7" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B7" s="33" t="s">
         <v>218</v>
@@ -9882,7 +10177,7 @@
         <v>230</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C8" s="37" t="s">
         <v>35</v>
@@ -9891,13 +10186,13 @@
         <v>32</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="F8" s="35" t="s">
         <v>448</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>457</v>
@@ -9914,7 +10209,7 @@
         <v>231</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C9" s="37" t="s">
         <v>38</v>
@@ -9923,13 +10218,13 @@
         <v>32</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="F9" s="35" t="s">
         <v>435</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>458</v>
@@ -9946,7 +10241,7 @@
         <v>232</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C10" s="37" t="s">
         <v>40</v>
@@ -9955,13 +10250,13 @@
         <v>32</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="F10" s="35" t="s">
         <v>435</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>459</v>
@@ -9978,7 +10273,7 @@
         <v>233</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C11" s="37" t="s">
         <v>40</v>
@@ -9987,16 +10282,16 @@
         <v>32</v>
       </c>
       <c r="E11" s="44" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="F11" s="35" t="s">
         <v>435</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>86</v>
@@ -10010,7 +10305,7 @@
         <v>234</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>42</v>
@@ -10019,7 +10314,7 @@
         <v>32</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="F12" s="35" t="s">
         <v>435</v>
@@ -10028,21 +10323,21 @@
         <v>450</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="J12" s="46" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="88" t="s">
         <v>235</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C13" s="37" t="s">
         <v>45</v>
@@ -10051,7 +10346,7 @@
         <v>32</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="F13" s="35" t="s">
         <v>435</v>
@@ -10074,7 +10369,7 @@
         <v>236</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C14" s="37" t="s">
         <v>47</v>
@@ -10106,7 +10401,7 @@
         <v>237</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C15" s="37" t="s">
         <v>49</v>
@@ -10134,11 +10429,11 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="88" t="s">
         <v>238</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C16" s="51" t="s">
         <v>51</v>
@@ -10249,7 +10544,7 @@
         <v>435</v>
       </c>
       <c r="G19" s="44" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="H19" s="28" t="s">
         <v>59</v>
@@ -10348,7 +10643,7 @@
         <v>470</v>
       </c>
       <c r="H22" s="50" t="s">
-        <v>474</v>
+        <v>995</v>
       </c>
       <c r="I22" s="11" t="s">
         <v>62</v>
@@ -10377,10 +10672,10 @@
         <v>435</v>
       </c>
       <c r="G23" s="44" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H23" s="50" t="s">
-        <v>474</v>
+        <v>996</v>
       </c>
       <c r="I23" s="11" t="s">
         <v>62</v>
@@ -10409,10 +10704,10 @@
         <v>435</v>
       </c>
       <c r="G24" s="44" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H24" s="50" t="s">
-        <v>474</v>
+        <v>996</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>62</v>
@@ -10441,10 +10736,10 @@
         <v>435</v>
       </c>
       <c r="G25" s="44" t="s">
-        <v>478</v>
+        <v>1012</v>
       </c>
       <c r="H25" s="50" t="s">
-        <v>474</v>
+        <v>995</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>62</v>
@@ -10467,13 +10762,13 @@
         <v>32</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F26" s="35" t="s">
         <v>435</v>
       </c>
       <c r="G26" s="44" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H26" s="54" t="s">
         <v>65</v>
@@ -10499,13 +10794,13 @@
         <v>32</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F27" s="35" t="s">
         <v>435</v>
       </c>
       <c r="G27" s="44" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H27" s="54" t="s">
         <v>65</v>
@@ -10531,13 +10826,13 @@
         <v>32</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F28" s="55" t="s">
         <v>435</v>
       </c>
       <c r="G28" s="56" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H28" s="54" t="s">
         <v>65</v>
@@ -10563,13 +10858,13 @@
         <v>32</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F29" s="35" t="s">
         <v>435</v>
       </c>
       <c r="G29" s="44" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H29" s="50" t="s">
         <v>65</v>
@@ -10589,7 +10884,7 @@
         <v>218</v>
       </c>
       <c r="C30" s="52" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D30" s="33" t="s">
         <v>32</v>
@@ -10601,7 +10896,7 @@
         <v>435</v>
       </c>
       <c r="G30" s="44" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>68</v>
@@ -10617,8 +10912,8 @@
       <c r="A31" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="B31" s="105" t="s">
-        <v>906</v>
+      <c r="B31" s="84" t="s">
+        <v>904</v>
       </c>
       <c r="C31" s="52" t="s">
         <v>69</v>
@@ -10627,19 +10922,19 @@
         <v>32</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F31" s="35" t="s">
         <v>435</v>
       </c>
       <c r="G31" s="44" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J31" s="49" t="s">
         <v>277</v>
@@ -10649,8 +10944,8 @@
       <c r="A32" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="B32" s="105" t="s">
-        <v>906</v>
+      <c r="B32" s="84" t="s">
+        <v>904</v>
       </c>
       <c r="C32" s="52" t="s">
         <v>69</v>
@@ -10659,19 +10954,19 @@
         <v>32</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F32" s="35" t="s">
         <v>435</v>
       </c>
       <c r="G32" s="44" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J32" s="49" t="s">
         <v>277</v>
@@ -10681,8 +10976,8 @@
       <c r="A33" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="B33" s="105" t="s">
-        <v>906</v>
+      <c r="B33" s="84" t="s">
+        <v>904</v>
       </c>
       <c r="C33" s="52" t="s">
         <v>69</v>
@@ -10691,19 +10986,19 @@
         <v>32</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F33" s="35" t="s">
         <v>435</v>
       </c>
       <c r="G33" s="44" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J33" s="49" t="s">
         <v>277</v>
@@ -10713,8 +11008,8 @@
       <c r="A34" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="B34" s="105" t="s">
-        <v>906</v>
+      <c r="B34" s="84" t="s">
+        <v>904</v>
       </c>
       <c r="C34" s="52" t="s">
         <v>69</v>
@@ -10723,19 +11018,19 @@
         <v>32</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F34" s="35" t="s">
         <v>435</v>
       </c>
       <c r="G34" s="44" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J34" s="49" t="s">
         <v>277</v>
@@ -10755,19 +11050,19 @@
         <v>32</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F35" s="35" t="s">
         <v>435</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="I35" s="24" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J35" s="49" t="s">
         <v>277</v>
@@ -10787,19 +11082,19 @@
         <v>32</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F36" s="35" t="s">
         <v>435</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="I36" s="24" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J36" s="49" t="s">
         <v>277</v>
@@ -10819,19 +11114,19 @@
         <v>32</v>
       </c>
       <c r="E37" s="60" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F37" s="35" t="s">
         <v>435</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H37" s="61" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="I37" s="61" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="J37" s="49" t="s">
         <v>277</v>
@@ -10842,7 +11137,7 @@
         <v>260</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C38" s="59" t="s">
         <v>75</v>
@@ -10851,16 +11146,16 @@
         <v>32</v>
       </c>
       <c r="E38" s="60" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G38" s="36" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H38" s="61" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="I38" s="61" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="J38" s="49" t="s">
         <v>277</v>
@@ -10868,10 +11163,10 @@
     </row>
     <row r="39" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C39" s="59" t="s">
         <v>78</v>
@@ -10880,19 +11175,19 @@
         <v>32</v>
       </c>
       <c r="E39" s="60" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="G39" s="36" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H39" s="61" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I39" s="61" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J39" s="49" t="s">
         <v>277</v>
@@ -10900,10 +11195,10 @@
     </row>
     <row r="40" spans="1:10" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="33" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C40" s="59" t="s">
         <v>78</v>
@@ -10912,19 +11207,19 @@
         <v>32</v>
       </c>
       <c r="E40" s="60" t="s">
+        <v>506</v>
+      </c>
+      <c r="F40" s="36" t="s">
+        <v>645</v>
+      </c>
+      <c r="G40" s="36" t="s">
+        <v>509</v>
+      </c>
+      <c r="H40" s="61" t="s">
         <v>508</v>
       </c>
-      <c r="F40" s="36" t="s">
-        <v>647</v>
-      </c>
-      <c r="G40" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="H40" s="61" t="s">
-        <v>510</v>
-      </c>
       <c r="I40" s="61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="J40" s="49" t="s">
         <v>277</v>
@@ -10932,9 +11227,9 @@
     </row>
     <row r="41" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="33" t="s">
-        <v>514</v>
-      </c>
-      <c r="B41" s="105" t="s">
+        <v>512</v>
+      </c>
+      <c r="B41" s="84" t="s">
         <v>218</v>
       </c>
       <c r="C41" s="59" t="s">
@@ -10947,7 +11242,7 @@
         <v>85</v>
       </c>
       <c r="G41" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H41" s="62" t="s">
         <v>86</v>
@@ -10961,9 +11256,9 @@
     </row>
     <row r="42" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="33" t="s">
-        <v>515</v>
-      </c>
-      <c r="B42" s="105" t="s">
+        <v>513</v>
+      </c>
+      <c r="B42" s="84" t="s">
         <v>218</v>
       </c>
       <c r="C42" s="59" t="s">
@@ -10976,13 +11271,13 @@
         <v>94</v>
       </c>
       <c r="F42" s="36" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G42" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H42" s="62" t="s">
-        <v>86</v>
+        <v>516</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>95</v>
@@ -10993,9 +11288,9 @@
     </row>
     <row r="43" spans="1:10" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="33" t="s">
-        <v>516</v>
-      </c>
-      <c r="B43" s="105" t="s">
+        <v>514</v>
+      </c>
+      <c r="B43" s="84" t="s">
         <v>218</v>
       </c>
       <c r="C43" s="59" t="s">
@@ -11008,13 +11303,13 @@
         <v>97</v>
       </c>
       <c r="F43" s="36" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="G43" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H43" s="62" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>98</v>
@@ -11025,9 +11320,9 @@
     </row>
     <row r="44" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="33" t="s">
-        <v>517</v>
-      </c>
-      <c r="B44" s="105" t="s">
+        <v>515</v>
+      </c>
+      <c r="B44" s="84" t="s">
         <v>218</v>
       </c>
       <c r="C44" s="59" t="s">
@@ -11040,7 +11335,7 @@
         <v>110</v>
       </c>
       <c r="G44" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>111</v>
@@ -11054,10 +11349,10 @@
     </row>
     <row r="45" spans="1:10" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="33" t="s">
-        <v>519</v>
-      </c>
-      <c r="B45" s="105" t="s">
-        <v>905</v>
+        <v>517</v>
+      </c>
+      <c r="B45" s="84" t="s">
+        <v>903</v>
       </c>
       <c r="C45" s="59" t="s">
         <v>112</v>
@@ -11069,10 +11364,10 @@
         <v>113</v>
       </c>
       <c r="F45" s="36" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="G45" s="36" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>114</v>
@@ -11085,11 +11380,11 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="33" t="s">
-        <v>520</v>
-      </c>
-      <c r="B46" s="105" t="s">
-        <v>905</v>
+      <c r="A46" s="88" t="s">
+        <v>518</v>
+      </c>
+      <c r="B46" s="84" t="s">
+        <v>903</v>
       </c>
       <c r="C46" s="59" t="s">
         <v>115</v>
@@ -11098,19 +11393,19 @@
         <v>32</v>
       </c>
       <c r="E46" s="60" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F46" s="36" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="G46" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H46" s="11" t="s">
         <v>117</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J46" s="46" t="s">
         <v>279</v>
@@ -11118,10 +11413,10 @@
     </row>
     <row r="47" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="33" t="s">
-        <v>907</v>
-      </c>
-      <c r="B47" s="105" t="s">
         <v>905</v>
+      </c>
+      <c r="B47" s="84" t="s">
+        <v>903</v>
       </c>
       <c r="C47" s="59" t="s">
         <v>118</v>
@@ -11130,13 +11425,13 @@
         <v>32</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F47" s="36" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="G47" s="36" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>120</v>
@@ -11148,12 +11443,12 @@
         <v>277</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="33" t="s">
-        <v>908</v>
-      </c>
-      <c r="B48" s="105" t="s">
-        <v>905</v>
+        <v>906</v>
+      </c>
+      <c r="B48" s="84" t="s">
+        <v>903</v>
       </c>
       <c r="C48" s="59" t="s">
         <v>121</v>
@@ -11162,13 +11457,13 @@
         <v>32</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F48" s="36" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="G48" s="36" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>123</v>
@@ -11180,20 +11475,20 @@
         <v>277</v>
       </c>
     </row>
-    <row r="49" spans="2:10" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="101" t="s">
-        <v>667</v>
-      </c>
-      <c r="D49" s="101"/>
-      <c r="E49" s="101"/>
-      <c r="F49" s="101"/>
-      <c r="G49" s="101"/>
-      <c r="H49" s="101"/>
-      <c r="I49" s="101"/>
-      <c r="J49" s="101"/>
+    <row r="49" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="106" t="s">
+        <v>665</v>
+      </c>
+      <c r="D49" s="106"/>
+      <c r="E49" s="106"/>
+      <c r="F49" s="106"/>
+      <c r="G49" s="106"/>
+      <c r="H49" s="106"/>
+      <c r="I49" s="106"/>
+      <c r="J49" s="106"/>
     </row>
     <row r="50" spans="2:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="105" t="s">
+      <c r="B50" s="84" t="s">
         <v>218</v>
       </c>
       <c r="C50" s="59" t="s">
@@ -11203,16 +11498,16 @@
         <v>32</v>
       </c>
       <c r="E50" s="60" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F50" s="36" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G50" s="36" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="H50" s="62" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="I50" s="62" t="s">
         <v>86</v>
@@ -11222,8 +11517,8 @@
       </c>
     </row>
     <row r="51" spans="2:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="B51" s="105" t="s">
-        <v>905</v>
+      <c r="B51" s="84" t="s">
+        <v>903</v>
       </c>
       <c r="C51" s="59" t="s">
         <v>81</v>
@@ -11232,16 +11527,16 @@
         <v>32</v>
       </c>
       <c r="E51" s="60" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F51" s="36" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G51" s="36" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="H51" s="62" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="I51" s="62" t="s">
         <v>86</v>
@@ -11251,7 +11546,7 @@
       </c>
     </row>
     <row r="52" spans="2:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="B52" s="105" t="s">
+      <c r="B52" s="84" t="s">
         <v>218</v>
       </c>
       <c r="C52" s="59" t="s">
@@ -11261,27 +11556,27 @@
         <v>32</v>
       </c>
       <c r="E52" s="60" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F52" s="36" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G52" s="36" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="H52" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I52" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J52" s="49" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="53" spans="2:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="B53" s="105" t="s">
-        <v>905</v>
+      <c r="B53" s="84" t="s">
+        <v>903</v>
       </c>
       <c r="C53" s="59" t="s">
         <v>81</v>
@@ -11290,26 +11585,26 @@
         <v>32</v>
       </c>
       <c r="E53" s="60" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F53" s="36" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G53" s="36" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="H53" s="62" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="I53" s="62" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="J53" s="49" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="54" spans="2:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="B54" s="105" t="s">
+      <c r="B54" s="84" t="s">
         <v>218</v>
       </c>
       <c r="C54" s="59" t="s">
@@ -11319,26 +11614,26 @@
         <v>32</v>
       </c>
       <c r="E54" s="60" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F54" s="36" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G54" s="36" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="H54" s="62" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="I54" s="62" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="J54" s="49" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="55" spans="2:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="B55" s="105" t="s">
+      <c r="B55" s="84" t="s">
         <v>218</v>
       </c>
       <c r="C55" s="59" t="s">
@@ -11348,26 +11643,26 @@
         <v>32</v>
       </c>
       <c r="E55" s="60" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F55" s="36" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="G55" s="36" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="H55" s="62" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="I55" s="62" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J55" s="49" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="56" spans="2:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="B56" s="105" t="s">
+      <c r="B56" s="84" t="s">
         <v>218</v>
       </c>
       <c r="C56" s="59" t="s">
@@ -11377,26 +11672,26 @@
         <v>32</v>
       </c>
       <c r="E56" s="60" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F56" s="36" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G56" s="36" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="H56" s="62" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="I56" s="62" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="J56" s="49" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="57" spans="2:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="B57" s="105" t="s">
+      <c r="B57" s="84" t="s">
         <v>218</v>
       </c>
       <c r="C57" s="59" t="s">
@@ -11406,27 +11701,27 @@
         <v>32</v>
       </c>
       <c r="E57" s="60" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F57" s="36" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G57" s="36" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="H57" s="62" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="I57" s="62" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J57" s="49" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="58" spans="2:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="B58" s="105" t="s">
-        <v>906</v>
+      <c r="B58" s="84" t="s">
+        <v>904</v>
       </c>
       <c r="C58" s="59" t="s">
         <v>81</v>
@@ -11435,16 +11730,16 @@
         <v>32</v>
       </c>
       <c r="E58" s="60" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="F58" s="36" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G58" s="36" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="H58" s="62" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="I58" s="62" t="s">
         <v>86</v>
@@ -11454,8 +11749,8 @@
       </c>
     </row>
     <row r="59" spans="2:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="B59" s="105" t="s">
-        <v>906</v>
+      <c r="B59" s="84" t="s">
+        <v>904</v>
       </c>
       <c r="C59" s="59" t="s">
         <v>81</v>
@@ -11464,16 +11759,16 @@
         <v>32</v>
       </c>
       <c r="E59" s="60" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F59" s="36" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G59" s="36" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="H59" s="62" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="I59" s="62" t="s">
         <v>86</v>
@@ -11482,17 +11777,17 @@
         <v>279</v>
       </c>
     </row>
-    <row r="60" spans="2:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="101" t="s">
-        <v>668</v>
-      </c>
-      <c r="D60" s="101"/>
-      <c r="E60" s="101"/>
-      <c r="F60" s="101"/>
-      <c r="G60" s="101"/>
-      <c r="H60" s="101"/>
-      <c r="I60" s="101"/>
-      <c r="J60" s="101"/>
+    <row r="60" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="106" t="s">
+        <v>666</v>
+      </c>
+      <c r="D60" s="106"/>
+      <c r="E60" s="106"/>
+      <c r="F60" s="106"/>
+      <c r="G60" s="106"/>
+      <c r="H60" s="106"/>
+      <c r="I60" s="106"/>
+      <c r="J60" s="106"/>
     </row>
     <row r="61" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="C61" s="59" t="s">
@@ -11505,10 +11800,10 @@
         <v>88</v>
       </c>
       <c r="F61" s="24" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G61" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H61" s="62" t="s">
         <v>89</v>
@@ -11528,13 +11823,13 @@
         <v>32</v>
       </c>
       <c r="E62" s="60" t="s">
+        <v>655</v>
+      </c>
+      <c r="F62" s="24" t="s">
         <v>657</v>
       </c>
-      <c r="F62" s="24" t="s">
-        <v>659</v>
-      </c>
       <c r="G62" s="36" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="H62" s="62" t="s">
         <v>89</v>
@@ -11554,13 +11849,13 @@
         <v>32</v>
       </c>
       <c r="E63" s="60" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F63" s="24" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G63" s="36" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="H63" s="62" t="s">
         <v>89</v>
@@ -11580,13 +11875,13 @@
         <v>32</v>
       </c>
       <c r="E64" s="60" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F64" s="24" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G64" s="36" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="H64" s="62" t="s">
         <v>89</v>
@@ -11606,19 +11901,19 @@
         <v>32</v>
       </c>
       <c r="E65" s="60" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F65" s="24" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G65" s="36" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="H65" s="62" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="I65" s="62" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="J65" s="49" t="s">
         <v>277</v>
@@ -11632,19 +11927,19 @@
         <v>32</v>
       </c>
       <c r="E66" s="60" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F66" s="24" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G66" s="36" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="H66" s="62" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="I66" s="62" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="J66" s="49" t="s">
         <v>277</v>
@@ -11658,13 +11953,13 @@
         <v>32</v>
       </c>
       <c r="E67" s="60" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F67" s="24" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G67" s="36" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="H67" s="62" t="s">
         <v>89</v>
@@ -11684,19 +11979,19 @@
         <v>32</v>
       </c>
       <c r="E68" s="60" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F68" s="24" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G68" s="36" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="H68" s="62" t="s">
         <v>89</v>
       </c>
       <c r="I68" s="62" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="J68" s="46" t="s">
         <v>279</v>
@@ -11710,35 +12005,35 @@
         <v>32</v>
       </c>
       <c r="E69" s="60" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="F69" s="24" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G69" s="36" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="H69" s="75" t="s">
         <v>89</v>
       </c>
       <c r="I69" s="75" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="J69" s="76" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="100" t="s">
-        <v>685</v>
-      </c>
-      <c r="D70" s="100"/>
-      <c r="E70" s="100"/>
-      <c r="F70" s="100"/>
-      <c r="G70" s="100"/>
-      <c r="H70" s="100"/>
-      <c r="I70" s="100"/>
-      <c r="J70" s="100"/>
+      <c r="C70" s="107" t="s">
+        <v>683</v>
+      </c>
+      <c r="D70" s="107"/>
+      <c r="E70" s="107"/>
+      <c r="F70" s="107"/>
+      <c r="G70" s="107"/>
+      <c r="H70" s="107"/>
+      <c r="I70" s="107"/>
+      <c r="J70" s="107"/>
     </row>
     <row r="71" spans="3:10" ht="60" x14ac:dyDescent="0.25">
       <c r="C71" s="59" t="s">
@@ -11748,19 +12043,19 @@
         <v>32</v>
       </c>
       <c r="E71" s="60" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F71" s="36" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="G71" s="36" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="H71" s="62" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="I71" s="62" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="J71" s="49" t="s">
         <v>277</v>
@@ -11774,19 +12069,19 @@
         <v>32</v>
       </c>
       <c r="E72" s="60" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F72" s="36" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="G72" s="36" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="H72" s="62" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="I72" s="62" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J72" s="49" t="s">
         <v>277</v>
@@ -11800,19 +12095,19 @@
         <v>32</v>
       </c>
       <c r="E73" s="60" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F73" s="36" t="s">
+        <v>929</v>
+      </c>
+      <c r="G73" s="36" t="s">
         <v>931</v>
       </c>
-      <c r="G73" s="36" t="s">
-        <v>933</v>
-      </c>
       <c r="H73" s="62" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="I73" s="62" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="J73" s="49" t="s">
         <v>277</v>
@@ -11826,19 +12121,19 @@
         <v>32</v>
       </c>
       <c r="E74" s="60" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="F74" s="36" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="G74" s="36" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="H74" s="62" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="I74" s="62" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="J74" s="49" t="s">
         <v>277</v>
@@ -11852,19 +12147,19 @@
         <v>32</v>
       </c>
       <c r="E75" s="60" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F75" s="36" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="G75" s="36" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="H75" s="62" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="I75" s="62" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J75" s="49" t="s">
         <v>277</v>
@@ -11878,19 +12173,19 @@
         <v>32</v>
       </c>
       <c r="E76" s="60" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="F76" s="36" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="G76" s="36" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="H76" s="62" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="I76" s="62" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="J76" s="49" t="s">
         <v>277</v>
@@ -11904,19 +12199,19 @@
         <v>32</v>
       </c>
       <c r="E77" s="60" t="s">
+        <v>697</v>
+      </c>
+      <c r="F77" s="36" t="s">
+        <v>929</v>
+      </c>
+      <c r="G77" s="36" t="s">
+        <v>935</v>
+      </c>
+      <c r="H77" s="62" t="s">
+        <v>698</v>
+      </c>
+      <c r="I77" s="62" t="s">
         <v>699</v>
-      </c>
-      <c r="F77" s="36" t="s">
-        <v>931</v>
-      </c>
-      <c r="G77" s="36" t="s">
-        <v>937</v>
-      </c>
-      <c r="H77" s="62" t="s">
-        <v>700</v>
-      </c>
-      <c r="I77" s="62" t="s">
-        <v>701</v>
       </c>
       <c r="J77" s="49" t="s">
         <v>277</v>
@@ -11930,19 +12225,19 @@
         <v>32</v>
       </c>
       <c r="E78" s="60" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="F78" s="36" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="G78" s="36" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="H78" s="62" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="I78" s="62" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="J78" s="76" t="s">
         <v>279</v>
@@ -11956,35 +12251,35 @@
         <v>32</v>
       </c>
       <c r="E79" s="60" t="s">
+        <v>703</v>
+      </c>
+      <c r="F79" s="36" t="s">
+        <v>704</v>
+      </c>
+      <c r="G79" s="36" t="s">
+        <v>928</v>
+      </c>
+      <c r="H79" s="62" t="s">
         <v>705</v>
       </c>
-      <c r="F79" s="36" t="s">
+      <c r="I79" s="62" t="s">
         <v>706</v>
-      </c>
-      <c r="G79" s="36" t="s">
-        <v>930</v>
-      </c>
-      <c r="H79" s="62" t="s">
-        <v>707</v>
-      </c>
-      <c r="I79" s="62" t="s">
-        <v>708</v>
       </c>
       <c r="J79" s="76" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="101" t="s">
-        <v>684</v>
-      </c>
-      <c r="D80" s="101"/>
-      <c r="E80" s="101"/>
-      <c r="F80" s="101"/>
-      <c r="G80" s="101"/>
-      <c r="H80" s="101"/>
-      <c r="I80" s="101"/>
-      <c r="J80" s="101"/>
+      <c r="C80" s="106" t="s">
+        <v>682</v>
+      </c>
+      <c r="D80" s="106"/>
+      <c r="E80" s="106"/>
+      <c r="F80" s="106"/>
+      <c r="G80" s="106"/>
+      <c r="H80" s="106"/>
+      <c r="I80" s="106"/>
+      <c r="J80" s="106"/>
     </row>
     <row r="82" spans="3:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C82" s="59" t="s">
@@ -11994,13 +12289,13 @@
         <v>32</v>
       </c>
       <c r="E82" s="60" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="F82" s="24" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="G82" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H82" s="62" t="s">
         <v>92</v>
@@ -12020,19 +12315,19 @@
         <v>32</v>
       </c>
       <c r="E83" s="60" t="s">
+        <v>703</v>
+      </c>
+      <c r="F83" s="36" t="s">
+        <v>704</v>
+      </c>
+      <c r="G83" s="36" t="s">
+        <v>509</v>
+      </c>
+      <c r="H83" s="62" t="s">
         <v>705</v>
       </c>
-      <c r="F83" s="36" t="s">
+      <c r="I83" s="62" t="s">
         <v>706</v>
-      </c>
-      <c r="G83" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="H83" s="62" t="s">
-        <v>707</v>
-      </c>
-      <c r="I83" s="62" t="s">
-        <v>708</v>
       </c>
       <c r="J83" s="76" t="s">
         <v>279</v>
@@ -12046,13 +12341,13 @@
         <v>32</v>
       </c>
       <c r="E84" s="60" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F84" s="24" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="G84" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H84" s="62" t="s">
         <v>92</v>
@@ -12072,19 +12367,19 @@
         <v>32</v>
       </c>
       <c r="E85" s="60" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F85" s="24" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G85" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H85" s="62" t="s">
         <v>92</v>
       </c>
       <c r="I85" s="62" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="J85" s="46" t="s">
         <v>279</v>
@@ -12098,19 +12393,19 @@
         <v>32</v>
       </c>
       <c r="E86" s="60" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="F86" s="24" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="G86" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H86" s="62" t="s">
         <v>92</v>
       </c>
       <c r="I86" s="62" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J86" s="46" t="s">
         <v>279</v>
@@ -12124,19 +12419,19 @@
         <v>32</v>
       </c>
       <c r="E87" s="60" t="s">
+        <v>717</v>
+      </c>
+      <c r="F87" s="24" t="s">
+        <v>718</v>
+      </c>
+      <c r="G87" s="36" t="s">
+        <v>509</v>
+      </c>
+      <c r="H87" s="62" t="s">
         <v>719</v>
       </c>
-      <c r="F87" s="24" t="s">
-        <v>720</v>
-      </c>
-      <c r="G87" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="H87" s="62" t="s">
-        <v>721</v>
-      </c>
       <c r="I87" s="62" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="J87" s="49" t="s">
         <v>277</v>
@@ -12150,19 +12445,19 @@
         <v>32</v>
       </c>
       <c r="E88" s="60" t="s">
+        <v>720</v>
+      </c>
+      <c r="F88" s="24" t="s">
+        <v>721</v>
+      </c>
+      <c r="G88" s="36" t="s">
+        <v>509</v>
+      </c>
+      <c r="H88" s="62" t="s">
         <v>722</v>
       </c>
-      <c r="F88" s="24" t="s">
-        <v>723</v>
-      </c>
-      <c r="G88" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="H88" s="62" t="s">
-        <v>724</v>
-      </c>
       <c r="I88" s="62" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="J88" s="49" t="s">
         <v>277</v>
@@ -12176,19 +12471,19 @@
         <v>32</v>
       </c>
       <c r="E89" s="60" t="s">
+        <v>723</v>
+      </c>
+      <c r="F89" s="36" t="s">
+        <v>724</v>
+      </c>
+      <c r="G89" s="36" t="s">
+        <v>509</v>
+      </c>
+      <c r="H89" s="62" t="s">
         <v>725</v>
       </c>
-      <c r="F89" s="36" t="s">
+      <c r="I89" s="62" t="s">
         <v>726</v>
-      </c>
-      <c r="G89" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="H89" s="62" t="s">
-        <v>727</v>
-      </c>
-      <c r="I89" s="62" t="s">
-        <v>728</v>
       </c>
       <c r="J89" s="76" t="s">
         <v>279</v>
@@ -12202,19 +12497,19 @@
         <v>32</v>
       </c>
       <c r="E90" s="60" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F90" s="36" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="G90" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H90" s="62" t="s">
         <v>92</v>
       </c>
       <c r="I90" s="62" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="J90" s="76" t="s">
         <v>279</v>
@@ -12228,35 +12523,35 @@
         <v>32</v>
       </c>
       <c r="E91" s="60" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="F91" s="36" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="G91" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H91" s="62" t="s">
         <v>92</v>
       </c>
       <c r="I91" s="62" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="J91" s="76" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="100" t="s">
-        <v>740</v>
-      </c>
-      <c r="D92" s="100"/>
-      <c r="E92" s="100"/>
-      <c r="F92" s="100"/>
-      <c r="G92" s="100"/>
-      <c r="H92" s="100"/>
-      <c r="I92" s="100"/>
-      <c r="J92" s="100"/>
+      <c r="C92" s="107" t="s">
+        <v>738</v>
+      </c>
+      <c r="D92" s="107"/>
+      <c r="E92" s="107"/>
+      <c r="F92" s="107"/>
+      <c r="G92" s="107"/>
+      <c r="H92" s="107"/>
+      <c r="I92" s="107"/>
+      <c r="J92" s="107"/>
     </row>
     <row r="93" spans="3:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C93" s="59" t="s">
@@ -12266,19 +12561,19 @@
         <v>32</v>
       </c>
       <c r="E93" s="60" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F93" s="36" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="G93" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H93" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I93" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J93" s="49" t="s">
         <v>277</v>
@@ -12292,19 +12587,19 @@
         <v>32</v>
       </c>
       <c r="E94" s="60" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F94" s="36" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G94" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H94" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I94" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J94" s="49" t="s">
         <v>277</v>
@@ -12318,19 +12613,19 @@
         <v>32</v>
       </c>
       <c r="E95" s="60" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F95" s="36" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="G95" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H95" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I95" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J95" s="49" t="s">
         <v>277</v>
@@ -12344,19 +12639,19 @@
         <v>32</v>
       </c>
       <c r="E96" s="60" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F96" s="36" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="G96" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H96" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I96" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J96" s="49" t="s">
         <v>277</v>
@@ -12370,19 +12665,19 @@
         <v>32</v>
       </c>
       <c r="E97" s="60" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F97" s="36" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G97" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H97" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I97" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J97" s="49" t="s">
         <v>277</v>
@@ -12396,19 +12691,19 @@
         <v>32</v>
       </c>
       <c r="E98" s="60" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F98" s="36" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="G98" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H98" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I98" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J98" s="49" t="s">
         <v>277</v>
@@ -12422,19 +12717,19 @@
         <v>32</v>
       </c>
       <c r="E99" s="60" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F99" s="36" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="G99" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H99" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I99" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J99" s="49" t="s">
         <v>277</v>
@@ -12448,19 +12743,19 @@
         <v>32</v>
       </c>
       <c r="E100" s="60" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F100" s="36" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="G100" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H100" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I100" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J100" s="49" t="s">
         <v>277</v>
@@ -12474,19 +12769,19 @@
         <v>32</v>
       </c>
       <c r="E101" s="60" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F101" s="36" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G101" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H101" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I101" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J101" s="49" t="s">
         <v>277</v>
@@ -12500,19 +12795,19 @@
         <v>32</v>
       </c>
       <c r="E102" s="60" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F102" s="36" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G102" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H102" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I102" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J102" s="49" t="s">
         <v>277</v>
@@ -12526,19 +12821,19 @@
         <v>32</v>
       </c>
       <c r="E103" s="60" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F103" s="36" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="G103" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H103" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I103" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J103" s="49" t="s">
         <v>277</v>
@@ -12552,19 +12847,19 @@
         <v>32</v>
       </c>
       <c r="E104" s="60" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F104" s="36" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G104" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H104" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I104" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J104" s="49" t="s">
         <v>277</v>
@@ -12578,19 +12873,19 @@
         <v>32</v>
       </c>
       <c r="E105" s="60" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F105" s="36" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="G105" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H105" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I105" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J105" s="49" t="s">
         <v>277</v>
@@ -12604,19 +12899,19 @@
         <v>32</v>
       </c>
       <c r="E106" s="60" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F106" s="36" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="G106" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H106" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I106" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J106" s="49" t="s">
         <v>277</v>
@@ -12630,19 +12925,19 @@
         <v>32</v>
       </c>
       <c r="E107" s="60" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F107" s="36" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="G107" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H107" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I107" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J107" s="49" t="s">
         <v>277</v>
@@ -12656,19 +12951,19 @@
         <v>32</v>
       </c>
       <c r="E108" s="60" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F108" s="36" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="G108" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H108" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I108" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J108" s="49" t="s">
         <v>277</v>
@@ -12682,19 +12977,19 @@
         <v>32</v>
       </c>
       <c r="E109" s="60" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F109" s="36" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="G109" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H109" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I109" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J109" s="49" t="s">
         <v>277</v>
@@ -12708,19 +13003,19 @@
         <v>32</v>
       </c>
       <c r="E110" s="60" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F110" s="36" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="G110" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H110" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I110" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J110" s="49" t="s">
         <v>277</v>
@@ -12734,19 +13029,19 @@
         <v>32</v>
       </c>
       <c r="E111" s="60" t="s">
+        <v>774</v>
+      </c>
+      <c r="F111" s="36" t="s">
         <v>776</v>
       </c>
-      <c r="F111" s="36" t="s">
-        <v>778</v>
-      </c>
       <c r="G111" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H111" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I111" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J111" s="49" t="s">
         <v>277</v>
@@ -12760,19 +13055,19 @@
         <v>32</v>
       </c>
       <c r="E112" s="60" t="s">
+        <v>775</v>
+      </c>
+      <c r="F112" s="36" t="s">
         <v>777</v>
       </c>
-      <c r="F112" s="36" t="s">
-        <v>779</v>
-      </c>
       <c r="G112" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H112" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I112" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J112" s="49" t="s">
         <v>277</v>
@@ -12786,19 +13081,19 @@
         <v>32</v>
       </c>
       <c r="E113" s="60" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="F113" s="36" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="G113" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H113" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I113" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J113" s="49" t="s">
         <v>277</v>
@@ -12812,35 +13107,35 @@
         <v>32</v>
       </c>
       <c r="E114" s="60" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="F114" s="36" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="G114" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H114" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I114" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J114" s="49" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="115" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C115" s="100" t="s">
-        <v>782</v>
-      </c>
-      <c r="D115" s="100"/>
-      <c r="E115" s="100"/>
-      <c r="F115" s="100"/>
-      <c r="G115" s="100"/>
-      <c r="H115" s="100"/>
-      <c r="I115" s="100"/>
-      <c r="J115" s="100"/>
+      <c r="C115" s="107" t="s">
+        <v>780</v>
+      </c>
+      <c r="D115" s="107"/>
+      <c r="E115" s="107"/>
+      <c r="F115" s="107"/>
+      <c r="G115" s="107"/>
+      <c r="H115" s="107"/>
+      <c r="I115" s="107"/>
+      <c r="J115" s="107"/>
     </row>
     <row r="116" spans="3:10" ht="90" x14ac:dyDescent="0.25">
       <c r="C116" s="59" t="s">
@@ -12850,19 +13145,19 @@
         <v>32</v>
       </c>
       <c r="E116" s="60" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F116" s="24" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G116" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H116" s="62" t="s">
         <v>95</v>
       </c>
       <c r="I116" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J116" s="46" t="s">
         <v>279</v>
@@ -12876,19 +13171,19 @@
         <v>32</v>
       </c>
       <c r="E117" s="60" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F117" s="24" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G117" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H117" s="62" t="s">
         <v>95</v>
       </c>
       <c r="I117" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J117" s="46" t="s">
         <v>279</v>
@@ -12902,19 +13197,19 @@
         <v>32</v>
       </c>
       <c r="E118" s="60" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F118" s="24" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G118" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H118" s="62" t="s">
         <v>95</v>
       </c>
       <c r="I118" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J118" s="46" t="s">
         <v>279</v>
@@ -12928,19 +13223,19 @@
         <v>32</v>
       </c>
       <c r="E119" s="60" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F119" s="24" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G119" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H119" s="62" t="s">
         <v>95</v>
       </c>
       <c r="I119" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J119" s="46" t="s">
         <v>279</v>
@@ -12954,19 +13249,19 @@
         <v>32</v>
       </c>
       <c r="E120" s="60" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F120" s="24" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="G120" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H120" s="62" t="s">
         <v>95</v>
       </c>
       <c r="I120" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J120" s="46" t="s">
         <v>279</v>
@@ -12980,19 +13275,19 @@
         <v>32</v>
       </c>
       <c r="E121" s="60" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="F121" s="24" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="G121" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H121" s="62" t="s">
         <v>95</v>
       </c>
       <c r="I121" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J121" s="46" t="s">
         <v>279</v>
@@ -13006,19 +13301,19 @@
         <v>32</v>
       </c>
       <c r="E122" s="60" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="F122" s="36" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G122" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H122" s="62" t="s">
         <v>95</v>
       </c>
       <c r="I122" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J122" s="46" t="s">
         <v>279</v>
@@ -13032,19 +13327,19 @@
         <v>32</v>
       </c>
       <c r="E123" s="60" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F123" s="36" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="G123" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H123" s="62" t="s">
         <v>95</v>
       </c>
       <c r="I123" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J123" s="46" t="s">
         <v>279</v>
@@ -13058,19 +13353,19 @@
         <v>32</v>
       </c>
       <c r="E124" s="60" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F124" s="36" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="G124" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H124" s="62" t="s">
         <v>95</v>
       </c>
       <c r="I124" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J124" s="46" t="s">
         <v>279</v>
@@ -13084,19 +13379,19 @@
         <v>32</v>
       </c>
       <c r="E125" s="60" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="F125" s="36" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="G125" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H125" s="62" t="s">
         <v>95</v>
       </c>
       <c r="I125" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J125" s="46" t="s">
         <v>279</v>
@@ -13110,19 +13405,19 @@
         <v>32</v>
       </c>
       <c r="E126" s="60" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F126" s="36" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G126" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H126" s="62" t="s">
         <v>95</v>
       </c>
       <c r="I126" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J126" s="46" t="s">
         <v>279</v>
@@ -13136,19 +13431,19 @@
         <v>32</v>
       </c>
       <c r="E127" s="60" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F127" s="36" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="G127" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H127" s="62" t="s">
         <v>95</v>
       </c>
       <c r="I127" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J127" s="46" t="s">
         <v>279</v>
@@ -13162,19 +13457,19 @@
         <v>32</v>
       </c>
       <c r="E128" s="60" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="F128" s="36" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="G128" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H128" s="62" t="s">
         <v>95</v>
       </c>
       <c r="I128" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J128" s="46" t="s">
         <v>279</v>
@@ -13188,19 +13483,19 @@
         <v>32</v>
       </c>
       <c r="E129" s="60" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F129" s="36" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G129" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H129" s="62" t="s">
         <v>95</v>
       </c>
       <c r="I129" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J129" s="46" t="s">
         <v>279</v>
@@ -13214,19 +13509,19 @@
         <v>32</v>
       </c>
       <c r="E130" s="60" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="F130" s="36" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="G130" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H130" s="62" t="s">
         <v>95</v>
       </c>
       <c r="I130" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J130" s="46" t="s">
         <v>279</v>
@@ -13240,19 +13535,19 @@
         <v>32</v>
       </c>
       <c r="E131" s="60" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F131" s="36" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="G131" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H131" s="62" t="s">
         <v>95</v>
       </c>
       <c r="I131" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J131" s="46" t="s">
         <v>279</v>
@@ -13266,19 +13561,19 @@
         <v>32</v>
       </c>
       <c r="E132" s="60" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F132" s="36" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="G132" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H132" s="62" t="s">
         <v>95</v>
       </c>
       <c r="I132" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J132" s="46" t="s">
         <v>279</v>
@@ -13292,19 +13587,19 @@
         <v>32</v>
       </c>
       <c r="E133" s="60" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="F133" s="36" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="G133" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H133" s="62" t="s">
         <v>95</v>
       </c>
       <c r="I133" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J133" s="46" t="s">
         <v>279</v>
@@ -13318,19 +13613,19 @@
         <v>32</v>
       </c>
       <c r="E134" s="60" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F134" s="36" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="G134" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H134" s="62" t="s">
         <v>95</v>
       </c>
       <c r="I134" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J134" s="46" t="s">
         <v>279</v>
@@ -13344,19 +13639,19 @@
         <v>32</v>
       </c>
       <c r="E135" s="60" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="F135" s="36" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="G135" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H135" s="62" t="s">
         <v>95</v>
       </c>
       <c r="I135" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J135" s="46" t="s">
         <v>279</v>
@@ -13370,19 +13665,19 @@
         <v>32</v>
       </c>
       <c r="E136" s="60" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="F136" s="36" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="G136" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H136" s="62" t="s">
         <v>95</v>
       </c>
       <c r="I136" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J136" s="46" t="s">
         <v>279</v>
@@ -13396,19 +13691,19 @@
         <v>32</v>
       </c>
       <c r="E137" s="60" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="F137" s="36" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="G137" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H137" s="62" t="s">
         <v>95</v>
       </c>
       <c r="I137" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J137" s="46" t="s">
         <v>279</v>
@@ -13422,19 +13717,19 @@
         <v>32</v>
       </c>
       <c r="E138" s="60" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="F138" s="36" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="G138" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H138" s="62" t="s">
         <v>95</v>
       </c>
       <c r="I138" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J138" s="46" t="s">
         <v>279</v>
@@ -13448,19 +13743,19 @@
         <v>32</v>
       </c>
       <c r="E139" s="60" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="F139" s="36" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G139" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H139" s="62" t="s">
         <v>95</v>
       </c>
       <c r="I139" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J139" s="46" t="s">
         <v>279</v>
@@ -13474,19 +13769,19 @@
         <v>32</v>
       </c>
       <c r="E140" s="60" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="F140" s="36" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G140" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H140" s="62" t="s">
         <v>95</v>
       </c>
       <c r="I140" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J140" s="46" t="s">
         <v>279</v>
@@ -13500,19 +13795,19 @@
         <v>32</v>
       </c>
       <c r="E141" s="60" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F141" s="36" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G141" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H141" s="62" t="s">
         <v>95</v>
       </c>
       <c r="I141" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J141" s="46" t="s">
         <v>279</v>
@@ -13526,19 +13821,19 @@
         <v>32</v>
       </c>
       <c r="E142" s="60" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F142" s="36" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G142" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H142" s="62" t="s">
         <v>95</v>
       </c>
       <c r="I142" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J142" s="46" t="s">
         <v>279</v>
@@ -13552,35 +13847,35 @@
         <v>32</v>
       </c>
       <c r="E143" s="60" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="F143" s="36" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="G143" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H143" s="62" t="s">
         <v>95</v>
       </c>
       <c r="I143" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J143" s="46" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="144" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C144" s="100" t="s">
-        <v>841</v>
-      </c>
-      <c r="D144" s="100"/>
-      <c r="E144" s="100"/>
-      <c r="F144" s="100"/>
-      <c r="G144" s="100"/>
-      <c r="H144" s="100"/>
-      <c r="I144" s="100"/>
-      <c r="J144" s="100"/>
+      <c r="C144" s="107" t="s">
+        <v>839</v>
+      </c>
+      <c r="D144" s="107"/>
+      <c r="E144" s="107"/>
+      <c r="F144" s="107"/>
+      <c r="G144" s="107"/>
+      <c r="H144" s="107"/>
+      <c r="I144" s="107"/>
+      <c r="J144" s="107"/>
     </row>
     <row r="145" spans="3:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C145" s="59" t="s">
@@ -13590,19 +13885,19 @@
         <v>32</v>
       </c>
       <c r="E145" s="60" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="F145" s="36" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="G145" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H145" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I145" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J145" s="49" t="s">
         <v>277</v>
@@ -13616,19 +13911,19 @@
         <v>32</v>
       </c>
       <c r="E146" s="60" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="F146" s="36" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="G146" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H146" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I146" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J146" s="49" t="s">
         <v>277</v>
@@ -13642,19 +13937,19 @@
         <v>32</v>
       </c>
       <c r="E147" s="60" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F147" s="36" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="G147" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H147" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I147" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J147" s="49" t="s">
         <v>277</v>
@@ -13668,19 +13963,19 @@
         <v>32</v>
       </c>
       <c r="E148" s="60" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="F148" s="36" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="G148" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H148" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I148" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J148" s="49" t="s">
         <v>277</v>
@@ -13694,19 +13989,19 @@
         <v>32</v>
       </c>
       <c r="E149" s="60" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="F149" s="36" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="G149" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H149" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I149" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J149" s="49" t="s">
         <v>277</v>
@@ -13720,35 +14015,35 @@
         <v>32</v>
       </c>
       <c r="E150" s="60" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F150" s="36" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="G150" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H150" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I150" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J150" s="49" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="151" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C151" s="100" t="s">
-        <v>851</v>
-      </c>
-      <c r="D151" s="100"/>
-      <c r="E151" s="100"/>
-      <c r="F151" s="100"/>
-      <c r="G151" s="100"/>
-      <c r="H151" s="100"/>
-      <c r="I151" s="100"/>
-      <c r="J151" s="100"/>
+      <c r="C151" s="107" t="s">
+        <v>849</v>
+      </c>
+      <c r="D151" s="107"/>
+      <c r="E151" s="107"/>
+      <c r="F151" s="107"/>
+      <c r="G151" s="107"/>
+      <c r="H151" s="107"/>
+      <c r="I151" s="107"/>
+      <c r="J151" s="107"/>
     </row>
     <row r="152" spans="3:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C152" s="59" t="s">
@@ -13758,19 +14053,19 @@
         <v>32</v>
       </c>
       <c r="E152" s="60" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="F152" s="36" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="G152" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H152" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I152" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J152" s="46" t="s">
         <v>279</v>
@@ -13784,19 +14079,19 @@
         <v>32</v>
       </c>
       <c r="E153" s="60" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="F153" s="36" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="G153" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H153" s="62" t="s">
         <v>98</v>
       </c>
       <c r="I153" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J153" s="46" t="s">
         <v>279</v>
@@ -13810,19 +14105,19 @@
         <v>32</v>
       </c>
       <c r="E154" s="60" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="F154" s="36" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G154" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H154" s="62" t="s">
         <v>98</v>
       </c>
       <c r="I154" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J154" s="46" t="s">
         <v>279</v>
@@ -13836,19 +14131,19 @@
         <v>32</v>
       </c>
       <c r="E155" s="60" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="F155" s="36" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="G155" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H155" s="62" t="s">
         <v>98</v>
       </c>
       <c r="I155" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J155" s="46" t="s">
         <v>279</v>
@@ -13862,19 +14157,19 @@
         <v>32</v>
       </c>
       <c r="E156" s="60" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F156" s="36" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="G156" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H156" s="62" t="s">
         <v>98</v>
       </c>
       <c r="I156" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J156" s="46" t="s">
         <v>279</v>
@@ -13888,19 +14183,19 @@
         <v>32</v>
       </c>
       <c r="E157" s="60" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F157" s="36" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="G157" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H157" s="62" t="s">
         <v>98</v>
       </c>
       <c r="I157" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J157" s="46" t="s">
         <v>279</v>
@@ -13914,19 +14209,19 @@
         <v>32</v>
       </c>
       <c r="E158" s="60" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F158" s="36" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="G158" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H158" s="62" t="s">
         <v>98</v>
       </c>
       <c r="I158" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J158" s="46" t="s">
         <v>279</v>
@@ -13940,19 +14235,19 @@
         <v>32</v>
       </c>
       <c r="E159" s="60" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F159" s="36" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G159" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H159" s="62" t="s">
         <v>98</v>
       </c>
       <c r="I159" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J159" s="46" t="s">
         <v>279</v>
@@ -13966,19 +14261,19 @@
         <v>32</v>
       </c>
       <c r="E160" s="60" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F160" s="36" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G160" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H160" s="62" t="s">
         <v>98</v>
       </c>
       <c r="I160" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J160" s="46" t="s">
         <v>279</v>
@@ -13992,19 +14287,19 @@
         <v>32</v>
       </c>
       <c r="E161" s="60" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F161" s="36" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="G161" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H161" s="62" t="s">
         <v>98</v>
       </c>
       <c r="I161" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J161" s="46" t="s">
         <v>279</v>
@@ -14018,19 +14313,19 @@
         <v>32</v>
       </c>
       <c r="E162" s="60" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F162" s="36" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="G162" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H162" s="62" t="s">
         <v>98</v>
       </c>
       <c r="I162" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J162" s="46" t="s">
         <v>279</v>
@@ -14044,19 +14339,19 @@
         <v>32</v>
       </c>
       <c r="E163" s="60" t="s">
+        <v>875</v>
+      </c>
+      <c r="F163" s="36" t="s">
         <v>877</v>
       </c>
-      <c r="F163" s="36" t="s">
-        <v>879</v>
-      </c>
       <c r="G163" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H163" s="62" t="s">
         <v>98</v>
       </c>
       <c r="I163" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J163" s="46" t="s">
         <v>279</v>
@@ -14070,19 +14365,19 @@
         <v>32</v>
       </c>
       <c r="E164" s="60" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F164" s="36" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G164" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H164" s="62" t="s">
         <v>98</v>
       </c>
       <c r="I164" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J164" s="46" t="s">
         <v>279</v>
@@ -14096,19 +14391,19 @@
         <v>32</v>
       </c>
       <c r="E165" s="60" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F165" s="36" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G165" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H165" s="62" t="s">
         <v>98</v>
       </c>
       <c r="I165" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J165" s="46" t="s">
         <v>279</v>
@@ -14122,19 +14417,19 @@
         <v>32</v>
       </c>
       <c r="E166" s="60" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F166" s="36" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="G166" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H166" s="62" t="s">
         <v>98</v>
       </c>
       <c r="I166" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J166" s="46" t="s">
         <v>279</v>
@@ -14148,19 +14443,19 @@
         <v>32</v>
       </c>
       <c r="E167" s="60" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="F167" s="36" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="G167" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H167" s="62" t="s">
         <v>98</v>
       </c>
       <c r="I167" s="62" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J167" s="46" t="s">
         <v>279</v>
@@ -14168,16 +14463,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C144:J144"/>
+    <mergeCell ref="C151:J151"/>
+    <mergeCell ref="C115:J115"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C80:J80"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="C49:J49"/>
     <mergeCell ref="C60:J60"/>
     <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C144:J144"/>
-    <mergeCell ref="C151:J151"/>
-    <mergeCell ref="C115:J115"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C80:J80"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" location="Требования!R11C1" display="T-4"/>
@@ -14342,10 +14637,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14359,18 +14654,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="105" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="105" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -14430,8 +14725,8 @@
         <v>218</v>
       </c>
       <c r="I4" s="28"/>
-      <c r="J4" s="106" t="s">
-        <v>940</v>
+      <c r="J4" s="85" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14439,7 +14734,7 @@
         <v>219</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>214</v>
@@ -14460,7 +14755,7 @@
         <v>218</v>
       </c>
       <c r="I5" s="28"/>
-      <c r="J5" s="106" t="s">
+      <c r="J5" s="85" t="s">
         <v>434</v>
       </c>
     </row>
@@ -14469,7 +14764,7 @@
         <v>222</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>214</v>
@@ -14489,16 +14784,16 @@
       <c r="H6" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="J6" s="106" t="s">
-        <v>942</v>
+      <c r="J6" s="85" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>946</v>
+        <v>990</v>
       </c>
       <c r="C7" s="35" t="s">
         <v>435</v>
@@ -14512,28 +14807,28 @@
       <c r="F7" s="35" t="s">
         <v>443</v>
       </c>
-      <c r="G7" s="108" t="s">
-        <v>947</v>
-      </c>
-      <c r="H7" s="107" t="s">
-        <v>905</v>
-      </c>
-      <c r="J7" s="106" t="s">
-        <v>941</v>
+      <c r="G7" s="87" t="s">
+        <v>944</v>
+      </c>
+      <c r="H7" s="86" t="s">
+        <v>903</v>
+      </c>
+      <c r="J7" s="85" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D8" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>458</v>
@@ -14541,28 +14836,28 @@
       <c r="F8" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G8" s="108" t="s">
-        <v>947</v>
-      </c>
-      <c r="H8" s="107" t="s">
-        <v>905</v>
-      </c>
-      <c r="J8" s="106" t="s">
+      <c r="G8" s="87" t="s">
+        <v>944</v>
+      </c>
+      <c r="H8" s="86" t="s">
+        <v>903</v>
+      </c>
+      <c r="J8" s="85" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D9" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>459</v>
@@ -14570,60 +14865,60 @@
       <c r="F9" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G9" s="108" t="s">
-        <v>947</v>
-      </c>
-      <c r="H9" s="107" t="s">
-        <v>905</v>
-      </c>
-      <c r="J9" s="106" t="s">
+      <c r="G9" s="87" t="s">
+        <v>944</v>
+      </c>
+      <c r="H9" s="86" t="s">
+        <v>903</v>
+      </c>
+      <c r="J9" s="85" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="B10" s="29" t="s">
+        <v>952</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>953</v>
+      </c>
+      <c r="D10" t="s">
+        <v>947</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>955</v>
       </c>
-      <c r="C10" s="36" t="s">
-        <v>956</v>
-      </c>
-      <c r="D10" t="s">
-        <v>950</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>957</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>958</v>
-      </c>
-      <c r="G10" s="108" t="s">
-        <v>947</v>
-      </c>
-      <c r="H10" s="107" t="s">
-        <v>905</v>
-      </c>
-      <c r="J10" s="106" t="s">
+      <c r="G10" s="87" t="s">
+        <v>944</v>
+      </c>
+      <c r="H10" s="86" t="s">
+        <v>903</v>
+      </c>
+      <c r="J10" s="85" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
+        <v>963</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>964</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>965</v>
+      </c>
+      <c r="E11" s="53" t="s">
         <v>966</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="F11" s="53" t="s">
         <v>967</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>968</v>
-      </c>
-      <c r="E11" s="53" t="s">
-        <v>969</v>
-      </c>
-      <c r="F11" s="53" t="s">
-        <v>970</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>225</v>
@@ -14631,23 +14926,23 @@
       <c r="H11" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="J11" s="106"/>
+      <c r="J11" s="85"/>
     </row>
     <row r="12" spans="1:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
+        <v>968</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>969</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>970</v>
+      </c>
+      <c r="E12" s="53" t="s">
         <v>971</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>972</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>973</v>
-      </c>
-      <c r="E12" s="53" t="s">
-        <v>974</v>
-      </c>
       <c r="F12" s="53" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="G12" s="28" t="s">
         <v>225</v>
@@ -14655,25 +14950,25 @@
       <c r="H12" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="J12" s="106" t="s">
+      <c r="J12" s="85" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="D13" s="30" t="s">
+        <v>975</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>976</v>
+      </c>
+      <c r="F13" s="53" t="s">
         <v>978</v>
-      </c>
-      <c r="E13" s="53" t="s">
-        <v>979</v>
-      </c>
-      <c r="F13" s="53" t="s">
-        <v>981</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>225</v>
@@ -14681,8 +14976,294 @@
       <c r="H13" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="J13" s="106" t="s">
+      <c r="J13" s="85" t="s">
         <v>235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>983</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>979</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>980</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>981</v>
+      </c>
+      <c r="F14" s="53" t="s">
+        <v>982</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="J14" s="85" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>988</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>986</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>987</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>984</v>
+      </c>
+      <c r="F15" s="53" t="s">
+        <v>985</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="J15" s="85" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>989</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>992</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>464</v>
+      </c>
+      <c r="F16" s="50" t="s">
+        <v>999</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="J16" s="85" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>994</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>993</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>991</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="J17" s="85" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>997</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F18" s="50" t="s">
+        <v>998</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="J18" s="85" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E19" s="50" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F19" s="50" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="J19" s="85" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F20" s="50" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="J20" s="85" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F21" s="50" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="J21" s="85" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E22" s="62" t="s">
+        <v>516</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="J22" s="85" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E23" s="62" t="s">
+        <v>516</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="J23" s="85" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="J24" s="85" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -14700,6 +15281,17 @@
     <hyperlink ref="J10" location="'Тест кейсы'!R11C1" display="TC-8"/>
     <hyperlink ref="J12" location="'Тест кейсы'!R12C1" display="TC-9"/>
     <hyperlink ref="J13" location="'Тест кейсы'!R13C1" display="TC-9"/>
+    <hyperlink ref="J14" location="'Тест кейсы'!R14C1" display="TC-10"/>
+    <hyperlink ref="J15" location="'Тест кейсы'!R15C1" display="TC-12"/>
+    <hyperlink ref="J16" location="'Тест кейсы'!R16C1" display="TC-13"/>
+    <hyperlink ref="J17" location="'Тест кейсы'!R17C1" display="TC-14"/>
+    <hyperlink ref="J18" location="'Тест кейсы'!R17C1" display="TC-15"/>
+    <hyperlink ref="J19" location="'Тест кейсы'!R17C1" display="TC-15"/>
+    <hyperlink ref="J20" location="'Тест кейсы'!R17C1" display="TC-15"/>
+    <hyperlink ref="J21" location="'Тест кейсы'!R17C1" display="TC-15"/>
+    <hyperlink ref="J22" location="'Тест кейсы'!R17C1" display="TC-15"/>
+    <hyperlink ref="J23" location="'Тест кейсы'!R17C1" display="TC-15"/>
+    <hyperlink ref="J24" location="'Тест кейсы'!R17C1" display="TC-15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14725,16 +15317,16 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="28"/>
       <c r="B1" s="28" t="s">
+        <v>525</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>526</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>527</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="E1" s="28" t="s">
         <v>528</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>529</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -14742,16 +15334,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="70" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C2" s="70" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D2" s="70" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E2" s="70" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -14759,144 +15351,144 @@
         <v>2</v>
       </c>
       <c r="B3" s="70" t="s">
+        <v>587</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>588</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>588</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>588</v>
+      </c>
+      <c r="G3" s="108" t="s">
         <v>589</v>
       </c>
-      <c r="C3" s="46" t="s">
-        <v>590</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>590</v>
-      </c>
-      <c r="E3" s="46" t="s">
-        <v>590</v>
-      </c>
-      <c r="G3" s="102" t="s">
-        <v>591</v>
-      </c>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="28">
         <v>3</v>
       </c>
       <c r="B4" s="70" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C4" s="71" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D4" s="71" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E4" s="71" t="s">
-        <v>543</v>
-      </c>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
+        <v>541</v>
+      </c>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="28">
         <v>4</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D5" s="71" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E5" s="70" t="s">
-        <v>589</v>
-      </c>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
+        <v>587</v>
+      </c>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="28">
         <v>5</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C6" s="71" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D6" s="70" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>590</v>
-      </c>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
+        <v>588</v>
+      </c>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>6</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E7" s="71" t="s">
-        <v>543</v>
-      </c>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
+        <v>541</v>
+      </c>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>7</v>
       </c>
       <c r="B8" s="71" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C8" s="71" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E8" s="70" t="s">
-        <v>589</v>
-      </c>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
+        <v>587</v>
+      </c>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>8</v>
       </c>
       <c r="B9" s="71" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C9" s="70" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D9" s="71" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E9" s="46" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -14904,16 +15496,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="71" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D10" s="70" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E10" s="71" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -14942,1438 +15534,1438 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="72" t="s">
+        <v>525</v>
+      </c>
+      <c r="B1" s="73" t="s">
+        <v>526</v>
+      </c>
+      <c r="C1" s="73" t="s">
         <v>527</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="D1" s="73" t="s">
         <v>528</v>
-      </c>
-      <c r="C1" s="73" t="s">
-        <v>529</v>
-      </c>
-      <c r="D1" s="73" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
-        <v>533</v>
-      </c>
-      <c r="B4" s="104" t="s">
-        <v>553</v>
-      </c>
-      <c r="C4" s="104" t="s">
-        <v>594</v>
-      </c>
-      <c r="D4" s="104" t="s">
-        <v>565</v>
+      <c r="A4" s="83" t="s">
+        <v>531</v>
+      </c>
+      <c r="B4" s="83" t="s">
+        <v>551</v>
+      </c>
+      <c r="C4" s="83" t="s">
+        <v>592</v>
+      </c>
+      <c r="D4" s="83" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="64" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="64" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="I6" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="64" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="64" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="64" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="66" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="66" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="46" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="46" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="67" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="67" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="67" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="67" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="46" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="46" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B21" s="64" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B22" s="64" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B23" s="65" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B24" s="64" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B25" s="64" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B26" s="64" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B27" s="64" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A28" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B28" s="66" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B29" s="66" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B33" s="67" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B34" s="67" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B35" s="67" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B36" s="67" t="s">
+        <v>561</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="D36" s="28" t="s">
         <v>563</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>594</v>
-      </c>
-      <c r="D36" s="28" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B37" s="67" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B38" s="67" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B39" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C39" s="78" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B40" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C40" s="78" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B41" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C41" s="78" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B42" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C42" s="78" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B43" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C43" s="78" t="s">
+        <v>597</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="64" t="s">
+        <v>531</v>
+      </c>
+      <c r="B44" s="64" t="s">
+        <v>551</v>
+      </c>
+      <c r="C44" s="78" t="s">
         <v>599</v>
       </c>
-      <c r="D43" s="28" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="64" t="s">
-        <v>533</v>
-      </c>
-      <c r="B44" s="64" t="s">
-        <v>553</v>
-      </c>
-      <c r="C44" s="78" t="s">
-        <v>601</v>
-      </c>
       <c r="D44" s="28" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B45" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C45" s="78" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B46" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C46" s="78"/>
       <c r="D46" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B47" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C47" s="78" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B48" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C48" s="81" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B49" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C49" s="81" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B50" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C50" s="81" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B51" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C51" s="81" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B52" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C52" s="81" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B53" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C53" s="81" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B54" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C54" s="81" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B55" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C55" s="81" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B56" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C56" s="81" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="64"/>
       <c r="B57" s="64"/>
       <c r="C57" s="81" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D57" s="28"/>
     </row>
     <row r="58" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B58" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C58" s="81" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A59" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B59" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C59" s="78" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A60" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B60" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C60" s="78" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B61" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C61" s="63" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B62" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C62" s="77" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B63" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C63" s="79" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B64" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C64" s="63" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B65" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C65" s="63" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B66" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C66" s="63" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B67" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C67" s="67" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B68" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C68" s="67" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B69" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C69" s="77" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B70" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C70" s="77" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B71" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C71" s="77" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B72" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C72" s="80" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B73" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C73" s="80" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B74" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C74" s="80" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B75" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C75" s="77" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="64"/>
       <c r="B76" s="64"/>
       <c r="C76" s="80" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D76" s="28"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B77" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C77" s="80" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B78" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C78" s="80" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B79" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C79" s="80" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D79" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B80" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C80" s="80" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B81" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C81" s="80" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B82" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C82" s="80" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B83" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C83" s="80" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D83" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B84" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C84" s="80" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D84" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="64"/>
       <c r="B85" s="64"/>
       <c r="C85" s="80" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D85" s="28"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B86" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C86" s="80" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D86" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B87" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C87" s="80" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B88" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C88" s="80" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B89" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C89" s="80" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B90" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C90" s="80" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B91" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C91" s="80" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B92" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C92" s="63" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D92" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B93" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C93" s="63" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A94" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B94" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C94" s="77" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D94" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B95" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C95" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D95" s="81" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B96" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C96" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D96" s="81" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B97" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C97" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D97" s="81" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B98" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D98" s="81" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B99" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C99" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D99" s="82" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B100" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C100" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D100" s="80" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B101" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D101" s="80" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B102" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D102" s="63" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B103" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C103" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D103" s="63" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B104" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C104" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D104" s="63">
         <v>12345678</v>
@@ -16381,156 +16973,156 @@
     </row>
     <row r="105" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B105" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C105" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D105" s="67" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B106" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C106" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D106" s="67" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A107" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B107" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C107" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D107" s="67" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B108" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C108" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D108" s="80" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B109" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C109" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D109" s="63" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B110" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C110" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D110" s="80" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B111" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C111" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D111" s="68" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B112" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C112" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D112" s="69" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B113" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C113" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D113" s="80" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B114" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C114" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D114" s="80" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B115" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C115" s="28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D115" s="63" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
   </sheetData>
